--- a/試験/Oracle/1Z0-082/Oracle_database Sliver.xlsx
+++ b/試験/Oracle/1Z0-082/Oracle_database Sliver.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\試験\Oracle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\試験\Oracle\1Z0-082\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11993BB5-F1F3-477A-A9B9-515642C505BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C722E8C-3815-4BF9-8CA6-F1E739761E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4812" yWindow="3336" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-15" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="1061">
   <si>
     <t>Bigfile tablespace</t>
     <phoneticPr fontId="1"/>
@@ -8991,6 +8991,1604 @@
   </si>
   <si>
     <t>27-10-98</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segment types</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段类型</t>
+  </si>
+  <si>
+    <t>表段 (table segment)</t>
+  </si>
+  <si>
+    <t>存储表中的行数据</t>
+  </si>
+  <si>
+    <t>索引段 (index segment)</t>
+  </si>
+  <si>
+    <t>存储索引结构</t>
+  </si>
+  <si>
+    <t>集群段 (cluster segment)</t>
+  </si>
+  <si>
+    <t>存储集群表数据</t>
+  </si>
+  <si>
+    <t>段（segment）是逻辑存储结构的核心单位，每种段都由一个或多个区（extent）组成，用于存放特定类型的数据。以下是常见的段类型：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/cd/E16338_01/server.112/b56311/statviews_4267.htm</t>
+  </si>
+  <si>
+    <t>セグメントのタイプ:</t>
+  </si>
+  <si>
+    <t>NESTED TABLE</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>TABLE PARTITION</t>
+  </si>
+  <si>
+    <t>CLUSTER</t>
+  </si>
+  <si>
+    <t>LOBINDEX</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>INDEX PARTITION</t>
+  </si>
+  <si>
+    <t>LOBSEGMENT</t>
+  </si>
+  <si>
+    <t>TABLE SUBPARTITION</t>
+  </si>
+  <si>
+    <t>INDEX SUBPARTITION</t>
+  </si>
+  <si>
+    <t>LOB PARTITION</t>
+  </si>
+  <si>
+    <t>LOB SUBPARTITION</t>
+  </si>
+  <si>
+    <t>DEFERRED ROLLBACK</t>
+  </si>
+  <si>
+    <t>TEMPORARY</t>
+  </si>
+  <si>
+    <t>CACHE</t>
+  </si>
+  <si>
+    <t>SPACE HEADER</t>
+  </si>
+  <si>
+    <t>UNDEFINED</t>
+  </si>
+  <si>
+    <t>TYPE2 UNDO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ROLLBACK</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(※UNDO）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Undo 是一种 segment但它存在于 V$ROLLNAME、V$ROLLSTAT、DBA_UNDO_EXTENTS 等视图中，而不会出现在 DBA_SEGMENTS</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Single-Row Functions（单行函数）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的分类整理表</t>
+    </r>
+  </si>
+  <si>
+    <t>ABS(n)</t>
+  </si>
+  <si>
+    <t>返回 n 的绝对值</t>
+  </si>
+  <si>
+    <t>ABS(-3) → 3</t>
+  </si>
+  <si>
+    <t>CEIL(n)</t>
+  </si>
+  <si>
+    <t>返回大于或等于 n 的最小整数（适用于正负数）</t>
+  </si>
+  <si>
+    <t>CEIL(3.2) → 4</t>
+  </si>
+  <si>
+    <t>FLOOR(n)</t>
+  </si>
+  <si>
+    <t>返回小于或等于 n 的最大整数</t>
+  </si>
+  <si>
+    <t>FLOOR(3.7) → 3</t>
+  </si>
+  <si>
+    <t>MOD(m,n)</t>
+  </si>
+  <si>
+    <t>返回 m 除以 n 的余数</t>
+  </si>
+  <si>
+    <t>MOD(10, 3) → 1</t>
+  </si>
+  <si>
+    <t>ROUND(n, d)</t>
+  </si>
+  <si>
+    <t>四舍五入到第 d 位小数（d 可为负）</t>
+  </si>
+  <si>
+    <t>ROUND(123.456, 2) → 123.46</t>
+  </si>
+  <si>
+    <t>TRUNC(123.456, 2) → 123.45</t>
+  </si>
+  <si>
+    <t>POWER(x,y)</t>
+  </si>
+  <si>
+    <t>计算 x 的 y 次幂</t>
+  </si>
+  <si>
+    <t>POWER(2,3) → 8</t>
+  </si>
+  <si>
+    <t>SQRT(n)</t>
+  </si>
+  <si>
+    <t>开平方</t>
+  </si>
+  <si>
+    <t>SQRT(9) → 3</t>
+  </si>
+  <si>
+    <t>LOWER(str)</t>
+  </si>
+  <si>
+    <t>转小写</t>
+  </si>
+  <si>
+    <t>LOWER('ABC') → 'abc'</t>
+  </si>
+  <si>
+    <t>UPPER(str)</t>
+  </si>
+  <si>
+    <t>转大写</t>
+  </si>
+  <si>
+    <t>UPPER('abc') → 'ABC'</t>
+  </si>
+  <si>
+    <t>首字母大写</t>
+  </si>
+  <si>
+    <t>INITCAP('hello world') → 'Hello World'</t>
+  </si>
+  <si>
+    <t>CONCAT(s1,s2)</t>
+  </si>
+  <si>
+    <t>CONCAT('A','B') → 'AB'</t>
+  </si>
+  <si>
+    <t>SUBSTR(str, start, length)</t>
+  </si>
+  <si>
+    <t>截取字符串</t>
+  </si>
+  <si>
+    <t>SUBSTR('Oracle', 2, 3) → 'rac'</t>
+  </si>
+  <si>
+    <t>LENGTH(str)</t>
+  </si>
+  <si>
+    <t>返回字符串长度</t>
+  </si>
+  <si>
+    <t>LENGTH('Oracle') → 6</t>
+  </si>
+  <si>
+    <t>INSTR(str, substr)</t>
+  </si>
+  <si>
+    <t>返回子串首次出现的位置</t>
+  </si>
+  <si>
+    <t>INSTR('Oracle','a') → 4</t>
+  </si>
+  <si>
+    <t>TRIM(char FROM str)</t>
+  </si>
+  <si>
+    <t>去除指定字符</t>
+  </si>
+  <si>
+    <t>TRIM('O' FROM 'Oracle') → 'racle'</t>
+  </si>
+  <si>
+    <t>REPLACE(str, old, new)</t>
+  </si>
+  <si>
+    <t>替换子串</t>
+  </si>
+  <si>
+    <t>REPLACE('abc','b','x') → 'axc'</t>
+  </si>
+  <si>
+    <t>当前系统日期时间</t>
+  </si>
+  <si>
+    <t>当前用户会话时区的日期时间</t>
+  </si>
+  <si>
+    <t>ADD_MONTHS(date, n)</t>
+  </si>
+  <si>
+    <t>日期加/减月份</t>
+  </si>
+  <si>
+    <t>ADD_MONTHS(SYSDATE, 2)</t>
+  </si>
+  <si>
+    <t>MONTHS_BETWEEN(d1, d2)</t>
+  </si>
+  <si>
+    <t>两日期之间月数（d1 - d2）</t>
+  </si>
+  <si>
+    <t>MONTHS_BETWEEN('01-FEB-22','01-JAN-22') → 1</t>
+  </si>
+  <si>
+    <t>NEXT_DAY(date, 'DAY')</t>
+  </si>
+  <si>
+    <t>返回下一个指定星期几的日期</t>
+  </si>
+  <si>
+    <t>NEXT_DAY(SYSDATE, 'FRIDAY')</t>
+  </si>
+  <si>
+    <t>LAST_DAY(date)</t>
+  </si>
+  <si>
+    <t>返回该月最后一天</t>
+  </si>
+  <si>
+    <t>LAST_DAY(SYSDATE)</t>
+  </si>
+  <si>
+    <t>ROUND(date, fmt)</t>
+  </si>
+  <si>
+    <t>根据 fmt 规则四舍五入日期</t>
+  </si>
+  <si>
+    <t>ROUND(SYSDATE, 'MONTH')</t>
+  </si>
+  <si>
+    <t>TRUNC(date, fmt)</t>
+  </si>
+  <si>
+    <t>截断日期至指定单位（如 'YEAR', 'MONTH', 'DAY'）</t>
+  </si>
+  <si>
+    <t>TRUNC(SYSDATE, 'MONTH')</t>
+  </si>
+  <si>
+    <t>TO_CHAR(expr, fmt)</t>
+  </si>
+  <si>
+    <t>将日期/数值转为字符串</t>
+  </si>
+  <si>
+    <t>TO_CHAR(SYSDATE, 'YYYY-MM-DD')</t>
+  </si>
+  <si>
+    <t>TO_DATE(str, fmt)</t>
+  </si>
+  <si>
+    <t>将字符串转为日期</t>
+  </si>
+  <si>
+    <t>TO_DATE('2025-05-05','YYYY-MM-DD')</t>
+  </si>
+  <si>
+    <t>TO_NUMBER(str)</t>
+  </si>
+  <si>
+    <t>将字符串转为数字</t>
+  </si>
+  <si>
+    <t>TO_NUMBER('1234')</t>
+  </si>
+  <si>
+    <t>CAST(expr AS type)</t>
+  </si>
+  <si>
+    <t>显式转换类型</t>
+  </si>
+  <si>
+    <t>CAST(123 AS VARCHAR2(10))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUNC(n, d) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>截断到第 d 位小数（不四舍五入）或者日期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> TRUNC(SYSDATE, 'MM')</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2025-05-01 00:00:00 -- 截断到该月的第一天</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>接两个字符串（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>只能两个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INITCAP(str)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resumable session</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resumable Session 是 Oracle 的一种机制，用于在发生空间相关错误时挂起会话而不是立即失败，允许 DBA 介入解决问题后恢复操作。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resumable 机制工作流程</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会话执行 DML/DDL 操作（如 INSERT/CREATE TABLE）</t>
+  </si>
+  <si>
+    <t>遇到空间类错误 → 会话挂起（不会立即失败）</t>
+  </si>
+  <si>
+    <t>DBA 可以介入修复：</t>
+  </si>
+  <si>
+    <t>扩展表空间或数据文件</t>
+  </si>
+  <si>
+    <t>提高用户 quota</t>
+  </si>
+  <si>
+    <t>删除无用对象等</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果在 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>RESUMABLE_TIMEOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 秒内解决 → 会话继续执行</t>
+    </r>
+  </si>
+  <si>
+    <t>超时未解决 → 抛出原始错误，语句失败</t>
+  </si>
+  <si>
+    <t>DEFERRED_SEGMENT_CREATION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEFERRED_SEGMENT_CREATION 是 Oracle 数据库的一个初始化参数，中文可以理解为「延迟段创建」。</t>
+  </si>
+  <si>
+    <t>Quota</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quota（配额）是 DBA 为用户在某个表空间中规定的最大可用空间限制。</t>
+  </si>
+  <si>
+    <r>
+      <t>它控制的是：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“这个用户在这个表空间中最多能使用多少空间”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>延</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>迟</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>段</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仅</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>影响表在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无数据插入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否分配段空</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，和 quota </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报错</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无关</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRANT UNLIMITED TABLESPACE TO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是一种系统权限，它允许用户 在所有表空间中使用“无限空间”（除非特定表空间被显式禁止）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>控制对象</t>
+  </si>
+  <si>
+    <t>默认效果</t>
+  </si>
+  <si>
+    <t>QUOTA</t>
+  </si>
+  <si>
+    <t>每个用户在每个表空间</t>
+  </si>
+  <si>
+    <t>限制最大空间使用量</t>
+  </si>
+  <si>
+    <r>
+      <t>UNLIMITED TABLESPACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 权限</t>
+    </r>
+  </si>
+  <si>
+    <t>系统级别权限</t>
+  </si>
+  <si>
+    <r>
+      <t>表示用户在所有表空间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无配额限制</t>
+    </r>
+  </si>
+  <si>
+    <t>Dictionary Base Tables</t>
+  </si>
+  <si>
+    <r>
+      <t>是 Oracle 数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内部维护的物理表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，记录了数据库对象（如表、用户、索引、权限等）的元数据。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>示例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>OBJ$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>TAB$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>USER$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SEG$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>TS$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 等。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">位置：存储在 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SYSTEM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 表空间中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">归属用户为 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SYS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>不是为普通用户设计的，通常</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不直接查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，除非是以 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SYS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 身份。</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Dictionary Views（数据字典视图）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">是 Oracle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为用户访问数据字典信息提供的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，是对 base tables 的封装</t>
+    </r>
+  </si>
+  <si>
+    <t>由 Oracle 自动创建，用户通过这些视图查询数据库结构信息。</t>
+  </si>
+  <si>
+    <t>按前缀分为：</t>
+  </si>
+  <si>
+    <r>
+      <t>USER_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：当前用户拥有的对象</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALL_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：当前用户可访问的所有对象（包括授权访问）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DBA_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：数据库中所有对象（需 DBA 权限）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CDB_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：多租户容器数据库下的信息（Container Database）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data Dictionary 是 Oracle 数据库自动维护的一组表和视图，用于存储数据库对象的元数据（Metadata）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>data dictionary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特征</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>✅ 自动创建</t>
+  </si>
+  <si>
+    <t>Oracle 安装时自动生成</t>
+  </si>
+  <si>
+    <t>✅ 自动维护</t>
+  </si>
+  <si>
+    <t>插入新用户/创建表后，字典自动更新</t>
+  </si>
+  <si>
+    <t>✅ 可查询</t>
+  </si>
+  <si>
+    <r>
+      <t>通过视图访问（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DBA_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>USER_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 属于 SYS 用户</t>
+  </si>
+  <si>
+    <t>物理表都由 SYS 拥有，不可随意更改</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CDB_ / DBA_ / ALL_ / USER_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>些前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，都引用同一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表（base tables），只是权限和可见性不同</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SYS用户可以查询</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@orcl</t>
+  </si>
+  <si>
+    <r>
+      <t>orcl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网络服务名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（Net Service Name）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名称必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>某个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>接描述符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（Connect Descriptor</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在 Oracle 网络架构中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name Server（名称服务器）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是用来</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集中管理数据库连接信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的服务。它的主要作用是：</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">将网络服务名（如：orcl）解析为实际的连接描述符，就像 DNS 把网址解析成 IP 地址一样。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>LDAP</t>
+  </si>
+  <si>
+    <t>Lightweight Directory Access Protocol</t>
+  </si>
+  <si>
+    <t>一种协议，用于访问名称服务器</t>
+  </si>
+  <si>
+    <t>OID</t>
+  </si>
+  <si>
+    <t>Oracle Internet Directory</t>
+  </si>
+  <si>
+    <t>Oracle 提供的企业级目录服务，是最常用的 Name Server</t>
+  </si>
+  <si>
+    <t>Active Directory</t>
+  </si>
+  <si>
+    <t>微软的目录服务</t>
+  </si>
+  <si>
+    <t>也可以作为名称服务被 Oracle 使用</t>
+  </si>
+  <si>
+    <t>没有 Name Server 的情况（默认）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客户端连接时使用的 @orcl 需要从本地的 tnsnames.ora 文件中解析。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8998,7 +10596,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9300,6 +10898,50 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -9508,7 +11150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -9642,24 +11284,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9796,12 +11423,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -9820,6 +11441,78 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -10475,7 +12168,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>569836</xdr:colOff>
+      <xdr:colOff>489153</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>198231</xdr:rowOff>
     </xdr:to>
@@ -10524,7 +12217,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>676872</xdr:colOff>
+      <xdr:colOff>596189</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>102343</xdr:rowOff>
     </xdr:to>
@@ -10573,7 +12266,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>456685</xdr:colOff>
+      <xdr:colOff>376002</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>201581</xdr:rowOff>
     </xdr:to>
@@ -10622,7 +12315,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>535321</xdr:colOff>
+      <xdr:colOff>454638</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>219817</xdr:rowOff>
     </xdr:to>
@@ -10671,7 +12364,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>503194</xdr:colOff>
+      <xdr:colOff>422511</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>85039</xdr:rowOff>
     </xdr:to>
@@ -10720,7 +12413,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>496433</xdr:colOff>
+      <xdr:colOff>415750</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>27184</xdr:rowOff>
     </xdr:to>
@@ -10769,7 +12462,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>515949</xdr:colOff>
+      <xdr:colOff>435267</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>172027</xdr:rowOff>
     </xdr:to>
@@ -10818,7 +12511,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204104</xdr:colOff>
+      <xdr:colOff>123421</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>17104</xdr:rowOff>
     </xdr:to>
@@ -10866,8 +12559,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>69241</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660911</xdr:colOff>
       <xdr:row>183</xdr:row>
       <xdr:rowOff>53886</xdr:rowOff>
     </xdr:to>
@@ -10915,8 +12608,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>51440</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>643110</xdr:colOff>
       <xdr:row>196</xdr:row>
       <xdr:rowOff>179677</xdr:rowOff>
     </xdr:to>
@@ -10965,7 +12658,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>229917</xdr:colOff>
+      <xdr:colOff>149234</xdr:colOff>
       <xdr:row>208</xdr:row>
       <xdr:rowOff>203181</xdr:rowOff>
     </xdr:to>
@@ -11014,7 +12707,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>436510</xdr:colOff>
+      <xdr:colOff>355827</xdr:colOff>
       <xdr:row>233</xdr:row>
       <xdr:rowOff>220910</xdr:rowOff>
     </xdr:to>
@@ -11063,7 +12756,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>109772</xdr:colOff>
+      <xdr:colOff>109771</xdr:colOff>
       <xdr:row>230</xdr:row>
       <xdr:rowOff>200606</xdr:rowOff>
     </xdr:to>
@@ -11107,14 +12800,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>262513</xdr:colOff>
-      <xdr:row>331</xdr:row>
-      <xdr:rowOff>71687</xdr:rowOff>
+      <xdr:colOff>181830</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>71688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11156,13 +12849,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>338</xdr:row>
+      <xdr:row>373</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>499178</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:colOff>418495</xdr:colOff>
+      <xdr:row>380</xdr:row>
       <xdr:rowOff>111741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11205,13 +12898,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>355</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>84035</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:colOff>3352</xdr:colOff>
+      <xdr:row>399</xdr:row>
       <xdr:rowOff>140946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11254,13 +12947,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>259976</xdr:colOff>
-      <xdr:row>373</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>328826</xdr:colOff>
-      <xdr:row>387</xdr:row>
+      <xdr:colOff>248143</xdr:colOff>
+      <xdr:row>422</xdr:row>
       <xdr:rowOff>183693</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11303,13 +12996,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>425</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6794</xdr:colOff>
-      <xdr:row>398</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598465</xdr:colOff>
+      <xdr:row>433</xdr:row>
       <xdr:rowOff>21555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11352,13 +13045,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>399</xdr:row>
+      <xdr:row>434</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>91039</xdr:colOff>
-      <xdr:row>406</xdr:row>
+      <xdr:colOff>10356</xdr:colOff>
+      <xdr:row>441</xdr:row>
       <xdr:rowOff>178427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11401,13 +13094,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>470</xdr:row>
+      <xdr:row>505</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>384862</xdr:colOff>
-      <xdr:row>476</xdr:row>
+      <xdr:colOff>304179</xdr:colOff>
+      <xdr:row>511</xdr:row>
       <xdr:rowOff>201929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11450,13 +13143,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>477</xdr:row>
+      <xdr:row>512</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>401391</xdr:colOff>
-      <xdr:row>488</xdr:row>
+      <xdr:colOff>320708</xdr:colOff>
+      <xdr:row>523</xdr:row>
       <xdr:rowOff>36782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11499,14 +13192,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>143434</xdr:colOff>
-      <xdr:row>414</xdr:row>
+      <xdr:row>449</xdr:row>
       <xdr:rowOff>215154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>99611</xdr:colOff>
-      <xdr:row>426</xdr:row>
-      <xdr:rowOff>228433</xdr:rowOff>
+      <xdr:colOff>18928</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>228434</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11548,14 +13241,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>428</xdr:row>
+      <xdr:row>463</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>110262</xdr:colOff>
-      <xdr:row>441</xdr:row>
-      <xdr:rowOff>67650</xdr:rowOff>
+      <xdr:colOff>29579</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>67651</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11597,13 +13290,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>444</xdr:row>
+      <xdr:row>479</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>670545</xdr:colOff>
-      <xdr:row>454</xdr:row>
+      <xdr:colOff>589862</xdr:colOff>
+      <xdr:row>489</xdr:row>
       <xdr:rowOff>111827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11646,13 +13339,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>529</xdr:row>
+      <xdr:row>564</xdr:row>
       <xdr:rowOff>53789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>627036</xdr:colOff>
-      <xdr:row>542</xdr:row>
+      <xdr:colOff>546353</xdr:colOff>
+      <xdr:row>577</xdr:row>
       <xdr:rowOff>62618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11695,14 +13388,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>575</xdr:row>
+      <xdr:row>610</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>744117</xdr:colOff>
-      <xdr:row>591</xdr:row>
-      <xdr:rowOff>195530</xdr:rowOff>
+      <xdr:colOff>663434</xdr:colOff>
+      <xdr:row>626</xdr:row>
+      <xdr:rowOff>195531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11744,14 +13437,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>367553</xdr:colOff>
-      <xdr:row>689</xdr:row>
+      <xdr:row>724</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>186672</xdr:colOff>
-      <xdr:row>702</xdr:row>
-      <xdr:rowOff>8828</xdr:rowOff>
+      <xdr:row>737</xdr:row>
+      <xdr:rowOff>8829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11793,14 +13486,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>713</xdr:row>
+      <xdr:row>748</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>254479</xdr:colOff>
-      <xdr:row>720</xdr:row>
-      <xdr:rowOff>102216</xdr:rowOff>
+      <xdr:colOff>173797</xdr:colOff>
+      <xdr:row>755</xdr:row>
+      <xdr:rowOff>102215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11842,13 +13535,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>726</xdr:row>
+      <xdr:row>761</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>237950</xdr:colOff>
-      <xdr:row>733</xdr:row>
+      <xdr:colOff>157267</xdr:colOff>
+      <xdr:row>768</xdr:row>
       <xdr:rowOff>130794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11874,6 +13567,202 @@
         <a:xfrm>
           <a:off x="563880" y="166420800"/>
           <a:ext cx="6760670" cy="1730994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>822</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350209</xdr:colOff>
+      <xdr:row>835</xdr:row>
+      <xdr:rowOff>203266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032843DD-5E50-222D-6136-ED9ADEBE4EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="645458" y="192131577"/>
+          <a:ext cx="8221222" cy="3143689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>821</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>654492</xdr:colOff>
+      <xdr:row>836</xdr:row>
+      <xdr:rowOff>109730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3915C959-AC2F-2092-25A2-931D865686B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9771529" y="192032965"/>
+          <a:ext cx="8516539" cy="3381847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>843</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558645</xdr:colOff>
+      <xdr:row>860</xdr:row>
+      <xdr:rowOff>219659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548C7F77-9451-0CF5-A961-096A2E21DCE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="815788" y="196703576"/>
+          <a:ext cx="8259328" cy="4182059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>893</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>437789</xdr:colOff>
+      <xdr:row>904</xdr:row>
+      <xdr:rowOff>160624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25813D1C-CE4B-7F1B-8CA5-2F62EAF7B8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="815788" y="208590776"/>
+          <a:ext cx="5449060" cy="2724530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12155,8 +14044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H419"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A417" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D428" sqref="D428"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -12571,7 +14460,7 @@
       <c r="G95" s="18"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="D96" s="55" t="s">
+      <c r="D96" s="124" t="s">
         <v>86</v>
       </c>
       <c r="E96" s="33" t="s">
@@ -12583,7 +14472,7 @@
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="D97" s="56"/>
+      <c r="D97" s="125"/>
       <c r="E97" s="13" t="s">
         <v>88</v>
       </c>
@@ -12593,7 +14482,7 @@
       <c r="G97" s="2"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="D98" s="57"/>
+      <c r="D98" s="126"/>
       <c r="E98" s="14" t="s">
         <v>89</v>
       </c>
@@ -12649,7 +14538,7 @@
       <c r="G102" s="12"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="D103" s="55" t="s">
+      <c r="D103" s="124" t="s">
         <v>104</v>
       </c>
       <c r="E103" s="33" t="s">
@@ -12661,7 +14550,7 @@
       <c r="G103" s="2"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="D104" s="56"/>
+      <c r="D104" s="125"/>
       <c r="E104" s="13" t="s">
         <v>106</v>
       </c>
@@ -12671,7 +14560,7 @@
       <c r="G104" s="2"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="D105" s="57"/>
+      <c r="D105" s="126"/>
       <c r="E105" s="14"/>
       <c r="F105" s="11" t="s">
         <v>109</v>
@@ -13548,10 +15437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD963AF5-DC9C-41F9-83A8-50E7EAF602ED}">
-  <dimension ref="A2:Y744"/>
+  <dimension ref="A2:Y916"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A702" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D745" sqref="D745"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A895" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A917" sqref="A917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -13560,6 +15449,7 @@
     <col min="2" max="2" width="3.69921875" customWidth="1"/>
     <col min="3" max="3" width="3.3984375" customWidth="1"/>
     <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="15" max="15" width="10.8984375" customWidth="1"/>
     <col min="22" max="22" width="2.796875" customWidth="1"/>
@@ -13579,7 +15469,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="55" t="s">
         <v>300</v>
       </c>
     </row>
@@ -13594,12 +15484,12 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="56" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="57" t="s">
         <v>304</v>
       </c>
     </row>
@@ -13609,7 +15499,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="57" t="s">
         <v>306</v>
       </c>
     </row>
@@ -13682,7 +15572,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="D50" s="60" t="s">
+      <c r="D50" s="57" t="s">
         <v>320</v>
       </c>
     </row>
@@ -13717,7 +15607,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="57" t="s">
         <v>327</v>
       </c>
     </row>
@@ -13855,13 +15745,13 @@
       <c r="E242" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="F242" s="61" t="s">
+      <c r="F242" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="G242" s="61"/>
-      <c r="H242" s="61"/>
-      <c r="I242" s="61"/>
-      <c r="J242" s="61"/>
+      <c r="G242" s="127"/>
+      <c r="H242" s="127"/>
+      <c r="I242" s="127"/>
+      <c r="J242" s="127"/>
     </row>
     <row r="243" spans="1:19" ht="36">
       <c r="D243" s="38" t="s">
@@ -13870,13 +15760,13 @@
       <c r="E243" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="F243" s="62" t="s">
+      <c r="F243" s="128" t="s">
         <v>356</v>
       </c>
-      <c r="G243" s="62"/>
-      <c r="H243" s="62"/>
-      <c r="I243" s="62"/>
-      <c r="J243" s="62"/>
+      <c r="G243" s="128"/>
+      <c r="H243" s="128"/>
+      <c r="I243" s="128"/>
+      <c r="J243" s="128"/>
     </row>
     <row r="244" spans="1:19" ht="36">
       <c r="D244" s="38" t="s">
@@ -13885,13 +15775,13 @@
       <c r="E244" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="F244" s="62" t="s">
+      <c r="F244" s="128" t="s">
         <v>359</v>
       </c>
-      <c r="G244" s="62"/>
-      <c r="H244" s="62"/>
-      <c r="I244" s="62"/>
-      <c r="J244" s="62"/>
+      <c r="G244" s="128"/>
+      <c r="H244" s="128"/>
+      <c r="I244" s="128"/>
+      <c r="J244" s="128"/>
     </row>
     <row r="245" spans="1:19">
       <c r="D245" s="38" t="s">
@@ -13900,13 +15790,13 @@
       <c r="E245" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="F245" s="62" t="s">
+      <c r="F245" s="128" t="s">
         <v>362</v>
       </c>
-      <c r="G245" s="62"/>
-      <c r="H245" s="62"/>
-      <c r="I245" s="62"/>
-      <c r="J245" s="62"/>
+      <c r="G245" s="128"/>
+      <c r="H245" s="128"/>
+      <c r="I245" s="128"/>
+      <c r="J245" s="128"/>
     </row>
     <row r="246" spans="1:19">
       <c r="D246" s="38" t="s">
@@ -13915,13 +15805,13 @@
       <c r="E246" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="F246" s="62" t="s">
+      <c r="F246" s="128" t="s">
         <v>365</v>
       </c>
-      <c r="G246" s="62"/>
-      <c r="H246" s="62"/>
-      <c r="I246" s="62"/>
-      <c r="J246" s="62"/>
+      <c r="G246" s="128"/>
+      <c r="H246" s="128"/>
+      <c r="I246" s="128"/>
+      <c r="J246" s="128"/>
     </row>
     <row r="247" spans="1:19">
       <c r="B247" s="1" t="s">
@@ -13965,38 +15855,38 @@
       </c>
     </row>
     <row r="255" spans="1:19">
-      <c r="D255" s="63" t="s">
+      <c r="D255" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="E255" s="64"/>
-      <c r="F255" s="64"/>
-      <c r="G255" s="64"/>
-      <c r="H255" s="63" t="s">
+      <c r="E255" s="59"/>
+      <c r="F255" s="59"/>
+      <c r="G255" s="59"/>
+      <c r="H255" s="58" t="s">
         <v>374</v>
       </c>
-      <c r="I255" s="65"/>
-      <c r="J255" s="63" t="s">
+      <c r="I255" s="60"/>
+      <c r="J255" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="K255" s="64"/>
-      <c r="L255" s="64"/>
-      <c r="M255" s="64"/>
-      <c r="N255" s="65"/>
-      <c r="O255" s="66" t="s">
+      <c r="K255" s="59"/>
+      <c r="L255" s="59"/>
+      <c r="M255" s="59"/>
+      <c r="N255" s="60"/>
+      <c r="O255" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="P255" s="64"/>
-      <c r="Q255" s="64"/>
-      <c r="R255" s="64"/>
-      <c r="S255" s="65"/>
+      <c r="P255" s="59"/>
+      <c r="Q255" s="59"/>
+      <c r="R255" s="59"/>
+      <c r="S255" s="60"/>
     </row>
     <row r="256" spans="1:19">
-      <c r="D256" s="67" t="s">
+      <c r="D256" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="E256" s="68"/>
-      <c r="F256" s="68"/>
-      <c r="G256" s="68"/>
+      <c r="E256" s="63"/>
+      <c r="F256" s="63"/>
+      <c r="G256" s="63"/>
       <c r="H256" s="32" t="s">
         <v>378</v>
       </c>
@@ -14004,20 +15894,20 @@
       <c r="J256" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="K256" s="68"/>
-      <c r="L256" s="68"/>
-      <c r="M256" s="68"/>
+      <c r="K256" s="63"/>
+      <c r="L256" s="63"/>
+      <c r="M256" s="63"/>
       <c r="N256" s="6"/>
-      <c r="O256" s="69" t="s">
+      <c r="O256" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="P256" s="68"/>
-      <c r="Q256" s="68"/>
-      <c r="R256" s="68"/>
+      <c r="P256" s="63"/>
+      <c r="Q256" s="63"/>
+      <c r="R256" s="63"/>
       <c r="S256" s="6"/>
     </row>
     <row r="257" spans="1:19">
-      <c r="D257" s="70" t="s">
+      <c r="D257" s="65" t="s">
         <v>381</v>
       </c>
       <c r="H257" s="9" t="s">
@@ -14034,7 +15924,7 @@
       <c r="S257" s="2"/>
     </row>
     <row r="258" spans="1:19">
-      <c r="D258" s="70" t="s">
+      <c r="D258" s="65" t="s">
         <v>385</v>
       </c>
       <c r="H258" s="9" t="s">
@@ -14051,7 +15941,7 @@
       <c r="S258" s="2"/>
     </row>
     <row r="259" spans="1:19">
-      <c r="D259" s="70" t="s">
+      <c r="D259" s="65" t="s">
         <v>389</v>
       </c>
       <c r="H259" s="9" t="s">
@@ -14068,7 +15958,7 @@
       <c r="S259" s="2"/>
     </row>
     <row r="260" spans="1:19">
-      <c r="D260" s="70" t="s">
+      <c r="D260" s="65" t="s">
         <v>392</v>
       </c>
       <c r="H260" s="9" t="s">
@@ -14085,7 +15975,7 @@
       <c r="S260" s="2"/>
     </row>
     <row r="261" spans="1:19">
-      <c r="D261" s="70" t="s">
+      <c r="D261" s="65" t="s">
         <v>395</v>
       </c>
       <c r="H261" s="9" t="s">
@@ -14102,12 +15992,12 @@
       <c r="S261" s="2"/>
     </row>
     <row r="262" spans="1:19">
-      <c r="D262" s="71" t="s">
+      <c r="D262" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="E262" s="72"/>
-      <c r="F262" s="72"/>
-      <c r="G262" s="72"/>
+      <c r="E262" s="67"/>
+      <c r="F262" s="67"/>
+      <c r="G262" s="67"/>
       <c r="H262" s="10" t="s">
         <v>399</v>
       </c>
@@ -14115,40 +16005,40 @@
       <c r="J262" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="K262" s="72"/>
-      <c r="L262" s="72"/>
-      <c r="M262" s="72"/>
+      <c r="K262" s="67"/>
+      <c r="L262" s="67"/>
+      <c r="M262" s="67"/>
       <c r="N262" s="12"/>
       <c r="O262" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="P262" s="72"/>
-      <c r="Q262" s="72"/>
-      <c r="R262" s="72"/>
+      <c r="P262" s="67"/>
+      <c r="Q262" s="67"/>
+      <c r="R262" s="67"/>
       <c r="S262" s="12"/>
     </row>
     <row r="263" spans="1:19">
       <c r="D263" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="E263" s="73"/>
-      <c r="F263" s="73"/>
-      <c r="G263" s="73"/>
+      <c r="E263" s="68"/>
+      <c r="F263" s="68"/>
+      <c r="G263" s="68"/>
       <c r="H263" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="I263" s="73"/>
-      <c r="J263" s="74" t="s">
+      <c r="I263" s="68"/>
+      <c r="J263" s="69" t="s">
         <v>403</v>
       </c>
-      <c r="K263" s="73"/>
-      <c r="L263" s="73"/>
-      <c r="M263" s="73"/>
+      <c r="K263" s="68"/>
+      <c r="L263" s="68"/>
+      <c r="M263" s="68"/>
       <c r="N263" s="18"/>
-      <c r="O263" s="75"/>
-      <c r="P263" s="73"/>
-      <c r="Q263" s="73"/>
-      <c r="R263" s="73"/>
+      <c r="O263" s="70"/>
+      <c r="P263" s="68"/>
+      <c r="Q263" s="68"/>
+      <c r="R263" s="68"/>
       <c r="S263" s="18"/>
     </row>
     <row r="264" spans="1:19">
@@ -14195,3121 +16085,4241 @@
         <v>411</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="3:11">
       <c r="D273" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="E273" s="76"/>
-      <c r="F273" s="76"/>
-      <c r="G273" s="76"/>
-    </row>
-    <row r="274" spans="1:17">
-      <c r="D274" s="76" t="s">
+      <c r="E273" s="71"/>
+      <c r="F273" s="71"/>
+      <c r="G273" s="71"/>
+    </row>
+    <row r="274" spans="3:11">
+      <c r="D274" s="71" t="s">
         <v>413</v>
       </c>
-      <c r="E274" s="76"/>
-      <c r="F274" s="76"/>
-      <c r="G274" s="76"/>
-    </row>
-    <row r="275" spans="1:17">
-      <c r="D275" s="76" t="s">
+      <c r="E274" s="71"/>
+      <c r="F274" s="71"/>
+      <c r="G274" s="71"/>
+    </row>
+    <row r="275" spans="3:11">
+      <c r="D275" s="71" t="s">
         <v>414</v>
       </c>
-      <c r="E275" s="76"/>
-      <c r="F275" s="76"/>
-      <c r="G275" s="76"/>
-    </row>
-    <row r="276" spans="1:17">
-      <c r="D276" s="76" t="s">
+      <c r="E275" s="71"/>
+      <c r="F275" s="71"/>
+      <c r="G275" s="71"/>
+    </row>
+    <row r="276" spans="3:11">
+      <c r="D276" s="71" t="s">
         <v>415</v>
       </c>
-      <c r="E276" s="76"/>
-      <c r="F276" s="76"/>
-      <c r="G276" s="76"/>
-    </row>
-    <row r="277" spans="1:17">
+      <c r="E276" s="71"/>
+      <c r="F276" s="71"/>
+      <c r="G276" s="71"/>
+    </row>
+    <row r="277" spans="3:11">
       <c r="C277" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
-      <c r="D278" s="76" t="s">
+    <row r="278" spans="3:11">
+      <c r="D278" s="71" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="3:11">
       <c r="C279" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="3:11">
       <c r="D280" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="3:11">
       <c r="C281" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
-      <c r="A283" s="2">
+    <row r="283" spans="3:11">
+      <c r="C283" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="284" spans="3:11">
+      <c r="D284" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="F284" s="131" t="s">
+        <v>281</v>
+      </c>
+      <c r="K284" s="131" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="285" spans="3:11">
+      <c r="D285" s="138" t="s">
+        <v>904</v>
+      </c>
+      <c r="F285" s="121" t="s">
+        <v>905</v>
+      </c>
+      <c r="K285" s="138" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="286" spans="3:11">
+      <c r="D286" s="147" t="s">
+        <v>907</v>
+      </c>
+      <c r="F286" s="121" t="s">
+        <v>908</v>
+      </c>
+      <c r="K286" s="138" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="287" spans="3:11">
+      <c r="D287" s="147" t="s">
+        <v>910</v>
+      </c>
+      <c r="F287" s="121" t="s">
+        <v>911</v>
+      </c>
+      <c r="K287" s="138" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="288" spans="3:11">
+      <c r="D288" s="147" t="s">
+        <v>913</v>
+      </c>
+      <c r="F288" s="121" t="s">
+        <v>914</v>
+      </c>
+      <c r="K288" s="138" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="289" spans="4:14">
+      <c r="D289" s="138" t="s">
+        <v>916</v>
+      </c>
+      <c r="F289" s="121" t="s">
+        <v>917</v>
+      </c>
+      <c r="K289" s="138" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="290" spans="4:14">
+      <c r="D290" s="141" t="s">
+        <v>983</v>
+      </c>
+      <c r="E290" s="142"/>
+      <c r="F290" s="143" t="s">
+        <v>984</v>
+      </c>
+      <c r="G290" s="142"/>
+      <c r="H290" s="142"/>
+      <c r="I290" s="142"/>
+      <c r="J290" s="142"/>
+      <c r="K290" s="141" t="s">
+        <v>919</v>
+      </c>
+      <c r="L290" s="142"/>
+      <c r="M290" s="142"/>
+      <c r="N290" s="142" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="291" spans="4:14">
+      <c r="D291" s="138" t="s">
+        <v>920</v>
+      </c>
+      <c r="F291" s="121" t="s">
+        <v>921</v>
+      </c>
+      <c r="K291" s="138" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="292" spans="4:14">
+      <c r="D292" s="138" t="s">
+        <v>923</v>
+      </c>
+      <c r="F292" s="121" t="s">
+        <v>924</v>
+      </c>
+      <c r="K292" s="138" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="293" spans="4:14">
+      <c r="D293" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="E293" s="139"/>
+      <c r="F293" s="131" t="s">
+        <v>281</v>
+      </c>
+      <c r="G293" s="139"/>
+      <c r="H293" s="139"/>
+      <c r="I293" s="139"/>
+      <c r="J293" s="139"/>
+      <c r="K293" s="131" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="294" spans="4:14">
+      <c r="D294" s="138" t="s">
+        <v>926</v>
+      </c>
+      <c r="E294" s="139"/>
+      <c r="F294" s="121" t="s">
+        <v>927</v>
+      </c>
+      <c r="G294" s="139"/>
+      <c r="H294" s="139"/>
+      <c r="I294" s="139"/>
+      <c r="J294" s="139"/>
+      <c r="K294" s="138" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="295" spans="4:14">
+      <c r="D295" s="138" t="s">
+        <v>929</v>
+      </c>
+      <c r="E295" s="139"/>
+      <c r="F295" s="121" t="s">
+        <v>930</v>
+      </c>
+      <c r="G295" s="139"/>
+      <c r="H295" s="139"/>
+      <c r="I295" s="139"/>
+      <c r="J295" s="139"/>
+      <c r="K295" s="138" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="296" spans="4:14">
+      <c r="D296" s="138" t="s">
+        <v>987</v>
+      </c>
+      <c r="E296" s="139"/>
+      <c r="F296" s="121" t="s">
+        <v>932</v>
+      </c>
+      <c r="G296" s="139"/>
+      <c r="H296" s="139"/>
+      <c r="I296" s="139"/>
+      <c r="J296" s="139"/>
+      <c r="K296" s="138" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="297" spans="4:14">
+      <c r="D297" s="147" t="s">
+        <v>934</v>
+      </c>
+      <c r="E297" s="144"/>
+      <c r="F297" s="145" t="s">
+        <v>986</v>
+      </c>
+      <c r="G297" s="144"/>
+      <c r="H297" s="144"/>
+      <c r="I297" s="144"/>
+      <c r="J297" s="144"/>
+      <c r="K297" s="140" t="s">
+        <v>935</v>
+      </c>
+      <c r="L297" s="43"/>
+      <c r="M297" s="43"/>
+    </row>
+    <row r="298" spans="4:14">
+      <c r="D298" s="138" t="s">
+        <v>936</v>
+      </c>
+      <c r="E298" s="139"/>
+      <c r="F298" s="121" t="s">
+        <v>937</v>
+      </c>
+      <c r="G298" s="139"/>
+      <c r="H298" s="139"/>
+      <c r="I298" s="139"/>
+      <c r="J298" s="139"/>
+      <c r="K298" s="138" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="299" spans="4:14">
+      <c r="D299" s="138" t="s">
+        <v>939</v>
+      </c>
+      <c r="E299" s="139"/>
+      <c r="F299" s="121" t="s">
+        <v>940</v>
+      </c>
+      <c r="G299" s="139"/>
+      <c r="H299" s="139"/>
+      <c r="I299" s="139"/>
+      <c r="J299" s="139"/>
+      <c r="K299" s="138" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="300" spans="4:14">
+      <c r="D300" s="138" t="s">
+        <v>942</v>
+      </c>
+      <c r="E300" s="139"/>
+      <c r="F300" s="121" t="s">
+        <v>943</v>
+      </c>
+      <c r="G300" s="139"/>
+      <c r="H300" s="139"/>
+      <c r="I300" s="139"/>
+      <c r="J300" s="139"/>
+      <c r="K300" s="138" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="301" spans="4:14">
+      <c r="D301" s="138" t="s">
+        <v>945</v>
+      </c>
+      <c r="E301" s="139"/>
+      <c r="F301" s="121" t="s">
+        <v>946</v>
+      </c>
+      <c r="G301" s="139"/>
+      <c r="H301" s="139"/>
+      <c r="I301" s="139"/>
+      <c r="J301" s="139"/>
+      <c r="K301" s="138" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="302" spans="4:14">
+      <c r="D302" s="138" t="s">
+        <v>948</v>
+      </c>
+      <c r="E302" s="139"/>
+      <c r="F302" s="121" t="s">
+        <v>949</v>
+      </c>
+      <c r="G302" s="139"/>
+      <c r="H302" s="139"/>
+      <c r="I302" s="139"/>
+      <c r="J302" s="139"/>
+      <c r="K302" s="138" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="303" spans="4:14">
+      <c r="D303" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="E303" s="139"/>
+      <c r="F303" s="131" t="s">
+        <v>281</v>
+      </c>
+      <c r="G303" s="139"/>
+      <c r="H303" s="139"/>
+      <c r="I303" s="139"/>
+      <c r="J303" s="139"/>
+      <c r="K303" s="131" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="304" spans="4:14">
+      <c r="D304" s="138" t="s">
+        <v>57</v>
+      </c>
+      <c r="E304" s="139"/>
+      <c r="F304" s="121" t="s">
+        <v>951</v>
+      </c>
+      <c r="G304" s="139"/>
+      <c r="H304" s="139"/>
+      <c r="I304" s="139"/>
+      <c r="J304" s="139"/>
+      <c r="K304" s="138" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17">
+      <c r="D305" s="138" t="s">
+        <v>59</v>
+      </c>
+      <c r="E305" s="139"/>
+      <c r="F305" s="121" t="s">
+        <v>952</v>
+      </c>
+      <c r="G305" s="139"/>
+      <c r="H305" s="139"/>
+      <c r="I305" s="139"/>
+      <c r="J305" s="139"/>
+      <c r="K305" s="138" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17">
+      <c r="D306" s="141" t="s">
+        <v>953</v>
+      </c>
+      <c r="E306" s="146"/>
+      <c r="F306" s="121" t="s">
+        <v>954</v>
+      </c>
+      <c r="G306" s="139"/>
+      <c r="H306" s="139"/>
+      <c r="I306" s="139"/>
+      <c r="J306" s="139"/>
+      <c r="K306" s="138" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17">
+      <c r="D307" s="138" t="s">
+        <v>956</v>
+      </c>
+      <c r="E307" s="139"/>
+      <c r="F307" s="121" t="s">
+        <v>957</v>
+      </c>
+      <c r="G307" s="139"/>
+      <c r="H307" s="139"/>
+      <c r="I307" s="139"/>
+      <c r="J307" s="139"/>
+      <c r="K307" s="138" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17">
+      <c r="D308" s="147" t="s">
+        <v>959</v>
+      </c>
+      <c r="E308" s="139"/>
+      <c r="F308" s="121" t="s">
+        <v>960</v>
+      </c>
+      <c r="G308" s="139"/>
+      <c r="H308" s="139"/>
+      <c r="I308" s="139"/>
+      <c r="J308" s="139"/>
+      <c r="K308" s="138" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17">
+      <c r="D309" s="138" t="s">
+        <v>962</v>
+      </c>
+      <c r="E309" s="139"/>
+      <c r="F309" s="121" t="s">
+        <v>963</v>
+      </c>
+      <c r="G309" s="139"/>
+      <c r="H309" s="139"/>
+      <c r="I309" s="139"/>
+      <c r="J309" s="139"/>
+      <c r="K309" s="138" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17">
+      <c r="D310" s="138" t="s">
+        <v>965</v>
+      </c>
+      <c r="E310" s="139"/>
+      <c r="F310" s="121" t="s">
+        <v>966</v>
+      </c>
+      <c r="G310" s="139"/>
+      <c r="H310" s="139"/>
+      <c r="I310" s="139"/>
+      <c r="J310" s="139"/>
+      <c r="K310" s="138" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17">
+      <c r="D311" s="147" t="s">
+        <v>968</v>
+      </c>
+      <c r="E311" s="139"/>
+      <c r="F311" s="121" t="s">
+        <v>969</v>
+      </c>
+      <c r="G311" s="139"/>
+      <c r="H311" s="139"/>
+      <c r="I311" s="139"/>
+      <c r="J311" s="139"/>
+      <c r="K311" s="138" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17">
+      <c r="D312" s="131" t="s">
+        <v>399</v>
+      </c>
+      <c r="E312" s="139"/>
+      <c r="F312" s="131" t="s">
+        <v>281</v>
+      </c>
+      <c r="G312" s="139"/>
+      <c r="H312" s="139"/>
+      <c r="I312" s="139"/>
+      <c r="J312" s="139"/>
+      <c r="K312" s="131" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17">
+      <c r="D313" s="138" t="s">
+        <v>971</v>
+      </c>
+      <c r="E313" s="139"/>
+      <c r="F313" s="121" t="s">
+        <v>972</v>
+      </c>
+      <c r="G313" s="139"/>
+      <c r="H313" s="139"/>
+      <c r="I313" s="139"/>
+      <c r="J313" s="139"/>
+      <c r="K313" s="138" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17">
+      <c r="D314" s="138" t="s">
+        <v>974</v>
+      </c>
+      <c r="E314" s="139"/>
+      <c r="F314" s="121" t="s">
+        <v>975</v>
+      </c>
+      <c r="G314" s="139"/>
+      <c r="H314" s="139"/>
+      <c r="I314" s="139"/>
+      <c r="J314" s="139"/>
+      <c r="K314" s="138" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17">
+      <c r="D315" s="138" t="s">
+        <v>977</v>
+      </c>
+      <c r="E315" s="139"/>
+      <c r="F315" s="121" t="s">
+        <v>978</v>
+      </c>
+      <c r="G315" s="139"/>
+      <c r="H315" s="139"/>
+      <c r="I315" s="139"/>
+      <c r="J315" s="139"/>
+      <c r="K315" s="138" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17">
+      <c r="D316" s="138" t="s">
+        <v>980</v>
+      </c>
+      <c r="E316" s="139"/>
+      <c r="F316" s="121" t="s">
+        <v>981</v>
+      </c>
+      <c r="G316" s="139"/>
+      <c r="H316" s="139"/>
+      <c r="I316" s="139"/>
+      <c r="J316" s="139"/>
+      <c r="K316" s="138" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17">
+      <c r="A318" s="2">
         <v>23</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B318" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
-      <c r="C285" s="67" t="s">
+    <row r="320" spans="1:17">
+      <c r="C320" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="D285" s="68"/>
-      <c r="E285" s="68"/>
-      <c r="F285" s="68"/>
-      <c r="G285" s="68"/>
-      <c r="H285" s="68"/>
-      <c r="I285" s="68"/>
-      <c r="J285" s="67" t="s">
+      <c r="D320" s="63"/>
+      <c r="E320" s="63"/>
+      <c r="F320" s="63"/>
+      <c r="G320" s="63"/>
+      <c r="H320" s="63"/>
+      <c r="I320" s="63"/>
+      <c r="J320" s="62" t="s">
         <v>423</v>
       </c>
-      <c r="K285" s="68"/>
-      <c r="L285" s="68"/>
-      <c r="M285" s="6"/>
-      <c r="N285" s="5" t="s">
+      <c r="K320" s="63"/>
+      <c r="L320" s="63"/>
+      <c r="M320" s="6"/>
+      <c r="N320" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="O285" s="68"/>
-      <c r="P285" s="68"/>
-      <c r="Q285" s="6"/>
-    </row>
-    <row r="286" spans="1:17">
-      <c r="C286" s="9" t="s">
+      <c r="O320" s="63"/>
+      <c r="P320" s="63"/>
+      <c r="Q320" s="6"/>
+    </row>
+    <row r="321" spans="2:17">
+      <c r="C321" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="J286" s="9" t="s">
+      <c r="J321" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="M286" s="2"/>
-      <c r="N286" s="8" t="s">
+      <c r="M321" s="2"/>
+      <c r="N321" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="Q286" s="2"/>
-    </row>
-    <row r="287" spans="1:17">
-      <c r="C287" s="70" t="s">
+      <c r="Q321" s="2"/>
+    </row>
+    <row r="322" spans="2:17">
+      <c r="C322" s="65" t="s">
         <v>428</v>
       </c>
-      <c r="J287" s="9" t="s">
+      <c r="J322" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="M287" s="2"/>
-      <c r="N287" s="8" t="s">
+      <c r="M322" s="2"/>
+      <c r="N322" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="Q287" s="2"/>
-    </row>
-    <row r="288" spans="1:17">
-      <c r="C288" s="9" t="s">
+      <c r="Q322" s="2"/>
+    </row>
+    <row r="323" spans="2:17">
+      <c r="C323" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="J288" s="9" t="s">
+      <c r="J323" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="M288" s="2"/>
-      <c r="N288" s="8" t="s">
+      <c r="M323" s="2"/>
+      <c r="N323" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="Q288" s="2"/>
-    </row>
-    <row r="289" spans="2:17">
-      <c r="C289" s="10" t="s">
+      <c r="Q323" s="2"/>
+    </row>
+    <row r="324" spans="2:17">
+      <c r="C324" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="D289" s="72"/>
-      <c r="E289" s="72"/>
-      <c r="F289" s="72"/>
-      <c r="G289" s="72"/>
-      <c r="H289" s="72"/>
-      <c r="I289" s="72"/>
-      <c r="J289" s="10" t="s">
+      <c r="D324" s="67"/>
+      <c r="E324" s="67"/>
+      <c r="F324" s="67"/>
+      <c r="G324" s="67"/>
+      <c r="H324" s="67"/>
+      <c r="I324" s="67"/>
+      <c r="J324" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="K289" s="72"/>
-      <c r="L289" s="72"/>
-      <c r="M289" s="12"/>
-      <c r="N289" s="11" t="s">
+      <c r="K324" s="67"/>
+      <c r="L324" s="67"/>
+      <c r="M324" s="12"/>
+      <c r="N324" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="O289" s="72"/>
-      <c r="P289" s="72"/>
-      <c r="Q289" s="12"/>
-    </row>
-    <row r="291" spans="2:17">
-      <c r="B291" s="1" t="s">
+      <c r="O324" s="67"/>
+      <c r="P324" s="67"/>
+      <c r="Q324" s="12"/>
+    </row>
+    <row r="326" spans="2:17">
+      <c r="B326" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="292" spans="2:17">
-      <c r="C292" s="1" t="s">
+    <row r="327" spans="2:17">
+      <c r="C327" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="293" spans="2:17">
-      <c r="C293" s="1" t="s">
+    <row r="328" spans="2:17">
+      <c r="C328" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="294" spans="2:17">
-      <c r="C294" s="77"/>
-      <c r="D294" t="s">
+    <row r="329" spans="2:17">
+      <c r="C329" s="72"/>
+      <c r="D329" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="295" spans="2:17">
-      <c r="D295" s="78" t="s">
+    <row r="330" spans="2:17">
+      <c r="D330" s="73" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="296" spans="2:17">
-      <c r="D296" s="78" t="s">
+    <row r="331" spans="2:17">
+      <c r="D331" s="73" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="297" spans="2:17">
-      <c r="D297" s="78" t="s">
+    <row r="332" spans="2:17">
+      <c r="D332" s="73" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="298" spans="2:17">
-      <c r="D298" s="78" t="s">
+    <row r="333" spans="2:17">
+      <c r="D333" s="73" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="299" spans="2:17">
-      <c r="D299" t="s">
+    <row r="334" spans="2:17">
+      <c r="D334" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="300" spans="2:17">
-      <c r="B300" t="s">
+    <row r="335" spans="2:17">
+      <c r="B335" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="301" spans="2:17">
-      <c r="C301" t="s">
+    <row r="336" spans="2:17">
+      <c r="C336" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="302" spans="2:17">
-      <c r="C302" s="1" t="s">
+    <row r="337" spans="2:4">
+      <c r="C337" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="303" spans="2:17">
-      <c r="C303" s="1" t="s">
+    <row r="338" spans="2:4">
+      <c r="C338" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="304" spans="2:17">
-      <c r="C304" t="s">
+    <row r="339" spans="2:4">
+      <c r="C339" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="305" spans="2:4">
-      <c r="C305" s="1" t="s">
+    <row r="340" spans="2:4">
+      <c r="C340" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="306" spans="2:4">
-      <c r="C306" s="1" t="s">
+    <row r="341" spans="2:4">
+      <c r="C341" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="308" spans="2:4">
-      <c r="B308" t="s">
+    <row r="343" spans="2:4">
+      <c r="B343" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="309" spans="2:4">
-      <c r="C309" s="1" t="s">
+    <row r="344" spans="2:4">
+      <c r="C344" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="310" spans="2:4">
-      <c r="C310" s="1" t="s">
+    <row r="345" spans="2:4">
+      <c r="C345" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="311" spans="2:4">
-      <c r="C311" s="79" t="s">
+    <row r="346" spans="2:4">
+      <c r="C346" s="74" t="s">
         <v>455</v>
       </c>
-      <c r="D311" s="80"/>
-    </row>
-    <row r="312" spans="2:4">
-      <c r="D312" s="1" t="s">
+      <c r="D346" s="75"/>
+    </row>
+    <row r="347" spans="2:4">
+      <c r="D347" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="313" spans="2:4">
-      <c r="D313" s="1" t="s">
+    <row r="348" spans="2:4">
+      <c r="D348" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="314" spans="2:4">
-      <c r="D314" s="1" t="s">
+    <row r="349" spans="2:4">
+      <c r="D349" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="315" spans="2:4">
-      <c r="C315" t="s">
+    <row r="350" spans="2:4">
+      <c r="C350" t="s">
         <v>459</v>
       </c>
-      <c r="D315" s="1"/>
-    </row>
-    <row r="316" spans="2:4">
-      <c r="D316" s="1"/>
-    </row>
-    <row r="317" spans="2:4">
-      <c r="D317" s="1"/>
-    </row>
-    <row r="318" spans="2:4">
-      <c r="D318" s="1"/>
-    </row>
-    <row r="319" spans="2:4">
-      <c r="D319" s="1"/>
-    </row>
-    <row r="320" spans="2:4">
-      <c r="D320" s="1"/>
-    </row>
-    <row r="321" spans="2:4">
-      <c r="D321" s="1"/>
-    </row>
-    <row r="322" spans="2:4">
-      <c r="D322" s="1"/>
-    </row>
-    <row r="323" spans="2:4">
-      <c r="D323" s="1"/>
-    </row>
-    <row r="324" spans="2:4">
-      <c r="D324" s="1"/>
-    </row>
-    <row r="325" spans="2:4">
-      <c r="D325" s="1"/>
-    </row>
-    <row r="326" spans="2:4">
-      <c r="D326" s="1"/>
-    </row>
-    <row r="327" spans="2:4">
-      <c r="D327" s="1"/>
-    </row>
-    <row r="328" spans="2:4">
-      <c r="D328" s="1"/>
-    </row>
-    <row r="329" spans="2:4">
-      <c r="D329" s="1"/>
-    </row>
-    <row r="330" spans="2:4">
-      <c r="D330" s="1"/>
-    </row>
-    <row r="331" spans="2:4">
-      <c r="D331" s="1"/>
-    </row>
-    <row r="332" spans="2:4">
-      <c r="D332" s="1"/>
-    </row>
-    <row r="333" spans="2:4">
-      <c r="B333" t="s">
+      <c r="D350" s="1"/>
+    </row>
+    <row r="351" spans="2:4">
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" spans="2:4">
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353" spans="2:4">
+      <c r="D353" s="1"/>
+    </row>
+    <row r="354" spans="2:4">
+      <c r="D354" s="1"/>
+    </row>
+    <row r="355" spans="2:4">
+      <c r="D355" s="1"/>
+    </row>
+    <row r="356" spans="2:4">
+      <c r="D356" s="1"/>
+    </row>
+    <row r="357" spans="2:4">
+      <c r="D357" s="1"/>
+    </row>
+    <row r="358" spans="2:4">
+      <c r="D358" s="1"/>
+    </row>
+    <row r="359" spans="2:4">
+      <c r="D359" s="1"/>
+    </row>
+    <row r="360" spans="2:4">
+      <c r="D360" s="1"/>
+    </row>
+    <row r="361" spans="2:4">
+      <c r="D361" s="1"/>
+    </row>
+    <row r="362" spans="2:4">
+      <c r="D362" s="1"/>
+    </row>
+    <row r="363" spans="2:4">
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="2:4">
+      <c r="D364" s="1"/>
+    </row>
+    <row r="365" spans="2:4">
+      <c r="D365" s="1"/>
+    </row>
+    <row r="366" spans="2:4">
+      <c r="D366" s="1"/>
+    </row>
+    <row r="367" spans="2:4">
+      <c r="D367" s="1"/>
+    </row>
+    <row r="368" spans="2:4">
+      <c r="B368" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="334" spans="2:4">
-      <c r="C334" s="1" t="s">
+    <row r="369" spans="2:3">
+      <c r="C369" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="335" spans="2:4">
-      <c r="C335" s="1" t="s">
+    <row r="370" spans="2:3">
+      <c r="C370" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="336" spans="2:4">
-      <c r="C336" s="1" t="s">
+    <row r="371" spans="2:3">
+      <c r="C371" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="337" spans="2:19">
-      <c r="C337" s="1" t="s">
+    <row r="372" spans="2:3">
+      <c r="C372" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="348" spans="2:19">
-      <c r="B348" t="s">
+    <row r="383" spans="2:3">
+      <c r="B383" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="349" spans="2:19">
-      <c r="C349" s="3" t="s">
+    <row r="384" spans="2:3">
+      <c r="C384" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="350" spans="2:19">
-      <c r="C350" t="s">
+    <row r="385" spans="3:19">
+      <c r="C385" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="352" spans="2:19">
-      <c r="C352" s="15" t="s">
+    <row r="387" spans="3:19">
+      <c r="C387" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="D352" s="73"/>
-      <c r="E352" s="73"/>
-      <c r="F352" s="73"/>
-      <c r="G352" s="73"/>
-      <c r="H352" s="15" t="s">
+      <c r="D387" s="68"/>
+      <c r="E387" s="68"/>
+      <c r="F387" s="68"/>
+      <c r="G387" s="68"/>
+      <c r="H387" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="I352" s="73"/>
-      <c r="J352" s="18"/>
-      <c r="K352" s="17" t="s">
+      <c r="I387" s="68"/>
+      <c r="J387" s="18"/>
+      <c r="K387" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="L352" s="73"/>
-      <c r="M352" s="73"/>
-      <c r="N352" s="73"/>
-      <c r="O352" s="73"/>
-      <c r="P352" s="73"/>
-      <c r="Q352" s="73"/>
-      <c r="R352" s="73"/>
-      <c r="S352" s="18"/>
-    </row>
-    <row r="353" spans="1:19">
-      <c r="C353" s="9" t="s">
+      <c r="L387" s="68"/>
+      <c r="M387" s="68"/>
+      <c r="N387" s="68"/>
+      <c r="O387" s="68"/>
+      <c r="P387" s="68"/>
+      <c r="Q387" s="68"/>
+      <c r="R387" s="68"/>
+      <c r="S387" s="18"/>
+    </row>
+    <row r="388" spans="3:19">
+      <c r="C388" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="H353" s="9" t="s">
+      <c r="H388" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="J353" s="2"/>
-      <c r="K353" s="8" t="s">
+      <c r="J388" s="2"/>
+      <c r="K388" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="S353" s="2"/>
-    </row>
-    <row r="354" spans="1:19">
-      <c r="C354" s="10" t="s">
+      <c r="S388" s="2"/>
+    </row>
+    <row r="389" spans="3:19">
+      <c r="C389" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="D354" s="72"/>
-      <c r="E354" s="72"/>
-      <c r="F354" s="72"/>
-      <c r="G354" s="72"/>
-      <c r="H354" s="10" t="s">
+      <c r="D389" s="67"/>
+      <c r="E389" s="67"/>
+      <c r="F389" s="67"/>
+      <c r="G389" s="67"/>
+      <c r="H389" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="I354" s="72"/>
-      <c r="J354" s="12"/>
-      <c r="K354" s="11" t="s">
+      <c r="I389" s="67"/>
+      <c r="J389" s="12"/>
+      <c r="K389" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="L354" s="72"/>
-      <c r="M354" s="72"/>
-      <c r="N354" s="72"/>
-      <c r="O354" s="72"/>
-      <c r="P354" s="72"/>
-      <c r="Q354" s="72"/>
-      <c r="R354" s="72"/>
-      <c r="S354" s="12"/>
-    </row>
-    <row r="367" spans="1:19">
-      <c r="A367" s="2">
+      <c r="L389" s="67"/>
+      <c r="M389" s="67"/>
+      <c r="N389" s="67"/>
+      <c r="O389" s="67"/>
+      <c r="P389" s="67"/>
+      <c r="Q389" s="67"/>
+      <c r="R389" s="67"/>
+      <c r="S389" s="12"/>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="2">
         <v>24</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B402" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="368" spans="1:19">
-      <c r="B368" t="s">
+    <row r="403" spans="1:3">
+      <c r="B403" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="369" spans="3:3">
-      <c r="C369" s="1" t="s">
+    <row r="404" spans="1:3">
+      <c r="C404" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="370" spans="3:3">
-      <c r="C370" s="3" t="s">
+    <row r="405" spans="1:3">
+      <c r="C405" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="371" spans="3:3">
-      <c r="C371" t="s">
+    <row r="406" spans="1:3">
+      <c r="C406" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="372" spans="3:3">
-      <c r="C372" t="s">
+    <row r="407" spans="1:3">
+      <c r="C407" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="373" spans="3:3">
-      <c r="C373" s="3" t="s">
+    <row r="408" spans="1:3">
+      <c r="C408" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="390" spans="3:3">
-      <c r="C390" t="s">
+    <row r="425" spans="3:3">
+      <c r="C425" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="410" spans="2:11">
-      <c r="C410" s="15" t="s">
+    <row r="445" spans="3:11">
+      <c r="C445" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="D410" s="73"/>
-      <c r="E410" s="73"/>
-      <c r="F410" s="73"/>
-      <c r="G410" s="15" t="s">
+      <c r="D445" s="68"/>
+      <c r="E445" s="68"/>
+      <c r="F445" s="68"/>
+      <c r="G445" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="H410" s="73"/>
-      <c r="I410" s="73"/>
-      <c r="J410" s="73"/>
-      <c r="K410" s="18"/>
-    </row>
-    <row r="411" spans="2:11">
-      <c r="C411" s="7" t="s">
+      <c r="H445" s="68"/>
+      <c r="I445" s="68"/>
+      <c r="J445" s="68"/>
+      <c r="K445" s="18"/>
+    </row>
+    <row r="446" spans="3:11">
+      <c r="C446" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G411" s="9" t="s">
+      <c r="G446" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="K411" s="2"/>
-    </row>
-    <row r="412" spans="2:11">
-      <c r="C412" s="81" t="s">
+      <c r="K446" s="2"/>
+    </row>
+    <row r="447" spans="3:11">
+      <c r="C447" s="76" t="s">
         <v>486</v>
       </c>
-      <c r="D412" s="72"/>
-      <c r="E412" s="72"/>
-      <c r="F412" s="72"/>
-      <c r="G412" s="10" t="s">
+      <c r="D447" s="67"/>
+      <c r="E447" s="67"/>
+      <c r="F447" s="67"/>
+      <c r="G447" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="H412" s="72"/>
-      <c r="I412" s="72"/>
-      <c r="J412" s="72"/>
-      <c r="K412" s="12"/>
-    </row>
-    <row r="414" spans="2:11">
-      <c r="B414" t="s">
+      <c r="H447" s="67"/>
+      <c r="I447" s="67"/>
+      <c r="J447" s="67"/>
+      <c r="K447" s="12"/>
+    </row>
+    <row r="449" spans="2:3">
+      <c r="B449" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="415" spans="2:11">
-      <c r="C415" s="82" t="s">
+    <row r="450" spans="2:3">
+      <c r="C450" s="77" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="428" spans="3:3">
-      <c r="C428" s="3" t="s">
+    <row r="463" spans="2:3">
+      <c r="C463" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="444" spans="3:3">
-      <c r="C444" s="3" t="s">
+    <row r="479" spans="3:3">
+      <c r="C479" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="459" spans="2:12">
-      <c r="B459" t="s">
+    <row r="494" spans="2:3">
+      <c r="B494" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="460" spans="2:12">
-      <c r="C460" s="1" t="s">
+    <row r="495" spans="2:3">
+      <c r="C495" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="462" spans="2:12">
-      <c r="C462" s="15" t="s">
+    <row r="497" spans="3:12">
+      <c r="C497" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D462" s="73"/>
-      <c r="E462" s="15" t="s">
+      <c r="D497" s="68"/>
+      <c r="E497" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="F462" s="73"/>
-      <c r="G462" s="73"/>
-      <c r="H462" s="18"/>
-      <c r="I462" s="17" t="s">
+      <c r="F497" s="68"/>
+      <c r="G497" s="68"/>
+      <c r="H497" s="18"/>
+      <c r="I497" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="J462" s="73"/>
-      <c r="K462" s="73"/>
-      <c r="L462" s="18"/>
-    </row>
-    <row r="463" spans="2:12">
-      <c r="C463" s="9" t="s">
+      <c r="J497" s="68"/>
+      <c r="K497" s="68"/>
+      <c r="L497" s="18"/>
+    </row>
+    <row r="498" spans="3:12">
+      <c r="C498" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E463" s="9" t="s">
+      <c r="E498" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="H463" s="2"/>
-      <c r="I463" s="8" t="s">
+      <c r="H498" s="2"/>
+      <c r="I498" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="L463" s="2"/>
-    </row>
-    <row r="464" spans="2:12">
-      <c r="C464" s="9" t="s">
+      <c r="L498" s="2"/>
+    </row>
+    <row r="499" spans="3:12">
+      <c r="C499" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="E464" s="9" t="s">
+      <c r="E499" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="H464" s="2"/>
-      <c r="I464" s="8" t="s">
+      <c r="H499" s="2"/>
+      <c r="I499" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="L464" s="2"/>
-    </row>
-    <row r="465" spans="3:12">
-      <c r="C465" s="9" t="s">
+      <c r="L499" s="2"/>
+    </row>
+    <row r="500" spans="3:12">
+      <c r="C500" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="E465" s="9" t="s">
+      <c r="E500" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="H465" s="2"/>
-      <c r="I465" s="8" t="s">
+      <c r="H500" s="2"/>
+      <c r="I500" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="L465" s="2"/>
-    </row>
-    <row r="466" spans="3:12">
-      <c r="C466" s="9" t="s">
+      <c r="L500" s="2"/>
+    </row>
+    <row r="501" spans="3:12">
+      <c r="C501" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="E466" s="83" t="s">
+      <c r="E501" s="78" t="s">
         <v>505</v>
       </c>
-      <c r="H466" s="2"/>
-      <c r="I466" s="8" t="s">
+      <c r="H501" s="2"/>
+      <c r="I501" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="L466" s="2"/>
-    </row>
-    <row r="467" spans="3:12">
-      <c r="C467" s="9" t="s">
+      <c r="L501" s="2"/>
+    </row>
+    <row r="502" spans="3:12">
+      <c r="C502" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="E467" s="9" t="s">
+      <c r="E502" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="H467" s="2"/>
-      <c r="I467" s="8" t="s">
+      <c r="H502" s="2"/>
+      <c r="I502" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="L467" s="2"/>
-    </row>
-    <row r="468" spans="3:12">
-      <c r="C468" s="10" t="s">
+      <c r="L502" s="2"/>
+    </row>
+    <row r="503" spans="3:12">
+      <c r="C503" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="D468" s="72"/>
-      <c r="E468" s="10" t="s">
+      <c r="D503" s="67"/>
+      <c r="E503" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="F468" s="72"/>
-      <c r="G468" s="72"/>
-      <c r="H468" s="12"/>
-      <c r="I468" s="11" t="s">
+      <c r="F503" s="67"/>
+      <c r="G503" s="67"/>
+      <c r="H503" s="12"/>
+      <c r="I503" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="J468" s="72"/>
-      <c r="K468" s="72"/>
-      <c r="L468" s="12"/>
-    </row>
-    <row r="470" spans="3:12">
-      <c r="C470" s="1" t="s">
+      <c r="J503" s="67"/>
+      <c r="K503" s="67"/>
+      <c r="L503" s="12"/>
+    </row>
+    <row r="505" spans="3:12">
+      <c r="C505" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="491" spans="3:20">
-      <c r="C491" s="15" t="s">
+    <row r="526" spans="3:20">
+      <c r="C526" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="D491" s="73"/>
-      <c r="E491" s="73"/>
-      <c r="F491" s="15" t="s">
+      <c r="D526" s="68"/>
+      <c r="E526" s="68"/>
+      <c r="F526" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="G491" s="73"/>
-      <c r="H491" s="73"/>
-      <c r="I491" s="73"/>
-      <c r="J491" s="18"/>
-      <c r="K491" s="15" t="s">
+      <c r="G526" s="68"/>
+      <c r="H526" s="68"/>
+      <c r="I526" s="68"/>
+      <c r="J526" s="18"/>
+      <c r="K526" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="L491" s="73"/>
-      <c r="M491" s="73"/>
-      <c r="N491" s="73"/>
-      <c r="O491" s="18"/>
-      <c r="P491" s="17" t="s">
+      <c r="L526" s="68"/>
+      <c r="M526" s="68"/>
+      <c r="N526" s="68"/>
+      <c r="O526" s="18"/>
+      <c r="P526" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="Q491" s="73"/>
-      <c r="R491" s="73"/>
-      <c r="S491" s="73"/>
-      <c r="T491" s="18"/>
-    </row>
-    <row r="492" spans="3:20">
-      <c r="C492" s="9" t="s">
+      <c r="Q526" s="68"/>
+      <c r="R526" s="68"/>
+      <c r="S526" s="68"/>
+      <c r="T526" s="18"/>
+    </row>
+    <row r="527" spans="3:20">
+      <c r="C527" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F492" s="9" t="s">
+      <c r="F527" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="J492" s="2"/>
-      <c r="K492" s="9" t="s">
+      <c r="J527" s="2"/>
+      <c r="K527" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="O492" s="2"/>
-      <c r="P492" s="8" t="s">
+      <c r="O527" s="2"/>
+      <c r="P527" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="T492" s="2"/>
-    </row>
-    <row r="493" spans="3:20">
-      <c r="C493" s="9" t="s">
+      <c r="T527" s="2"/>
+    </row>
+    <row r="528" spans="3:20">
+      <c r="C528" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="F493" s="84" t="s">
+      <c r="F528" s="79" t="s">
         <v>521</v>
       </c>
-      <c r="J493" s="2"/>
-      <c r="K493" s="84" t="s">
+      <c r="J528" s="2"/>
+      <c r="K528" s="79" t="s">
         <v>522</v>
       </c>
-      <c r="O493" s="2"/>
-      <c r="P493" s="8" t="s">
+      <c r="O528" s="2"/>
+      <c r="P528" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="T493" s="2"/>
-    </row>
-    <row r="494" spans="3:20">
-      <c r="C494" s="9" t="s">
+      <c r="T528" s="2"/>
+    </row>
+    <row r="529" spans="1:23">
+      <c r="C529" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="F494" s="9" t="s">
+      <c r="F529" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="J494" s="2"/>
-      <c r="K494" s="9" t="s">
+      <c r="J529" s="2"/>
+      <c r="K529" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="O494" s="2"/>
-      <c r="P494" s="8" t="s">
+      <c r="O529" s="2"/>
+      <c r="P529" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="T494" s="2"/>
-    </row>
-    <row r="495" spans="3:20">
-      <c r="C495" s="9" t="s">
+      <c r="T529" s="2"/>
+    </row>
+    <row r="530" spans="1:23">
+      <c r="C530" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F495" s="9" t="s">
+      <c r="F530" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="J495" s="2"/>
-      <c r="K495" s="9" t="s">
+      <c r="J530" s="2"/>
+      <c r="K530" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="O495" s="2"/>
-      <c r="P495" s="8" t="s">
+      <c r="O530" s="2"/>
+      <c r="P530" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="T495" s="2"/>
-    </row>
-    <row r="496" spans="3:20">
-      <c r="C496" s="9" t="s">
+      <c r="T530" s="2"/>
+    </row>
+    <row r="531" spans="1:23">
+      <c r="C531" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F496" s="9" t="s">
+      <c r="F531" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="J496" s="2"/>
-      <c r="K496" s="9" t="s">
+      <c r="J531" s="2"/>
+      <c r="K531" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="O496" s="2"/>
-      <c r="P496" s="8" t="s">
+      <c r="O531" s="2"/>
+      <c r="P531" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="T496" s="2"/>
-    </row>
-    <row r="497" spans="1:23">
-      <c r="C497" s="9" t="s">
+      <c r="T531" s="2"/>
+    </row>
+    <row r="532" spans="1:23">
+      <c r="C532" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="F497" s="9" t="s">
+      <c r="F532" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="J497" s="2"/>
-      <c r="K497" s="83" t="s">
+      <c r="J532" s="2"/>
+      <c r="K532" s="78" t="s">
         <v>538</v>
       </c>
-      <c r="O497" s="2"/>
-      <c r="P497" s="8" t="s">
+      <c r="O532" s="2"/>
+      <c r="P532" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="T497" s="2"/>
-    </row>
-    <row r="498" spans="1:23">
-      <c r="C498" s="10" t="s">
+      <c r="T532" s="2"/>
+    </row>
+    <row r="533" spans="1:23">
+      <c r="C533" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="D498" s="72"/>
-      <c r="E498" s="72"/>
-      <c r="F498" s="10" t="s">
+      <c r="D533" s="67"/>
+      <c r="E533" s="67"/>
+      <c r="F533" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="G498" s="72"/>
-      <c r="H498" s="72"/>
-      <c r="I498" s="72"/>
-      <c r="J498" s="12"/>
-      <c r="K498" s="10" t="s">
+      <c r="G533" s="67"/>
+      <c r="H533" s="67"/>
+      <c r="I533" s="67"/>
+      <c r="J533" s="12"/>
+      <c r="K533" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L498" s="72"/>
-      <c r="M498" s="72"/>
-      <c r="N498" s="72"/>
-      <c r="O498" s="12"/>
-      <c r="P498" s="11" t="s">
+      <c r="L533" s="67"/>
+      <c r="M533" s="67"/>
+      <c r="N533" s="67"/>
+      <c r="O533" s="12"/>
+      <c r="P533" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="Q498" s="72"/>
-      <c r="R498" s="72"/>
-      <c r="S498" s="72"/>
-      <c r="T498" s="12"/>
-    </row>
-    <row r="500" spans="1:23">
-      <c r="A500" s="2">
+      <c r="Q533" s="67"/>
+      <c r="R533" s="67"/>
+      <c r="S533" s="67"/>
+      <c r="T533" s="12"/>
+    </row>
+    <row r="535" spans="1:23">
+      <c r="A535" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="501" spans="1:23">
-      <c r="C501" s="15" t="s">
+    <row r="536" spans="1:23">
+      <c r="C536" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="D501" s="73"/>
-      <c r="E501" s="15" t="s">
+      <c r="D536" s="68"/>
+      <c r="E536" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="F501" s="73"/>
-      <c r="G501" s="73"/>
-      <c r="H501" s="73"/>
-      <c r="I501" s="18"/>
-      <c r="J501" s="15" t="s">
+      <c r="F536" s="68"/>
+      <c r="G536" s="68"/>
+      <c r="H536" s="68"/>
+      <c r="I536" s="18"/>
+      <c r="J536" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="K501" s="73"/>
-      <c r="L501" s="73"/>
-      <c r="M501" s="73"/>
-      <c r="N501" s="73"/>
-      <c r="O501" s="73"/>
-      <c r="P501" s="18"/>
-      <c r="Q501" s="17" t="s">
+      <c r="K536" s="68"/>
+      <c r="L536" s="68"/>
+      <c r="M536" s="68"/>
+      <c r="N536" s="68"/>
+      <c r="O536" s="68"/>
+      <c r="P536" s="18"/>
+      <c r="Q536" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="R501" s="73"/>
-      <c r="S501" s="73"/>
-      <c r="T501" s="73"/>
-      <c r="U501" s="18"/>
-    </row>
-    <row r="502" spans="1:23">
-      <c r="C502" s="85" t="s">
+      <c r="R536" s="68"/>
+      <c r="S536" s="68"/>
+      <c r="T536" s="68"/>
+      <c r="U536" s="18"/>
+    </row>
+    <row r="537" spans="1:23">
+      <c r="C537" s="80" t="s">
         <v>547</v>
       </c>
-      <c r="D502" s="6"/>
-      <c r="E502" s="86" t="s">
+      <c r="D537" s="6"/>
+      <c r="E537" s="81" t="s">
         <v>548</v>
       </c>
-      <c r="F502" s="68"/>
-      <c r="G502" s="68"/>
-      <c r="H502" s="68"/>
-      <c r="I502" s="6"/>
-      <c r="J502" s="32" t="s">
+      <c r="F537" s="63"/>
+      <c r="G537" s="63"/>
+      <c r="H537" s="63"/>
+      <c r="I537" s="6"/>
+      <c r="J537" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="K502" s="68"/>
-      <c r="L502" s="68"/>
-      <c r="M502" s="68"/>
-      <c r="N502" s="68"/>
-      <c r="O502" s="68"/>
-      <c r="P502" s="6"/>
-      <c r="Q502" s="69" t="s">
+      <c r="K537" s="63"/>
+      <c r="L537" s="63"/>
+      <c r="M537" s="63"/>
+      <c r="N537" s="63"/>
+      <c r="O537" s="63"/>
+      <c r="P537" s="6"/>
+      <c r="Q537" s="64" t="s">
         <v>550</v>
       </c>
-      <c r="R502" s="68"/>
-      <c r="S502" s="68"/>
-      <c r="T502" s="68"/>
-      <c r="U502" s="6"/>
-    </row>
-    <row r="503" spans="1:23">
-      <c r="C503" s="87"/>
-      <c r="D503" s="2"/>
-      <c r="E503" s="88"/>
-      <c r="I503" s="2"/>
-      <c r="J503" s="9" t="s">
+      <c r="R537" s="63"/>
+      <c r="S537" s="63"/>
+      <c r="T537" s="63"/>
+      <c r="U537" s="6"/>
+    </row>
+    <row r="538" spans="1:23">
+      <c r="C538" s="82"/>
+      <c r="D538" s="2"/>
+      <c r="E538" s="83"/>
+      <c r="I538" s="2"/>
+      <c r="J538" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="P503" s="2"/>
-      <c r="Q503" s="8"/>
-      <c r="U503" s="2"/>
-    </row>
-    <row r="504" spans="1:23">
-      <c r="C504" s="89"/>
-      <c r="D504" s="12"/>
-      <c r="E504" s="90"/>
-      <c r="F504" s="72"/>
-      <c r="G504" s="72"/>
-      <c r="H504" s="72"/>
-      <c r="I504" s="12"/>
-      <c r="J504" s="10" t="s">
+      <c r="P538" s="2"/>
+      <c r="Q538" s="8"/>
+      <c r="U538" s="2"/>
+    </row>
+    <row r="539" spans="1:23">
+      <c r="C539" s="84"/>
+      <c r="D539" s="12"/>
+      <c r="E539" s="85"/>
+      <c r="F539" s="67"/>
+      <c r="G539" s="67"/>
+      <c r="H539" s="67"/>
+      <c r="I539" s="12"/>
+      <c r="J539" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="K504" s="72"/>
-      <c r="L504" s="72"/>
-      <c r="M504" s="72"/>
-      <c r="N504" s="72"/>
-      <c r="O504" s="72"/>
-      <c r="P504" s="12"/>
-      <c r="Q504" s="11"/>
-      <c r="R504" s="72"/>
-      <c r="S504" s="72"/>
-      <c r="T504" s="72"/>
-      <c r="U504" s="12"/>
-    </row>
-    <row r="505" spans="1:23">
-      <c r="C505" s="85" t="s">
+      <c r="K539" s="67"/>
+      <c r="L539" s="67"/>
+      <c r="M539" s="67"/>
+      <c r="N539" s="67"/>
+      <c r="O539" s="67"/>
+      <c r="P539" s="12"/>
+      <c r="Q539" s="11"/>
+      <c r="R539" s="67"/>
+      <c r="S539" s="67"/>
+      <c r="T539" s="67"/>
+      <c r="U539" s="12"/>
+    </row>
+    <row r="540" spans="1:23">
+      <c r="C540" s="80" t="s">
         <v>553</v>
       </c>
-      <c r="D505" s="68"/>
-      <c r="E505" s="86" t="s">
+      <c r="D540" s="63"/>
+      <c r="E540" s="81" t="s">
         <v>554</v>
       </c>
-      <c r="F505" s="68"/>
-      <c r="G505" s="68"/>
-      <c r="H505" s="68"/>
-      <c r="I505" s="6"/>
-      <c r="J505" s="67" t="s">
+      <c r="F540" s="63"/>
+      <c r="G540" s="63"/>
+      <c r="H540" s="63"/>
+      <c r="I540" s="6"/>
+      <c r="J540" s="62" t="s">
         <v>555</v>
       </c>
-      <c r="K505" s="68"/>
-      <c r="L505" s="68"/>
-      <c r="M505" s="68"/>
-      <c r="N505" s="68"/>
-      <c r="O505" s="68"/>
-      <c r="P505" s="6"/>
-      <c r="Q505" s="69" t="s">
+      <c r="K540" s="63"/>
+      <c r="L540" s="63"/>
+      <c r="M540" s="63"/>
+      <c r="N540" s="63"/>
+      <c r="O540" s="63"/>
+      <c r="P540" s="6"/>
+      <c r="Q540" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="R505" s="68"/>
-      <c r="S505" s="68"/>
-      <c r="T505" s="68"/>
-      <c r="U505" s="6"/>
-    </row>
-    <row r="506" spans="1:23">
-      <c r="C506" s="87"/>
-      <c r="E506" s="88"/>
-      <c r="I506" s="2"/>
-      <c r="J506" s="70" t="s">
+      <c r="R540" s="63"/>
+      <c r="S540" s="63"/>
+      <c r="T540" s="63"/>
+      <c r="U540" s="6"/>
+    </row>
+    <row r="541" spans="1:23">
+      <c r="C541" s="82"/>
+      <c r="E541" s="83"/>
+      <c r="I541" s="2"/>
+      <c r="J541" s="65" t="s">
         <v>557</v>
       </c>
-      <c r="P506" s="2"/>
-      <c r="Q506" s="8"/>
-      <c r="U506" s="2"/>
-    </row>
-    <row r="507" spans="1:23">
-      <c r="C507" s="89"/>
-      <c r="D507" s="72"/>
-      <c r="E507" s="90"/>
-      <c r="F507" s="72"/>
-      <c r="G507" s="72"/>
-      <c r="H507" s="72"/>
-      <c r="I507" s="12"/>
-      <c r="J507" s="71" t="s">
+      <c r="P541" s="2"/>
+      <c r="Q541" s="8"/>
+      <c r="U541" s="2"/>
+    </row>
+    <row r="542" spans="1:23">
+      <c r="C542" s="84"/>
+      <c r="D542" s="67"/>
+      <c r="E542" s="85"/>
+      <c r="F542" s="67"/>
+      <c r="G542" s="67"/>
+      <c r="H542" s="67"/>
+      <c r="I542" s="12"/>
+      <c r="J542" s="66" t="s">
         <v>558</v>
       </c>
-      <c r="K507" s="72"/>
-      <c r="L507" s="72"/>
-      <c r="M507" s="72"/>
-      <c r="N507" s="72"/>
-      <c r="O507" s="72"/>
-      <c r="P507" s="12"/>
-      <c r="Q507" s="11"/>
-      <c r="R507" s="72"/>
-      <c r="S507" s="72"/>
-      <c r="T507" s="72"/>
-      <c r="U507" s="12"/>
-    </row>
-    <row r="508" spans="1:23">
-      <c r="C508" s="85" t="s">
+      <c r="K542" s="67"/>
+      <c r="L542" s="67"/>
+      <c r="M542" s="67"/>
+      <c r="N542" s="67"/>
+      <c r="O542" s="67"/>
+      <c r="P542" s="12"/>
+      <c r="Q542" s="11"/>
+      <c r="R542" s="67"/>
+      <c r="S542" s="67"/>
+      <c r="T542" s="67"/>
+      <c r="U542" s="12"/>
+    </row>
+    <row r="543" spans="1:23">
+      <c r="C543" s="80" t="s">
         <v>559</v>
       </c>
-      <c r="D508" s="68"/>
-      <c r="E508" s="86" t="s">
+      <c r="D543" s="63"/>
+      <c r="E543" s="81" t="s">
         <v>560</v>
       </c>
-      <c r="F508" s="68"/>
-      <c r="G508" s="68"/>
-      <c r="H508" s="68"/>
-      <c r="I508" s="6"/>
-      <c r="J508" s="32" t="s">
+      <c r="F543" s="63"/>
+      <c r="G543" s="63"/>
+      <c r="H543" s="63"/>
+      <c r="I543" s="6"/>
+      <c r="J543" s="32" t="s">
         <v>561</v>
       </c>
-      <c r="K508" s="68"/>
-      <c r="L508" s="68"/>
-      <c r="M508" s="68"/>
-      <c r="N508" s="68"/>
-      <c r="O508" s="68"/>
-      <c r="P508" s="6"/>
-      <c r="Q508" s="91" t="s">
+      <c r="K543" s="63"/>
+      <c r="L543" s="63"/>
+      <c r="M543" s="63"/>
+      <c r="N543" s="63"/>
+      <c r="O543" s="63"/>
+      <c r="P543" s="6"/>
+      <c r="Q543" s="86" t="s">
         <v>562</v>
       </c>
-      <c r="R508" s="68"/>
-      <c r="S508" s="68"/>
-      <c r="T508" s="68"/>
-      <c r="U508" s="6"/>
-      <c r="W508" s="4" t="s">
+      <c r="R543" s="63"/>
+      <c r="S543" s="63"/>
+      <c r="T543" s="63"/>
+      <c r="U543" s="6"/>
+      <c r="W543" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="509" spans="1:23">
-      <c r="C509" s="89"/>
-      <c r="D509" s="72"/>
-      <c r="E509" s="90"/>
-      <c r="F509" s="72"/>
-      <c r="G509" s="72"/>
-      <c r="H509" s="72"/>
-      <c r="I509" s="12"/>
-      <c r="J509" s="92" t="s">
+    <row r="544" spans="1:23">
+      <c r="C544" s="84"/>
+      <c r="D544" s="67"/>
+      <c r="E544" s="85"/>
+      <c r="F544" s="67"/>
+      <c r="G544" s="67"/>
+      <c r="H544" s="67"/>
+      <c r="I544" s="12"/>
+      <c r="J544" s="87" t="s">
         <v>564</v>
       </c>
-      <c r="K509" s="72"/>
-      <c r="L509" s="72"/>
-      <c r="M509" s="72"/>
-      <c r="N509" s="72"/>
-      <c r="O509" s="72"/>
-      <c r="P509" s="12"/>
-      <c r="Q509" s="11"/>
-      <c r="R509" s="72"/>
-      <c r="S509" s="72"/>
-      <c r="T509" s="72"/>
-      <c r="U509" s="12"/>
-      <c r="W509" s="76" t="s">
+      <c r="K544" s="67"/>
+      <c r="L544" s="67"/>
+      <c r="M544" s="67"/>
+      <c r="N544" s="67"/>
+      <c r="O544" s="67"/>
+      <c r="P544" s="12"/>
+      <c r="Q544" s="11"/>
+      <c r="R544" s="67"/>
+      <c r="S544" s="67"/>
+      <c r="T544" s="67"/>
+      <c r="U544" s="12"/>
+      <c r="W544" s="71" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="510" spans="1:23">
-      <c r="C510" s="15" t="s">
+    <row r="545" spans="3:23">
+      <c r="C545" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="D510" s="73"/>
-      <c r="E510" s="35" t="s">
+      <c r="D545" s="68"/>
+      <c r="E545" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="F510" s="73"/>
-      <c r="G510" s="73"/>
-      <c r="H510" s="73"/>
-      <c r="I510" s="18"/>
-      <c r="J510" s="35" t="s">
+      <c r="F545" s="68"/>
+      <c r="G545" s="68"/>
+      <c r="H545" s="68"/>
+      <c r="I545" s="18"/>
+      <c r="J545" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="K510" s="73"/>
-      <c r="L510" s="73"/>
-      <c r="M510" s="73"/>
-      <c r="N510" s="73"/>
-      <c r="O510" s="73"/>
-      <c r="P510" s="18"/>
-      <c r="Q510" s="75" t="s">
+      <c r="K545" s="68"/>
+      <c r="L545" s="68"/>
+      <c r="M545" s="68"/>
+      <c r="N545" s="68"/>
+      <c r="O545" s="68"/>
+      <c r="P545" s="18"/>
+      <c r="Q545" s="70" t="s">
         <v>569</v>
       </c>
-      <c r="R510" s="73"/>
-      <c r="S510" s="73"/>
-      <c r="T510" s="73"/>
-      <c r="U510" s="18"/>
-    </row>
-    <row r="511" spans="1:23">
-      <c r="C511" s="15" t="s">
+      <c r="R545" s="68"/>
+      <c r="S545" s="68"/>
+      <c r="T545" s="68"/>
+      <c r="U545" s="18"/>
+    </row>
+    <row r="546" spans="3:23">
+      <c r="C546" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="D511" s="73"/>
-      <c r="E511" s="35" t="s">
+      <c r="D546" s="68"/>
+      <c r="E546" s="35" t="s">
         <v>571</v>
       </c>
-      <c r="F511" s="73"/>
-      <c r="G511" s="73"/>
-      <c r="H511" s="73"/>
-      <c r="I511" s="18"/>
-      <c r="J511" s="35" t="s">
+      <c r="F546" s="68"/>
+      <c r="G546" s="68"/>
+      <c r="H546" s="68"/>
+      <c r="I546" s="18"/>
+      <c r="J546" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="K511" s="73"/>
-      <c r="L511" s="73"/>
-      <c r="M511" s="73"/>
-      <c r="N511" s="73"/>
-      <c r="O511" s="73"/>
-      <c r="P511" s="18"/>
-      <c r="Q511" s="75" t="s">
+      <c r="K546" s="68"/>
+      <c r="L546" s="68"/>
+      <c r="M546" s="68"/>
+      <c r="N546" s="68"/>
+      <c r="O546" s="68"/>
+      <c r="P546" s="18"/>
+      <c r="Q546" s="70" t="s">
         <v>573</v>
       </c>
-      <c r="R511" s="73"/>
-      <c r="S511" s="73"/>
-      <c r="T511" s="73"/>
-      <c r="U511" s="18"/>
-    </row>
-    <row r="512" spans="1:23">
-      <c r="C512" s="70" t="s">
+      <c r="R546" s="68"/>
+      <c r="S546" s="68"/>
+      <c r="T546" s="68"/>
+      <c r="U546" s="18"/>
+    </row>
+    <row r="547" spans="3:23">
+      <c r="C547" s="65" t="s">
         <v>574</v>
       </c>
-      <c r="E512" s="9" t="s">
+      <c r="E547" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="I512" s="2"/>
-      <c r="J512" s="93" t="s">
+      <c r="I547" s="2"/>
+      <c r="J547" s="88" t="s">
         <v>576</v>
       </c>
-      <c r="P512" s="2"/>
-      <c r="Q512" s="8" t="s">
+      <c r="P547" s="2"/>
+      <c r="Q547" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="U512" s="2"/>
-      <c r="W512" s="4" t="s">
+      <c r="U547" s="2"/>
+      <c r="W547" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="513" spans="3:23">
-      <c r="C513" s="85" t="s">
+    <row r="548" spans="3:23">
+      <c r="C548" s="80" t="s">
         <v>579</v>
       </c>
-      <c r="D513" s="68"/>
-      <c r="E513" s="86" t="s">
+      <c r="D548" s="63"/>
+      <c r="E548" s="81" t="s">
         <v>580</v>
       </c>
-      <c r="F513" s="68"/>
-      <c r="G513" s="68"/>
-      <c r="H513" s="68"/>
-      <c r="I513" s="6"/>
-      <c r="J513" s="32" t="s">
+      <c r="F548" s="63"/>
+      <c r="G548" s="63"/>
+      <c r="H548" s="63"/>
+      <c r="I548" s="6"/>
+      <c r="J548" s="32" t="s">
         <v>581</v>
       </c>
-      <c r="K513" s="68"/>
-      <c r="L513" s="68"/>
-      <c r="M513" s="68"/>
-      <c r="N513" s="68"/>
-      <c r="O513" s="68"/>
-      <c r="P513" s="6"/>
-      <c r="Q513" s="69" t="s">
+      <c r="K548" s="63"/>
+      <c r="L548" s="63"/>
+      <c r="M548" s="63"/>
+      <c r="N548" s="63"/>
+      <c r="O548" s="63"/>
+      <c r="P548" s="6"/>
+      <c r="Q548" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="R513" s="68"/>
-      <c r="S513" s="68"/>
-      <c r="T513" s="68"/>
-      <c r="U513" s="6"/>
-      <c r="W513" s="76" t="s">
+      <c r="R548" s="63"/>
+      <c r="S548" s="63"/>
+      <c r="T548" s="63"/>
+      <c r="U548" s="6"/>
+      <c r="W548" s="71" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="514" spans="3:23">
-      <c r="C514" s="89"/>
-      <c r="D514" s="72"/>
-      <c r="E514" s="90"/>
-      <c r="F514" s="72"/>
-      <c r="G514" s="72"/>
-      <c r="H514" s="72"/>
-      <c r="I514" s="12"/>
-      <c r="J514" s="10" t="s">
+    <row r="549" spans="3:23">
+      <c r="C549" s="84"/>
+      <c r="D549" s="67"/>
+      <c r="E549" s="85"/>
+      <c r="F549" s="67"/>
+      <c r="G549" s="67"/>
+      <c r="H549" s="67"/>
+      <c r="I549" s="12"/>
+      <c r="J549" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="K514" s="72"/>
-      <c r="L514" s="72"/>
-      <c r="M514" s="72"/>
-      <c r="N514" s="72"/>
-      <c r="O514" s="72"/>
-      <c r="P514" s="12"/>
-      <c r="Q514" s="11"/>
-      <c r="R514" s="72"/>
-      <c r="S514" s="72"/>
-      <c r="T514" s="72"/>
-      <c r="U514" s="12"/>
-      <c r="W514" s="76" t="s">
+      <c r="K549" s="67"/>
+      <c r="L549" s="67"/>
+      <c r="M549" s="67"/>
+      <c r="N549" s="67"/>
+      <c r="O549" s="67"/>
+      <c r="P549" s="12"/>
+      <c r="Q549" s="11"/>
+      <c r="R549" s="67"/>
+      <c r="S549" s="67"/>
+      <c r="T549" s="67"/>
+      <c r="U549" s="12"/>
+      <c r="W549" s="71" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="515" spans="3:23">
-      <c r="C515" s="85" t="s">
+    <row r="550" spans="3:23">
+      <c r="C550" s="80" t="s">
         <v>586</v>
       </c>
-      <c r="D515" s="68"/>
-      <c r="E515" s="86" t="s">
+      <c r="D550" s="63"/>
+      <c r="E550" s="81" t="s">
         <v>587</v>
       </c>
-      <c r="F515" s="68"/>
-      <c r="G515" s="68"/>
-      <c r="H515" s="68"/>
-      <c r="I515" s="6"/>
-      <c r="J515" s="32" t="s">
+      <c r="F550" s="63"/>
+      <c r="G550" s="63"/>
+      <c r="H550" s="63"/>
+      <c r="I550" s="6"/>
+      <c r="J550" s="32" t="s">
         <v>588</v>
       </c>
-      <c r="K515" s="68"/>
-      <c r="L515" s="68"/>
-      <c r="M515" s="68"/>
-      <c r="N515" s="68"/>
-      <c r="O515" s="68"/>
-      <c r="P515" s="6"/>
-      <c r="Q515" s="69" t="s">
+      <c r="K550" s="63"/>
+      <c r="L550" s="63"/>
+      <c r="M550" s="63"/>
+      <c r="N550" s="63"/>
+      <c r="O550" s="63"/>
+      <c r="P550" s="6"/>
+      <c r="Q550" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="R515" s="68"/>
-      <c r="S515" s="68"/>
-      <c r="T515" s="68"/>
-      <c r="U515" s="6"/>
-      <c r="W515" s="4" t="s">
+      <c r="R550" s="63"/>
+      <c r="S550" s="63"/>
+      <c r="T550" s="63"/>
+      <c r="U550" s="6"/>
+      <c r="W550" s="4" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="516" spans="3:23">
-      <c r="C516" s="89"/>
-      <c r="D516" s="72"/>
-      <c r="E516" s="90"/>
-      <c r="F516" s="72"/>
-      <c r="G516" s="72"/>
-      <c r="H516" s="72"/>
-      <c r="I516" s="12"/>
-      <c r="J516" s="10" t="s">
+    <row r="551" spans="3:23">
+      <c r="C551" s="84"/>
+      <c r="D551" s="67"/>
+      <c r="E551" s="85"/>
+      <c r="F551" s="67"/>
+      <c r="G551" s="67"/>
+      <c r="H551" s="67"/>
+      <c r="I551" s="12"/>
+      <c r="J551" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="K516" s="72"/>
-      <c r="L516" s="72"/>
-      <c r="M516" s="72"/>
-      <c r="N516" s="72"/>
-      <c r="O516" s="72"/>
-      <c r="P516" s="12"/>
-      <c r="Q516" s="11"/>
-      <c r="R516" s="72"/>
-      <c r="S516" s="72"/>
-      <c r="T516" s="72"/>
-      <c r="U516" s="12"/>
-      <c r="W516" s="76" t="s">
+      <c r="K551" s="67"/>
+      <c r="L551" s="67"/>
+      <c r="M551" s="67"/>
+      <c r="N551" s="67"/>
+      <c r="O551" s="67"/>
+      <c r="P551" s="12"/>
+      <c r="Q551" s="11"/>
+      <c r="R551" s="67"/>
+      <c r="S551" s="67"/>
+      <c r="T551" s="67"/>
+      <c r="U551" s="12"/>
+      <c r="W551" s="71" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="517" spans="3:23">
-      <c r="C517" s="70" t="s">
+    <row r="552" spans="3:23">
+      <c r="C552" s="65" t="s">
         <v>593</v>
       </c>
-      <c r="E517" s="9" t="s">
+      <c r="E552" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="I517" s="2"/>
-      <c r="J517" s="9" t="s">
+      <c r="I552" s="2"/>
+      <c r="J552" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="P517" s="2"/>
-      <c r="Q517" s="8" t="s">
+      <c r="P552" s="2"/>
+      <c r="Q552" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="U517" s="2"/>
-      <c r="W517" s="76" t="s">
+      <c r="U552" s="2"/>
+      <c r="W552" s="71" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="518" spans="3:23">
-      <c r="C518" s="15" t="s">
+    <row r="553" spans="3:23">
+      <c r="C553" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="D518" s="73"/>
-      <c r="E518" s="35" t="s">
+      <c r="D553" s="68"/>
+      <c r="E553" s="35" t="s">
         <v>599</v>
       </c>
-      <c r="F518" s="73"/>
-      <c r="G518" s="73"/>
-      <c r="H518" s="73"/>
-      <c r="I518" s="18"/>
-      <c r="J518" s="35" t="s">
+      <c r="F553" s="68"/>
+      <c r="G553" s="68"/>
+      <c r="H553" s="68"/>
+      <c r="I553" s="18"/>
+      <c r="J553" s="35" t="s">
         <v>600</v>
       </c>
-      <c r="K518" s="73"/>
-      <c r="L518" s="73"/>
-      <c r="M518" s="73"/>
-      <c r="N518" s="73"/>
-      <c r="O518" s="73"/>
-      <c r="P518" s="18"/>
-      <c r="Q518" s="75" t="s">
+      <c r="K553" s="68"/>
+      <c r="L553" s="68"/>
+      <c r="M553" s="68"/>
+      <c r="N553" s="68"/>
+      <c r="O553" s="68"/>
+      <c r="P553" s="18"/>
+      <c r="Q553" s="70" t="s">
         <v>601</v>
       </c>
-      <c r="R518" s="73"/>
-      <c r="S518" s="73"/>
-      <c r="T518" s="73"/>
-      <c r="U518" s="18"/>
-    </row>
-    <row r="519" spans="3:23">
-      <c r="C519" s="15" t="s">
+      <c r="R553" s="68"/>
+      <c r="S553" s="68"/>
+      <c r="T553" s="68"/>
+      <c r="U553" s="18"/>
+    </row>
+    <row r="554" spans="3:23">
+      <c r="C554" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="D519" s="73"/>
-      <c r="E519" s="35" t="s">
+      <c r="D554" s="68"/>
+      <c r="E554" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="F519" s="73"/>
-      <c r="G519" s="73"/>
-      <c r="H519" s="73"/>
-      <c r="I519" s="18"/>
-      <c r="J519" s="35" t="s">
+      <c r="F554" s="68"/>
+      <c r="G554" s="68"/>
+      <c r="H554" s="68"/>
+      <c r="I554" s="18"/>
+      <c r="J554" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="K519" s="73"/>
-      <c r="L519" s="73"/>
-      <c r="M519" s="73"/>
-      <c r="N519" s="73"/>
-      <c r="O519" s="73"/>
-      <c r="P519" s="18"/>
-      <c r="Q519" s="75" t="s">
+      <c r="K554" s="68"/>
+      <c r="L554" s="68"/>
+      <c r="M554" s="68"/>
+      <c r="N554" s="68"/>
+      <c r="O554" s="68"/>
+      <c r="P554" s="18"/>
+      <c r="Q554" s="70" t="s">
         <v>605</v>
       </c>
-      <c r="R519" s="73"/>
-      <c r="S519" s="73"/>
-      <c r="T519" s="73"/>
-      <c r="U519" s="18"/>
-    </row>
-    <row r="520" spans="3:23">
-      <c r="C520" s="71" t="s">
+      <c r="R554" s="68"/>
+      <c r="S554" s="68"/>
+      <c r="T554" s="68"/>
+      <c r="U554" s="18"/>
+    </row>
+    <row r="555" spans="3:23">
+      <c r="C555" s="66" t="s">
         <v>606</v>
       </c>
-      <c r="D520" s="72"/>
-      <c r="E520" s="10" t="s">
+      <c r="D555" s="67"/>
+      <c r="E555" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="F520" s="72"/>
-      <c r="G520" s="72"/>
-      <c r="H520" s="72"/>
-      <c r="I520" s="12"/>
-      <c r="J520" s="10" t="s">
+      <c r="F555" s="67"/>
+      <c r="G555" s="67"/>
+      <c r="H555" s="67"/>
+      <c r="I555" s="12"/>
+      <c r="J555" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="K520" s="72"/>
-      <c r="L520" s="72"/>
-      <c r="M520" s="72"/>
-      <c r="N520" s="72"/>
-      <c r="O520" s="72"/>
-      <c r="P520" s="12"/>
-      <c r="Q520" s="11" t="s">
+      <c r="K555" s="67"/>
+      <c r="L555" s="67"/>
+      <c r="M555" s="67"/>
+      <c r="N555" s="67"/>
+      <c r="O555" s="67"/>
+      <c r="P555" s="12"/>
+      <c r="Q555" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="R520" s="72"/>
-      <c r="S520" s="72"/>
-      <c r="T520" s="72"/>
-      <c r="U520" s="12"/>
-    </row>
-    <row r="522" spans="3:23">
-      <c r="C522" s="67" t="s">
+      <c r="R555" s="67"/>
+      <c r="S555" s="67"/>
+      <c r="T555" s="67"/>
+      <c r="U555" s="12"/>
+    </row>
+    <row r="557" spans="3:23">
+      <c r="C557" s="62" t="s">
         <v>610</v>
       </c>
-      <c r="D522" s="6"/>
-      <c r="E522" s="5" t="s">
+      <c r="D557" s="6"/>
+      <c r="E557" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="F522" s="68"/>
-      <c r="G522" s="68"/>
-      <c r="H522" s="6"/>
-    </row>
-    <row r="523" spans="3:23">
-      <c r="C523" s="9" t="s">
+      <c r="F557" s="63"/>
+      <c r="G557" s="63"/>
+      <c r="H557" s="6"/>
+    </row>
+    <row r="558" spans="3:23">
+      <c r="C558" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="D523" s="2"/>
-      <c r="E523" s="8" t="s">
+      <c r="D558" s="2"/>
+      <c r="E558" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="H523" s="2"/>
-    </row>
-    <row r="524" spans="3:23">
-      <c r="C524" s="9" t="s">
+      <c r="H558" s="2"/>
+    </row>
+    <row r="559" spans="3:23">
+      <c r="C559" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="D524" s="2"/>
-      <c r="E524" s="8" t="s">
+      <c r="D559" s="2"/>
+      <c r="E559" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="H524" s="2"/>
-    </row>
-    <row r="525" spans="3:23">
-      <c r="C525" s="9" t="s">
+      <c r="H559" s="2"/>
+    </row>
+    <row r="560" spans="3:23">
+      <c r="C560" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="D525" s="2"/>
-      <c r="E525" s="8" t="s">
+      <c r="D560" s="2"/>
+      <c r="E560" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="H525" s="2"/>
-    </row>
-    <row r="526" spans="3:23">
-      <c r="C526" s="9" t="s">
+      <c r="H560" s="2"/>
+    </row>
+    <row r="561" spans="2:8">
+      <c r="C561" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="D526" s="2"/>
-      <c r="E526" s="8" t="s">
+      <c r="D561" s="2"/>
+      <c r="E561" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="H526" s="2"/>
-    </row>
-    <row r="527" spans="3:23">
-      <c r="C527" s="9" t="s">
+      <c r="H561" s="2"/>
+    </row>
+    <row r="562" spans="2:8">
+      <c r="C562" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="D527" s="2"/>
-      <c r="E527" s="8" t="s">
+      <c r="D562" s="2"/>
+      <c r="E562" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="H527" s="2"/>
-    </row>
-    <row r="528" spans="3:23">
-      <c r="C528" s="10" t="s">
+      <c r="H562" s="2"/>
+    </row>
+    <row r="563" spans="2:8">
+      <c r="C563" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="D528" s="12"/>
-      <c r="E528" s="11" t="s">
+      <c r="D563" s="12"/>
+      <c r="E563" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="F528" s="72"/>
-      <c r="G528" s="72"/>
-      <c r="H528" s="12"/>
-    </row>
-    <row r="529" spans="2:2">
-      <c r="B529" t="s">
+      <c r="F563" s="67"/>
+      <c r="G563" s="67"/>
+      <c r="H563" s="12"/>
+    </row>
+    <row r="564" spans="2:8">
+      <c r="B564" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="545" spans="1:22">
-      <c r="A545" s="2">
+    <row r="580" spans="1:22">
+      <c r="A580" s="2">
         <v>26</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B580" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="546" spans="1:22">
-      <c r="D546" s="94" t="s">
+    <row r="581" spans="1:22">
+      <c r="D581" s="89" t="s">
         <v>620</v>
       </c>
-      <c r="E546" s="95"/>
-      <c r="F546" s="95"/>
-      <c r="G546" s="94" t="s">
+      <c r="E581" s="90"/>
+      <c r="F581" s="90"/>
+      <c r="G581" s="89" t="s">
         <v>621</v>
       </c>
-      <c r="H546" s="95"/>
-      <c r="I546" s="95"/>
-      <c r="J546" s="95"/>
-      <c r="K546" s="95"/>
-      <c r="L546" s="96"/>
-      <c r="M546" s="94" t="s">
+      <c r="H581" s="90"/>
+      <c r="I581" s="90"/>
+      <c r="J581" s="90"/>
+      <c r="K581" s="90"/>
+      <c r="L581" s="91"/>
+      <c r="M581" s="89" t="s">
         <v>622</v>
       </c>
-      <c r="N546" s="95"/>
-      <c r="O546" s="96"/>
-      <c r="P546" s="97" t="s">
+      <c r="N581" s="90"/>
+      <c r="O581" s="91"/>
+      <c r="P581" s="92" t="s">
         <v>623</v>
       </c>
-      <c r="Q546" s="95"/>
-      <c r="R546" s="95"/>
-      <c r="S546" s="95"/>
-      <c r="T546" s="95"/>
-      <c r="U546" s="95"/>
-      <c r="V546" s="96"/>
-    </row>
-    <row r="547" spans="1:22">
-      <c r="D547" s="15" t="s">
+      <c r="Q581" s="90"/>
+      <c r="R581" s="90"/>
+      <c r="S581" s="90"/>
+      <c r="T581" s="90"/>
+      <c r="U581" s="90"/>
+      <c r="V581" s="91"/>
+    </row>
+    <row r="582" spans="1:22">
+      <c r="D582" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="E547" s="73"/>
-      <c r="F547" s="73"/>
-      <c r="G547" s="98" t="s">
+      <c r="E582" s="68"/>
+      <c r="F582" s="68"/>
+      <c r="G582" s="93" t="s">
         <v>625</v>
       </c>
-      <c r="H547" s="73"/>
-      <c r="I547" s="73"/>
-      <c r="J547" s="73"/>
-      <c r="K547" s="73"/>
-      <c r="L547" s="18"/>
-      <c r="M547" s="35" t="s">
+      <c r="H582" s="68"/>
+      <c r="I582" s="68"/>
+      <c r="J582" s="68"/>
+      <c r="K582" s="68"/>
+      <c r="L582" s="18"/>
+      <c r="M582" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="N547" s="73"/>
-      <c r="O547" s="18"/>
-      <c r="P547" s="75" t="s">
+      <c r="N582" s="68"/>
+      <c r="O582" s="18"/>
+      <c r="P582" s="70" t="s">
         <v>627</v>
       </c>
-      <c r="Q547" s="73"/>
-      <c r="R547" s="73"/>
-      <c r="S547" s="73"/>
-      <c r="T547" s="73"/>
-      <c r="U547" s="73"/>
-      <c r="V547" s="18"/>
-    </row>
-    <row r="548" spans="1:22">
-      <c r="D548" s="15" t="s">
+      <c r="Q582" s="68"/>
+      <c r="R582" s="68"/>
+      <c r="S582" s="68"/>
+      <c r="T582" s="68"/>
+      <c r="U582" s="68"/>
+      <c r="V582" s="18"/>
+    </row>
+    <row r="583" spans="1:22">
+      <c r="D583" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="E548" s="73"/>
-      <c r="F548" s="73"/>
-      <c r="G548" s="35" t="s">
+      <c r="E583" s="68"/>
+      <c r="F583" s="68"/>
+      <c r="G583" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="H548" s="73"/>
-      <c r="I548" s="73"/>
-      <c r="J548" s="73"/>
-      <c r="K548" s="73"/>
-      <c r="L548" s="18"/>
-      <c r="M548" s="35" t="s">
+      <c r="H583" s="68"/>
+      <c r="I583" s="68"/>
+      <c r="J583" s="68"/>
+      <c r="K583" s="68"/>
+      <c r="L583" s="18"/>
+      <c r="M583" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="N548" s="73"/>
-      <c r="O548" s="18"/>
-      <c r="P548" s="75" t="s">
+      <c r="N583" s="68"/>
+      <c r="O583" s="18"/>
+      <c r="P583" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="Q548" s="73"/>
-      <c r="R548" s="73"/>
-      <c r="S548" s="73"/>
-      <c r="T548" s="73"/>
-      <c r="U548" s="73"/>
-      <c r="V548" s="18"/>
-    </row>
-    <row r="549" spans="1:22">
-      <c r="D549" s="15" t="s">
+      <c r="Q583" s="68"/>
+      <c r="R583" s="68"/>
+      <c r="S583" s="68"/>
+      <c r="T583" s="68"/>
+      <c r="U583" s="68"/>
+      <c r="V583" s="18"/>
+    </row>
+    <row r="584" spans="1:22">
+      <c r="D584" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="E549" s="73"/>
-      <c r="F549" s="73"/>
-      <c r="G549" s="35" t="s">
+      <c r="E584" s="68"/>
+      <c r="F584" s="68"/>
+      <c r="G584" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="H549" s="73"/>
-      <c r="I549" s="73"/>
-      <c r="J549" s="73"/>
-      <c r="K549" s="73"/>
-      <c r="L549" s="18"/>
-      <c r="M549" s="35" t="s">
+      <c r="H584" s="68"/>
+      <c r="I584" s="68"/>
+      <c r="J584" s="68"/>
+      <c r="K584" s="68"/>
+      <c r="L584" s="18"/>
+      <c r="M584" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="N549" s="73"/>
-      <c r="O549" s="18"/>
-      <c r="P549" s="75" t="s">
+      <c r="N584" s="68"/>
+      <c r="O584" s="18"/>
+      <c r="P584" s="70" t="s">
         <v>633</v>
       </c>
-      <c r="Q549" s="73"/>
-      <c r="R549" s="73"/>
-      <c r="S549" s="73"/>
-      <c r="T549" s="73"/>
-      <c r="U549" s="73"/>
-      <c r="V549" s="18"/>
-    </row>
-    <row r="550" spans="1:22">
-      <c r="D550" s="15" t="s">
+      <c r="Q584" s="68"/>
+      <c r="R584" s="68"/>
+      <c r="S584" s="68"/>
+      <c r="T584" s="68"/>
+      <c r="U584" s="68"/>
+      <c r="V584" s="18"/>
+    </row>
+    <row r="585" spans="1:22">
+      <c r="D585" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="E550" s="73"/>
-      <c r="F550" s="73"/>
-      <c r="G550" s="99" t="s">
+      <c r="E585" s="68"/>
+      <c r="F585" s="68"/>
+      <c r="G585" s="94" t="s">
         <v>635</v>
       </c>
-      <c r="H550" s="73"/>
-      <c r="I550" s="73"/>
-      <c r="J550" s="73"/>
-      <c r="K550" s="73"/>
-      <c r="L550" s="18"/>
-      <c r="M550" s="35" t="s">
+      <c r="H585" s="68"/>
+      <c r="I585" s="68"/>
+      <c r="J585" s="68"/>
+      <c r="K585" s="68"/>
+      <c r="L585" s="18"/>
+      <c r="M585" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="N550" s="73"/>
-      <c r="O550" s="18"/>
-      <c r="P550" s="75" t="s">
+      <c r="N585" s="68"/>
+      <c r="O585" s="18"/>
+      <c r="P585" s="70" t="s">
         <v>637</v>
       </c>
-      <c r="Q550" s="73"/>
-      <c r="R550" s="73"/>
-      <c r="S550" s="73"/>
-      <c r="T550" s="73"/>
-      <c r="U550" s="73"/>
-      <c r="V550" s="18"/>
-    </row>
-    <row r="551" spans="1:22">
-      <c r="D551" s="15" t="s">
+      <c r="Q585" s="68"/>
+      <c r="R585" s="68"/>
+      <c r="S585" s="68"/>
+      <c r="T585" s="68"/>
+      <c r="U585" s="68"/>
+      <c r="V585" s="18"/>
+    </row>
+    <row r="586" spans="1:22">
+      <c r="D586" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="E551" s="73"/>
-      <c r="F551" s="73"/>
-      <c r="G551" s="99" t="s">
+      <c r="E586" s="68"/>
+      <c r="F586" s="68"/>
+      <c r="G586" s="94" t="s">
         <v>639</v>
       </c>
-      <c r="H551" s="73"/>
-      <c r="I551" s="73"/>
-      <c r="J551" s="73"/>
-      <c r="K551" s="73"/>
-      <c r="L551" s="18"/>
-      <c r="M551" s="35" t="s">
+      <c r="H586" s="68"/>
+      <c r="I586" s="68"/>
+      <c r="J586" s="68"/>
+      <c r="K586" s="68"/>
+      <c r="L586" s="18"/>
+      <c r="M586" s="35" t="s">
         <v>640</v>
       </c>
-      <c r="N551" s="73"/>
-      <c r="O551" s="18"/>
-      <c r="P551" s="75" t="s">
+      <c r="N586" s="68"/>
+      <c r="O586" s="18"/>
+      <c r="P586" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="Q551" s="73"/>
-      <c r="R551" s="73"/>
-      <c r="S551" s="73"/>
-      <c r="T551" s="73"/>
-      <c r="U551" s="73"/>
-      <c r="V551" s="18"/>
-    </row>
-    <row r="552" spans="1:22">
-      <c r="D552" s="15" t="s">
+      <c r="Q586" s="68"/>
+      <c r="R586" s="68"/>
+      <c r="S586" s="68"/>
+      <c r="T586" s="68"/>
+      <c r="U586" s="68"/>
+      <c r="V586" s="18"/>
+    </row>
+    <row r="587" spans="1:22">
+      <c r="D587" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="E552" s="73"/>
-      <c r="F552" s="73"/>
-      <c r="G552" s="99" t="s">
+      <c r="E587" s="68"/>
+      <c r="F587" s="68"/>
+      <c r="G587" s="94" t="s">
         <v>642</v>
       </c>
-      <c r="H552" s="73"/>
-      <c r="I552" s="73"/>
-      <c r="J552" s="73"/>
-      <c r="K552" s="73"/>
-      <c r="L552" s="18"/>
-      <c r="M552" s="35" t="s">
+      <c r="H587" s="68"/>
+      <c r="I587" s="68"/>
+      <c r="J587" s="68"/>
+      <c r="K587" s="68"/>
+      <c r="L587" s="18"/>
+      <c r="M587" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="N552" s="73"/>
-      <c r="O552" s="18"/>
-      <c r="P552" s="100" t="s">
+      <c r="N587" s="68"/>
+      <c r="O587" s="18"/>
+      <c r="P587" s="95" t="s">
         <v>643</v>
       </c>
-      <c r="Q552" s="73"/>
-      <c r="R552" s="73"/>
-      <c r="S552" s="73"/>
-      <c r="T552" s="73"/>
-      <c r="U552" s="73"/>
-      <c r="V552" s="18"/>
-    </row>
-    <row r="553" spans="1:22">
-      <c r="D553" s="15" t="s">
+      <c r="Q587" s="68"/>
+      <c r="R587" s="68"/>
+      <c r="S587" s="68"/>
+      <c r="T587" s="68"/>
+      <c r="U587" s="68"/>
+      <c r="V587" s="18"/>
+    </row>
+    <row r="588" spans="1:22">
+      <c r="D588" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="E553" s="73"/>
-      <c r="F553" s="73"/>
-      <c r="G553" s="99" t="s">
+      <c r="E588" s="68"/>
+      <c r="F588" s="68"/>
+      <c r="G588" s="94" t="s">
         <v>645</v>
       </c>
-      <c r="H553" s="73"/>
-      <c r="I553" s="73"/>
-      <c r="J553" s="73"/>
-      <c r="K553" s="73"/>
-      <c r="L553" s="18"/>
-      <c r="M553" s="35" t="s">
+      <c r="H588" s="68"/>
+      <c r="I588" s="68"/>
+      <c r="J588" s="68"/>
+      <c r="K588" s="68"/>
+      <c r="L588" s="18"/>
+      <c r="M588" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="N553" s="73"/>
-      <c r="O553" s="18"/>
-      <c r="P553" s="75" t="s">
+      <c r="N588" s="68"/>
+      <c r="O588" s="18"/>
+      <c r="P588" s="70" t="s">
         <v>646</v>
       </c>
-      <c r="Q553" s="73"/>
-      <c r="R553" s="73"/>
-      <c r="S553" s="73"/>
-      <c r="T553" s="73"/>
-      <c r="U553" s="73"/>
-      <c r="V553" s="18"/>
-    </row>
-    <row r="555" spans="1:22">
-      <c r="A555" s="2">
+      <c r="Q588" s="68"/>
+      <c r="R588" s="68"/>
+      <c r="S588" s="68"/>
+      <c r="T588" s="68"/>
+      <c r="U588" s="68"/>
+      <c r="V588" s="18"/>
+    </row>
+    <row r="590" spans="1:22">
+      <c r="A590" s="2">
         <v>27</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B590" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="556" spans="1:22">
-      <c r="A556" s="2">
+    <row r="591" spans="1:22">
+      <c r="A591" s="2">
         <v>28</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B591" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="557" spans="1:22">
-      <c r="D557" s="94" t="s">
+    <row r="592" spans="1:22">
+      <c r="D592" s="89" t="s">
         <v>649</v>
       </c>
-      <c r="E557" s="94" t="s">
+      <c r="E592" s="89" t="s">
         <v>650</v>
       </c>
-      <c r="F557" s="95"/>
-      <c r="G557" s="95"/>
-      <c r="H557" s="95"/>
-      <c r="I557" s="96"/>
-      <c r="J557" s="97" t="s">
+      <c r="F592" s="90"/>
+      <c r="G592" s="90"/>
+      <c r="H592" s="90"/>
+      <c r="I592" s="91"/>
+      <c r="J592" s="92" t="s">
         <v>651</v>
       </c>
-      <c r="K557" s="95"/>
-      <c r="L557" s="95"/>
-      <c r="M557" s="95"/>
-      <c r="N557" s="95"/>
-      <c r="O557" s="94" t="s">
+      <c r="K592" s="90"/>
+      <c r="L592" s="90"/>
+      <c r="M592" s="90"/>
+      <c r="N592" s="90"/>
+      <c r="O592" s="89" t="s">
         <v>546</v>
       </c>
-      <c r="P557" s="95"/>
-      <c r="Q557" s="95"/>
-      <c r="R557" s="95"/>
-      <c r="S557" s="95"/>
-      <c r="T557" s="95"/>
-      <c r="U557" s="96"/>
-    </row>
-    <row r="558" spans="1:22">
-      <c r="D558" s="15" t="s">
+      <c r="P592" s="90"/>
+      <c r="Q592" s="90"/>
+      <c r="R592" s="90"/>
+      <c r="S592" s="90"/>
+      <c r="T592" s="90"/>
+      <c r="U592" s="91"/>
+    </row>
+    <row r="593" spans="1:21">
+      <c r="D593" s="15" t="s">
         <v>648</v>
       </c>
-      <c r="E558" s="35" t="s">
+      <c r="E593" s="35" t="s">
         <v>652</v>
       </c>
-      <c r="F558" s="73"/>
-      <c r="G558" s="73"/>
-      <c r="H558" s="73"/>
-      <c r="I558" s="18"/>
-      <c r="J558" s="101" t="s">
+      <c r="F593" s="68"/>
+      <c r="G593" s="68"/>
+      <c r="H593" s="68"/>
+      <c r="I593" s="18"/>
+      <c r="J593" s="96" t="s">
         <v>653</v>
       </c>
-      <c r="K558" s="73"/>
-      <c r="L558" s="73"/>
-      <c r="M558" s="73"/>
-      <c r="N558" s="73"/>
-      <c r="O558" s="35" t="s">
+      <c r="K593" s="68"/>
+      <c r="L593" s="68"/>
+      <c r="M593" s="68"/>
+      <c r="N593" s="68"/>
+      <c r="O593" s="35" t="s">
         <v>654</v>
       </c>
-      <c r="P558" s="73"/>
-      <c r="Q558" s="73"/>
-      <c r="R558" s="73"/>
-      <c r="S558" s="73"/>
-      <c r="T558" s="73"/>
-      <c r="U558" s="18"/>
-    </row>
-    <row r="559" spans="1:22">
-      <c r="D559" s="15" t="s">
+      <c r="P593" s="68"/>
+      <c r="Q593" s="68"/>
+      <c r="R593" s="68"/>
+      <c r="S593" s="68"/>
+      <c r="T593" s="68"/>
+      <c r="U593" s="18"/>
+    </row>
+    <row r="594" spans="1:21">
+      <c r="D594" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="E559" s="99" t="s">
+      <c r="E594" s="94" t="s">
         <v>656</v>
       </c>
-      <c r="F559" s="73"/>
-      <c r="G559" s="73"/>
-      <c r="H559" s="73"/>
-      <c r="I559" s="18"/>
-      <c r="J559" s="75" t="s">
+      <c r="F594" s="68"/>
+      <c r="G594" s="68"/>
+      <c r="H594" s="68"/>
+      <c r="I594" s="18"/>
+      <c r="J594" s="70" t="s">
         <v>657</v>
       </c>
-      <c r="K559" s="73"/>
-      <c r="L559" s="73"/>
-      <c r="M559" s="73"/>
-      <c r="N559" s="73"/>
-      <c r="O559" s="35"/>
-      <c r="P559" s="73"/>
-      <c r="Q559" s="73"/>
-      <c r="R559" s="73"/>
-      <c r="S559" s="73"/>
-      <c r="T559" s="73"/>
-      <c r="U559" s="18"/>
-    </row>
-    <row r="560" spans="1:22">
-      <c r="D560" s="15" t="s">
+      <c r="K594" s="68"/>
+      <c r="L594" s="68"/>
+      <c r="M594" s="68"/>
+      <c r="N594" s="68"/>
+      <c r="O594" s="35"/>
+      <c r="P594" s="68"/>
+      <c r="Q594" s="68"/>
+      <c r="R594" s="68"/>
+      <c r="S594" s="68"/>
+      <c r="T594" s="68"/>
+      <c r="U594" s="18"/>
+    </row>
+    <row r="595" spans="1:21">
+      <c r="D595" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="E560" s="99" t="s">
+      <c r="E595" s="94" t="s">
         <v>658</v>
       </c>
-      <c r="F560" s="73"/>
-      <c r="G560" s="73"/>
-      <c r="H560" s="73"/>
-      <c r="I560" s="18"/>
-      <c r="J560" s="75" t="s">
+      <c r="F595" s="68"/>
+      <c r="G595" s="68"/>
+      <c r="H595" s="68"/>
+      <c r="I595" s="18"/>
+      <c r="J595" s="70" t="s">
         <v>659</v>
       </c>
-      <c r="K560" s="73"/>
-      <c r="L560" s="73"/>
-      <c r="M560" s="73"/>
-      <c r="N560" s="73"/>
-      <c r="O560" s="35" t="s">
+      <c r="K595" s="68"/>
+      <c r="L595" s="68"/>
+      <c r="M595" s="68"/>
+      <c r="N595" s="68"/>
+      <c r="O595" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="P560" s="73"/>
-      <c r="Q560" s="73"/>
-      <c r="R560" s="73"/>
-      <c r="S560" s="73"/>
-      <c r="T560" s="73"/>
-      <c r="U560" s="18"/>
-    </row>
-    <row r="561" spans="1:21">
-      <c r="D561" s="15" t="s">
+      <c r="P595" s="68"/>
+      <c r="Q595" s="68"/>
+      <c r="R595" s="68"/>
+      <c r="S595" s="68"/>
+      <c r="T595" s="68"/>
+      <c r="U595" s="18"/>
+    </row>
+    <row r="596" spans="1:21">
+      <c r="D596" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="E561" s="99" t="s">
+      <c r="E596" s="94" t="s">
         <v>661</v>
       </c>
-      <c r="F561" s="73"/>
-      <c r="G561" s="73"/>
-      <c r="H561" s="73"/>
-      <c r="I561" s="18"/>
-      <c r="J561" s="75" t="s">
+      <c r="F596" s="68"/>
+      <c r="G596" s="68"/>
+      <c r="H596" s="68"/>
+      <c r="I596" s="18"/>
+      <c r="J596" s="70" t="s">
         <v>662</v>
       </c>
-      <c r="K561" s="73"/>
-      <c r="L561" s="73"/>
-      <c r="M561" s="73"/>
-      <c r="N561" s="73"/>
-      <c r="O561" s="102" t="s">
+      <c r="K596" s="68"/>
+      <c r="L596" s="68"/>
+      <c r="M596" s="68"/>
+      <c r="N596" s="68"/>
+      <c r="O596" s="97" t="s">
         <v>663</v>
       </c>
-      <c r="P561" s="73"/>
-      <c r="Q561" s="73"/>
-      <c r="R561" s="73"/>
-      <c r="S561" s="73"/>
-      <c r="T561" s="73"/>
-      <c r="U561" s="18"/>
-    </row>
-    <row r="562" spans="1:21">
-      <c r="D562" s="85" t="s">
+      <c r="P596" s="68"/>
+      <c r="Q596" s="68"/>
+      <c r="R596" s="68"/>
+      <c r="S596" s="68"/>
+      <c r="T596" s="68"/>
+      <c r="U596" s="18"/>
+    </row>
+    <row r="597" spans="1:21">
+      <c r="D597" s="80" t="s">
         <v>655</v>
       </c>
-      <c r="E562" s="103" t="s">
+      <c r="E597" s="98" t="s">
         <v>664</v>
       </c>
-      <c r="F562" s="68"/>
-      <c r="G562" s="68"/>
-      <c r="H562" s="68"/>
-      <c r="I562" s="6"/>
-      <c r="J562" s="69" t="s">
+      <c r="F597" s="63"/>
+      <c r="G597" s="63"/>
+      <c r="H597" s="63"/>
+      <c r="I597" s="6"/>
+      <c r="J597" s="64" t="s">
         <v>665</v>
       </c>
-      <c r="K562" s="68"/>
-      <c r="L562" s="68"/>
-      <c r="M562" s="68"/>
-      <c r="N562" s="68"/>
-      <c r="O562" s="32"/>
-      <c r="P562" s="68"/>
-      <c r="Q562" s="68"/>
-      <c r="R562" s="68"/>
-      <c r="S562" s="68"/>
-      <c r="T562" s="68"/>
-      <c r="U562" s="6"/>
-    </row>
-    <row r="563" spans="1:21">
-      <c r="D563" s="87"/>
-      <c r="E563" s="104"/>
-      <c r="I563" s="2"/>
-      <c r="J563" s="105" t="s">
+      <c r="K597" s="63"/>
+      <c r="L597" s="63"/>
+      <c r="M597" s="63"/>
+      <c r="N597" s="63"/>
+      <c r="O597" s="32"/>
+      <c r="P597" s="63"/>
+      <c r="Q597" s="63"/>
+      <c r="R597" s="63"/>
+      <c r="S597" s="63"/>
+      <c r="T597" s="63"/>
+      <c r="U597" s="6"/>
+    </row>
+    <row r="598" spans="1:21">
+      <c r="D598" s="82"/>
+      <c r="E598" s="99"/>
+      <c r="I598" s="2"/>
+      <c r="J598" s="100" t="s">
         <v>666</v>
       </c>
-      <c r="O563" s="9"/>
-      <c r="U563" s="2"/>
-    </row>
-    <row r="564" spans="1:21">
-      <c r="D564" s="89"/>
-      <c r="E564" s="106"/>
-      <c r="F564" s="72"/>
-      <c r="G564" s="72"/>
-      <c r="H564" s="72"/>
-      <c r="I564" s="12"/>
-      <c r="J564" s="107" t="s">
+      <c r="O598" s="9"/>
+      <c r="U598" s="2"/>
+    </row>
+    <row r="599" spans="1:21">
+      <c r="D599" s="84"/>
+      <c r="E599" s="101"/>
+      <c r="F599" s="67"/>
+      <c r="G599" s="67"/>
+      <c r="H599" s="67"/>
+      <c r="I599" s="12"/>
+      <c r="J599" s="102" t="s">
         <v>667</v>
       </c>
-      <c r="K564" s="72"/>
-      <c r="L564" s="72"/>
-      <c r="M564" s="72"/>
-      <c r="N564" s="72"/>
-      <c r="O564" s="10"/>
-      <c r="P564" s="72"/>
-      <c r="Q564" s="72"/>
-      <c r="R564" s="72"/>
-      <c r="S564" s="72"/>
-      <c r="T564" s="72"/>
-      <c r="U564" s="12"/>
-    </row>
-    <row r="566" spans="1:21">
-      <c r="A566" s="2">
+      <c r="K599" s="67"/>
+      <c r="L599" s="67"/>
+      <c r="M599" s="67"/>
+      <c r="N599" s="67"/>
+      <c r="O599" s="10"/>
+      <c r="P599" s="67"/>
+      <c r="Q599" s="67"/>
+      <c r="R599" s="67"/>
+      <c r="S599" s="67"/>
+      <c r="T599" s="67"/>
+      <c r="U599" s="12"/>
+    </row>
+    <row r="601" spans="1:21">
+      <c r="A601" s="2">
         <v>29</v>
       </c>
-      <c r="B566" s="1" t="s">
+      <c r="B601" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="567" spans="1:21">
-      <c r="C567" s="3" t="s">
+    <row r="602" spans="1:21">
+      <c r="C602" s="3" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="568" spans="1:21">
-      <c r="C568" s="3" t="s">
+    <row r="603" spans="1:21">
+      <c r="C603" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="569" spans="1:21">
-      <c r="C569" s="3"/>
-      <c r="D569" s="3" t="s">
+    <row r="604" spans="1:21">
+      <c r="C604" s="3"/>
+      <c r="D604" s="3" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="570" spans="1:21">
-      <c r="C570" s="3"/>
-      <c r="D570" s="78" t="s">
+    <row r="605" spans="1:21">
+      <c r="C605" s="3"/>
+      <c r="D605" s="73" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="571" spans="1:21">
-      <c r="C571" s="3"/>
-      <c r="D571" s="78" t="s">
+    <row r="606" spans="1:21">
+      <c r="C606" s="3"/>
+      <c r="D606" s="73" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="572" spans="1:21">
-      <c r="C572" s="3"/>
-      <c r="D572" s="78" t="s">
+    <row r="607" spans="1:21">
+      <c r="C607" s="3"/>
+      <c r="D607" s="73" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="573" spans="1:21">
-      <c r="B573" t="s">
+    <row r="608" spans="1:21">
+      <c r="B608" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="574" spans="1:21">
-      <c r="C574" s="3" t="s">
+    <row r="609" spans="3:3">
+      <c r="C609" s="3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="575" spans="1:21">
-      <c r="C575" s="3" t="s">
+    <row r="610" spans="3:3">
+      <c r="C610" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="593" spans="2:25">
-      <c r="B593" s="1" t="s">
+    <row r="628" spans="2:4">
+      <c r="B628" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="594" spans="2:25">
-      <c r="C594" s="3" t="s">
+    <row r="629" spans="2:4">
+      <c r="C629" s="3" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="595" spans="2:25">
-      <c r="C595" s="3" t="s">
+    <row r="630" spans="2:4">
+      <c r="C630" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="596" spans="2:25">
-      <c r="D596" t="s">
+    <row r="631" spans="2:4">
+      <c r="D631" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="597" spans="2:25">
-      <c r="D597" t="s">
+    <row r="632" spans="2:4">
+      <c r="D632" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="598" spans="2:25">
-      <c r="D598" t="s">
+    <row r="633" spans="2:4">
+      <c r="D633" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="599" spans="2:25">
-      <c r="D599" t="s">
+    <row r="634" spans="2:4">
+      <c r="D634" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="600" spans="2:25">
-      <c r="B600" t="s">
+    <row r="635" spans="2:4">
+      <c r="B635" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="601" spans="2:25">
-      <c r="C601" s="3" t="s">
+    <row r="636" spans="2:4">
+      <c r="C636" s="3" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="602" spans="2:25">
-      <c r="D602" s="3" t="s">
+    <row r="637" spans="2:4">
+      <c r="D637" s="3" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="603" spans="2:25">
-      <c r="D603" s="3" t="s">
+    <row r="638" spans="2:4">
+      <c r="D638" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="604" spans="2:25">
-      <c r="D604" s="3" t="s">
+    <row r="639" spans="2:4">
+      <c r="D639" s="3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="606" spans="2:25">
-      <c r="C606" s="94" t="s">
+    <row r="641" spans="1:25">
+      <c r="C641" s="89" t="s">
         <v>690</v>
       </c>
-      <c r="D606" s="95"/>
-      <c r="E606" s="95"/>
-      <c r="F606" s="95"/>
-      <c r="G606" s="95"/>
-      <c r="H606" s="95"/>
-      <c r="I606" s="94" t="s">
+      <c r="D641" s="90"/>
+      <c r="E641" s="90"/>
+      <c r="F641" s="90"/>
+      <c r="G641" s="90"/>
+      <c r="H641" s="90"/>
+      <c r="I641" s="89" t="s">
         <v>352</v>
       </c>
-      <c r="J606" s="95"/>
-      <c r="K606" s="95"/>
-      <c r="L606" s="95"/>
-      <c r="M606" s="96"/>
-      <c r="N606" s="97" t="s">
+      <c r="J641" s="90"/>
+      <c r="K641" s="90"/>
+      <c r="L641" s="90"/>
+      <c r="M641" s="91"/>
+      <c r="N641" s="92" t="s">
         <v>691</v>
       </c>
-      <c r="O606" s="95"/>
-      <c r="P606" s="95"/>
-      <c r="Q606" s="95"/>
-      <c r="R606" s="94" t="s">
+      <c r="O641" s="90"/>
+      <c r="P641" s="90"/>
+      <c r="Q641" s="90"/>
+      <c r="R641" s="89" t="s">
         <v>692</v>
       </c>
-      <c r="S606" s="96"/>
-      <c r="T606" s="97" t="s">
+      <c r="S641" s="91"/>
+      <c r="T641" s="92" t="s">
         <v>693</v>
       </c>
-      <c r="U606" s="95"/>
-      <c r="V606" s="95"/>
-      <c r="W606" s="95"/>
-      <c r="X606" s="95"/>
-      <c r="Y606" s="96"/>
-    </row>
-    <row r="607" spans="2:25">
-      <c r="C607" s="70" t="s">
+      <c r="U641" s="90"/>
+      <c r="V641" s="90"/>
+      <c r="W641" s="90"/>
+      <c r="X641" s="90"/>
+      <c r="Y641" s="91"/>
+    </row>
+    <row r="642" spans="1:25">
+      <c r="C642" s="65" t="s">
         <v>694</v>
       </c>
-      <c r="I607" s="9" t="s">
+      <c r="I642" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="M607" s="2"/>
-      <c r="N607" s="108" t="s">
+      <c r="M642" s="2"/>
+      <c r="N642" s="103" t="s">
         <v>696</v>
       </c>
-      <c r="R607" s="9" t="s">
+      <c r="R642" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="S607" s="2"/>
-      <c r="T607" s="8" t="s">
+      <c r="S642" s="2"/>
+      <c r="T642" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="Y607" s="2"/>
-    </row>
-    <row r="608" spans="2:25">
-      <c r="C608" s="70" t="s">
+      <c r="Y642" s="2"/>
+    </row>
+    <row r="643" spans="1:25">
+      <c r="C643" s="65" t="s">
         <v>699</v>
       </c>
-      <c r="I608" s="9" t="s">
+      <c r="I643" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="M608" s="2"/>
-      <c r="N608" s="108" t="s">
+      <c r="M643" s="2"/>
+      <c r="N643" s="103" t="s">
         <v>701</v>
       </c>
-      <c r="R608" s="9" t="s">
+      <c r="R643" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="S608" s="2"/>
-      <c r="T608" s="8" t="s">
+      <c r="S643" s="2"/>
+      <c r="T643" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="Y608" s="2"/>
-    </row>
-    <row r="609" spans="1:25">
-      <c r="C609" s="70" t="s">
+      <c r="Y643" s="2"/>
+    </row>
+    <row r="644" spans="1:25">
+      <c r="C644" s="65" t="s">
         <v>704</v>
       </c>
-      <c r="I609" s="9" t="s">
+      <c r="I644" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="M609" s="2"/>
-      <c r="N609" s="108" t="s">
+      <c r="M644" s="2"/>
+      <c r="N644" s="103" t="s">
         <v>701</v>
       </c>
-      <c r="R609" s="9" t="s">
+      <c r="R644" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="S609" s="2"/>
-      <c r="T609" s="8" t="s">
+      <c r="S644" s="2"/>
+      <c r="T644" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="Y609" s="2"/>
-    </row>
-    <row r="610" spans="1:25">
-      <c r="C610" s="70" t="s">
+      <c r="Y644" s="2"/>
+    </row>
+    <row r="645" spans="1:25">
+      <c r="C645" s="65" t="s">
         <v>707</v>
       </c>
-      <c r="I610" s="9" t="s">
+      <c r="I645" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="M610" s="2"/>
-      <c r="N610" s="108" t="s">
+      <c r="M645" s="2"/>
+      <c r="N645" s="103" t="s">
         <v>696</v>
       </c>
-      <c r="R610" s="9" t="s">
+      <c r="R645" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="S610" s="2"/>
-      <c r="T610" s="8" t="s">
+      <c r="S645" s="2"/>
+      <c r="T645" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="Y610" s="2"/>
-    </row>
-    <row r="611" spans="1:25">
-      <c r="C611" s="71" t="s">
+      <c r="Y645" s="2"/>
+    </row>
+    <row r="646" spans="1:25">
+      <c r="C646" s="66" t="s">
         <v>710</v>
       </c>
-      <c r="D611" s="72"/>
-      <c r="E611" s="72"/>
-      <c r="F611" s="72"/>
-      <c r="G611" s="72"/>
-      <c r="H611" s="72"/>
-      <c r="I611" s="10" t="s">
+      <c r="D646" s="67"/>
+      <c r="E646" s="67"/>
+      <c r="F646" s="67"/>
+      <c r="G646" s="67"/>
+      <c r="H646" s="67"/>
+      <c r="I646" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="J611" s="72"/>
-      <c r="K611" s="72"/>
-      <c r="L611" s="72"/>
-      <c r="M611" s="12"/>
-      <c r="N611" s="109" t="s">
+      <c r="J646" s="67"/>
+      <c r="K646" s="67"/>
+      <c r="L646" s="67"/>
+      <c r="M646" s="12"/>
+      <c r="N646" s="104" t="s">
         <v>712</v>
       </c>
-      <c r="O611" s="72"/>
-      <c r="P611" s="72"/>
-      <c r="Q611" s="72"/>
-      <c r="R611" s="10" t="s">
+      <c r="O646" s="67"/>
+      <c r="P646" s="67"/>
+      <c r="Q646" s="67"/>
+      <c r="R646" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="S611" s="12"/>
-      <c r="T611" s="11" t="s">
+      <c r="S646" s="12"/>
+      <c r="T646" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="U611" s="72"/>
-      <c r="V611" s="72"/>
-      <c r="W611" s="72"/>
-      <c r="X611" s="72"/>
-      <c r="Y611" s="12"/>
-    </row>
-    <row r="613" spans="1:25">
-      <c r="A613" s="2">
+      <c r="U646" s="67"/>
+      <c r="V646" s="67"/>
+      <c r="W646" s="67"/>
+      <c r="X646" s="67"/>
+      <c r="Y646" s="12"/>
+    </row>
+    <row r="648" spans="1:25">
+      <c r="A648" s="2">
         <v>30</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B648" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="614" spans="1:25">
-      <c r="C614" s="110" t="s">
+    <row r="649" spans="1:25">
+      <c r="C649" s="105" t="s">
         <v>715</v>
       </c>
-      <c r="D614" s="95"/>
-      <c r="E614" s="95"/>
-      <c r="F614" s="110" t="s">
+      <c r="D649" s="90"/>
+      <c r="E649" s="90"/>
+      <c r="F649" s="105" t="s">
         <v>716</v>
       </c>
-      <c r="G614" s="95"/>
-      <c r="H614" s="96"/>
-      <c r="I614" s="95" t="s">
+      <c r="G649" s="90"/>
+      <c r="H649" s="91"/>
+      <c r="I649" s="90" t="s">
         <v>717</v>
       </c>
-      <c r="J614" s="95"/>
-      <c r="K614" s="95"/>
-      <c r="L614" s="110" t="s">
+      <c r="J649" s="90"/>
+      <c r="K649" s="90"/>
+      <c r="L649" s="105" t="s">
         <v>718</v>
       </c>
-      <c r="M614" s="96"/>
-      <c r="N614" s="95" t="s">
+      <c r="M649" s="91"/>
+      <c r="N649" s="90" t="s">
         <v>719</v>
       </c>
-      <c r="O614" s="95"/>
-      <c r="P614" s="95"/>
-      <c r="Q614" s="110" t="s">
+      <c r="O649" s="90"/>
+      <c r="P649" s="90"/>
+      <c r="Q649" s="105" t="s">
         <v>546</v>
       </c>
-      <c r="R614" s="95"/>
-      <c r="S614" s="95"/>
-      <c r="T614" s="96"/>
-    </row>
-    <row r="615" spans="1:25">
-      <c r="C615" s="111" t="s">
+      <c r="R649" s="90"/>
+      <c r="S649" s="90"/>
+      <c r="T649" s="91"/>
+    </row>
+    <row r="650" spans="1:25">
+      <c r="C650" s="106" t="s">
         <v>720</v>
       </c>
-      <c r="D615" s="73"/>
-      <c r="E615" s="73"/>
-      <c r="F615" s="111" t="s">
+      <c r="D650" s="68"/>
+      <c r="E650" s="68"/>
+      <c r="F650" s="106" t="s">
         <v>721</v>
       </c>
-      <c r="G615" s="73"/>
-      <c r="H615" s="18"/>
-      <c r="I615" s="73" t="s">
+      <c r="G650" s="68"/>
+      <c r="H650" s="18"/>
+      <c r="I650" s="68" t="s">
         <v>722</v>
       </c>
-      <c r="J615" s="73"/>
-      <c r="K615" s="73"/>
-      <c r="L615" s="111" t="s">
+      <c r="J650" s="68"/>
+      <c r="K650" s="68"/>
+      <c r="L650" s="106" t="s">
         <v>723</v>
       </c>
-      <c r="M615" s="18"/>
-      <c r="N615" s="73" t="s">
+      <c r="M650" s="18"/>
+      <c r="N650" s="68" t="s">
         <v>723</v>
       </c>
-      <c r="O615" s="73"/>
-      <c r="P615" s="73"/>
-      <c r="Q615" s="111" t="s">
+      <c r="O650" s="68"/>
+      <c r="P650" s="68"/>
+      <c r="Q650" s="106" t="s">
         <v>724</v>
       </c>
-      <c r="R615" s="73"/>
-      <c r="S615" s="73"/>
-      <c r="T615" s="18"/>
-    </row>
-    <row r="616" spans="1:25">
-      <c r="C616" s="111" t="s">
+      <c r="R650" s="68"/>
+      <c r="S650" s="68"/>
+      <c r="T650" s="18"/>
+    </row>
+    <row r="651" spans="1:25">
+      <c r="C651" s="106" t="s">
         <v>725</v>
       </c>
-      <c r="D616" s="73"/>
-      <c r="E616" s="73"/>
-      <c r="F616" s="111" t="s">
+      <c r="D651" s="68"/>
+      <c r="E651" s="68"/>
+      <c r="F651" s="106" t="s">
         <v>726</v>
       </c>
-      <c r="G616" s="73"/>
-      <c r="H616" s="18"/>
-      <c r="I616" s="73" t="s">
+      <c r="G651" s="68"/>
+      <c r="H651" s="18"/>
+      <c r="I651" s="68" t="s">
         <v>727</v>
       </c>
-      <c r="J616" s="73"/>
-      <c r="K616" s="73"/>
-      <c r="L616" s="111" t="s">
+      <c r="J651" s="68"/>
+      <c r="K651" s="68"/>
+      <c r="L651" s="106" t="s">
         <v>723</v>
       </c>
-      <c r="M616" s="18"/>
-      <c r="N616" s="73" t="s">
+      <c r="M651" s="18"/>
+      <c r="N651" s="68" t="s">
         <v>723</v>
       </c>
-      <c r="O616" s="73"/>
-      <c r="P616" s="73"/>
-      <c r="Q616" s="111" t="s">
+      <c r="O651" s="68"/>
+      <c r="P651" s="68"/>
+      <c r="Q651" s="106" t="s">
         <v>728</v>
       </c>
-      <c r="R616" s="73"/>
-      <c r="S616" s="73"/>
-      <c r="T616" s="18"/>
-    </row>
-    <row r="617" spans="1:25">
-      <c r="C617" s="111" t="s">
+      <c r="R651" s="68"/>
+      <c r="S651" s="68"/>
+      <c r="T651" s="18"/>
+    </row>
+    <row r="652" spans="1:25">
+      <c r="C652" s="106" t="s">
         <v>729</v>
       </c>
-      <c r="D617" s="73"/>
-      <c r="E617" s="73"/>
-      <c r="F617" s="111" t="s">
+      <c r="D652" s="68"/>
+      <c r="E652" s="68"/>
+      <c r="F652" s="106" t="s">
         <v>730</v>
       </c>
-      <c r="G617" s="73"/>
-      <c r="H617" s="18"/>
-      <c r="I617" s="73" t="s">
+      <c r="G652" s="68"/>
+      <c r="H652" s="18"/>
+      <c r="I652" s="68" t="s">
         <v>731</v>
       </c>
-      <c r="J617" s="73"/>
-      <c r="K617" s="73"/>
-      <c r="L617" s="111" t="s">
+      <c r="J652" s="68"/>
+      <c r="K652" s="68"/>
+      <c r="L652" s="106" t="s">
         <v>732</v>
       </c>
-      <c r="M617" s="18"/>
-      <c r="N617" s="73" t="s">
+      <c r="M652" s="18"/>
+      <c r="N652" s="68" t="s">
         <v>733</v>
       </c>
-      <c r="O617" s="73"/>
-      <c r="P617" s="73"/>
-      <c r="Q617" s="111" t="s">
+      <c r="O652" s="68"/>
+      <c r="P652" s="68"/>
+      <c r="Q652" s="106" t="s">
         <v>734</v>
       </c>
-      <c r="R617" s="73"/>
-      <c r="S617" s="73"/>
-      <c r="T617" s="18"/>
-    </row>
-    <row r="618" spans="1:25">
-      <c r="C618" s="111" t="s">
+      <c r="R652" s="68"/>
+      <c r="S652" s="68"/>
+      <c r="T652" s="18"/>
+    </row>
+    <row r="653" spans="1:25">
+      <c r="C653" s="106" t="s">
         <v>735</v>
       </c>
-      <c r="D618" s="73"/>
-      <c r="E618" s="73"/>
-      <c r="F618" s="111" t="s">
+      <c r="D653" s="68"/>
+      <c r="E653" s="68"/>
+      <c r="F653" s="106" t="s">
         <v>736</v>
       </c>
-      <c r="G618" s="73"/>
-      <c r="H618" s="18"/>
-      <c r="I618" s="73" t="s">
+      <c r="G653" s="68"/>
+      <c r="H653" s="18"/>
+      <c r="I653" s="68" t="s">
         <v>737</v>
       </c>
-      <c r="J618" s="73"/>
-      <c r="K618" s="73"/>
-      <c r="L618" s="111" t="s">
+      <c r="J653" s="68"/>
+      <c r="K653" s="68"/>
+      <c r="L653" s="106" t="s">
         <v>732</v>
       </c>
-      <c r="M618" s="18"/>
-      <c r="N618" s="73" t="s">
+      <c r="M653" s="18"/>
+      <c r="N653" s="68" t="s">
         <v>738</v>
       </c>
-      <c r="O618" s="73"/>
-      <c r="P618" s="73"/>
-      <c r="Q618" s="111" t="s">
+      <c r="O653" s="68"/>
+      <c r="P653" s="68"/>
+      <c r="Q653" s="106" t="s">
         <v>739</v>
       </c>
-      <c r="R618" s="73"/>
-      <c r="S618" s="73"/>
-      <c r="T618" s="18"/>
-    </row>
-    <row r="619" spans="1:25">
-      <c r="C619" s="111" t="s">
+      <c r="R653" s="68"/>
+      <c r="S653" s="68"/>
+      <c r="T653" s="18"/>
+    </row>
+    <row r="654" spans="1:25">
+      <c r="C654" s="106" t="s">
         <v>740</v>
       </c>
-      <c r="D619" s="73"/>
-      <c r="E619" s="73"/>
-      <c r="F619" s="111" t="s">
+      <c r="D654" s="68"/>
+      <c r="E654" s="68"/>
+      <c r="F654" s="106" t="s">
         <v>741</v>
       </c>
-      <c r="G619" s="73"/>
-      <c r="H619" s="18"/>
-      <c r="I619" s="73" t="s">
+      <c r="G654" s="68"/>
+      <c r="H654" s="18"/>
+      <c r="I654" s="68" t="s">
         <v>742</v>
       </c>
-      <c r="J619" s="73"/>
-      <c r="K619" s="73"/>
-      <c r="L619" s="111" t="s">
+      <c r="J654" s="68"/>
+      <c r="K654" s="68"/>
+      <c r="L654" s="106" t="s">
         <v>743</v>
       </c>
-      <c r="M619" s="18"/>
-      <c r="N619" s="73" t="s">
+      <c r="M654" s="18"/>
+      <c r="N654" s="68" t="s">
         <v>743</v>
       </c>
-      <c r="O619" s="73"/>
-      <c r="P619" s="73"/>
-      <c r="Q619" s="111" t="s">
+      <c r="O654" s="68"/>
+      <c r="P654" s="68"/>
+      <c r="Q654" s="106" t="s">
         <v>744</v>
       </c>
-      <c r="R619" s="73"/>
-      <c r="S619" s="73"/>
-      <c r="T619" s="18"/>
-    </row>
-    <row r="620" spans="1:25">
-      <c r="A620" s="2">
+      <c r="R654" s="68"/>
+      <c r="S654" s="68"/>
+      <c r="T654" s="18"/>
+    </row>
+    <row r="655" spans="1:25">
+      <c r="A655" s="2">
         <v>31</v>
       </c>
-      <c r="B620" s="112" t="s">
+      <c r="B655" s="107" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="621" spans="1:25">
-      <c r="B621" t="s">
+    <row r="656" spans="1:25">
+      <c r="B656" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="622" spans="1:25">
-      <c r="C622" t="s">
+    <row r="657" spans="1:17">
+      <c r="C657" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="623" spans="1:25">
-      <c r="C623" t="s">
+    <row r="658" spans="1:17">
+      <c r="C658" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="624" spans="1:25">
-      <c r="C624" t="s">
+    <row r="659" spans="1:17">
+      <c r="C659" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="625" spans="1:17">
-      <c r="C625" t="s">
+    <row r="660" spans="1:17">
+      <c r="C660" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="626" spans="1:17">
-      <c r="C626" t="s">
+    <row r="661" spans="1:17">
+      <c r="C661" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="627" spans="1:17">
-      <c r="A627" s="2">
+    <row r="662" spans="1:17">
+      <c r="A662" s="2">
         <v>32</v>
       </c>
-      <c r="B627" t="s">
+      <c r="B662" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="628" spans="1:17">
-      <c r="D628" s="67" t="s">
+    <row r="663" spans="1:17">
+      <c r="D663" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E628" s="68"/>
-      <c r="F628" s="67" t="s">
+      <c r="E663" s="63"/>
+      <c r="F663" s="62" t="s">
         <v>753</v>
       </c>
-      <c r="G628" s="68"/>
-      <c r="H628" s="68"/>
-      <c r="I628" s="68"/>
-      <c r="J628" s="6"/>
-      <c r="K628" s="5" t="s">
+      <c r="G663" s="63"/>
+      <c r="H663" s="63"/>
+      <c r="I663" s="63"/>
+      <c r="J663" s="6"/>
+      <c r="K663" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="L628" s="68"/>
-      <c r="M628" s="68"/>
-      <c r="N628" s="68"/>
-      <c r="O628" s="68"/>
-      <c r="P628" s="68"/>
-      <c r="Q628" s="6"/>
-    </row>
-    <row r="629" spans="1:17">
-      <c r="D629" s="9" t="s">
+      <c r="L663" s="63"/>
+      <c r="M663" s="63"/>
+      <c r="N663" s="63"/>
+      <c r="O663" s="63"/>
+      <c r="P663" s="63"/>
+      <c r="Q663" s="6"/>
+    </row>
+    <row r="664" spans="1:17">
+      <c r="D664" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="F629" s="9" t="s">
+      <c r="F664" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="J629" s="2"/>
-      <c r="K629" s="8" t="s">
+      <c r="J664" s="2"/>
+      <c r="K664" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="Q629" s="2"/>
-    </row>
-    <row r="630" spans="1:17">
-      <c r="D630" s="9" t="s">
+      <c r="Q664" s="2"/>
+    </row>
+    <row r="665" spans="1:17">
+      <c r="D665" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F630" s="70" t="s">
+      <c r="F665" s="65" t="s">
         <v>758</v>
       </c>
-      <c r="J630" s="2"/>
-      <c r="K630" s="113" t="s">
+      <c r="J665" s="2"/>
+      <c r="K665" s="108" t="s">
         <v>759</v>
       </c>
-      <c r="Q630" s="2"/>
-    </row>
-    <row r="631" spans="1:17">
-      <c r="D631" s="9" t="s">
+      <c r="Q665" s="2"/>
+    </row>
+    <row r="666" spans="1:17">
+      <c r="D666" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="F631" s="9" t="s">
+      <c r="F666" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="J631" s="2"/>
-      <c r="K631" s="8" t="s">
+      <c r="J666" s="2"/>
+      <c r="K666" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="Q631" s="2"/>
-    </row>
-    <row r="632" spans="1:17">
-      <c r="D632" s="9" t="s">
+      <c r="Q666" s="2"/>
+    </row>
+    <row r="667" spans="1:17">
+      <c r="D667" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="F632" s="9" t="s">
+      <c r="F667" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="J632" s="2"/>
-      <c r="K632" s="8" t="s">
+      <c r="J667" s="2"/>
+      <c r="K667" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="Q632" s="2"/>
-    </row>
-    <row r="633" spans="1:17">
-      <c r="D633" s="9" t="s">
+      <c r="Q667" s="2"/>
+    </row>
+    <row r="668" spans="1:17">
+      <c r="D668" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="F633" s="7" t="s">
+      <c r="F668" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="J633" s="2"/>
-      <c r="K633" s="114" t="s">
+      <c r="J668" s="2"/>
+      <c r="K668" s="109" t="s">
         <v>767</v>
       </c>
-      <c r="Q633" s="2"/>
-    </row>
-    <row r="634" spans="1:17">
-      <c r="D634" s="10" t="s">
+      <c r="Q668" s="2"/>
+    </row>
+    <row r="669" spans="1:17">
+      <c r="D669" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="E634" s="72"/>
-      <c r="F634" s="10" t="s">
+      <c r="E669" s="67"/>
+      <c r="F669" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="G634" s="72"/>
-      <c r="H634" s="72"/>
-      <c r="I634" s="72"/>
-      <c r="J634" s="12"/>
-      <c r="K634" s="11" t="s">
+      <c r="G669" s="67"/>
+      <c r="H669" s="67"/>
+      <c r="I669" s="67"/>
+      <c r="J669" s="12"/>
+      <c r="K669" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="L634" s="72"/>
-      <c r="M634" s="72"/>
-      <c r="N634" s="72"/>
-      <c r="O634" s="72"/>
-      <c r="P634" s="72"/>
-      <c r="Q634" s="12"/>
-    </row>
-    <row r="636" spans="1:17">
-      <c r="D636" s="1" t="s">
+      <c r="L669" s="67"/>
+      <c r="M669" s="67"/>
+      <c r="N669" s="67"/>
+      <c r="O669" s="67"/>
+      <c r="P669" s="67"/>
+      <c r="Q669" s="12"/>
+    </row>
+    <row r="671" spans="1:17">
+      <c r="D671" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="637" spans="1:17">
-      <c r="D637" s="67" t="s">
+    <row r="672" spans="1:17">
+      <c r="D672" s="62" t="s">
         <v>772</v>
       </c>
-      <c r="E637" s="67" t="s">
+      <c r="E672" s="62" t="s">
         <v>773</v>
       </c>
-      <c r="F637" s="6"/>
-      <c r="G637" s="67" t="s">
+      <c r="F672" s="6"/>
+      <c r="G672" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="H637" s="68"/>
-      <c r="I637" s="6"/>
-      <c r="J637" s="5" t="s">
+      <c r="H672" s="63"/>
+      <c r="I672" s="6"/>
+      <c r="J672" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K637" s="68"/>
-      <c r="L637" s="68"/>
-      <c r="M637" s="68"/>
-      <c r="N637" s="6"/>
-    </row>
-    <row r="638" spans="1:17">
-      <c r="D638" s="9">
+      <c r="K672" s="63"/>
+      <c r="L672" s="63"/>
+      <c r="M672" s="63"/>
+      <c r="N672" s="6"/>
+    </row>
+    <row r="673" spans="4:14">
+      <c r="D673" s="9">
         <v>1</v>
       </c>
-      <c r="E638" s="70" t="s">
+      <c r="E673" s="65" t="s">
         <v>774</v>
       </c>
-      <c r="F638" s="2"/>
-      <c r="G638" s="9" t="s">
+      <c r="F673" s="2"/>
+      <c r="G673" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="I638" s="2"/>
-      <c r="J638" s="8" t="s">
+      <c r="I673" s="2"/>
+      <c r="J673" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N638" s="2"/>
-    </row>
-    <row r="639" spans="1:17">
-      <c r="D639" s="9">
+      <c r="N673" s="2"/>
+    </row>
+    <row r="674" spans="4:14">
+      <c r="D674" s="9">
         <v>2</v>
       </c>
-      <c r="E639" s="70" t="s">
+      <c r="E674" s="65" t="s">
         <v>753</v>
       </c>
-      <c r="F639" s="2"/>
-      <c r="G639" s="9" t="s">
+      <c r="F674" s="2"/>
+      <c r="G674" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="I639" s="2"/>
-      <c r="J639" s="8" t="s">
+      <c r="I674" s="2"/>
+      <c r="J674" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N639" s="2"/>
-    </row>
-    <row r="640" spans="1:17">
-      <c r="D640" s="9">
+      <c r="N674" s="2"/>
+    </row>
+    <row r="675" spans="4:14">
+      <c r="D675" s="9">
         <v>3</v>
       </c>
-      <c r="E640" s="70" t="s">
+      <c r="E675" s="65" t="s">
         <v>779</v>
       </c>
-      <c r="F640" s="2"/>
-      <c r="G640" s="9" t="s">
+      <c r="F675" s="2"/>
+      <c r="G675" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="I640" s="2"/>
-      <c r="J640" s="8" t="s">
+      <c r="I675" s="2"/>
+      <c r="J675" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="N640" s="2"/>
-    </row>
-    <row r="641" spans="4:14">
-      <c r="D641" s="9">
+      <c r="N675" s="2"/>
+    </row>
+    <row r="676" spans="4:14">
+      <c r="D676" s="9">
         <v>4</v>
       </c>
-      <c r="E641" s="70" t="s">
+      <c r="E676" s="65" t="s">
         <v>754</v>
       </c>
-      <c r="F641" s="2"/>
-      <c r="G641" s="9" t="s">
+      <c r="F676" s="2"/>
+      <c r="G676" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="I641" s="2"/>
-      <c r="J641" s="8" t="s">
+      <c r="I676" s="2"/>
+      <c r="J676" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="N641" s="2"/>
-    </row>
-    <row r="642" spans="4:14">
-      <c r="D642" s="9">
+      <c r="N676" s="2"/>
+    </row>
+    <row r="677" spans="4:14">
+      <c r="D677" s="9">
         <v>5</v>
       </c>
-      <c r="E642" s="70" t="s">
+      <c r="E677" s="65" t="s">
         <v>784</v>
       </c>
-      <c r="F642" s="2"/>
-      <c r="G642" s="9" t="s">
+      <c r="F677" s="2"/>
+      <c r="G677" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="I642" s="2"/>
-      <c r="J642" s="8" t="s">
+      <c r="I677" s="2"/>
+      <c r="J677" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="N642" s="2"/>
-    </row>
-    <row r="643" spans="4:14">
-      <c r="D643" s="10">
+      <c r="N677" s="2"/>
+    </row>
+    <row r="678" spans="4:14">
+      <c r="D678" s="10">
         <v>6</v>
       </c>
-      <c r="E643" s="71" t="s">
+      <c r="E678" s="66" t="s">
         <v>787</v>
       </c>
-      <c r="F643" s="12"/>
-      <c r="G643" s="10" t="s">
+      <c r="F678" s="12"/>
+      <c r="G678" s="10" t="s">
         <v>788</v>
       </c>
-      <c r="H643" s="72"/>
-      <c r="I643" s="12"/>
-      <c r="J643" s="11" t="s">
+      <c r="H678" s="67"/>
+      <c r="I678" s="12"/>
+      <c r="J678" s="11" t="s">
         <v>789</v>
       </c>
-      <c r="K643" s="72"/>
-      <c r="L643" s="72"/>
-      <c r="M643" s="72"/>
-      <c r="N643" s="12"/>
-    </row>
-    <row r="645" spans="4:14">
-      <c r="D645" t="s">
+      <c r="K678" s="67"/>
+      <c r="L678" s="67"/>
+      <c r="M678" s="67"/>
+      <c r="N678" s="12"/>
+    </row>
+    <row r="680" spans="4:14">
+      <c r="D680" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="646" spans="4:14">
-      <c r="D646" s="115" t="s">
+    <row r="681" spans="4:14">
+      <c r="D681" s="110" t="s">
         <v>784</v>
       </c>
-      <c r="E646" s="68"/>
-      <c r="F646" s="68"/>
-      <c r="G646" s="68"/>
-      <c r="H646" s="68"/>
-      <c r="I646" s="6"/>
-    </row>
-    <row r="647" spans="4:14">
-      <c r="D647" s="116" t="s">
+      <c r="E681" s="63"/>
+      <c r="F681" s="63"/>
+      <c r="G681" s="63"/>
+      <c r="H681" s="63"/>
+      <c r="I681" s="6"/>
+    </row>
+    <row r="682" spans="4:14">
+      <c r="D682" s="111" t="s">
         <v>791</v>
       </c>
-      <c r="I647" s="117" t="s">
+      <c r="I682" s="112" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="648" spans="4:14">
-      <c r="D648" s="116" t="s">
+    <row r="683" spans="4:14">
+      <c r="D683" s="111" t="s">
         <v>793</v>
       </c>
-      <c r="I648" s="2"/>
-    </row>
-    <row r="649" spans="4:14">
-      <c r="D649" s="116" t="s">
+      <c r="I683" s="2"/>
+    </row>
+    <row r="684" spans="4:14">
+      <c r="D684" s="111" t="s">
         <v>774</v>
       </c>
-      <c r="F649" s="118" t="s">
+      <c r="F684" s="113" t="s">
         <v>794</v>
       </c>
-      <c r="I649" s="2"/>
-    </row>
-    <row r="650" spans="4:14">
-      <c r="D650" s="116" t="s">
+      <c r="I684" s="2"/>
+    </row>
+    <row r="685" spans="4:14">
+      <c r="D685" s="111" t="s">
         <v>795</v>
       </c>
-      <c r="I650" s="2"/>
-    </row>
-    <row r="651" spans="4:14">
-      <c r="D651" s="116" t="s">
+      <c r="I685" s="2"/>
+    </row>
+    <row r="686" spans="4:14">
+      <c r="D686" s="111" t="s">
         <v>779</v>
       </c>
-      <c r="F651" s="119" t="s">
+      <c r="F686" s="114" t="s">
         <v>796</v>
       </c>
-      <c r="I651" s="2"/>
-    </row>
-    <row r="652" spans="4:14">
-      <c r="D652" s="116" t="s">
+      <c r="I686" s="2"/>
+    </row>
+    <row r="687" spans="4:14">
+      <c r="D687" s="111" t="s">
         <v>797</v>
       </c>
-      <c r="I652" s="2"/>
-    </row>
-    <row r="653" spans="4:14">
-      <c r="D653" s="116" t="s">
+      <c r="I687" s="2"/>
+    </row>
+    <row r="688" spans="4:14">
+      <c r="D688" s="111" t="s">
         <v>798</v>
       </c>
-      <c r="G653" s="118" t="s">
+      <c r="G688" s="113" t="s">
         <v>799</v>
       </c>
-      <c r="H653" s="120"/>
-      <c r="I653" s="2"/>
-    </row>
-    <row r="654" spans="4:14">
-      <c r="D654" s="116" t="s">
+      <c r="H688" s="115"/>
+      <c r="I688" s="2"/>
+    </row>
+    <row r="689" spans="1:18">
+      <c r="D689" s="111" t="s">
         <v>800</v>
       </c>
-      <c r="I654" s="2"/>
-    </row>
-    <row r="655" spans="4:14">
-      <c r="D655" s="116" t="s">
+      <c r="I689" s="2"/>
+    </row>
+    <row r="690" spans="1:18">
+      <c r="D690" s="111" t="s">
         <v>801</v>
       </c>
-      <c r="G655" s="121" t="s">
+      <c r="G690" s="129" t="s">
         <v>802</v>
       </c>
-      <c r="H655" s="122"/>
-      <c r="I655" s="2"/>
-    </row>
-    <row r="656" spans="4:14">
-      <c r="D656" s="116" t="s">
+      <c r="H690" s="130"/>
+      <c r="I690" s="2"/>
+    </row>
+    <row r="691" spans="1:18">
+      <c r="D691" s="111" t="s">
         <v>803</v>
       </c>
-      <c r="G656" s="122"/>
-      <c r="H656" s="122"/>
-      <c r="I656" s="2"/>
-    </row>
-    <row r="657" spans="1:18">
-      <c r="D657" s="116" t="s">
+      <c r="G691" s="130"/>
+      <c r="H691" s="130"/>
+      <c r="I691" s="2"/>
+    </row>
+    <row r="692" spans="1:18">
+      <c r="D692" s="111" t="s">
         <v>804</v>
       </c>
-      <c r="G657" s="122"/>
-      <c r="H657" s="122"/>
-      <c r="I657" s="2"/>
-    </row>
-    <row r="658" spans="1:18">
-      <c r="D658" s="116" t="s">
+      <c r="G692" s="130"/>
+      <c r="H692" s="130"/>
+      <c r="I692" s="2"/>
+    </row>
+    <row r="693" spans="1:18">
+      <c r="D693" s="111" t="s">
         <v>805</v>
       </c>
-      <c r="G658" s="122"/>
-      <c r="H658" s="122"/>
-      <c r="I658" s="2"/>
-    </row>
-    <row r="659" spans="1:18">
-      <c r="D659" s="116" t="s">
+      <c r="G693" s="130"/>
+      <c r="H693" s="130"/>
+      <c r="I693" s="2"/>
+    </row>
+    <row r="694" spans="1:18">
+      <c r="D694" s="111" t="s">
         <v>806</v>
       </c>
-      <c r="G659" s="122"/>
-      <c r="H659" s="122"/>
-      <c r="I659" s="2"/>
-    </row>
-    <row r="660" spans="1:18">
-      <c r="D660" s="40" t="s">
+      <c r="G694" s="130"/>
+      <c r="H694" s="130"/>
+      <c r="I694" s="2"/>
+    </row>
+    <row r="695" spans="1:18">
+      <c r="D695" s="40" t="s">
         <v>807</v>
       </c>
-      <c r="E660" s="72"/>
-      <c r="F660" s="72"/>
-      <c r="G660" s="72"/>
-      <c r="H660" s="72"/>
-      <c r="I660" s="12"/>
-    </row>
-    <row r="662" spans="1:18">
-      <c r="C662" t="s">
+      <c r="E695" s="67"/>
+      <c r="F695" s="67"/>
+      <c r="G695" s="67"/>
+      <c r="H695" s="67"/>
+      <c r="I695" s="12"/>
+    </row>
+    <row r="697" spans="1:18">
+      <c r="C697" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="663" spans="1:18">
-      <c r="C663" t="s">
+    <row r="698" spans="1:18">
+      <c r="C698" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="664" spans="1:18">
-      <c r="C664" s="3" t="s">
+    <row r="699" spans="1:18">
+      <c r="C699" s="3" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="665" spans="1:18">
-      <c r="C665" t="s">
+    <row r="700" spans="1:18">
+      <c r="C700" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="666" spans="1:18">
-      <c r="A666" s="2">
+    <row r="701" spans="1:18">
+      <c r="A701" s="2">
         <v>33</v>
       </c>
-      <c r="B666" s="1" t="s">
+      <c r="B701" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="667" spans="1:18">
-      <c r="C667" s="67" t="s">
+    <row r="702" spans="1:18">
+      <c r="C702" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D667" s="68"/>
-      <c r="E667" s="5" t="s">
+      <c r="D702" s="63"/>
+      <c r="E702" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="F667" s="123"/>
-      <c r="G667" s="123"/>
-      <c r="H667" s="123"/>
-      <c r="I667" s="5" t="s">
+      <c r="F702" s="116"/>
+      <c r="G702" s="116"/>
+      <c r="H702" s="116"/>
+      <c r="I702" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="J667" s="123"/>
-      <c r="K667" s="123"/>
-      <c r="L667" s="123"/>
-      <c r="M667" s="123"/>
-      <c r="N667" s="5" t="s">
+      <c r="J702" s="116"/>
+      <c r="K702" s="116"/>
+      <c r="L702" s="116"/>
+      <c r="M702" s="116"/>
+      <c r="N702" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="O667" s="123"/>
-      <c r="P667" s="123"/>
-      <c r="Q667" s="123"/>
-      <c r="R667" s="6"/>
-    </row>
-    <row r="668" spans="1:18">
-      <c r="C668" s="87" t="s">
+      <c r="O702" s="116"/>
+      <c r="P702" s="116"/>
+      <c r="Q702" s="116"/>
+      <c r="R702" s="6"/>
+    </row>
+    <row r="703" spans="1:18">
+      <c r="C703" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="E668" s="105" t="s">
+      <c r="E703" s="100" t="s">
         <v>815</v>
       </c>
-      <c r="F668" s="124"/>
-      <c r="G668" s="124"/>
-      <c r="H668" s="124"/>
-      <c r="I668" s="8" t="s">
+      <c r="F703" s="117"/>
+      <c r="G703" s="117"/>
+      <c r="H703" s="117"/>
+      <c r="I703" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="J668" s="124"/>
-      <c r="K668" s="124"/>
-      <c r="L668" s="124"/>
-      <c r="M668" s="124"/>
-      <c r="N668" s="8" t="s">
+      <c r="J703" s="117"/>
+      <c r="K703" s="117"/>
+      <c r="L703" s="117"/>
+      <c r="M703" s="117"/>
+      <c r="N703" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="O668" s="124"/>
-      <c r="P668" s="124"/>
-      <c r="Q668" s="124"/>
-      <c r="R668" s="2"/>
-    </row>
-    <row r="669" spans="1:18">
-      <c r="C669" s="89" t="s">
+      <c r="O703" s="117"/>
+      <c r="P703" s="117"/>
+      <c r="Q703" s="117"/>
+      <c r="R703" s="2"/>
+    </row>
+    <row r="704" spans="1:18">
+      <c r="C704" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="D669" s="72"/>
-      <c r="E669" s="125" t="s">
+      <c r="D704" s="67"/>
+      <c r="E704" s="118" t="s">
         <v>818</v>
       </c>
-      <c r="F669" s="126"/>
-      <c r="G669" s="126"/>
-      <c r="H669" s="126"/>
-      <c r="I669" s="11" t="s">
+      <c r="F704" s="119"/>
+      <c r="G704" s="119"/>
+      <c r="H704" s="119"/>
+      <c r="I704" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="J669" s="126"/>
-      <c r="K669" s="126"/>
-      <c r="L669" s="126"/>
-      <c r="M669" s="126"/>
-      <c r="N669" s="11" t="s">
+      <c r="J704" s="119"/>
+      <c r="K704" s="119"/>
+      <c r="L704" s="119"/>
+      <c r="M704" s="119"/>
+      <c r="N704" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="O669" s="126"/>
-      <c r="P669" s="126"/>
-      <c r="Q669" s="126"/>
-      <c r="R669" s="12"/>
-    </row>
-    <row r="671" spans="1:18">
-      <c r="C671" t="s">
+      <c r="O704" s="119"/>
+      <c r="P704" s="119"/>
+      <c r="Q704" s="119"/>
+      <c r="R704" s="12"/>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="C706" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="672" spans="1:18">
-      <c r="C672" t="s">
+    <row r="707" spans="1:3">
+      <c r="C707" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
-      <c r="C673" t="s">
+    <row r="708" spans="1:3">
+      <c r="C708" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
-      <c r="C674" t="s">
+    <row r="709" spans="1:3">
+      <c r="C709" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
-      <c r="A676" s="2">
+    <row r="711" spans="1:3">
+      <c r="A711" s="2">
         <v>34</v>
       </c>
-      <c r="B676" t="s">
+      <c r="B711" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
-      <c r="C677" s="60" t="s">
+    <row r="712" spans="1:3">
+      <c r="C712" s="57" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
-      <c r="B678" t="s">
+    <row r="713" spans="1:3">
+      <c r="B713" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
-      <c r="C679" t="s">
+    <row r="714" spans="1:3">
+      <c r="C714" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
-      <c r="B680" t="s">
+    <row r="715" spans="1:3">
+      <c r="B715" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
-      <c r="C681" t="s">
+    <row r="716" spans="1:3">
+      <c r="C716" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
-      <c r="C682" s="3" t="s">
+    <row r="717" spans="1:3">
+      <c r="C717" s="3" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
-      <c r="C683" t="s">
+    <row r="718" spans="1:3">
+      <c r="C718" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
-      <c r="C685" s="3" t="s">
+    <row r="720" spans="1:3">
+      <c r="C720" s="3" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
-      <c r="C686" t="s">
+    <row r="721" spans="1:4">
+      <c r="C721" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
-      <c r="D687" s="127" t="s">
+    <row r="722" spans="1:4">
+      <c r="D722" s="120" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
-      <c r="A689" s="2">
+    <row r="724" spans="1:4">
+      <c r="A724" s="2">
         <v>35</v>
       </c>
-      <c r="B689" t="s">
+      <c r="B724" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
-      <c r="C690" s="60" t="s">
+    <row r="725" spans="1:4">
+      <c r="C725" s="57" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
-      <c r="C691" t="s">
+    <row r="726" spans="1:4">
+      <c r="C726" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
-      <c r="D692" s="128" t="s">
+    <row r="727" spans="1:4">
+      <c r="D727" s="121" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
-      <c r="D693" s="128" t="s">
+    <row r="728" spans="1:4">
+      <c r="D728" s="121" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
-      <c r="D694" s="128" t="s">
+    <row r="729" spans="1:4">
+      <c r="D729" s="121" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
-      <c r="D695" s="128" t="s">
+    <row r="730" spans="1:4">
+      <c r="D730" s="121" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
-      <c r="C696" t="s">
+    <row r="731" spans="1:4">
+      <c r="C731" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
-      <c r="C697" s="3" t="s">
+    <row r="732" spans="1:4">
+      <c r="C732" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
-      <c r="D698" s="3" t="s">
+    <row r="733" spans="1:4">
+      <c r="D733" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
-      <c r="D699" s="3" t="s">
+    <row r="734" spans="1:4">
+      <c r="D734" s="3" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
-      <c r="D700" s="3" t="s">
+    <row r="735" spans="1:4">
+      <c r="D735" s="3" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
-      <c r="D701" s="3" t="s">
+    <row r="736" spans="1:4">
+      <c r="D736" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
-      <c r="A704" s="2">
+    <row r="739" spans="1:3">
+      <c r="A739" s="2">
         <v>36</v>
       </c>
-      <c r="B704" t="s">
+      <c r="B739" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
-      <c r="C705" s="60" t="s">
+    <row r="740" spans="1:3">
+      <c r="C740" s="57" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
-      <c r="C706" s="60" t="s">
+    <row r="741" spans="1:3">
+      <c r="C741" s="57" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
-      <c r="A708" s="2">
+    <row r="743" spans="1:3">
+      <c r="A743" s="2">
         <v>37</v>
       </c>
-      <c r="B708" s="80" t="s">
+      <c r="B743" s="75" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
-      <c r="B709" t="s">
+    <row r="744" spans="1:3">
+      <c r="B744" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
-      <c r="C710" t="s">
+    <row r="745" spans="1:3">
+      <c r="C745" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
-      <c r="C711" s="3" t="s">
+    <row r="746" spans="1:3">
+      <c r="C746" s="3" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
-      <c r="C712" s="3" t="s">
+    <row r="747" spans="1:3">
+      <c r="C747" s="3" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
-      <c r="C713" s="3" t="s">
+    <row r="748" spans="1:3">
+      <c r="C748" s="3" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="722" spans="2:3">
-      <c r="B722" t="s">
+    <row r="757" spans="2:3">
+      <c r="B757" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="723" spans="2:3">
-      <c r="C723" t="s">
+    <row r="758" spans="2:3">
+      <c r="C758" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="724" spans="2:3">
-      <c r="C724" s="3" t="s">
+    <row r="759" spans="2:3">
+      <c r="C759" s="3" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="725" spans="2:3">
-      <c r="C725" s="3" t="s">
+    <row r="760" spans="2:3">
+      <c r="C760" s="3" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="726" spans="2:3">
-      <c r="C726" s="3" t="s">
+    <row r="761" spans="2:3">
+      <c r="C761" s="3" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="736" spans="2:3">
-      <c r="C736" s="3" t="s">
+    <row r="771" spans="1:9">
+      <c r="C771" s="3" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="737" spans="3:4">
-      <c r="D737" t="s">
+    <row r="772" spans="1:9">
+      <c r="D772" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="738" spans="3:4">
-      <c r="D738" s="3" t="s">
+    <row r="773" spans="1:9">
+      <c r="D773" s="3" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="739" spans="3:4">
-      <c r="D739" s="1" t="s">
+    <row r="774" spans="1:9">
+      <c r="D774" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="740" spans="3:4">
-      <c r="C740" s="3" t="s">
+    <row r="775" spans="1:9">
+      <c r="C775" s="3" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="741" spans="3:4">
-      <c r="D741" s="129">
+    <row r="776" spans="1:9">
+      <c r="D776" s="122">
         <v>36095</v>
       </c>
     </row>
-    <row r="742" spans="3:4">
-      <c r="D742" s="130" t="s">
+    <row r="777" spans="1:9">
+      <c r="D777" s="123" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="743" spans="3:4">
-      <c r="C743" s="3" t="s">
+    <row r="778" spans="1:9">
+      <c r="C778" s="3" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="744" spans="3:4">
-      <c r="D744" s="130" t="s">
+    <row r="779" spans="1:9">
+      <c r="D779" s="123" t="s">
         <v>870</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9">
+      <c r="D780" s="123"/>
+    </row>
+    <row r="781" spans="1:9">
+      <c r="A781" s="2">
+        <v>38</v>
+      </c>
+      <c r="B781" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9">
+      <c r="C782" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9">
+      <c r="C783" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="D783" s="137"/>
+      <c r="E783" s="137"/>
+      <c r="F783" s="137"/>
+      <c r="G783" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H783" s="137"/>
+      <c r="I783" s="18"/>
+    </row>
+    <row r="784" spans="1:9">
+      <c r="C784" s="65" t="s">
+        <v>873</v>
+      </c>
+      <c r="D784" s="133"/>
+      <c r="E784" s="133"/>
+      <c r="F784" s="133"/>
+      <c r="G784" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="H784" s="133"/>
+      <c r="I784" s="2"/>
+    </row>
+    <row r="785" spans="3:9">
+      <c r="C785" s="65" t="s">
+        <v>875</v>
+      </c>
+      <c r="D785" s="133"/>
+      <c r="E785" s="133"/>
+      <c r="F785" s="133"/>
+      <c r="G785" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="H785" s="133"/>
+      <c r="I785" s="2"/>
+    </row>
+    <row r="786" spans="3:9">
+      <c r="C786" s="66" t="s">
+        <v>877</v>
+      </c>
+      <c r="D786" s="119"/>
+      <c r="E786" s="119"/>
+      <c r="F786" s="119"/>
+      <c r="G786" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="H786" s="119"/>
+      <c r="I786" s="12"/>
+    </row>
+    <row r="788" spans="3:9">
+      <c r="C788" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="789" spans="3:9">
+      <c r="C789" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="790" spans="3:9">
+      <c r="D790" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="791" spans="3:9">
+      <c r="D791" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="792" spans="3:9">
+      <c r="D792" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="793" spans="3:9">
+      <c r="D793" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="794" spans="3:9">
+      <c r="D794" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="795" spans="3:9">
+      <c r="D795" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="796" spans="3:9">
+      <c r="D796" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="797" spans="3:9">
+      <c r="D797" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="798" spans="3:9">
+      <c r="D798" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="799" spans="3:9">
+      <c r="D799" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="800" spans="3:9">
+      <c r="D800" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4">
+      <c r="D801" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4">
+      <c r="D802" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4">
+      <c r="D803" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4">
+      <c r="D804" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4">
+      <c r="D805" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4">
+      <c r="D806" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4">
+      <c r="D807" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4">
+      <c r="D808" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4">
+      <c r="A810" s="2">
+        <v>39</v>
+      </c>
+      <c r="B810" s="42" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4">
+      <c r="A811" s="2">
+        <v>40</v>
+      </c>
+      <c r="B811" s="42" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4">
+      <c r="A812" s="2">
+        <v>41</v>
+      </c>
+      <c r="B812" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4">
+      <c r="C813" s="42" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4">
+      <c r="B814" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4">
+      <c r="C815" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4">
+      <c r="C816" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="817" spans="3:3">
+      <c r="C817" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="818" spans="3:3">
+      <c r="C818" s="73" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="819" spans="3:3">
+      <c r="C819" s="73" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="820" spans="3:3">
+      <c r="C820" s="73" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="821" spans="3:3">
+      <c r="C821" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="822" spans="3:3">
+      <c r="C822" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="838" spans="2:4">
+      <c r="B838" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="839" spans="2:4">
+      <c r="C839" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="840" spans="2:4">
+      <c r="C840" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="841" spans="2:4">
+      <c r="B841" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="842" spans="2:4">
+      <c r="C842" s="77" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="843" spans="2:4">
+      <c r="D843" s="117" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="862" spans="2:12">
+      <c r="B862" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="863" spans="2:12">
+      <c r="C863" s="42" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="864" spans="2:12">
+      <c r="D864" s="62" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E864" s="116"/>
+      <c r="F864" s="62" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G864" s="116"/>
+      <c r="H864" s="132"/>
+      <c r="I864" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J864" s="116"/>
+      <c r="K864" s="116"/>
+      <c r="L864" s="132"/>
+    </row>
+    <row r="865" spans="1:12">
+      <c r="D865" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E865" s="133"/>
+      <c r="F865" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G865" s="133"/>
+      <c r="H865" s="135"/>
+      <c r="I865" s="134" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J865" s="133"/>
+      <c r="K865" s="133"/>
+      <c r="L865" s="135"/>
+    </row>
+    <row r="866" spans="1:12">
+      <c r="D866" s="76" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E866" s="119"/>
+      <c r="F866" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G866" s="119"/>
+      <c r="H866" s="136"/>
+      <c r="I866" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J866" s="119"/>
+      <c r="K866" s="119"/>
+      <c r="L866" s="136"/>
+    </row>
+    <row r="868" spans="1:12">
+      <c r="A868" s="2">
+        <v>43</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="869" spans="1:12">
+      <c r="C869" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="870" spans="1:12">
+      <c r="C870" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="871" spans="1:12">
+      <c r="C871" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="872" spans="1:12">
+      <c r="C872" s="73" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="873" spans="1:12">
+      <c r="C873" s="73"/>
+      <c r="D873" s="42" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="874" spans="1:12">
+      <c r="C874" s="149" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="875" spans="1:12">
+      <c r="B875" s="55" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="876" spans="1:12">
+      <c r="C876" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="877" spans="1:12">
+      <c r="C877" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="878" spans="1:12">
+      <c r="C878" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="879" spans="1:12">
+      <c r="C879" s="148" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="880" spans="1:12">
+      <c r="C880" s="148" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9">
+      <c r="C881" s="148" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9">
+      <c r="C882" s="148" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9">
+      <c r="B883" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9">
+      <c r="C884" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9">
+      <c r="C885" s="62" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D885" s="116"/>
+      <c r="E885" s="116"/>
+      <c r="F885" s="62" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G885" s="116"/>
+      <c r="H885" s="116"/>
+      <c r="I885" s="132"/>
+    </row>
+    <row r="886" spans="1:9">
+      <c r="C886" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D886" s="133"/>
+      <c r="E886" s="133"/>
+      <c r="F886" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G886" s="133"/>
+      <c r="H886" s="133"/>
+      <c r="I886" s="135"/>
+    </row>
+    <row r="887" spans="1:9">
+      <c r="C887" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D887" s="133"/>
+      <c r="E887" s="133"/>
+      <c r="F887" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G887" s="133"/>
+      <c r="H887" s="133"/>
+      <c r="I887" s="135"/>
+    </row>
+    <row r="888" spans="1:9">
+      <c r="C888" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D888" s="133"/>
+      <c r="E888" s="133"/>
+      <c r="F888" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G888" s="133"/>
+      <c r="H888" s="133"/>
+      <c r="I888" s="135"/>
+    </row>
+    <row r="889" spans="1:9">
+      <c r="C889" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D889" s="119"/>
+      <c r="E889" s="119"/>
+      <c r="F889" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G889" s="119"/>
+      <c r="H889" s="119"/>
+      <c r="I889" s="136"/>
+    </row>
+    <row r="891" spans="1:9">
+      <c r="A891" s="2">
+        <v>44</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9">
+      <c r="C892" s="57" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9">
+      <c r="C893" s="150" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="907" spans="2:15">
+      <c r="B907" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="908" spans="2:15">
+      <c r="C908" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="909" spans="2:15">
+      <c r="D909" s="151" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="910" spans="2:15">
+      <c r="D910" s="62" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E910" s="116"/>
+      <c r="F910" s="62" t="s">
+        <v>544</v>
+      </c>
+      <c r="G910" s="116"/>
+      <c r="H910" s="116"/>
+      <c r="I910" s="132"/>
+      <c r="J910" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K910" s="116"/>
+      <c r="L910" s="116"/>
+      <c r="M910" s="116"/>
+      <c r="N910" s="116"/>
+      <c r="O910" s="132"/>
+    </row>
+    <row r="911" spans="2:15">
+      <c r="D911" s="65" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E911" s="133"/>
+      <c r="F911" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G911" s="133"/>
+      <c r="H911" s="133"/>
+      <c r="I911" s="135"/>
+      <c r="J911" s="134" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K911" s="133"/>
+      <c r="L911" s="133"/>
+      <c r="M911" s="133"/>
+      <c r="N911" s="133"/>
+      <c r="O911" s="135"/>
+    </row>
+    <row r="912" spans="2:15">
+      <c r="D912" s="65" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E912" s="133"/>
+      <c r="F912" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G912" s="133"/>
+      <c r="H912" s="133"/>
+      <c r="I912" s="135"/>
+      <c r="J912" s="134" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K912" s="133"/>
+      <c r="L912" s="133"/>
+      <c r="M912" s="133"/>
+      <c r="N912" s="133"/>
+      <c r="O912" s="135"/>
+    </row>
+    <row r="913" spans="1:15">
+      <c r="D913" s="66" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E913" s="119"/>
+      <c r="F913" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G913" s="119"/>
+      <c r="H913" s="119"/>
+      <c r="I913" s="136"/>
+      <c r="J913" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K913" s="119"/>
+      <c r="L913" s="119"/>
+      <c r="M913" s="119"/>
+      <c r="N913" s="119"/>
+      <c r="O913" s="136"/>
+    </row>
+    <row r="914" spans="1:15">
+      <c r="C914" s="42" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="915" spans="1:15">
+      <c r="D915" s="42" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="916" spans="1:15">
+      <c r="A916" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G690:H694"/>
     <mergeCell ref="F242:J242"/>
     <mergeCell ref="F243:J243"/>
     <mergeCell ref="F244:J244"/>
     <mergeCell ref="F245:J245"/>
     <mergeCell ref="F246:J246"/>
-    <mergeCell ref="G655:H659"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/試験/Oracle/1Z0-082/Oracle_database Sliver.xlsx
+++ b/試験/Oracle/1Z0-082/Oracle_database Sliver.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\LearningSite\試験\Oracle\1Z0-082\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\試験\Oracle\1Z0-082\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7333DA7-1FAB-41CC-B559-4B595770BD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C3AB05-66BC-4242-87CF-4CD822279D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-15" sheetId="1" r:id="rId1"/>
     <sheet name="15-47" sheetId="2" r:id="rId2"/>
-    <sheet name="48-" sheetId="3" r:id="rId3"/>
+    <sheet name="48-70" sheetId="3" r:id="rId3"/>
+    <sheet name="71-" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="1633">
   <si>
     <t>Bigfile tablespace</t>
     <phoneticPr fontId="1"/>
@@ -13043,20 +13044,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>默认路径为：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>$ORACLE_BASE/diag/rdbms/&lt;db_name&gt;/&lt;instance_name&gt;/</t>
-    </r>
-  </si>
-  <si>
     <t>FRA（Fast Recovery Area）快速恢复区</t>
   </si>
   <si>
@@ -16606,6 +16593,5219 @@
   </si>
   <si>
     <t>见No.52</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>默认路径为：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>$ORACLE_BASE/diag/rdbms/&lt;db_name&gt;/&lt;instance_name&gt;/</t>
+    </r>
+  </si>
+  <si>
+    <t>DIAGNOSTIC_DEST</t>
+  </si>
+  <si>
+    <r>
+      <t>DIAGNOSTIC_DEST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 Oracle 用于指定 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADR（Automatic Diagnostic Repository）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 根目录的初始化参数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">它是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADR 基础路径的起点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，Oracle 所有组件（数据库、ASM、监听器、Clusterware等）的诊断信息都在这个路径下的各自子目录中管理。</t>
+    </r>
+  </si>
+  <si>
+    <t>Oracle 默认会在这个路径下创建类似以下结构：</t>
+  </si>
+  <si>
+    <t>diag/rdbms/&lt;dbname&gt;/&lt;instancename&gt;</t>
+  </si>
+  <si>
+    <t>diag/asm/&lt;asmname&gt;/&lt;instancename&gt;</t>
+  </si>
+  <si>
+    <t>diag/tnslsnr/&lt;hostname&gt;/&lt;listenername&gt;</t>
+  </si>
+  <si>
+    <t>diag/crs/&lt;hostname&gt;/crs</t>
+  </si>
+  <si>
+    <r>
+      <t>ASM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">       Automatic Storage Management</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ASM（自动存储管理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 Oracle 提供的一种 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据库存储层的管理机制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>自动化磁盘管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：将多个物理磁盘或LUN统一管理，简化数据文件、日志文件、归档日志的存储管理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>性能优化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：通过自动条带化（striping）和镜像（mirroring）提高性能和冗余。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>代替</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传统</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>文件系</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>或裸</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：减少DBA管理复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>度。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>DBA 不需要手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>指定具体哪个文件放在哪个磁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>上，而是将文件存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>在 ASM 磁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ASM 的数据是存放在 专用的ASM磁盘组 中，这些磁盘不是传统意义上的文件系统，不能用 ls 来浏览，而是由 Oracle 自己的存储引擎管理。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oracle Clusterware</t>
+  </si>
+  <si>
+    <r>
+      <t>Oracle Clusterware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 Oracle 提供的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集群管理</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,用于：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理多节点数据库环境（RAC，Real Application Clusters）</t>
+  </si>
+  <si>
+    <t>提供节点间通信、心跳监控、故障转移、资源控制等服务</t>
+  </si>
+  <si>
+    <t>确保高可用性（High Availability）和业务连续性</t>
+  </si>
+  <si>
+    <r>
+      <t>是 Oracle RAC 的基础组件，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非RAC环境中也可以独立使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来管理集群资源。</t>
+    </r>
+  </si>
+  <si>
+    <t>它会在 ADR 中记录诊断信息</t>
+  </si>
+  <si>
+    <t>Principle of Least Privilege（最小权限原则）</t>
+  </si>
+  <si>
+    <t>只授予用户完成任务所必需的最少权限。</t>
+  </si>
+  <si>
+    <t>Privilege Analysis（权限使用分析）</t>
+  </si>
+  <si>
+    <t>DBMS_PRIVILEGE_CAPTURE</t>
+  </si>
+  <si>
+    <r>
+      <t>DBMS_PRIVILEGE_CAPTURE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 Oracle 提供的 PL/SQL 包，用于执行 Privilege Analysis。</t>
+    </r>
+  </si>
+  <si>
+    <t>你可以使用它：</t>
+  </si>
+  <si>
+    <r>
+      <t>创建权限捕捉任务（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>CREATE_CAPTURE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>启动/停止权限分析（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ENABLE_CAPTURE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DISABLE_CAPTURE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>查看分析结果（通过数据字典视图）</t>
+  </si>
+  <si>
+    <t>对应 SQL 示例</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>捕捉所有用户使用的权限</t>
+  </si>
+  <si>
+    <t>'ALL'</t>
+  </si>
+  <si>
+    <t>ALL EXCLUDING DBA</t>
+  </si>
+  <si>
+    <t>'ALL EXCLUDING DBA'</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>分析通过特定角色获得的权限是否被使用</t>
+  </si>
+  <si>
+    <r>
+      <t>'ROLE'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，如分析 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>app_role</t>
+    </r>
+  </si>
+  <si>
+    <t>CONTEXT</t>
+  </si>
+  <si>
+    <t>特定上下文条件下的权限（如特定模块、IP等）</t>
+  </si>
+  <si>
+    <r>
+      <t>'CONTEXT'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + predicate</t>
+    </r>
+  </si>
+  <si>
+    <t>过程名</t>
+  </si>
+  <si>
+    <t>中文含义</t>
+  </si>
+  <si>
+    <t>CREATE_CAPTURE</t>
+  </si>
+  <si>
+    <t>创建权限捕捉任务</t>
+  </si>
+  <si>
+    <t>设定要分析哪种权限（例如全部用户、特定角色等）</t>
+  </si>
+  <si>
+    <t>ENABLE_CAPTURE</t>
+  </si>
+  <si>
+    <t>启用权限捕捉</t>
+  </si>
+  <si>
+    <r>
+      <t>开始记录用户在数据库中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实际使用的权限</t>
+    </r>
+  </si>
+  <si>
+    <t>DISABLE_CAPTURE</t>
+  </si>
+  <si>
+    <t>停用权限捕捉</t>
+  </si>
+  <si>
+    <t>停止记录，准备查看分析结果</t>
+  </si>
+  <si>
+    <t>DROP_CAPTURE</t>
+  </si>
+  <si>
+    <r>
+      <t>分析用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(不包括SYS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>运行中“用到了哪些权限”，从而</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>哪些权限是“没用的”，可以收回。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>只能分析</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系统权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的使用情况，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不会分析用户在自己 schema 内对象的权限使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因为这是隐含拥有的（默认授权），Oracle 不会记录这些操作。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>排除管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>员SYS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分析普通用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>权限</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Undo 段的最小</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>展数是 2 个 extents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而不是 3 个。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>这样设计是为了支持 undo 的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>循环（circular）使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：一个正在使用，一个作为下一个目标（可重用或扩展）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每个 undo 段都有一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>segment header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但该 header 位于第一个 extent 的头部中，不算单独的 extent。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>一个事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最多只会使用一个 undo 段(segments)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Undo 表空间可以是 BIGFILE 或 SMALLFILE，不限定。</t>
+  </si>
+  <si>
+    <t>Enterprise Manager Database Express</t>
+  </si>
+  <si>
+    <r>
+      <t>Enterprise Manager Database Express</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（简称 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EM Express</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">）是 Oracle 从 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 开始引入的一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轻量级 Web 管理工具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用于对数据库进行基本的图形化管理和监控。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>它是 Oracle 数据库的一部分，不需要单独安装，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认集成在数据库实例中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，以简洁、快速、低资源消耗为主要特点。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">💻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Web 界面</t>
+    </r>
+  </si>
+  <si>
+    <t>通过浏览器访问，默认端口为 5500（可变）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⚙️ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轻量级</t>
+    </r>
+  </si>
+  <si>
+    <t>不依赖 Oracle Enterprise Manager Cloud Control，无需额外安装</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔐 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内嵌于数据库中</t>
+    </r>
+  </si>
+  <si>
+    <t>与数据库实例共用进程，不能独立运行</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📊 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基本监控功能</t>
+    </r>
+  </si>
+  <si>
+    <t>提供性能监控、空间使用、SQL 活动、用户管理等基础功能</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔓 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅在数据库 OPEN 状态可用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是 OPEN 状</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>态</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>才能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EM Express</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">默认只支持 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTTPS 访问</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">端口号默认是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但如果有多个数据库实例，会分配不同端口</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">对数据库状态要求较高：只能在数据库 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPEN 状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 下使用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>不能执行备份恢复、启动关闭数据库等高级任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，需通过 SQL*Plus 或 Cloud Control</t>
+    </r>
+  </si>
+  <si>
+    <t>UNION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在使用集合操作符（如 UNION、INTERSECT、MINUS）的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的 SELECT 列表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表达式必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数量相同，并且必</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>属于相同的数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（例如数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>型或字符型）。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CURRENT_TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 函数返回的数据类型是 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>TIMESTAMP WITH TIME ZONE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，包含时区信息。</t>
+    </r>
+  </si>
+  <si>
+    <t>TIMESTAMP WITH LOCAL TIME ZONE</t>
+  </si>
+  <si>
+    <t>数据库中存储时会根据插入数据时会话的时区进行转换，存储为数据库时区的标准时间。在查询时，数据会根据当前会话的时区进行转换显示。</t>
+  </si>
+  <si>
+    <t>DBTIMEZONE</t>
+  </si>
+  <si>
+    <t>返回数据库的时区信息，</t>
+  </si>
+  <si>
+    <t>SESSIONTIMEZONE</t>
+  </si>
+  <si>
+    <t>函数返回当前会话的时区信息</t>
+  </si>
+  <si>
+    <t>举例</t>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前会话的时区信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，可以是 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>+09:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Asia/Tokyo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 这样的字符串</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'Asia/Tokyo'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>'+09:00'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据库的默认时区设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，数据库内部时间的基准</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'+00:00'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>'-05:00'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 等</t>
+    </r>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <r>
+      <t>2024-05-18 13:00:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（值随时区变）</t>
+    </r>
+  </si>
+  <si>
+    <t>DBTIMEZONE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>一种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>戳数据类型，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储时转换为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>区（DBTIMEZONE）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动转换为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>当前会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>话时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>区（SESSIONTIMEZONE）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEFT / RIGHT / FULL OUTER JOIN</t>
+  </si>
+  <si>
+    <r>
+      <t>外连接（LEFT / RIGHT / FULL OUTER JOIN）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以在一个查询中用于多个表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。没有限制只能用于两个表。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INNER JOIN（内部连接）只返回满足 JOIN 条件的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>匹配行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。不匹配的行会被过滤掉。</t>
+    </r>
+  </si>
+  <si>
+    <t>FULL OUTER JOIN 会返回：</t>
+  </si>
+  <si>
+    <t>匹配的行</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">以及 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>左表和右表中不匹配的行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FULL OUTER JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 ANSI SQL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">法。Oracle 支持 ANSI JOIN 和 Oracle (+) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">法，但 FULL OUTER JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">只能用 ANSI SQL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>法写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">不是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Oracle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>法</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后面要加双引号</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AS可以被省略，直接加别名alies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AS被省略的时候，不要加双引号，直接加别名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT customer_id AS "CUSTOMER-ID", transaction_date AS "DATE", amount + 100 DUES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> FROM transactions;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT customer_id CUSTID, transaction_date TRANS_DATE, amount + 100 DUES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> FROM transactions;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NVL()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Oracle 的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NVL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 函数是一个非常常用的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值处</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>理函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，用于将 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 替</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>换为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>指定的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NVL(expr1, expr2)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>expr1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不为 NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，则返回 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>expr1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>expr1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，则返回 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>expr2</t>
+    </r>
+  </si>
+  <si>
+    <t>可以进行隐式转换</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NVL2()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NVL2(expr1, expr2, expr3)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>expr1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不是 NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，则返回 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>expr2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>expr1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是 NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，则返回 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>expr3</t>
+    </r>
+  </si>
+  <si>
+    <t>aggregate functions</t>
+  </si>
+  <si>
+    <t>聚合函数不可以无限嵌套使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>AVG（平均值）函数在计算时会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>忽略 NULL 值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而不是将其当作 0 处理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>聚合函数</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通常只能用于 SELECT 子句、HAVING 子句或 ORDER BY 子句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MAX 和 MIN 不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>可以用于数字类型列，也适用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>于字符型列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>于字符型列，它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会依</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>据字典</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（lexicographical order）返回最大或最小的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>命令 / 状态</t>
+  </si>
+  <si>
+    <t>Oracle 执行的操作</t>
+  </si>
+  <si>
+    <t>STARTUP NOMOUNT</t>
+  </si>
+  <si>
+    <t>ALTER DATABASE MOUNT</t>
+  </si>
+  <si>
+    <t>3. OPEN</t>
+  </si>
+  <si>
+    <t>ALTER DATABASE OPEN</t>
+  </si>
+  <si>
+    <t>1. NOMOUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. MOUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOMOUNT,MOUNT,OPEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>取初始化参数文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SPFILE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PFI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>LE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 启</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Oracle 后台</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（如 DBWn、LGWR、SMON、CKPT）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 分配内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>构（SGA）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 未</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>取控制文件</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>取控制文件（control file）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>重做日志文件和数据文件的状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>态</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（但不打开）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>恢复操作（如介</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>恢复）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 不打开数据文件或 redo 日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>alert.log</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 打开数据文件（datafiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 打开在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>重做日志（online redo logs）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>外提供服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>接并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>或事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>NOMOUNT 是数据库启动的第一个阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>介于数据库未启动（SHUTDOWN）和挂载（MOUNT）之间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>NOMOUNT 阶段指的是 Oracle 启动了数据库实例（SGA + 后台进程），但尚未加载控制文件，也就尚未挂载数据库。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">只能执行某些系统管理命令（如 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>CREATE DATABASE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALTER DATABASE MOUNT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>NOMOUNT = 实例已启动，数据库尚未挂载</t>
+  </si>
+  <si>
+    <t>MOUNT</t>
+  </si>
+  <si>
+    <r>
+      <t>加载控制文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，定位数据文件和 redo log 文件的位置，但还没打开这些文件</t>
+    </r>
+  </si>
+  <si>
+    <t>先启动实例（NOMOUNT），再挂载控制文件（MOUNT），最后打开数据库（OPEN）</t>
+  </si>
+  <si>
+    <t>操作类别</t>
+  </si>
+  <si>
+    <t>示例命令</t>
+  </si>
+  <si>
+    <t>是否可用</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔁 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恢复数据库</t>
+    </r>
+  </si>
+  <si>
+    <t>RECOVER DATABASE</t>
+  </si>
+  <si>
+    <t>✅ 可用</t>
+  </si>
+  <si>
+    <t>执行介质恢复（需控制文件）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">💾 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备份控制文件</t>
+    </r>
+  </si>
+  <si>
+    <t>BACKUP CONTROLFILE TO ...</t>
+  </si>
+  <si>
+    <t>使用 RMAN 或 SQL 备份控制文件</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🛠 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更改数据文件状态</t>
+    </r>
+  </si>
+  <si>
+    <t>ALTER DATABASE RENAME FILE</t>
+  </si>
+  <si>
+    <t>控制文件已加载，知道数据文件位置</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📂 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>切换日志文件</t>
+    </r>
+  </si>
+  <si>
+    <t>ALTER DATABASE ARCHIVELOGALTER DATABASE NOARCHIVELOG</t>
+  </si>
+  <si>
+    <t>必须在 MOUNT 状态设置归档模式</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔐 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执行挂载到 OPEN 的最后一步</t>
+    </r>
+  </si>
+  <si>
+    <t>MOUNT 到 OPEN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔒 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置只读或只写</t>
+    </r>
+  </si>
+  <si>
+    <t>ALTER DATABASE OPEN READ ONLY</t>
+  </si>
+  <si>
+    <t>以只读方式打开数据库</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🚫 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT / DML</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT * FROM ...</t>
+  </si>
+  <si>
+    <t>❌ 不可用</t>
+  </si>
+  <si>
+    <t>数据文件未打开，无法访问表</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">❗ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDL 操作</t>
+    </r>
+  </si>
+  <si>
+    <t>CREATE TABLE ...</t>
+  </si>
+  <si>
+    <t>同上，无法访问数据字典和表空间</t>
+  </si>
+  <si>
+    <t>segment shrinking</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oracle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支持收缩 Index-Organized Tables（IOTs）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>索引（indexes）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Segment Shrinking（段收缩） 是 Oracle 提供的一种空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间优</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>化操作，允</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除数据的情况下，将表或索引段中未使用的空间回收，并将数据重新组织、向前移动，使表或索引占用更少的物理空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>适用于：</t>
+  </si>
+  <si>
+    <t>表（heap-organized table）</t>
+  </si>
+  <si>
+    <t>索引（index）</t>
+  </si>
+  <si>
+    <t>LOB 段（部分</t>
+  </si>
+  <si>
+    <r>
+      <t>索引</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组织</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表（IOT）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">假设你有一个表 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，原来有 10 万行数据，后来删掉了 8 万行。这时候表虽然“逻辑上变小”，但物理上仍然占用了很多块（blocks）。</t>
+    </r>
+  </si>
+  <si>
+    <t>SHRINK SPACE</t>
+  </si>
+  <si>
+    <r>
+      <t>SHRINK SPACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 Oracle 中的一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDL 语句子句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用于触发段收缩。</t>
+    </r>
+  </si>
+  <si>
+    <t>语句</t>
+  </si>
+  <si>
+    <t>作用说明</t>
+  </si>
+  <si>
+    <t>SHRINK SPACE COMPACT</t>
+  </si>
+  <si>
+    <t>重组数据，但不释放段头块，适合在线分阶段收缩</t>
+  </si>
+  <si>
+    <r>
+      <t>SHRINK SPACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（无 COMPACT）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>重组数据并释放空块，彻底收缩，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但可能锁表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把表中行数据往前移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> block 的使用效率，但</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>不</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>放</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>尾部空</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闲</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的 blocks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（segment 的高水位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不仅移动行数据，还会释放尾部空 blocks</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Row Movement</t>
+  </si>
+  <si>
+    <r>
+      <t>ROW MOVEMENT（行移动）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是一个表级属性，控制 Oracle 是否允许行在不同的数据块间移动。</t>
+    </r>
+  </si>
+  <si>
+    <t>是否必须启用 row movement</t>
+  </si>
+  <si>
+    <r>
+      <t>SHRINK SPACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 操作</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 必须</t>
+  </si>
+  <si>
+    <r>
+      <t>在线表重定义（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DBMS_REDEFINITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 建议启用</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">分区（Partitioned ）表 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>致行跨分区</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>行 SHRINK SPACE 或 SHRINK SPACE COMPACT，必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>须满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>足一个重要前提：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表所在的表空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>启用 ASSM（Automatic Segment Space Management）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>机制。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SHRINK SPACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 操作会在需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>行，因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">启用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ROW MOVEMENT</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">虽然 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHRINK SPACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 操作可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回收碎片并可能移</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>它</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不保</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一定消除所有 migrated rows</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sqlldr</t>
+  </si>
+  <si>
+    <r>
+      <t>SQL*Loader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（命令名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sqlldr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）是 Oracle 提供的一个高性能数据加载工具，用于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将外部文本文件中的数据批量导入数据库表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">从 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.dat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 等文件导入数据</t>
+    </r>
+  </si>
+  <si>
+    <t>数据迁移（如从旧系统导入到 Oracle）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">批量插入数据（比 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>INSERT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 更高效）</t>
+    </r>
+  </si>
+  <si>
+    <t>每天定时加载日志、报表数据</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">使用一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>控制文件（control file）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，指定：</t>
+    </r>
+  </si>
+  <si>
+    <t>数据文件（data file）的路径</t>
+  </si>
+  <si>
+    <t>字段分隔符</t>
+  </si>
+  <si>
+    <t>加载目标表</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oracle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sqlldr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 程序根据控制文件读取数据文件，将数据加载进数据库。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>默</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>是 append</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，除非你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">式指定 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>TRUNCATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>REPLACE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,所以不会覆盖原数据
+</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -16613,7 +21813,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="63">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17079,6 +22279,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -17288,7 +22516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -17697,6 +22925,27 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -17724,14 +22973,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -17740,19 +22989,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -20649,6 +25902,256 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>194105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386A8211-C0BC-5711-C739-FE83C63B3F24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="86061177"/>
+          <a:ext cx="5199529" cy="2291846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>363689</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>161802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDE04AA-BA24-89B6-4B4F-059718B1AE93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="94219059"/>
+          <a:ext cx="8449854" cy="7154273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>490318</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>214932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68875738-DFA5-C868-D6DC-322425E60876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="690282" y="12702988"/>
+          <a:ext cx="8468907" cy="2429214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>181553</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>54213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A1F1F3-DC2A-C190-A7E2-BF1CC82ED184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="16817788"/>
+          <a:ext cx="4143953" cy="3048425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>132904</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>116120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C7F09F-4FD8-1292-96B1-3D94204DA291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1272988" y="23075153"/>
+          <a:ext cx="4839375" cy="5010849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20917,19 +26420,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H419"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView showGridLines="0" topLeftCell="A245" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.8984375" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="38.625" customWidth="1"/>
+    <col min="4" max="4" width="38.59765625" customWidth="1"/>
     <col min="5" max="5" width="66.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -21222,7 +26725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="37.5">
+    <row r="78" spans="1:7" ht="36">
       <c r="D78" s="26" t="s">
         <v>61</v>
       </c>
@@ -21244,7 +26747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="37.5">
+    <row r="81" spans="1:7" ht="36">
       <c r="D81" s="26" t="s">
         <v>65</v>
       </c>
@@ -21252,7 +26755,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="37.5">
+    <row r="82" spans="1:7" ht="36">
       <c r="D82" s="27" t="s">
         <v>67</v>
       </c>
@@ -21333,7 +26836,7 @@
       <c r="G95" s="18"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="D96" s="168" t="s">
+      <c r="D96" s="175" t="s">
         <v>86</v>
       </c>
       <c r="E96" s="33" t="s">
@@ -21345,7 +26848,7 @@
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="D97" s="169"/>
+      <c r="D97" s="176"/>
       <c r="E97" s="13" t="s">
         <v>88</v>
       </c>
@@ -21355,7 +26858,7 @@
       <c r="G97" s="2"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="D98" s="170"/>
+      <c r="D98" s="177"/>
       <c r="E98" s="14" t="s">
         <v>89</v>
       </c>
@@ -21411,7 +26914,7 @@
       <c r="G102" s="12"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="D103" s="168" t="s">
+      <c r="D103" s="175" t="s">
         <v>104</v>
       </c>
       <c r="E103" s="33" t="s">
@@ -21423,7 +26926,7 @@
       <c r="G103" s="2"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="D104" s="169"/>
+      <c r="D104" s="176"/>
       <c r="E104" s="13" t="s">
         <v>106</v>
       </c>
@@ -21433,7 +26936,7 @@
       <c r="G104" s="2"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="D105" s="170"/>
+      <c r="D105" s="177"/>
       <c r="E105" s="14"/>
       <c r="F105" s="11" t="s">
         <v>109</v>
@@ -21491,7 +26994,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="37.5">
+    <row r="129" spans="1:6" ht="36">
       <c r="D129" s="37" t="s">
         <v>120</v>
       </c>
@@ -21502,7 +27005,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="37.5">
+    <row r="130" spans="1:6" ht="36">
       <c r="D130" s="21" t="s">
         <v>123</v>
       </c>
@@ -21513,7 +27016,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="37.5">
+    <row r="131" spans="1:6" ht="36">
       <c r="D131" s="37" t="s">
         <v>126</v>
       </c>
@@ -21524,7 +27027,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="37.5">
+    <row r="132" spans="1:6" ht="36">
       <c r="D132" s="37" t="s">
         <v>86</v>
       </c>
@@ -21535,7 +27038,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="56.25">
+    <row r="133" spans="1:6" ht="54">
       <c r="D133" s="23" t="s">
         <v>131</v>
       </c>
@@ -21570,7 +27073,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="37.5">
+    <row r="138" spans="1:6" ht="36">
       <c r="D138" s="21" t="s">
         <v>139</v>
       </c>
@@ -21581,7 +27084,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="37.5">
+    <row r="139" spans="1:6" ht="36">
       <c r="D139" s="23" t="s">
         <v>142</v>
       </c>
@@ -21668,7 +27171,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="182" spans="3:5" ht="37.5">
+    <row r="182" spans="3:5" ht="36">
       <c r="D182" s="21" t="s">
         <v>156</v>
       </c>
@@ -21676,12 +27179,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="183" spans="3:5" ht="37.5">
+    <row r="183" spans="3:5" ht="36">
       <c r="D183" s="21" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E183" s="22" t="s">
         <v>1327</v>
-      </c>
-      <c r="E183" s="22" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="184" spans="3:5">
@@ -21692,7 +27195,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="3:5" ht="37.5">
+    <row r="185" spans="3:5" ht="36">
       <c r="D185" s="21" t="s">
         <v>160</v>
       </c>
@@ -21708,7 +27211,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="187" spans="3:5" ht="37.5">
+    <row r="187" spans="3:5" ht="36">
       <c r="D187" s="21" t="s">
         <v>164</v>
       </c>
@@ -21716,7 +27219,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="188" spans="3:5" ht="37.5">
+    <row r="188" spans="3:5" ht="36">
       <c r="D188" s="21" t="s">
         <v>166</v>
       </c>
@@ -21724,7 +27227,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="189" spans="3:5" ht="37.5">
+    <row r="189" spans="3:5" ht="36">
       <c r="D189" s="21" t="s">
         <v>168</v>
       </c>
@@ -21732,7 +27235,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="190" spans="3:5" ht="37.5">
+    <row r="190" spans="3:5" ht="36">
       <c r="D190" s="41" t="s">
         <v>170</v>
       </c>
@@ -21740,7 +27243,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="3:5" ht="37.5">
+    <row r="191" spans="3:5" ht="36">
       <c r="D191" s="21" t="s">
         <v>171</v>
       </c>
@@ -21748,7 +27251,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="192" spans="3:5" ht="37.5">
+    <row r="192" spans="3:5" ht="36">
       <c r="D192" s="21" t="s">
         <v>173</v>
       </c>
@@ -21771,7 +27274,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="196" spans="4:6" ht="37.5">
+    <row r="196" spans="4:6" ht="36">
       <c r="D196" s="37" t="s">
         <v>83</v>
       </c>
@@ -21782,7 +27285,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="197" spans="4:6" ht="37.5">
+    <row r="197" spans="4:6" ht="36">
       <c r="D197" s="21" t="s">
         <v>179</v>
       </c>
@@ -21793,7 +27296,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="198" spans="4:6" ht="37.5">
+    <row r="198" spans="4:6" ht="36">
       <c r="D198" s="37" t="s">
         <v>182</v>
       </c>
@@ -21804,7 +27307,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="199" spans="4:6" ht="37.5">
+    <row r="199" spans="4:6" ht="36">
       <c r="D199" s="21" t="s">
         <v>185</v>
       </c>
@@ -21815,7 +27318,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="200" spans="4:6" ht="37.5">
+    <row r="200" spans="4:6" ht="36">
       <c r="D200" s="37" t="s">
         <v>188</v>
       </c>
@@ -21826,7 +27329,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="201" spans="4:6" ht="56.25">
+    <row r="201" spans="4:6" ht="54">
       <c r="D201" s="21" t="s">
         <v>191</v>
       </c>
@@ -21837,7 +27340,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="202" spans="4:6" ht="37.5">
+    <row r="202" spans="4:6" ht="36">
       <c r="D202" s="37" t="s">
         <v>194</v>
       </c>
@@ -21848,7 +27351,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="203" spans="4:6" ht="37.5">
+    <row r="203" spans="4:6" ht="36">
       <c r="D203" s="23" t="s">
         <v>197</v>
       </c>
@@ -21984,7 +27487,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="37.5">
+    <row r="286" spans="1:5" ht="36">
       <c r="D286" s="38" t="s">
         <v>224</v>
       </c>
@@ -21992,7 +27495,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="37.5">
+    <row r="287" spans="1:5" ht="36">
       <c r="D287" s="38" t="s">
         <v>226</v>
       </c>
@@ -22000,7 +27503,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="37.5">
+    <row r="288" spans="1:5">
       <c r="D288" s="38" t="s">
         <v>228</v>
       </c>
@@ -22008,7 +27511,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="289" spans="4:6" ht="37.5">
+    <row r="289" spans="4:6" ht="36">
       <c r="D289" s="38" t="s">
         <v>230</v>
       </c>
@@ -22016,7 +27519,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="290" spans="4:6" ht="37.5">
+    <row r="290" spans="4:6" ht="36">
       <c r="D290" s="38" t="s">
         <v>232</v>
       </c>
@@ -22024,7 +27527,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="291" spans="4:6" ht="37.5">
+    <row r="291" spans="4:6" ht="36">
       <c r="D291" s="27" t="s">
         <v>234</v>
       </c>
@@ -22127,7 +27630,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="37.5">
+    <row r="377" spans="1:8" ht="36">
       <c r="D377" s="38" t="s">
         <v>269</v>
       </c>
@@ -22141,7 +27644,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="37.5">
+    <row r="378" spans="1:8" ht="36">
       <c r="D378" s="38" t="s">
         <v>267</v>
       </c>
@@ -22155,7 +27658,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="37.5">
+    <row r="379" spans="1:8" ht="36">
       <c r="D379" s="38" t="s">
         <v>259</v>
       </c>
@@ -22172,7 +27675,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="37.5">
+    <row r="380" spans="1:8" ht="36">
       <c r="D380" s="38" t="s">
         <v>263</v>
       </c>
@@ -22312,20 +27815,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD963AF5-DC9C-41F9-83A8-50E7EAF602ED}">
   <dimension ref="A2:Y952"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A941" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.75" customWidth="1"/>
-    <col min="3" max="3" width="3.375" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" customWidth="1"/>
+    <col min="3" max="3" width="3.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.875" customWidth="1"/>
-    <col min="22" max="22" width="2.75" customWidth="1"/>
+    <col min="15" max="15" width="10.8984375" customWidth="1"/>
+    <col min="22" max="22" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -22618,43 +28121,43 @@
       <c r="E242" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="F242" s="173" t="s">
+      <c r="F242" s="180" t="s">
         <v>351</v>
       </c>
-      <c r="G242" s="173"/>
-      <c r="H242" s="173"/>
-      <c r="I242" s="173"/>
-      <c r="J242" s="173"/>
-    </row>
-    <row r="243" spans="1:19" ht="37.5">
+      <c r="G242" s="180"/>
+      <c r="H242" s="180"/>
+      <c r="I242" s="180"/>
+      <c r="J242" s="180"/>
+    </row>
+    <row r="243" spans="1:19" ht="36">
       <c r="D243" s="38" t="s">
         <v>352</v>
       </c>
       <c r="E243" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="F243" s="174" t="s">
+      <c r="F243" s="181" t="s">
         <v>354</v>
       </c>
-      <c r="G243" s="174"/>
-      <c r="H243" s="174"/>
-      <c r="I243" s="174"/>
-      <c r="J243" s="174"/>
-    </row>
-    <row r="244" spans="1:19" ht="37.5">
+      <c r="G243" s="181"/>
+      <c r="H243" s="181"/>
+      <c r="I243" s="181"/>
+      <c r="J243" s="181"/>
+    </row>
+    <row r="244" spans="1:19" ht="36">
       <c r="D244" s="38" t="s">
         <v>355</v>
       </c>
       <c r="E244" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="F244" s="174" t="s">
+      <c r="F244" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="G244" s="174"/>
-      <c r="H244" s="174"/>
-      <c r="I244" s="174"/>
-      <c r="J244" s="174"/>
+      <c r="G244" s="181"/>
+      <c r="H244" s="181"/>
+      <c r="I244" s="181"/>
+      <c r="J244" s="181"/>
     </row>
     <row r="245" spans="1:19">
       <c r="D245" s="38" t="s">
@@ -22663,13 +28166,13 @@
       <c r="E245" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="F245" s="174" t="s">
+      <c r="F245" s="181" t="s">
         <v>360</v>
       </c>
-      <c r="G245" s="174"/>
-      <c r="H245" s="174"/>
-      <c r="I245" s="174"/>
-      <c r="J245" s="174"/>
+      <c r="G245" s="181"/>
+      <c r="H245" s="181"/>
+      <c r="I245" s="181"/>
+      <c r="J245" s="181"/>
     </row>
     <row r="246" spans="1:19">
       <c r="D246" s="38" t="s">
@@ -22678,13 +28181,13 @@
       <c r="E246" s="38" t="s">
         <v>362</v>
       </c>
-      <c r="F246" s="174" t="s">
+      <c r="F246" s="181" t="s">
         <v>363</v>
       </c>
-      <c r="G246" s="174"/>
-      <c r="H246" s="174"/>
-      <c r="I246" s="174"/>
-      <c r="J246" s="174"/>
+      <c r="G246" s="181"/>
+      <c r="H246" s="181"/>
+      <c r="I246" s="181"/>
+      <c r="J246" s="181"/>
     </row>
     <row r="247" spans="1:19">
       <c r="B247" s="1" t="s">
@@ -23326,7 +28829,7 @@
     </row>
     <row r="310" spans="1:17">
       <c r="D310" s="129" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F310" s="121" t="s">
         <v>961</v>
@@ -24203,7 +29706,7 @@
       <c r="O537" s="63"/>
       <c r="P537" s="6"/>
       <c r="Q537" s="64" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="R537" s="63"/>
       <c r="S537" s="63"/>
@@ -26031,42 +31534,42 @@
       <c r="D690" s="111" t="s">
         <v>797</v>
       </c>
-      <c r="G690" s="171" t="s">
+      <c r="G690" s="178" t="s">
         <v>798</v>
       </c>
-      <c r="H690" s="172"/>
+      <c r="H690" s="179"/>
       <c r="I690" s="2"/>
     </row>
     <row r="691" spans="1:18">
       <c r="D691" s="111" t="s">
         <v>799</v>
       </c>
-      <c r="G691" s="172"/>
-      <c r="H691" s="172"/>
+      <c r="G691" s="179"/>
+      <c r="H691" s="179"/>
       <c r="I691" s="2"/>
     </row>
     <row r="692" spans="1:18">
       <c r="D692" s="111" t="s">
         <v>800</v>
       </c>
-      <c r="G692" s="172"/>
-      <c r="H692" s="172"/>
+      <c r="G692" s="179"/>
+      <c r="H692" s="179"/>
       <c r="I692" s="2"/>
     </row>
     <row r="693" spans="1:18">
       <c r="D693" s="111" t="s">
         <v>801</v>
       </c>
-      <c r="G693" s="172"/>
-      <c r="H693" s="172"/>
+      <c r="G693" s="179"/>
+      <c r="H693" s="179"/>
       <c r="I693" s="2"/>
     </row>
     <row r="694" spans="1:18">
       <c r="D694" s="111" t="s">
         <v>802</v>
       </c>
-      <c r="G694" s="172"/>
-      <c r="H694" s="172"/>
+      <c r="G694" s="179"/>
+      <c r="H694" s="179"/>
       <c r="I694" s="2"/>
     </row>
     <row r="695" spans="1:18">
@@ -27598,23 +33101,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A457B-5D23-4277-A03C-318611376D98}">
-  <dimension ref="A2:AF354"/>
+  <dimension ref="A2:AF486"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A346" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C355" sqref="C355"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.75" customWidth="1"/>
-    <col min="3" max="3" width="5.875" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="8.75" customWidth="1"/>
-    <col min="14" max="14" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" customWidth="1"/>
+    <col min="3" max="3" width="5.8984375" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" customWidth="1"/>
+    <col min="13" max="13" width="8.69921875" customWidth="1"/>
+    <col min="14" max="14" width="4.19921875" customWidth="1"/>
     <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="20" max="20" width="2.75" customWidth="1"/>
-    <col min="23" max="23" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="2.69921875" customWidth="1"/>
+    <col min="23" max="23" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
@@ -27951,7 +33454,7 @@
       </c>
       <c r="AF25" s="126"/>
     </row>
-    <row r="26" spans="1:32" s="117" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="26" spans="1:32" s="117" customFormat="1" ht="32.4" customHeight="1">
       <c r="A26" s="126"/>
       <c r="C26" s="66" t="s">
         <v>1206</v>
@@ -27959,20 +33462,20 @@
       <c r="D26" s="119"/>
       <c r="E26" s="119"/>
       <c r="F26" s="119"/>
-      <c r="G26" s="175" t="s">
+      <c r="G26" s="182" t="s">
         <v>1190</v>
       </c>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="176" t="s">
+      <c r="H26" s="182"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="183" t="s">
         <v>1191</v>
       </c>
-      <c r="M26" s="176"/>
-      <c r="N26" s="176"/>
-      <c r="O26" s="176"/>
-      <c r="P26" s="176"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="183"/>
       <c r="Q26" s="11" t="s">
         <v>693</v>
       </c>
@@ -28170,12 +33673,12 @@
     </row>
     <row r="61" spans="1:5">
       <c r="C61" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="C62" s="160" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -28192,48 +33695,54 @@
       </c>
     </row>
     <row r="65" spans="1:15">
-      <c r="C65" t="s">
-        <v>1228</v>
-      </c>
+      <c r="C65" s="75" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
     </row>
     <row r="66" spans="1:15">
       <c r="B66" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="C67" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="C68" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="C69" s="73" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="C70" s="73" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="C71" s="73" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="C72" s="73" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="C73" s="73" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -28241,22 +33750,22 @@
         <v>53</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="C75" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="C76" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="C77" s="57" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -28264,7 +33773,7 @@
         <v>54</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -28274,7 +33783,7 @@
       <c r="D80" s="68"/>
       <c r="E80" s="68"/>
       <c r="F80" s="161" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G80" s="68"/>
       <c r="H80" s="68"/>
@@ -28288,37 +33797,37 @@
     </row>
     <row r="81" spans="1:15">
       <c r="C81" s="82" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F81" s="83" t="s">
         <v>1255</v>
-      </c>
-      <c r="F81" s="83" t="s">
-        <v>1256</v>
       </c>
       <c r="O81" s="2"/>
     </row>
     <row r="82" spans="1:15">
       <c r="C82" s="82" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F82" s="83" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O82" s="2"/>
     </row>
     <row r="83" spans="1:15">
       <c r="C83" s="82" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F83" s="83" t="s">
         <v>1247</v>
-      </c>
-      <c r="F83" s="83" t="s">
-        <v>1248</v>
       </c>
       <c r="O83" s="2"/>
     </row>
     <row r="84" spans="1:15">
       <c r="C84" s="82" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F84" s="83" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="O84" s="2"/>
     </row>
@@ -28327,27 +33836,27 @@
         <v>138</v>
       </c>
       <c r="F85" s="83" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="O85" s="2"/>
     </row>
     <row r="86" spans="1:15">
       <c r="C86" s="82" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F86" s="99" t="s">
         <v>1251</v>
-      </c>
-      <c r="F86" s="99" t="s">
-        <v>1252</v>
       </c>
       <c r="O86" s="2"/>
     </row>
     <row r="87" spans="1:15">
       <c r="C87" s="84" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D87" s="67"/>
       <c r="E87" s="67"/>
       <c r="F87" s="85" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G87" s="67"/>
       <c r="H87" s="67"/>
@@ -28364,62 +33873,62 @@
         <v>55</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="C90" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="19.8">
+      <c r="C91" s="162" t="s">
         <v>1260</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="19.5">
-      <c r="C91" s="162" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="C92" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="19.8">
+      <c r="C93" s="162" t="s">
         <v>1262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="19.5">
-      <c r="C93" s="162" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="C94" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="19.8">
+      <c r="C95" s="162" t="s">
         <v>1264</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="19.5">
-      <c r="C95" s="162" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="C96" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" ht="19.8">
+      <c r="C98" s="162" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="98" spans="3:3" ht="19.5">
-      <c r="C98" s="162" t="s">
+    <row r="115" spans="2:3" ht="19.8">
+      <c r="C115" s="162" t="s">
         <v>1267</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" ht="19.5">
-      <c r="C115" s="162" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="C125" s="3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="19.8">
+      <c r="B127" s="163" t="s">
         <v>1269</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" ht="19.5">
-      <c r="B127" s="163" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="128" spans="2:3">
@@ -28427,12 +33936,12 @@
     </row>
     <row r="133" spans="2:18">
       <c r="B133" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="142" spans="2:18">
       <c r="C142" s="62" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D142" s="116"/>
       <c r="E142" s="5" t="s">
@@ -28442,7 +33951,7 @@
       <c r="G142" s="116"/>
       <c r="H142" s="116"/>
       <c r="I142" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="J142" s="116"/>
       <c r="K142" s="116"/>
@@ -28456,17 +33965,17 @@
     </row>
     <row r="143" spans="2:18">
       <c r="C143" s="65" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D143" s="117"/>
       <c r="E143" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F143" s="117"/>
       <c r="G143" s="117"/>
       <c r="H143" s="117"/>
       <c r="I143" s="109" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="J143" s="117"/>
       <c r="K143" s="117"/>
@@ -28480,17 +33989,17 @@
     </row>
     <row r="144" spans="2:18">
       <c r="C144" s="66" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D144" s="119"/>
       <c r="E144" s="11" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F144" s="119"/>
       <c r="G144" s="119"/>
       <c r="H144" s="119"/>
       <c r="I144" s="164" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="J144" s="119"/>
       <c r="K144" s="119"/>
@@ -28504,22 +34013,22 @@
     </row>
     <row r="146" spans="1:22">
       <c r="C146" s="62" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D146" s="116"/>
       <c r="E146" s="116"/>
       <c r="F146" s="5" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G146" s="63"/>
       <c r="H146" s="63"/>
       <c r="I146" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="J146" s="63"/>
       <c r="K146" s="63"/>
       <c r="L146" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="M146" s="116"/>
       <c r="N146" s="116"/>
@@ -28533,7 +34042,7 @@
     </row>
     <row r="147" spans="1:22">
       <c r="C147" s="65" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D147" s="117"/>
       <c r="E147" s="117"/>
@@ -28544,7 +34053,7 @@
         <v>719</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="M147" s="117"/>
       <c r="N147" s="117"/>
@@ -28558,7 +34067,7 @@
     </row>
     <row r="148" spans="1:22">
       <c r="C148" s="65" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D148" s="117"/>
       <c r="E148" s="117"/>
@@ -28569,7 +34078,7 @@
         <v>719</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M148" s="117"/>
       <c r="N148" s="117"/>
@@ -28583,7 +34092,7 @@
     </row>
     <row r="149" spans="1:22">
       <c r="C149" s="65" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D149" s="117"/>
       <c r="E149" s="117"/>
@@ -28594,7 +34103,7 @@
         <v>719</v>
       </c>
       <c r="L149" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="M149" s="117"/>
       <c r="N149" s="117"/>
@@ -28608,7 +34117,7 @@
     </row>
     <row r="150" spans="1:22">
       <c r="C150" s="65" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D150" s="117"/>
       <c r="E150" s="117"/>
@@ -28619,7 +34128,7 @@
         <v>719</v>
       </c>
       <c r="L150" s="8" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M150" s="117"/>
       <c r="N150" s="117"/>
@@ -28633,18 +34142,18 @@
     </row>
     <row r="151" spans="1:22">
       <c r="C151" s="65" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D151" s="117"/>
       <c r="E151" s="117"/>
       <c r="F151" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I151" s="8" t="s">
         <v>1293</v>
       </c>
-      <c r="I151" s="8" t="s">
+      <c r="L151" s="8" t="s">
         <v>1294</v>
-      </c>
-      <c r="L151" s="8" t="s">
-        <v>1295</v>
       </c>
       <c r="M151" s="117"/>
       <c r="N151" s="117"/>
@@ -28658,22 +34167,22 @@
     </row>
     <row r="152" spans="1:22">
       <c r="C152" s="66" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D152" s="119"/>
       <c r="E152" s="119"/>
       <c r="F152" s="11" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G152" s="67"/>
       <c r="H152" s="67"/>
       <c r="I152" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="J152" s="67"/>
       <c r="K152" s="67"/>
       <c r="L152" s="11" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="M152" s="119"/>
       <c r="N152" s="119"/>
@@ -28695,32 +34204,32 @@
     </row>
     <row r="155" spans="1:22">
       <c r="C155" s="57" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="166" spans="3:3">
       <c r="C166" s="165" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="167" spans="3:3">
       <c r="C167" s="42" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="168" spans="3:3">
       <c r="C168" s="55" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="169" spans="3:3">
       <c r="C169" s="42" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="170" spans="3:3">
       <c r="C170" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -28728,52 +34237,52 @@
         <v>57</v>
       </c>
       <c r="B177" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="178" spans="1:14">
       <c r="C178" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="179" spans="1:14">
       <c r="C179" s="136" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="180" spans="1:14">
       <c r="C180" s="136" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="181" spans="1:14">
       <c r="C181" s="136" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="182" spans="1:14">
       <c r="C182" s="136" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="183" spans="1:14">
       <c r="C183" s="136" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="184" spans="1:14">
       <c r="C184" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="185" spans="1:14">
       <c r="C185" s="166" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="187" spans="1:14">
       <c r="B187" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -28783,7 +34292,7 @@
       <c r="D188" s="63"/>
       <c r="E188" s="63"/>
       <c r="F188" s="149" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G188" s="63"/>
       <c r="H188" s="63"/>
@@ -28796,21 +34305,21 @@
     </row>
     <row r="189" spans="1:14">
       <c r="C189" s="83" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F189" s="121" t="s">
         <v>1315</v>
-      </c>
-      <c r="F189" s="121" t="s">
-        <v>1316</v>
       </c>
       <c r="N189" s="2"/>
     </row>
     <row r="190" spans="1:14">
       <c r="C190" s="85" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D190" s="67"/>
       <c r="E190" s="67"/>
       <c r="F190" s="150" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G190" s="67"/>
       <c r="H190" s="67"/>
@@ -28831,27 +34340,27 @@
     </row>
     <row r="193" spans="1:23">
       <c r="C193" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="194" spans="1:23">
       <c r="C194" s="167" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="195" spans="1:23">
       <c r="B195" s="57" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="196" spans="1:23">
       <c r="C196" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="197" spans="1:23">
       <c r="C197" s="167" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -28859,22 +34368,22 @@
         <v>59</v>
       </c>
       <c r="B199" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="200" spans="1:23">
       <c r="C200" s="42" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="201" spans="1:23">
       <c r="C201" s="45" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="202" spans="1:23">
       <c r="M202" s="140" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="N202" s="6"/>
       <c r="O202" s="149" t="s">
@@ -28891,62 +34400,41 @@
     </row>
     <row r="203" spans="1:23">
       <c r="M203" s="99" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="N203" s="2"/>
-      <c r="O203" s="180" t="s">
-        <v>1338</v>
-      </c>
-      <c r="P203" s="177"/>
-      <c r="Q203" s="177"/>
-      <c r="R203" s="177"/>
-      <c r="S203" s="177"/>
-      <c r="T203" s="177"/>
-      <c r="U203" s="177"/>
-      <c r="V203" s="177"/>
+      <c r="O203" s="152" t="s">
+        <v>1337</v>
+      </c>
       <c r="W203" s="2"/>
     </row>
     <row r="204" spans="1:23">
       <c r="M204" s="99" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N204" s="2"/>
+      <c r="O204" s="121" t="s">
         <v>1332</v>
       </c>
-      <c r="N204" s="2"/>
-      <c r="O204" s="178" t="s">
-        <v>1333</v>
-      </c>
-      <c r="P204" s="177"/>
-      <c r="Q204" s="177"/>
-      <c r="R204" s="177"/>
-      <c r="S204" s="177"/>
-      <c r="T204" s="177"/>
-      <c r="U204" s="177"/>
-      <c r="V204" s="177"/>
       <c r="W204" s="2"/>
     </row>
     <row r="205" spans="1:23">
       <c r="M205" s="99" t="s">
+        <v>1333</v>
+      </c>
+      <c r="N205" s="2"/>
+      <c r="O205" s="121" t="s">
         <v>1334</v>
       </c>
-      <c r="N205" s="2"/>
-      <c r="O205" s="178" t="s">
-        <v>1335</v>
-      </c>
-      <c r="P205" s="177"/>
-      <c r="Q205" s="177"/>
-      <c r="R205" s="177"/>
-      <c r="S205" s="177"/>
-      <c r="T205" s="177"/>
-      <c r="U205" s="177"/>
-      <c r="V205" s="177"/>
       <c r="W205" s="2"/>
     </row>
     <row r="206" spans="1:23">
       <c r="M206" s="85" t="s">
+        <v>1335</v>
+      </c>
+      <c r="N206" s="12"/>
+      <c r="O206" s="168" t="s">
         <v>1336</v>
-      </c>
-      <c r="N206" s="12"/>
-      <c r="O206" s="179" t="s">
-        <v>1337</v>
       </c>
       <c r="P206" s="67"/>
       <c r="Q206" s="67"/>
@@ -28959,23 +34447,23 @@
     </row>
     <row r="218" spans="3:16">
       <c r="C218" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="219" spans="3:16">
-      <c r="D219" s="183" t="s">
-        <v>1348</v>
+      <c r="D219" s="169" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="220" spans="3:16">
       <c r="D220" s="62" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E220" s="116"/>
       <c r="F220" s="116"/>
       <c r="G220" s="116"/>
       <c r="H220" s="5" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I220" s="116"/>
       <c r="J220" s="116"/>
@@ -28988,32 +34476,30 @@
     </row>
     <row r="221" spans="3:16">
       <c r="D221" s="65" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E221" s="117"/>
+      <c r="F221" s="117"/>
+      <c r="G221" s="117"/>
+      <c r="H221" s="8" t="s">
         <v>1344</v>
       </c>
-      <c r="E221" s="181"/>
-      <c r="F221" s="181"/>
-      <c r="G221" s="181"/>
-      <c r="H221" s="182" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I221" s="181"/>
-      <c r="J221" s="181"/>
-      <c r="K221" s="181"/>
-      <c r="L221" s="181"/>
-      <c r="M221" s="181"/>
-      <c r="N221" s="177"/>
-      <c r="O221" s="177"/>
+      <c r="I221" s="117"/>
+      <c r="J221" s="117"/>
+      <c r="K221" s="117"/>
+      <c r="L221" s="117"/>
+      <c r="M221" s="117"/>
       <c r="P221" s="2"/>
     </row>
     <row r="222" spans="3:16">
       <c r="D222" s="66" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E222" s="119"/>
       <c r="F222" s="119"/>
       <c r="G222" s="119"/>
       <c r="H222" s="11" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I222" s="119"/>
       <c r="J222" s="119"/>
@@ -29026,30 +34512,30 @@
     </row>
     <row r="225" spans="3:3">
       <c r="C225" s="57" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="226" spans="3:3">
       <c r="C226" s="57" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="242" spans="2:21">
       <c r="B242" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="U242" s="42" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="243" spans="2:21">
       <c r="C243" s="166" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="244" spans="2:21">
       <c r="C244" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -29067,41 +34553,31 @@
       <c r="J261" s="6"/>
     </row>
     <row r="262" spans="1:10">
-      <c r="C262" s="184" t="s">
+      <c r="C262" s="170" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F262" s="171" t="s">
         <v>1357</v>
       </c>
-      <c r="D262" s="177"/>
-      <c r="E262" s="177"/>
-      <c r="F262" s="185" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G262" s="177"/>
-      <c r="H262" s="177"/>
-      <c r="I262" s="177"/>
       <c r="J262" s="2"/>
     </row>
     <row r="263" spans="1:10">
       <c r="C263" s="83" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F263" s="121" t="s">
         <v>1353</v>
       </c>
-      <c r="D263" s="177"/>
-      <c r="E263" s="177"/>
-      <c r="F263" s="178" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G263" s="177"/>
-      <c r="H263" s="177"/>
-      <c r="I263" s="177"/>
       <c r="J263" s="2"/>
     </row>
     <row r="264" spans="1:10">
       <c r="C264" s="85" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D264" s="67"/>
       <c r="E264" s="67"/>
       <c r="F264" s="150" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G264" s="67"/>
       <c r="H264" s="67"/>
@@ -29109,8 +34585,8 @@
       <c r="J264" s="12"/>
     </row>
     <row r="266" spans="1:10">
-      <c r="C266" s="186" t="s">
-        <v>1359</v>
+      <c r="C266" s="172" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -29118,67 +34594,67 @@
         <v>60</v>
       </c>
       <c r="B268" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="269" spans="1:10">
       <c r="C269" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="270" spans="1:10">
       <c r="B270" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="271" spans="1:10">
       <c r="C271" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="272" spans="1:10">
       <c r="C272" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="273" spans="3:3">
       <c r="C273" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="291" spans="2:3">
       <c r="B291" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="292" spans="2:3">
       <c r="C292" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="293" spans="2:3">
       <c r="C293" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="294" spans="2:3">
       <c r="C294" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="323" spans="2:23">
       <c r="B323" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="324" spans="2:23">
       <c r="C324" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="325" spans="2:23">
       <c r="C325" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="326" spans="2:23">
@@ -29188,17 +34664,17 @@
     </row>
     <row r="327" spans="2:23">
       <c r="D327" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="328" spans="2:23">
       <c r="D328" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="329" spans="2:23">
       <c r="C329" s="8" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="331" spans="2:23">
@@ -29207,14 +34683,14 @@
       </c>
       <c r="D331" s="63"/>
       <c r="E331" s="62" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F331" s="63"/>
       <c r="G331" s="63"/>
       <c r="H331" s="63"/>
       <c r="I331" s="6"/>
       <c r="J331" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="K331" s="63"/>
       <c r="L331" s="63"/>
@@ -29223,7 +34699,7 @@
       <c r="O331" s="63"/>
       <c r="P331" s="63"/>
       <c r="Q331" s="62" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="R331" s="63"/>
       <c r="S331" s="63"/>
@@ -29236,264 +34712,144 @@
       <c r="C332" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="D332" s="177"/>
       <c r="E332" s="9" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I332" s="2"/>
+      <c r="J332" s="8" t="s">
         <v>1379</v>
       </c>
-      <c r="F332" s="177"/>
-      <c r="G332" s="177"/>
-      <c r="H332" s="177"/>
-      <c r="I332" s="2"/>
-      <c r="J332" s="182" t="s">
+      <c r="Q332" s="9" t="s">
         <v>1380</v>
       </c>
-      <c r="K332" s="177"/>
-      <c r="L332" s="177"/>
-      <c r="M332" s="177"/>
-      <c r="N332" s="177"/>
-      <c r="O332" s="177"/>
-      <c r="P332" s="177"/>
-      <c r="Q332" s="9" t="s">
-        <v>1381</v>
-      </c>
-      <c r="R332" s="177"/>
-      <c r="S332" s="177"/>
-      <c r="T332" s="177"/>
-      <c r="U332" s="177"/>
-      <c r="V332" s="177"/>
       <c r="W332" s="2"/>
     </row>
     <row r="333" spans="2:23">
       <c r="C333" s="65" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E333" s="9" t="s">
         <v>1382</v>
       </c>
-      <c r="D333" s="177"/>
-      <c r="E333" s="9" t="s">
+      <c r="I333" s="2"/>
+      <c r="J333" s="8" t="s">
         <v>1383</v>
       </c>
-      <c r="F333" s="177"/>
-      <c r="G333" s="177"/>
-      <c r="H333" s="177"/>
-      <c r="I333" s="2"/>
-      <c r="J333" s="182" t="s">
+      <c r="Q333" s="9" t="s">
         <v>1384</v>
       </c>
-      <c r="K333" s="177"/>
-      <c r="L333" s="177"/>
-      <c r="M333" s="177"/>
-      <c r="N333" s="177"/>
-      <c r="O333" s="177"/>
-      <c r="P333" s="177"/>
-      <c r="Q333" s="9" t="s">
-        <v>1385</v>
-      </c>
-      <c r="R333" s="177"/>
-      <c r="S333" s="177"/>
-      <c r="T333" s="177"/>
-      <c r="U333" s="177"/>
-      <c r="V333" s="177"/>
       <c r="W333" s="2"/>
     </row>
     <row r="334" spans="2:23">
       <c r="C334" s="65" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E334" s="9" t="s">
         <v>1386</v>
       </c>
-      <c r="D334" s="177"/>
-      <c r="E334" s="9" t="s">
+      <c r="I334" s="2"/>
+      <c r="J334" s="8" t="s">
         <v>1387</v>
       </c>
-      <c r="F334" s="177"/>
-      <c r="G334" s="177"/>
-      <c r="H334" s="177"/>
-      <c r="I334" s="2"/>
-      <c r="J334" s="182" t="s">
+      <c r="Q334" s="9" t="s">
         <v>1388</v>
       </c>
-      <c r="K334" s="177"/>
-      <c r="L334" s="177"/>
-      <c r="M334" s="177"/>
-      <c r="N334" s="177"/>
-      <c r="O334" s="177"/>
-      <c r="P334" s="177"/>
-      <c r="Q334" s="9" t="s">
-        <v>1389</v>
-      </c>
-      <c r="R334" s="177"/>
-      <c r="S334" s="177"/>
-      <c r="T334" s="177"/>
-      <c r="U334" s="177"/>
-      <c r="V334" s="177"/>
       <c r="W334" s="2"/>
     </row>
     <row r="335" spans="2:23">
       <c r="C335" s="65" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E335" s="9" t="s">
         <v>1390</v>
       </c>
-      <c r="D335" s="177"/>
-      <c r="E335" s="9" t="s">
+      <c r="I335" s="2"/>
+      <c r="J335" s="8" t="s">
         <v>1391</v>
       </c>
-      <c r="F335" s="177"/>
-      <c r="G335" s="177"/>
-      <c r="H335" s="177"/>
-      <c r="I335" s="2"/>
-      <c r="J335" s="182" t="s">
+      <c r="Q335" s="9" t="s">
         <v>1392</v>
       </c>
-      <c r="K335" s="177"/>
-      <c r="L335" s="177"/>
-      <c r="M335" s="177"/>
-      <c r="N335" s="177"/>
-      <c r="O335" s="177"/>
-      <c r="P335" s="177"/>
-      <c r="Q335" s="9" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R335" s="177"/>
-      <c r="S335" s="177"/>
-      <c r="T335" s="177"/>
-      <c r="U335" s="177"/>
-      <c r="V335" s="177"/>
       <c r="W335" s="2"/>
     </row>
     <row r="336" spans="2:23">
       <c r="C336" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="D336" s="177"/>
       <c r="E336" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I336" s="2"/>
+      <c r="J336" s="8" t="s">
         <v>1394</v>
       </c>
-      <c r="F336" s="177"/>
-      <c r="G336" s="177"/>
-      <c r="H336" s="177"/>
-      <c r="I336" s="2"/>
-      <c r="J336" s="182" t="s">
+      <c r="Q336" s="9" t="s">
         <v>1395</v>
       </c>
-      <c r="K336" s="177"/>
-      <c r="L336" s="177"/>
-      <c r="M336" s="177"/>
-      <c r="N336" s="177"/>
-      <c r="O336" s="177"/>
-      <c r="P336" s="177"/>
-      <c r="Q336" s="9" t="s">
-        <v>1396</v>
-      </c>
-      <c r="R336" s="177"/>
-      <c r="S336" s="177"/>
-      <c r="T336" s="177"/>
-      <c r="U336" s="177"/>
-      <c r="V336" s="177"/>
       <c r="W336" s="2"/>
     </row>
     <row r="337" spans="1:23">
       <c r="C337" s="65" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E337" s="9" t="s">
         <v>1397</v>
       </c>
-      <c r="D337" s="177"/>
-      <c r="E337" s="9" t="s">
+      <c r="I337" s="2"/>
+      <c r="J337" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="Q337" s="9" t="s">
         <v>1398</v>
       </c>
-      <c r="F337" s="177"/>
-      <c r="G337" s="177"/>
-      <c r="H337" s="177"/>
-      <c r="I337" s="2"/>
-      <c r="J337" s="182" t="s">
-        <v>1398</v>
-      </c>
-      <c r="K337" s="177"/>
-      <c r="L337" s="177"/>
-      <c r="M337" s="177"/>
-      <c r="N337" s="177"/>
-      <c r="O337" s="177"/>
-      <c r="P337" s="177"/>
-      <c r="Q337" s="9" t="s">
-        <v>1399</v>
-      </c>
-      <c r="R337" s="177"/>
-      <c r="S337" s="177"/>
-      <c r="T337" s="177"/>
-      <c r="U337" s="177"/>
-      <c r="V337" s="177"/>
       <c r="W337" s="2"/>
     </row>
     <row r="338" spans="1:23">
       <c r="C338" s="65" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E338" s="9" t="s">
         <v>1400</v>
       </c>
-      <c r="D338" s="177"/>
-      <c r="E338" s="9" t="s">
+      <c r="I338" s="2"/>
+      <c r="J338" s="8" t="s">
         <v>1401</v>
       </c>
-      <c r="F338" s="177"/>
-      <c r="G338" s="177"/>
-      <c r="H338" s="177"/>
-      <c r="I338" s="2"/>
-      <c r="J338" s="182" t="s">
+      <c r="Q338" s="9" t="s">
         <v>1402</v>
       </c>
-      <c r="K338" s="177"/>
-      <c r="L338" s="177"/>
-      <c r="M338" s="177"/>
-      <c r="N338" s="177"/>
-      <c r="O338" s="177"/>
-      <c r="P338" s="177"/>
-      <c r="Q338" s="9" t="s">
-        <v>1403</v>
-      </c>
-      <c r="R338" s="177"/>
-      <c r="S338" s="177"/>
-      <c r="T338" s="177"/>
-      <c r="U338" s="177"/>
-      <c r="V338" s="177"/>
       <c r="W338" s="2"/>
     </row>
     <row r="339" spans="1:23">
       <c r="C339" s="65" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E339" s="9" t="s">
         <v>1404</v>
       </c>
-      <c r="D339" s="177"/>
-      <c r="E339" s="9" t="s">
+      <c r="I339" s="2"/>
+      <c r="J339" s="8" t="s">
         <v>1405</v>
       </c>
-      <c r="F339" s="177"/>
-      <c r="G339" s="177"/>
-      <c r="H339" s="177"/>
-      <c r="I339" s="2"/>
-      <c r="J339" s="182" t="s">
+      <c r="Q339" s="9" t="s">
         <v>1406</v>
       </c>
-      <c r="K339" s="177"/>
-      <c r="L339" s="177"/>
-      <c r="M339" s="177"/>
-      <c r="N339" s="177"/>
-      <c r="O339" s="177"/>
-      <c r="P339" s="177"/>
-      <c r="Q339" s="9" t="s">
-        <v>1407</v>
-      </c>
-      <c r="R339" s="177"/>
-      <c r="S339" s="177"/>
-      <c r="T339" s="177"/>
-      <c r="U339" s="177"/>
-      <c r="V339" s="177"/>
       <c r="W339" s="2"/>
     </row>
     <row r="340" spans="1:23">
       <c r="C340" s="66" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D340" s="67"/>
       <c r="E340" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F340" s="67"/>
       <c r="G340" s="67"/>
       <c r="H340" s="67"/>
       <c r="I340" s="12"/>
       <c r="J340" s="11" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="K340" s="67"/>
       <c r="L340" s="67"/>
@@ -29502,7 +34858,7 @@
       <c r="O340" s="67"/>
       <c r="P340" s="67"/>
       <c r="Q340" s="10" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="R340" s="67"/>
       <c r="S340" s="67"/>
@@ -29516,46 +34872,803 @@
         <v>61</v>
       </c>
       <c r="B342" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="343" spans="1:23">
       <c r="C343" s="57" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="349" spans="1:23">
       <c r="C349" s="57" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="350" spans="1:23">
       <c r="C350" s="57" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="351" spans="1:23">
+      <c r="C351" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="351" spans="1:23">
-      <c r="C351" s="187" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:4">
       <c r="A353" s="2">
         <v>62</v>
       </c>
       <c r="B353" s="42" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="C354" s="42" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
-      <c r="C354" s="42" t="s">
-        <v>1418</v>
+    <row r="355" spans="1:4">
+      <c r="B355" s="57" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C355" s="42"/>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="C356" s="3" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="C357" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="C358" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="C359" s="121"/>
+      <c r="D359" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="D360" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="D361" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="D362" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="B363" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="C364" s="3" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="C365" s="3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="C366" s="3" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="C367" s="173" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="C368" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3">
+      <c r="B380" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3">
+      <c r="C381" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3">
+      <c r="C382" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3">
+      <c r="C383" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3">
+      <c r="C384" s="121" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13">
+      <c r="C385" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13">
+      <c r="C386" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13">
+      <c r="A388" s="2">
+        <v>63</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13">
+      <c r="C389" s="174" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13">
+      <c r="B390" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13">
+      <c r="C391" s="77" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13">
+      <c r="B392" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13">
+      <c r="C393" s="129" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13">
+      <c r="C394" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13">
+      <c r="C395" s="73" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13">
+      <c r="C396" s="73" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13">
+      <c r="C397" s="117" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13">
+      <c r="C398" s="73" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13">
+      <c r="C399" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D399" s="116"/>
+      <c r="E399" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F399" s="116"/>
+      <c r="G399" s="116"/>
+      <c r="H399" s="116"/>
+      <c r="I399" s="116"/>
+      <c r="J399" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K399" s="116"/>
+      <c r="L399" s="116"/>
+      <c r="M399" s="125"/>
+    </row>
+    <row r="400" spans="1:13">
+      <c r="C400" s="65" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D400" s="117"/>
+      <c r="E400" s="8" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F400" s="117"/>
+      <c r="G400" s="117"/>
+      <c r="H400" s="117"/>
+      <c r="I400" s="117"/>
+      <c r="J400" s="109" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K400" s="117"/>
+      <c r="L400" s="117"/>
+      <c r="M400" s="126"/>
+    </row>
+    <row r="401" spans="3:27">
+      <c r="C401" s="65" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D401" s="117"/>
+      <c r="E401" s="8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F401" s="117"/>
+      <c r="G401" s="117"/>
+      <c r="H401" s="117"/>
+      <c r="I401" s="117"/>
+      <c r="J401" s="109" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K401" s="117"/>
+      <c r="L401" s="117"/>
+      <c r="M401" s="126"/>
+    </row>
+    <row r="402" spans="3:27">
+      <c r="C402" s="65" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D402" s="117"/>
+      <c r="E402" s="8" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F402" s="117"/>
+      <c r="G402" s="117"/>
+      <c r="H402" s="117"/>
+      <c r="I402" s="117"/>
+      <c r="J402" s="109" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K402" s="117"/>
+      <c r="L402" s="117"/>
+      <c r="M402" s="126"/>
+    </row>
+    <row r="403" spans="3:27">
+      <c r="C403" s="66" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D403" s="119"/>
+      <c r="E403" s="11" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F403" s="119"/>
+      <c r="G403" s="119"/>
+      <c r="H403" s="119"/>
+      <c r="I403" s="119"/>
+      <c r="J403" s="164" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K403" s="119"/>
+      <c r="L403" s="119"/>
+      <c r="M403" s="127"/>
+    </row>
+    <row r="407" spans="3:27">
+      <c r="Q407" s="62" t="s">
+        <v>1461</v>
+      </c>
+      <c r="R407" s="116"/>
+      <c r="S407" s="116"/>
+      <c r="T407" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="U407" s="116"/>
+      <c r="V407" s="116"/>
+      <c r="W407" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X407" s="116"/>
+      <c r="Y407" s="116"/>
+      <c r="Z407" s="116"/>
+      <c r="AA407" s="125"/>
+    </row>
+    <row r="408" spans="3:27">
+      <c r="Q408" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="R408" s="117"/>
+      <c r="S408" s="117"/>
+      <c r="T408" s="8" t="s">
+        <v>1464</v>
+      </c>
+      <c r="U408" s="117"/>
+      <c r="V408" s="117"/>
+      <c r="W408" s="8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="X408" s="117"/>
+      <c r="Y408" s="117"/>
+      <c r="Z408" s="117"/>
+      <c r="AA408" s="126"/>
+    </row>
+    <row r="409" spans="3:27">
+      <c r="Q409" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="R409" s="117"/>
+      <c r="S409" s="117"/>
+      <c r="T409" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="U409" s="117"/>
+      <c r="V409" s="117"/>
+      <c r="W409" s="8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="X409" s="117"/>
+      <c r="Y409" s="117"/>
+      <c r="Z409" s="117"/>
+      <c r="AA409" s="126"/>
+    </row>
+    <row r="410" spans="3:27">
+      <c r="Q410" s="76" t="s">
+        <v>1469</v>
+      </c>
+      <c r="R410" s="119"/>
+      <c r="S410" s="119"/>
+      <c r="T410" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="U410" s="119"/>
+      <c r="V410" s="119"/>
+      <c r="W410" s="11" t="s">
+        <v>1471</v>
+      </c>
+      <c r="X410" s="119"/>
+      <c r="Y410" s="119"/>
+      <c r="Z410" s="119"/>
+      <c r="AA410" s="127"/>
+    </row>
+    <row r="411" spans="3:27">
+      <c r="Q411" s="129" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="412" spans="3:27">
+      <c r="Q412" s="184"/>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="A438" s="2">
+        <v>64</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="C439" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="C440" s="8" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="B441" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="B442" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="2">
+        <v>65</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="C445" s="3" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="C446" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="C447" s="140" t="s">
+        <v>422</v>
+      </c>
+      <c r="D447" s="63"/>
+      <c r="E447" s="63"/>
+      <c r="F447" s="140" t="s">
+        <v>279</v>
+      </c>
+      <c r="G447" s="63"/>
+      <c r="H447" s="63"/>
+      <c r="I447" s="63"/>
+      <c r="J447" s="63"/>
+      <c r="K447" s="63"/>
+      <c r="L447" s="6"/>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="C448" s="83" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D448" s="185"/>
+      <c r="E448" s="185"/>
+      <c r="F448" s="83" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G448" s="185"/>
+      <c r="H448" s="185"/>
+      <c r="I448" s="185"/>
+      <c r="J448" s="185"/>
+      <c r="K448" s="185"/>
+      <c r="L448" s="2"/>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="C449" s="83" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D449" s="185"/>
+      <c r="E449" s="185"/>
+      <c r="F449" s="83" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G449" s="185"/>
+      <c r="H449" s="185"/>
+      <c r="I449" s="185"/>
+      <c r="J449" s="185"/>
+      <c r="K449" s="185"/>
+      <c r="L449" s="2"/>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="C450" s="83" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D450" s="185"/>
+      <c r="E450" s="185"/>
+      <c r="F450" s="83" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G450" s="185"/>
+      <c r="H450" s="185"/>
+      <c r="I450" s="185"/>
+      <c r="J450" s="185"/>
+      <c r="K450" s="185"/>
+      <c r="L450" s="2"/>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="C451" s="83" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D451" s="185"/>
+      <c r="E451" s="185"/>
+      <c r="F451" s="83" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G451" s="185"/>
+      <c r="H451" s="185"/>
+      <c r="I451" s="185"/>
+      <c r="J451" s="185"/>
+      <c r="K451" s="185"/>
+      <c r="L451" s="2"/>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="C452" s="85" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D452" s="67"/>
+      <c r="E452" s="67"/>
+      <c r="F452" s="187" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G452" s="67"/>
+      <c r="H452" s="67"/>
+      <c r="I452" s="67"/>
+      <c r="J452" s="67"/>
+      <c r="K452" s="67"/>
+      <c r="L452" s="12"/>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="C453" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="C454" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="C455" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="C456" s="174" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457" s="2">
+        <v>66</v>
+      </c>
+      <c r="B457" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458" s="2">
+        <v>67</v>
+      </c>
+      <c r="B458" s="42" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="C459" s="42" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461" s="48">
+        <v>68</v>
+      </c>
+      <c r="B461" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="C462" s="57" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="B463" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="C464" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="465" spans="1:22">
+      <c r="B465" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="466" spans="1:22">
+      <c r="C466" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="467" spans="1:22">
+      <c r="B467" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="468" spans="1:22">
+      <c r="C468" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="469" spans="1:22">
+      <c r="C469" s="62" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D469" s="116"/>
+      <c r="E469" s="116"/>
+      <c r="F469" s="116"/>
+      <c r="G469" s="190" t="s">
+        <v>136</v>
+      </c>
+      <c r="H469" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I469" s="63"/>
+      <c r="J469" s="63"/>
+      <c r="K469" s="63"/>
+      <c r="L469" s="63"/>
+      <c r="M469" s="63"/>
+      <c r="N469" s="63"/>
+      <c r="O469" s="63"/>
+      <c r="P469" s="63"/>
+      <c r="Q469" s="63"/>
+      <c r="R469" s="62" t="s">
+        <v>1507</v>
+      </c>
+      <c r="S469" s="116"/>
+      <c r="T469" s="116"/>
+      <c r="U469" s="116"/>
+      <c r="V469" s="6"/>
+    </row>
+    <row r="470" spans="1:22">
+      <c r="C470" s="65" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D470" s="188"/>
+      <c r="E470" s="188"/>
+      <c r="F470" s="188"/>
+      <c r="G470" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="H470" s="189" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I470" s="185"/>
+      <c r="J470" s="185"/>
+      <c r="K470" s="185"/>
+      <c r="L470" s="185"/>
+      <c r="M470" s="185"/>
+      <c r="N470" s="185"/>
+      <c r="O470" s="185"/>
+      <c r="P470" s="185"/>
+      <c r="Q470" s="185"/>
+      <c r="R470" s="7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="S470" s="188"/>
+      <c r="T470" s="188"/>
+      <c r="U470" s="188"/>
+      <c r="V470" s="2"/>
+    </row>
+    <row r="471" spans="1:22">
+      <c r="C471" s="65" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D471" s="188"/>
+      <c r="E471" s="188"/>
+      <c r="F471" s="188"/>
+      <c r="G471" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="H471" s="189" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I471" s="185"/>
+      <c r="J471" s="185"/>
+      <c r="K471" s="185"/>
+      <c r="L471" s="185"/>
+      <c r="M471" s="185"/>
+      <c r="N471" s="185"/>
+      <c r="O471" s="185"/>
+      <c r="P471" s="185"/>
+      <c r="Q471" s="185"/>
+      <c r="R471" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="S471" s="188"/>
+      <c r="T471" s="188"/>
+      <c r="U471" s="188"/>
+      <c r="V471" s="2"/>
+    </row>
+    <row r="472" spans="1:22" ht="63.6" customHeight="1">
+      <c r="C472" s="66" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D472" s="119"/>
+      <c r="E472" s="119"/>
+      <c r="F472" s="119"/>
+      <c r="G472" s="14" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H472" s="191" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I472" s="183"/>
+      <c r="J472" s="183"/>
+      <c r="K472" s="183"/>
+      <c r="L472" s="183"/>
+      <c r="M472" s="183"/>
+      <c r="N472" s="183"/>
+      <c r="O472" s="183"/>
+      <c r="P472" s="183"/>
+      <c r="Q472" s="192"/>
+      <c r="R472" s="76" t="s">
+        <v>1513</v>
+      </c>
+      <c r="S472" s="119"/>
+      <c r="T472" s="119"/>
+      <c r="U472" s="119"/>
+      <c r="V472" s="12"/>
+    </row>
+    <row r="474" spans="1:22">
+      <c r="A474" s="2">
+        <v>69</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="475" spans="1:22">
+      <c r="C475" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="476" spans="1:22">
+      <c r="C476" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="477" spans="1:22">
+      <c r="C477" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="478" spans="1:22">
+      <c r="D478" s="3" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="479" spans="1:22">
+      <c r="D479" s="121" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="480" spans="1:22">
+      <c r="C480" s="57" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="2">
+        <v>70</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="B483" s="42" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="B484" s="42" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="C485" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="C486" t="s">
+        <v>1527</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="L26:P26"/>
+    <mergeCell ref="H472:Q472"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -29564,4 +35677,773 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5445594A-5403-4CAD-87F9-605F34E844E1}">
+  <dimension ref="A2:Y123"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" customWidth="1"/>
+    <col min="3" max="4" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>71</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" s="55" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="121" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="42" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="73" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="2">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="C19" s="62" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="62" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="117"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="C20" s="65" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D20" s="185"/>
+      <c r="E20" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F20" s="185"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="189" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I20" s="188"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="188"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="188"/>
+      <c r="N20" s="188"/>
+      <c r="O20" s="188"/>
+      <c r="P20" s="188"/>
+      <c r="Q20" s="188"/>
+      <c r="R20" s="188"/>
+      <c r="S20" s="188"/>
+      <c r="T20" s="188"/>
+      <c r="U20" s="188"/>
+      <c r="V20" s="188"/>
+      <c r="W20" s="188"/>
+      <c r="X20" s="126"/>
+      <c r="Y20" s="117"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="C21" s="65" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D21" s="185"/>
+      <c r="E21" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F21" s="185"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="193" t="s">
+        <v>1554</v>
+      </c>
+      <c r="I21" s="188"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="188"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="188"/>
+      <c r="O21" s="188"/>
+      <c r="P21" s="188"/>
+      <c r="Q21" s="188"/>
+      <c r="R21" s="188"/>
+      <c r="S21" s="188"/>
+      <c r="T21" s="188"/>
+      <c r="U21" s="188"/>
+      <c r="V21" s="188"/>
+      <c r="W21" s="188"/>
+      <c r="X21" s="126"/>
+      <c r="Y21" s="117"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="C22" s="66" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="76" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="104" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="117"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="B24" s="3" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="C25" s="174" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="D26" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="C27" s="174" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="B28" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="C29" s="174" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="C30" s="174" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="C31" s="140" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="140" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="140" t="s">
+        <v>1565</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="149" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="C32" s="83" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D32" s="185"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="99" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H32" s="185"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="185"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="83" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="186" t="s">
+        <v>1569</v>
+      </c>
+      <c r="Q32" s="185"/>
+      <c r="R32" s="185"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="C33" s="83" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D33" s="185"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="99" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="185"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="83" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="186" t="s">
+        <v>1572</v>
+      </c>
+      <c r="Q33" s="185"/>
+      <c r="R33" s="185"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="C34" s="83" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D34" s="185"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="99" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H34" s="185"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="185"/>
+      <c r="L34" s="185"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="83" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="186" t="s">
+        <v>1575</v>
+      </c>
+      <c r="Q34" s="185"/>
+      <c r="R34" s="185"/>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="C35" s="83" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="99" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="185"/>
+      <c r="L35" s="185"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="83" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="186" t="s">
+        <v>1578</v>
+      </c>
+      <c r="Q35" s="185"/>
+      <c r="R35" s="185"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="C36" s="83" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="99" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H36" s="185"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="185"/>
+      <c r="K36" s="185"/>
+      <c r="L36" s="185"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="83" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="186" t="s">
+        <v>1580</v>
+      </c>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="C37" s="83" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D37" s="185"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="185"/>
+      <c r="G37" s="99" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H37" s="185"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="185"/>
+      <c r="K37" s="185"/>
+      <c r="L37" s="185"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="83" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="186" t="s">
+        <v>1583</v>
+      </c>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="185"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="C38" s="83" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D38" s="185"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="99" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="185"/>
+      <c r="K38" s="185"/>
+      <c r="L38" s="185"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="83" t="s">
+        <v>1586</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="186" t="s">
+        <v>1587</v>
+      </c>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="C39" s="85" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="101" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="85" t="s">
+        <v>1586</v>
+      </c>
+      <c r="O39" s="12"/>
+      <c r="P39" s="150" t="s">
+        <v>1590</v>
+      </c>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="12"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="2">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="C42" s="194" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="C43" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="C44" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="C45" s="77" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="C46" s="77" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="C47" s="77" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="C48" s="77" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" s="77"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="C50" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" s="57" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" s="195" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" s="57" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18">
+      <c r="C69" s="140" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="149" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="2:18">
+      <c r="C70" s="99" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D70" s="185"/>
+      <c r="E70" s="185"/>
+      <c r="F70" s="185"/>
+      <c r="G70" s="186" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H70" s="185"/>
+      <c r="I70" s="185"/>
+      <c r="J70" s="185"/>
+      <c r="K70" s="2"/>
+      <c r="L70" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18">
+      <c r="C71" s="101" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="150" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="12"/>
+      <c r="L71" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18">
+      <c r="B73" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18">
+      <c r="C74" s="77" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18">
+      <c r="K76" s="140" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
+      <c r="O76" s="5" t="s">
+        <v>1612</v>
+      </c>
+      <c r="P76" s="116"/>
+      <c r="Q76" s="116"/>
+      <c r="R76" s="6"/>
+    </row>
+    <row r="77" spans="2:18">
+      <c r="K77" s="99" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L77" s="185"/>
+      <c r="M77" s="185"/>
+      <c r="N77" s="185"/>
+      <c r="O77" s="189" t="s">
+        <v>1614</v>
+      </c>
+      <c r="P77" s="188"/>
+      <c r="Q77" s="188"/>
+      <c r="R77" s="2"/>
+    </row>
+    <row r="78" spans="2:18">
+      <c r="K78" s="83" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L78" s="185"/>
+      <c r="M78" s="185"/>
+      <c r="N78" s="185"/>
+      <c r="O78" s="189" t="s">
+        <v>1614</v>
+      </c>
+      <c r="P78" s="188"/>
+      <c r="Q78" s="188"/>
+      <c r="R78" s="2"/>
+    </row>
+    <row r="79" spans="2:18">
+      <c r="K79" s="85" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L79" s="67"/>
+      <c r="M79" s="67"/>
+      <c r="N79" s="67"/>
+      <c r="O79" s="11" t="s">
+        <v>1616</v>
+      </c>
+      <c r="P79" s="119"/>
+      <c r="Q79" s="119"/>
+      <c r="R79" s="12"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
+        <v>75</v>
+      </c>
+      <c r="B89" s="57" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="C90" s="77" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="D91" s="73" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="D92" s="73" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="D93" s="73" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="D94" s="73" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="C95" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="C96" s="73" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="73" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="73" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="196" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/試験/Oracle/1Z0-082/Oracle_database Sliver.xlsx
+++ b/試験/Oracle/1Z0-082/Oracle_database Sliver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\試験\Oracle\1Z0-082\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\LearningSite\試験\Oracle\1Z0-082\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C3AB05-66BC-4242-87CF-4CD822279D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595126F4-7CF8-4E5A-9121-D3C76D55D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-15" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="1801">
   <si>
     <t>Bigfile tablespace</t>
     <phoneticPr fontId="1"/>
@@ -21734,7 +21734,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>是 append</t>
+      <t>是 INSERT</t>
     </r>
     <r>
       <rPr>
@@ -21805,6 +21805,3115 @@
       </rPr>
       <t xml:space="preserve">,所以不会覆盖原数据
 </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SQL*Loader 会自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日志文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.log</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，包含加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>情，控制文件信息、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>等内容。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SQL*Loader 使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直接路径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>常规路径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，通常不会像普通 SQL 操作一样利用数据库缓冲区缓存。</t>
+    </r>
+  </si>
+  <si>
+    <t>跟用什么扩展名的文件来实现没有关系。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SQL*Loader（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sqlldr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">）并不是强制只能用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.dat</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。你可以使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任何扩展名的纯文本文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，例如 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 甚至没有扩展名的文件，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只要文件内容格式正确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并且与控制文件（或默认设定）匹配。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SQL*Loader 是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基于控制文件和数据文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直接加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数据的，不生成 SQL 脚本来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>行 INSERT 操作</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>なし</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>索引一旦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>建，不能通</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> ALTER 修改其唯一性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，只能 DROP 后重建。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIQUE 索引 和 普通索引 的区别</t>
+  </si>
+  <si>
+    <t>UNIQUE 索引</t>
+  </si>
+  <si>
+    <t>普通（非唯一）索引</t>
+  </si>
+  <si>
+    <t>是否允许重复值</t>
+  </si>
+  <si>
+    <t>✅ 允许重复值</t>
+  </si>
+  <si>
+    <t>创建目的</t>
+  </si>
+  <si>
+    <t>强制数据唯一性（如身份证号、email）</t>
+  </si>
+  <si>
+    <t>提高查询性能</t>
+  </si>
+  <si>
+    <t>自动创建场景</t>
+  </si>
+  <si>
+    <t>手动或通过性能优化创建</t>
+  </si>
+  <si>
+    <t>Oracle 在插入/更新时行为</t>
+  </si>
+  <si>
+    <t>插入/更新重复值会报错</t>
+  </si>
+  <si>
+    <t>插入/更新不检查唯一性</t>
+  </si>
+  <si>
+    <t>查询性能</t>
+  </si>
+  <si>
+    <t>有时略好，因为 Oracle 知道值唯一</t>
+  </si>
+  <si>
+    <t>查询性能也很好，取决于结构</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX idx_email ON emp(email);</t>
+  </si>
+  <si>
+    <t>CREATE INDEX idx_dept ON emp(deptno);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 不允</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：索引列的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>唯一</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>PRIMARY KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNIQUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>束会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recycle Bin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">执行 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DROP TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表不会立即从数据库中永久删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而是会被</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移动到回收站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">中，这样你可以通过 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>FLASHBACK TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 进行恢复</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">表 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 被移动到回收站（名字变为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>BIN$xxxxx==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>与其关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>和唯一索引</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也被移</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>到回收站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，名字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">成 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>BIN$xxxxx==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>如果你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">行 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>FLASHBACK TABLE emp TO BEFORE DROP;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表和索引都会一起恢复</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   你自己</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>建的普通索引</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（non-constraint index）在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>除表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接永久</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果你更新的字段 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正好被某个索引包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>索引会被更新</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">更新的字段 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有被任何索引包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那么索引不会受到任何影响，也不会被更新</t>
+    </r>
+  </si>
+  <si>
+    <t>synonym</t>
+  </si>
+  <si>
+    <r>
+      <t>CREATE PUBLIC SYNONYM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 创建的  对所有用户可见，无需加 schema 前缀即可使用。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">同义词可以指向 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SEQUENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 对象</t>
+    </r>
+  </si>
+  <si>
+    <t>用户可以为其他 schema 中的对象创建私有同义词，只要对该对象有权限</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">只有 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DBA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或具有 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DROP PUBLIC SYNONYM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 权限的用户才能删除公共同义词</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>同义词是对数据库对象（如表、视图、序列、存储过程、包等）的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>目的是为了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>简化引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隐藏对象所有者的名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，以及</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现跨 schema 访问的便利性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>私有同义词</t>
+  </si>
+  <si>
+    <t>默认创建，仅对当前用户可见。</t>
+  </si>
+  <si>
+    <t>公共同义词 (PUBLIC)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">所有用户都可使用，需用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>CREATE PUBLIC SYNONYM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 语句创建，需DBA权限。</t>
+    </r>
+  </si>
+  <si>
+    <t>同义词可以指向的对象有：</t>
+  </si>
+  <si>
+    <t>序列（Sequence）</t>
+  </si>
+  <si>
+    <t>存储过程（Procedure）</t>
+  </si>
+  <si>
+    <t>函数（Function）</t>
+  </si>
+  <si>
+    <t>包（Package）</t>
+  </si>
+  <si>
+    <t>物化视图（Materialized View）</t>
+  </si>
+  <si>
+    <t>子查询</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✅【一眼识别法：以下情况几乎一定要用子查询】</t>
+  </si>
+  <si>
+    <t>1. 与“平均值、最大值、最小值”等整体统计值比较</t>
+  </si>
+  <si>
+    <r>
+      <t>✔ 关键词：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>AVG()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAX()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>MIN()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SUM()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 等 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>聚合函数的结果参与筛选条件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>例子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：找出价格高于平均值的商品</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>👉 必须用子查询：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PROD_LIST_PRICE &gt; (SELECT AVG(PROD_LIST_PRICE) FROM PRODUCTS)</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 某字段与“同一表的其他记录”进行比较</t>
+  </si>
+  <si>
+    <r>
+      <t>✔ 典型需求：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>找出最大/最小、排名前几、相关联值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>例子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：找出“工资最高的员工”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>👉 子查询找出最高工资：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHERE SALARY = (SELECT MAX(SALARY) FROM EMPLOYEES)</t>
+    </r>
+  </si>
+  <si>
+    <t>3. 用一个值去比较另一个子表或派生结果</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✔ 常见结构是 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>... WHERE COL IN (SELECT...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，或使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT EXISTS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>例子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：找出“没有订单的客户”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">👉 用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT EXISTS (SELECT 1 FROM ORDERS WHERE CUSTOMERS.CUST_ID = ORDERS.CUST_ID)</t>
+    </r>
+  </si>
+  <si>
+    <t>quota</t>
+  </si>
+  <si>
+    <t>一个 Tablespace 可以被多个用户共同使用，前提是每个用户被分配了 quota</t>
+  </si>
+  <si>
+    <t>DEFAULT TABLESPACE sales_q1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当这个用户（如 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sales</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">）创建表、索引等对象时，默认会把这些对象存放在 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>sales_q1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 表空间中，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">除非你在 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>CREATE TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 等语句里</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显式指定了其他表空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">但是，DEFAULT TABLESPACE sales_q1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>并不等于用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户对 sales_q1 有 quota（配额）！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEFAULT TABLESPACE 是默认目标，QUOTA 是使用许可，二者缺一不可！</t>
+  </si>
+  <si>
+    <r>
+      <t>除非，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你对表有着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">UNLIMITED TABLESPACE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权限</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>步骤</t>
+  </si>
+  <si>
+    <t>必要条件</t>
+  </si>
+  <si>
+    <t>①</t>
+  </si>
+  <si>
+    <t>CREATE SESSION</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔑 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>登录数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的必要权限。没有它连数据库都进不去。</t>
+    </r>
+  </si>
+  <si>
+    <t>②</t>
+  </si>
+  <si>
+    <t>CREATE TABLE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🛠️ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建表权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。拥有此权限才能在自己的 schema 中创建表。</t>
+    </r>
+  </si>
+  <si>
+    <t>③</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">指定了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DEFAULT TABLESPACE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📦 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认表空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，决定对象默认放哪，不代表你可以使用。</t>
+    </r>
+  </si>
+  <si>
+    <t>④</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">对表空间有 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>QUOTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNLIMITED TABLESPACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 权限</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📐 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否允许你使用这个表空间的空间资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。没有 quota → 无法创建任何对象。</t>
+    </r>
+  </si>
+  <si>
+    <t>⑤</t>
+  </si>
+  <si>
+    <t>表空间本身是 ONLINE 且 有空间</t>
+  </si>
+  <si>
+    <t>🚦 虽然考试不常考，但实际上你写入不了数据也可能是表空间物理已满或 OFFLINE。</t>
+  </si>
+  <si>
+    <t>Data Block（数据块）</t>
+  </si>
+  <si>
+    <t>Oracle 存储的最小单位，通常为 2KB、4KB、8KB 等（由 DB_BLOCK_SIZE 参数决定）。</t>
+  </si>
+  <si>
+    <t>每个数据块包括：</t>
+  </si>
+  <si>
+    <r>
+      <t>块头（Block Header）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：包含 DBA、段类型、事务槽等元数据。</t>
+    </r>
+  </si>
+  <si>
+    <t>表目录（Table Directory）</t>
+  </si>
+  <si>
+    <t>行目录（Row Directory）</t>
+  </si>
+  <si>
+    <t>数据行（Row Data）</t>
+  </si>
+  <si>
+    <t>DBA（Data Block Address）</t>
+  </si>
+  <si>
+    <t>DBA 是数据块在数据文件中的唯一标识符。</t>
+  </si>
+  <si>
+    <t>Oracle 数据库的数据最终都存储在**数据文件（data file）**中，而 DBA 就是定位这些数据块的关键“地址信息”。</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>数据文件号</t>
+  </si>
+  <si>
+    <t>表示这个数据块属于哪个数据文件（file#）</t>
+  </si>
+  <si>
+    <t>块号（block#）</t>
+  </si>
+  <si>
+    <t>表示这个数据块是该数据文件中的第几个块</t>
+  </si>
+  <si>
+    <r>
+      <t>每个数据块（block）都有自己的 DBA（Data Block Address）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>每个数据块的 DBA（Data Block Address）信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的确包含在该数据块的 header（头部）中。</t>
+    </r>
+  </si>
+  <si>
+    <t>Row、Row Piece（行、行片段）</t>
+  </si>
+  <si>
+    <t>一行数据有时太大（如 CLOB 类型或列数多），无法完全放入一个块时，会拆成多个片段（row pieces）</t>
+  </si>
+  <si>
+    <t>行链接（Row Chaining）</t>
+  </si>
+  <si>
+    <t>行太大，超出单块容量 =&gt; 分成多个片段，跨多个块存储</t>
+  </si>
+  <si>
+    <t>同一行的多个 row piece 可以跨块存储（行链接 Row Chaining）</t>
+  </si>
+  <si>
+    <t>行迁移（Row Migration）和块内拆分（Intra-block Row Chaining）</t>
+  </si>
+  <si>
+    <t>当一行列数超多（&gt;255），Oracle 会将它拆分成多个行片段，即使这些片段还能放入同一个块中。</t>
+  </si>
+  <si>
+    <t>块内拆分有助于节省跨块读写的开销</t>
+  </si>
+  <si>
+    <r>
+      <t>但每个 row piece（行片段）本身，是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能再被</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>继续</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>拆分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>数据块和索引块因频繁插入、更新、删除会出现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>碎片化（Fragmentation）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Oracle 会在需要时进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空闲空间管理与压缩（PCTFREE / PCTUSED）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但空闲空间分布不固定，也不一定连续或在中间。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>数据块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/索引</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>闲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，也不固定位置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>可用空</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（Free Space）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>可用空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（Free Space）</t>
+    </r>
+  </si>
+  <si>
+    <t>ROLLBACK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>External Table</t>
+  </si>
+  <si>
+    <r>
+      <t>在 Oracle 中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>External Table（外部表）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是一种特殊的表，它的数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不是存储在数据库的表空间中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而是存在于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据库服务器操作系统上的外部文件中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>你可以用 SQL 查询这些表，就像操作普通表一样，但是：</t>
+  </si>
+  <si>
+    <t>数据并不在数据库内部；</t>
+  </si>
+  <si>
+    <t>只是“外部文件的映射”。</t>
+  </si>
+  <si>
+    <t>External Table Files</t>
+  </si>
+  <si>
+    <t>External Table Files = 存储在文件系统上的数据文件，供外部表使用。</t>
+  </si>
+  <si>
+    <t>1. 文本文件（CSV、TXT 等）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">用于 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ORACLE_LOADER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 驱动</t>
+    </r>
+  </si>
+  <si>
+    <t>比如一个以逗号分隔的 CSV 文件：</t>
+  </si>
+  <si>
+    <t>2. Oracle Dump 文件（*.dmp）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">用于 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ORACLE_DATAPUMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 驱动</t>
+    </r>
+  </si>
+  <si>
+    <t>这是 Oracle 专用格式的二进制文件，类似 Data Pump 导出文件</t>
+  </si>
+  <si>
+    <t>用于“高速写出 / 读取”数据库表数据</t>
+  </si>
+  <si>
+    <t>外部表文件可以重复使用</t>
+  </si>
+  <si>
+    <r>
+      <t>你在 A 数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中生成的 dump 文件或 CSV 文件，只要路径可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，也可以被 B 数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的外部表使用</t>
+    </r>
+  </si>
+  <si>
+    <t>使用的驱动</t>
+  </si>
+  <si>
+    <t>文件格式</t>
+  </si>
+  <si>
+    <t>支持方向</t>
+  </si>
+  <si>
+    <t>文本文件（如 .csv）</t>
+  </si>
+  <si>
+    <t>ORACLE_LOADER</t>
+  </si>
+  <si>
+    <t>纯文本、CSV、TXT</t>
+  </si>
+  <si>
+    <t>只支持加载（load）</t>
+  </si>
+  <si>
+    <t>dump 文件（如 .dmp）</t>
+  </si>
+  <si>
+    <t>ORACLE_DATAPUMP</t>
+  </si>
+  <si>
+    <t>Oracle 二进制格式</t>
+  </si>
+  <si>
+    <t>支持加载和卸出</t>
+  </si>
+  <si>
+    <t>Partitioned Table</t>
+  </si>
+  <si>
+    <r>
+      <t>表分区（Partitioning）是指把一张大表按某种规则物理上拆分成多个小的子表（分区）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但用户操作时仍然像是一张完整的表。</t>
+    </r>
+  </si>
+  <si>
+    <t>外部表也可以被表区分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>外部表不支持任何 DML 操作（INSERT、UPDATE、DELETE）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，只能查询</t>
+    </r>
+  </si>
+  <si>
+    <t>Cartesian Product（笛卡尔积）</t>
+  </si>
+  <si>
+    <t>把两个表中所有行，两两组合，生成的新结果集。</t>
+  </si>
+  <si>
+    <r>
+      <t>也叫交叉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>接（Cross Join）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考No57</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>无论是 Oracle 旧语法（使用逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">）还是 ANSI JOIN 语法，只要不写连接条件，就会生成 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>笛卡尔积（Cartesian Product）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>两者在性能上没有本质差别。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执行效率取决于执行计划（Execution Plan）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而不是语法本身</t>
+    </r>
+  </si>
+  <si>
+    <t>NATURAL JOIN</t>
+  </si>
+  <si>
+    <r>
+      <t>NATURAL JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 ANSI SQL（标准SQL）中的一种</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动连接方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它会：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>根据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两个表中同名的列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，自动进行等值连接（equijoin）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不需要写 ON 或 USING 条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它会自动识别哪些列名相同，并以此为连接条件。</t>
+    </r>
+  </si>
+  <si>
+    <t>Oracle join 和 ANSI join</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SQL:1999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>→ANSI join</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -21813,7 +24922,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="67">
+  <fonts count="69">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22280,13 +25389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -22306,6 +25408,30 @@
       <color rgb="FFFF0000"/>
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -22516,7 +25642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -22946,6 +26072,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -22973,39 +26126,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -26152,6 +29285,710 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>292443</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>81071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765231A3-6D8C-FAC8-FB4B-A16FF2CDFEF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7418294" y="40621324"/>
+          <a:ext cx="7811590" cy="2781688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106663</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>98576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE9CA6E-71A1-02A0-AA49-02504C0463F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="661147" y="47244000"/>
+          <a:ext cx="5496692" cy="3762900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>486687</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>201866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DEEDFE-22B6-87E9-A13B-BA438521C9FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="52084941"/>
+          <a:ext cx="2514951" cy="1143160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100781</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>184625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB791E30-20BF-3814-E44C-6F6719C623CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="53732206"/>
+          <a:ext cx="3496163" cy="2067213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>626887</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>229422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1339B0E1-CDF8-2BAB-E490-F20271C2271A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="57026735"/>
+          <a:ext cx="7440063" cy="1876687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257370</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>18030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71645F09-E276-F457-186E-C43915A6A4DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806824" y="70731529"/>
+          <a:ext cx="1400370" cy="724001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57823</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>123379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18696BC7-F479-C891-601C-37A7776E5340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="73376118"/>
+          <a:ext cx="4820323" cy="4829849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>655466</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>133694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EEC6D3D-60EE-BE2F-26C8-BA6DDB31CFB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="79965176"/>
+          <a:ext cx="7468642" cy="6487430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152908</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>46146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B4D94D-5659-3F95-3FB9-B28EFC92FF1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="86789559"/>
+          <a:ext cx="7649643" cy="5458587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>353318</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>63618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B921B2-AA2C-64DB-55AE-5A3712BD2949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="93849265"/>
+          <a:ext cx="2381582" cy="2181529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>176992</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>110227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC90758-B129-05E9-F183-E82CBCD01549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="96202500"/>
+          <a:ext cx="3572374" cy="2934109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355655</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>25279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796DAAB2-3570-8F7C-6D4F-26E10BA0B597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="99732353"/>
+          <a:ext cx="3067478" cy="4496427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>637668</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>152614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76493716-ED1A-DD1E-81F1-B74F612D309D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3664324" y="99743559"/>
+          <a:ext cx="4391638" cy="5553850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138050</xdr:colOff>
+      <xdr:row>474</xdr:row>
+      <xdr:rowOff>155840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4ACC46-F9D8-6B91-3E51-2AFD8C78F536}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616323" y="107307529"/>
+          <a:ext cx="5572903" cy="4582164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>305687</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>117710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192C93F8-1EE1-F642-4921-9694BAEE14F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="112204500"/>
+          <a:ext cx="2333951" cy="4353533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>302560</xdr:colOff>
+      <xdr:row>496</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>505197</xdr:colOff>
+      <xdr:row>502</xdr:row>
+      <xdr:rowOff>125157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CD3A63-B5F4-0040-65B8-C1932E3A6A04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571501" y="116933383"/>
+          <a:ext cx="6668431" cy="1514686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26424,15 +30261,15 @@
       <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.8984375" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.875" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="38.59765625" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
     <col min="5" max="5" width="66.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -26725,7 +30562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="36">
+    <row r="78" spans="1:7" ht="37.5">
       <c r="D78" s="26" t="s">
         <v>61</v>
       </c>
@@ -26747,7 +30584,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="36">
+    <row r="81" spans="1:7" ht="37.5">
       <c r="D81" s="26" t="s">
         <v>65</v>
       </c>
@@ -26755,7 +30592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="36">
+    <row r="82" spans="1:7" ht="37.5">
       <c r="D82" s="27" t="s">
         <v>67</v>
       </c>
@@ -26836,7 +30673,7 @@
       <c r="G95" s="18"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="D96" s="175" t="s">
+      <c r="D96" s="184" t="s">
         <v>86</v>
       </c>
       <c r="E96" s="33" t="s">
@@ -26848,7 +30685,7 @@
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="D97" s="176"/>
+      <c r="D97" s="185"/>
       <c r="E97" s="13" t="s">
         <v>88</v>
       </c>
@@ -26858,7 +30695,7 @@
       <c r="G97" s="2"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="D98" s="177"/>
+      <c r="D98" s="186"/>
       <c r="E98" s="14" t="s">
         <v>89</v>
       </c>
@@ -26914,7 +30751,7 @@
       <c r="G102" s="12"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="D103" s="175" t="s">
+      <c r="D103" s="184" t="s">
         <v>104</v>
       </c>
       <c r="E103" s="33" t="s">
@@ -26926,7 +30763,7 @@
       <c r="G103" s="2"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="D104" s="176"/>
+      <c r="D104" s="185"/>
       <c r="E104" s="13" t="s">
         <v>106</v>
       </c>
@@ -26936,7 +30773,7 @@
       <c r="G104" s="2"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="D105" s="177"/>
+      <c r="D105" s="186"/>
       <c r="E105" s="14"/>
       <c r="F105" s="11" t="s">
         <v>109</v>
@@ -26994,7 +30831,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="36">
+    <row r="129" spans="1:6" ht="37.5">
       <c r="D129" s="37" t="s">
         <v>120</v>
       </c>
@@ -27005,7 +30842,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="36">
+    <row r="130" spans="1:6" ht="37.5">
       <c r="D130" s="21" t="s">
         <v>123</v>
       </c>
@@ -27016,7 +30853,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="36">
+    <row r="131" spans="1:6" ht="37.5">
       <c r="D131" s="37" t="s">
         <v>126</v>
       </c>
@@ -27027,7 +30864,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="36">
+    <row r="132" spans="1:6" ht="37.5">
       <c r="D132" s="37" t="s">
         <v>86</v>
       </c>
@@ -27038,7 +30875,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="54">
+    <row r="133" spans="1:6" ht="56.25">
       <c r="D133" s="23" t="s">
         <v>131</v>
       </c>
@@ -27073,7 +30910,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="36">
+    <row r="138" spans="1:6" ht="37.5">
       <c r="D138" s="21" t="s">
         <v>139</v>
       </c>
@@ -27084,7 +30921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="36">
+    <row r="139" spans="1:6" ht="37.5">
       <c r="D139" s="23" t="s">
         <v>142</v>
       </c>
@@ -27171,7 +31008,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="182" spans="3:5" ht="36">
+    <row r="182" spans="3:5" ht="37.5">
       <c r="D182" s="21" t="s">
         <v>156</v>
       </c>
@@ -27179,7 +31016,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="183" spans="3:5" ht="36">
+    <row r="183" spans="3:5" ht="37.5">
       <c r="D183" s="21" t="s">
         <v>1326</v>
       </c>
@@ -27195,7 +31032,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="3:5" ht="36">
+    <row r="185" spans="3:5" ht="37.5">
       <c r="D185" s="21" t="s">
         <v>160</v>
       </c>
@@ -27211,7 +31048,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="187" spans="3:5" ht="36">
+    <row r="187" spans="3:5" ht="37.5">
       <c r="D187" s="21" t="s">
         <v>164</v>
       </c>
@@ -27219,7 +31056,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="188" spans="3:5" ht="36">
+    <row r="188" spans="3:5" ht="37.5">
       <c r="D188" s="21" t="s">
         <v>166</v>
       </c>
@@ -27227,7 +31064,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="189" spans="3:5" ht="36">
+    <row r="189" spans="3:5" ht="37.5">
       <c r="D189" s="21" t="s">
         <v>168</v>
       </c>
@@ -27235,7 +31072,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="190" spans="3:5" ht="36">
+    <row r="190" spans="3:5" ht="37.5">
       <c r="D190" s="41" t="s">
         <v>170</v>
       </c>
@@ -27243,7 +31080,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="3:5" ht="36">
+    <row r="191" spans="3:5" ht="37.5">
       <c r="D191" s="21" t="s">
         <v>171</v>
       </c>
@@ -27251,7 +31088,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="192" spans="3:5" ht="36">
+    <row r="192" spans="3:5" ht="37.5">
       <c r="D192" s="21" t="s">
         <v>173</v>
       </c>
@@ -27274,7 +31111,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="196" spans="4:6" ht="36">
+    <row r="196" spans="4:6" ht="37.5">
       <c r="D196" s="37" t="s">
         <v>83</v>
       </c>
@@ -27285,7 +31122,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="197" spans="4:6" ht="36">
+    <row r="197" spans="4:6" ht="37.5">
       <c r="D197" s="21" t="s">
         <v>179</v>
       </c>
@@ -27296,7 +31133,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="198" spans="4:6" ht="36">
+    <row r="198" spans="4:6" ht="37.5">
       <c r="D198" s="37" t="s">
         <v>182</v>
       </c>
@@ -27307,7 +31144,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="199" spans="4:6" ht="36">
+    <row r="199" spans="4:6" ht="37.5">
       <c r="D199" s="21" t="s">
         <v>185</v>
       </c>
@@ -27318,7 +31155,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="200" spans="4:6" ht="36">
+    <row r="200" spans="4:6" ht="37.5">
       <c r="D200" s="37" t="s">
         <v>188</v>
       </c>
@@ -27329,7 +31166,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="201" spans="4:6" ht="54">
+    <row r="201" spans="4:6" ht="56.25">
       <c r="D201" s="21" t="s">
         <v>191</v>
       </c>
@@ -27340,7 +31177,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="202" spans="4:6" ht="36">
+    <row r="202" spans="4:6" ht="37.5">
       <c r="D202" s="37" t="s">
         <v>194</v>
       </c>
@@ -27351,7 +31188,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="203" spans="4:6" ht="36">
+    <row r="203" spans="4:6" ht="37.5">
       <c r="D203" s="23" t="s">
         <v>197</v>
       </c>
@@ -27487,7 +31324,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="36">
+    <row r="286" spans="1:5" ht="37.5">
       <c r="D286" s="38" t="s">
         <v>224</v>
       </c>
@@ -27495,7 +31332,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="36">
+    <row r="287" spans="1:5" ht="37.5">
       <c r="D287" s="38" t="s">
         <v>226</v>
       </c>
@@ -27503,7 +31340,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" ht="37.5">
       <c r="D288" s="38" t="s">
         <v>228</v>
       </c>
@@ -27511,7 +31348,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="289" spans="4:6" ht="36">
+    <row r="289" spans="4:6" ht="37.5">
       <c r="D289" s="38" t="s">
         <v>230</v>
       </c>
@@ -27519,7 +31356,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="290" spans="4:6" ht="36">
+    <row r="290" spans="4:6" ht="37.5">
       <c r="D290" s="38" t="s">
         <v>232</v>
       </c>
@@ -27527,7 +31364,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="291" spans="4:6" ht="36">
+    <row r="291" spans="4:6" ht="37.5">
       <c r="D291" s="27" t="s">
         <v>234</v>
       </c>
@@ -27630,7 +31467,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="36">
+    <row r="377" spans="1:8" ht="37.5">
       <c r="D377" s="38" t="s">
         <v>269</v>
       </c>
@@ -27644,7 +31481,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="36">
+    <row r="378" spans="1:8" ht="37.5">
       <c r="D378" s="38" t="s">
         <v>267</v>
       </c>
@@ -27658,7 +31495,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="36">
+    <row r="379" spans="1:8" ht="37.5">
       <c r="D379" s="38" t="s">
         <v>259</v>
       </c>
@@ -27675,7 +31512,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="36">
+    <row r="380" spans="1:8" ht="37.5">
       <c r="D380" s="38" t="s">
         <v>263</v>
       </c>
@@ -27815,20 +31652,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD963AF5-DC9C-41F9-83A8-50E7EAF602ED}">
   <dimension ref="A2:Y952"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" customWidth="1"/>
-    <col min="3" max="3" width="3.3984375" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.8984375" customWidth="1"/>
-    <col min="22" max="22" width="2.69921875" customWidth="1"/>
+    <col min="15" max="15" width="10.875" customWidth="1"/>
+    <col min="22" max="22" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -28121,43 +31958,43 @@
       <c r="E242" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="F242" s="180" t="s">
+      <c r="F242" s="189" t="s">
         <v>351</v>
       </c>
-      <c r="G242" s="180"/>
-      <c r="H242" s="180"/>
-      <c r="I242" s="180"/>
-      <c r="J242" s="180"/>
-    </row>
-    <row r="243" spans="1:19" ht="36">
+      <c r="G242" s="189"/>
+      <c r="H242" s="189"/>
+      <c r="I242" s="189"/>
+      <c r="J242" s="189"/>
+    </row>
+    <row r="243" spans="1:19" ht="37.5">
       <c r="D243" s="38" t="s">
         <v>352</v>
       </c>
       <c r="E243" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="F243" s="181" t="s">
+      <c r="F243" s="190" t="s">
         <v>354</v>
       </c>
-      <c r="G243" s="181"/>
-      <c r="H243" s="181"/>
-      <c r="I243" s="181"/>
-      <c r="J243" s="181"/>
-    </row>
-    <row r="244" spans="1:19" ht="36">
+      <c r="G243" s="190"/>
+      <c r="H243" s="190"/>
+      <c r="I243" s="190"/>
+      <c r="J243" s="190"/>
+    </row>
+    <row r="244" spans="1:19" ht="37.5">
       <c r="D244" s="38" t="s">
         <v>355</v>
       </c>
       <c r="E244" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="F244" s="181" t="s">
+      <c r="F244" s="190" t="s">
         <v>357</v>
       </c>
-      <c r="G244" s="181"/>
-      <c r="H244" s="181"/>
-      <c r="I244" s="181"/>
-      <c r="J244" s="181"/>
+      <c r="G244" s="190"/>
+      <c r="H244" s="190"/>
+      <c r="I244" s="190"/>
+      <c r="J244" s="190"/>
     </row>
     <row r="245" spans="1:19">
       <c r="D245" s="38" t="s">
@@ -28166,13 +32003,13 @@
       <c r="E245" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="F245" s="181" t="s">
+      <c r="F245" s="190" t="s">
         <v>360</v>
       </c>
-      <c r="G245" s="181"/>
-      <c r="H245" s="181"/>
-      <c r="I245" s="181"/>
-      <c r="J245" s="181"/>
+      <c r="G245" s="190"/>
+      <c r="H245" s="190"/>
+      <c r="I245" s="190"/>
+      <c r="J245" s="190"/>
     </row>
     <row r="246" spans="1:19">
       <c r="D246" s="38" t="s">
@@ -28181,13 +32018,13 @@
       <c r="E246" s="38" t="s">
         <v>362</v>
       </c>
-      <c r="F246" s="181" t="s">
+      <c r="F246" s="190" t="s">
         <v>363</v>
       </c>
-      <c r="G246" s="181"/>
-      <c r="H246" s="181"/>
-      <c r="I246" s="181"/>
-      <c r="J246" s="181"/>
+      <c r="G246" s="190"/>
+      <c r="H246" s="190"/>
+      <c r="I246" s="190"/>
+      <c r="J246" s="190"/>
     </row>
     <row r="247" spans="1:19">
       <c r="B247" s="1" t="s">
@@ -31534,42 +35371,42 @@
       <c r="D690" s="111" t="s">
         <v>797</v>
       </c>
-      <c r="G690" s="178" t="s">
+      <c r="G690" s="187" t="s">
         <v>798</v>
       </c>
-      <c r="H690" s="179"/>
+      <c r="H690" s="188"/>
       <c r="I690" s="2"/>
     </row>
     <row r="691" spans="1:18">
       <c r="D691" s="111" t="s">
         <v>799</v>
       </c>
-      <c r="G691" s="179"/>
-      <c r="H691" s="179"/>
+      <c r="G691" s="188"/>
+      <c r="H691" s="188"/>
       <c r="I691" s="2"/>
     </row>
     <row r="692" spans="1:18">
       <c r="D692" s="111" t="s">
         <v>800</v>
       </c>
-      <c r="G692" s="179"/>
-      <c r="H692" s="179"/>
+      <c r="G692" s="188"/>
+      <c r="H692" s="188"/>
       <c r="I692" s="2"/>
     </row>
     <row r="693" spans="1:18">
       <c r="D693" s="111" t="s">
         <v>801</v>
       </c>
-      <c r="G693" s="179"/>
-      <c r="H693" s="179"/>
+      <c r="G693" s="188"/>
+      <c r="H693" s="188"/>
       <c r="I693" s="2"/>
     </row>
     <row r="694" spans="1:18">
       <c r="D694" s="111" t="s">
         <v>802</v>
       </c>
-      <c r="G694" s="179"/>
-      <c r="H694" s="179"/>
+      <c r="G694" s="188"/>
+      <c r="H694" s="188"/>
       <c r="I694" s="2"/>
     </row>
     <row r="695" spans="1:18">
@@ -33103,21 +36940,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A457B-5D23-4277-A03C-318611376D98}">
   <dimension ref="A2:AF486"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView showGridLines="0" topLeftCell="A170" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187:P190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" customWidth="1"/>
-    <col min="3" max="3" width="5.8984375" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" customWidth="1"/>
-    <col min="13" max="13" width="8.69921875" customWidth="1"/>
-    <col min="14" max="14" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="8.75" customWidth="1"/>
+    <col min="14" max="14" width="4.25" customWidth="1"/>
     <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="20" max="20" width="2.69921875" customWidth="1"/>
-    <col min="23" max="23" width="10.69921875" customWidth="1"/>
+    <col min="20" max="20" width="2.75" customWidth="1"/>
+    <col min="23" max="23" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
@@ -33454,7 +37291,7 @@
       </c>
       <c r="AF25" s="126"/>
     </row>
-    <row r="26" spans="1:32" s="117" customFormat="1" ht="32.4" customHeight="1">
+    <row r="26" spans="1:32" s="117" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A26" s="126"/>
       <c r="C26" s="66" t="s">
         <v>1206</v>
@@ -33462,20 +37299,20 @@
       <c r="D26" s="119"/>
       <c r="E26" s="119"/>
       <c r="F26" s="119"/>
-      <c r="G26" s="182" t="s">
+      <c r="G26" s="191" t="s">
         <v>1190</v>
       </c>
-      <c r="H26" s="182"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="183" t="s">
+      <c r="H26" s="191"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="192" t="s">
         <v>1191</v>
       </c>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="183"/>
+      <c r="M26" s="192"/>
+      <c r="N26" s="192"/>
+      <c r="O26" s="192"/>
+      <c r="P26" s="192"/>
       <c r="Q26" s="11" t="s">
         <v>693</v>
       </c>
@@ -33881,7 +37718,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="19.8">
+    <row r="91" spans="1:15" ht="19.5">
       <c r="C91" s="162" t="s">
         <v>1260</v>
       </c>
@@ -33891,7 +37728,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="19.8">
+    <row r="93" spans="1:15" ht="19.5">
       <c r="C93" s="162" t="s">
         <v>1262</v>
       </c>
@@ -33901,7 +37738,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="19.8">
+    <row r="95" spans="1:15" ht="19.5">
       <c r="C95" s="162" t="s">
         <v>1264</v>
       </c>
@@ -33911,12 +37748,12 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="98" spans="3:3" ht="19.8">
+    <row r="98" spans="3:3" ht="19.5">
       <c r="C98" s="162" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="19.8">
+    <row r="115" spans="2:3" ht="19.5">
       <c r="C115" s="162" t="s">
         <v>1267</v>
       </c>
@@ -33926,7 +37763,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="19.8">
+    <row r="127" spans="2:3" ht="19.5">
       <c r="B127" s="163" t="s">
         <v>1269</v>
       </c>
@@ -35250,7 +39087,7 @@
       </c>
     </row>
     <row r="412" spans="3:27">
-      <c r="Q412" s="184"/>
+      <c r="Q412" s="175"/>
     </row>
     <row r="438" spans="1:12">
       <c r="A438" s="2">
@@ -35318,64 +39155,36 @@
       <c r="C448" s="83" t="s">
         <v>1484</v>
       </c>
-      <c r="D448" s="185"/>
-      <c r="E448" s="185"/>
       <c r="F448" s="83" t="s">
         <v>1485</v>
       </c>
-      <c r="G448" s="185"/>
-      <c r="H448" s="185"/>
-      <c r="I448" s="185"/>
-      <c r="J448" s="185"/>
-      <c r="K448" s="185"/>
       <c r="L448" s="2"/>
     </row>
     <row r="449" spans="1:12">
       <c r="C449" s="83" t="s">
         <v>1486</v>
       </c>
-      <c r="D449" s="185"/>
-      <c r="E449" s="185"/>
       <c r="F449" s="83" t="s">
         <v>1487</v>
       </c>
-      <c r="G449" s="185"/>
-      <c r="H449" s="185"/>
-      <c r="I449" s="185"/>
-      <c r="J449" s="185"/>
-      <c r="K449" s="185"/>
       <c r="L449" s="2"/>
     </row>
     <row r="450" spans="1:12">
       <c r="C450" s="83" t="s">
         <v>1488</v>
       </c>
-      <c r="D450" s="185"/>
-      <c r="E450" s="185"/>
       <c r="F450" s="83" t="s">
         <v>1489</v>
       </c>
-      <c r="G450" s="185"/>
-      <c r="H450" s="185"/>
-      <c r="I450" s="185"/>
-      <c r="J450" s="185"/>
-      <c r="K450" s="185"/>
       <c r="L450" s="2"/>
     </row>
     <row r="451" spans="1:12">
       <c r="C451" s="83" t="s">
         <v>1490</v>
       </c>
-      <c r="D451" s="185"/>
-      <c r="E451" s="185"/>
       <c r="F451" s="83" t="s">
         <v>1491</v>
       </c>
-      <c r="G451" s="185"/>
-      <c r="H451" s="185"/>
-      <c r="I451" s="185"/>
-      <c r="J451" s="185"/>
-      <c r="K451" s="185"/>
       <c r="L451" s="2"/>
     </row>
     <row r="452" spans="1:12">
@@ -35384,7 +39193,7 @@
       </c>
       <c r="D452" s="67"/>
       <c r="E452" s="67"/>
-      <c r="F452" s="187" t="s">
+      <c r="F452" s="176" t="s">
         <v>1493</v>
       </c>
       <c r="G452" s="67"/>
@@ -35485,7 +39294,7 @@
       <c r="D469" s="116"/>
       <c r="E469" s="116"/>
       <c r="F469" s="116"/>
-      <c r="G469" s="190" t="s">
+      <c r="G469" s="177" t="s">
         <v>136</v>
       </c>
       <c r="H469" s="5" t="s">
@@ -35512,60 +39321,42 @@
       <c r="C470" s="65" t="s">
         <v>1505</v>
       </c>
-      <c r="D470" s="188"/>
-      <c r="E470" s="188"/>
-      <c r="F470" s="188"/>
+      <c r="D470" s="117"/>
+      <c r="E470" s="117"/>
+      <c r="F470" s="117"/>
       <c r="G470" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="H470" s="189" t="s">
+      <c r="H470" s="8" t="s">
         <v>1508</v>
       </c>
-      <c r="I470" s="185"/>
-      <c r="J470" s="185"/>
-      <c r="K470" s="185"/>
-      <c r="L470" s="185"/>
-      <c r="M470" s="185"/>
-      <c r="N470" s="185"/>
-      <c r="O470" s="185"/>
-      <c r="P470" s="185"/>
-      <c r="Q470" s="185"/>
       <c r="R470" s="7" t="s">
         <v>1509</v>
       </c>
-      <c r="S470" s="188"/>
-      <c r="T470" s="188"/>
-      <c r="U470" s="188"/>
+      <c r="S470" s="117"/>
+      <c r="T470" s="117"/>
+      <c r="U470" s="117"/>
       <c r="V470" s="2"/>
     </row>
     <row r="471" spans="1:22">
       <c r="C471" s="65" t="s">
         <v>1514</v>
       </c>
-      <c r="D471" s="188"/>
-      <c r="E471" s="188"/>
-      <c r="F471" s="188"/>
+      <c r="D471" s="117"/>
+      <c r="E471" s="117"/>
+      <c r="F471" s="117"/>
       <c r="G471" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="H471" s="189" t="s">
+      <c r="H471" s="8" t="s">
         <v>1510</v>
       </c>
-      <c r="I471" s="185"/>
-      <c r="J471" s="185"/>
-      <c r="K471" s="185"/>
-      <c r="L471" s="185"/>
-      <c r="M471" s="185"/>
-      <c r="N471" s="185"/>
-      <c r="O471" s="185"/>
-      <c r="P471" s="185"/>
-      <c r="Q471" s="185"/>
       <c r="R471" s="7" t="s">
         <v>1511</v>
       </c>
-      <c r="S471" s="188"/>
-      <c r="T471" s="188"/>
-      <c r="U471" s="188"/>
+      <c r="S471" s="117"/>
+      <c r="T471" s="117"/>
+      <c r="U471" s="117"/>
       <c r="V471" s="2"/>
     </row>
     <row r="472" spans="1:22" ht="63.6" customHeight="1">
@@ -35578,18 +39369,18 @@
       <c r="G472" s="14" t="s">
         <v>1512</v>
       </c>
-      <c r="H472" s="191" t="s">
+      <c r="H472" s="193" t="s">
         <v>1515</v>
       </c>
-      <c r="I472" s="183"/>
-      <c r="J472" s="183"/>
-      <c r="K472" s="183"/>
-      <c r="L472" s="183"/>
-      <c r="M472" s="183"/>
-      <c r="N472" s="183"/>
-      <c r="O472" s="183"/>
-      <c r="P472" s="183"/>
-      <c r="Q472" s="192"/>
+      <c r="I472" s="192"/>
+      <c r="J472" s="192"/>
+      <c r="K472" s="192"/>
+      <c r="L472" s="192"/>
+      <c r="M472" s="192"/>
+      <c r="N472" s="192"/>
+      <c r="O472" s="192"/>
+      <c r="P472" s="192"/>
+      <c r="Q472" s="194"/>
       <c r="R472" s="76" t="s">
         <v>1513</v>
       </c>
@@ -35681,17 +39472,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5445594A-5403-4CAD-87F9-605F34E844E1}">
-  <dimension ref="A2:Y123"/>
+  <dimension ref="A2:Y455"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A415" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S426" sqref="S426"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" customWidth="1"/>
-    <col min="3" max="4" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="3" max="4" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -35818,30 +39609,28 @@
       <c r="C20" s="65" t="s">
         <v>1550</v>
       </c>
-      <c r="D20" s="185"/>
       <c r="E20" s="7" t="s">
         <v>1546</v>
       </c>
-      <c r="F20" s="185"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="189" t="s">
+      <c r="H20" s="8" t="s">
         <v>1553</v>
       </c>
-      <c r="I20" s="188"/>
-      <c r="J20" s="188"/>
-      <c r="K20" s="188"/>
-      <c r="L20" s="188"/>
-      <c r="M20" s="188"/>
-      <c r="N20" s="188"/>
-      <c r="O20" s="188"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="188"/>
-      <c r="R20" s="188"/>
-      <c r="S20" s="188"/>
-      <c r="T20" s="188"/>
-      <c r="U20" s="188"/>
-      <c r="V20" s="188"/>
-      <c r="W20" s="188"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
       <c r="X20" s="126"/>
       <c r="Y20" s="117"/>
     </row>
@@ -35849,30 +39638,28 @@
       <c r="C21" s="65" t="s">
         <v>1551</v>
       </c>
-      <c r="D21" s="185"/>
       <c r="E21" s="7" t="s">
         <v>1547</v>
       </c>
-      <c r="F21" s="185"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="193" t="s">
+      <c r="H21" s="178" t="s">
         <v>1554</v>
       </c>
-      <c r="I21" s="188"/>
-      <c r="J21" s="188"/>
-      <c r="K21" s="188"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="188"/>
-      <c r="N21" s="188"/>
-      <c r="O21" s="188"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="188"/>
-      <c r="R21" s="188"/>
-      <c r="S21" s="188"/>
-      <c r="T21" s="188"/>
-      <c r="U21" s="188"/>
-      <c r="V21" s="188"/>
-      <c r="W21" s="188"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
       <c r="X21" s="126"/>
       <c r="Y21" s="117"/>
     </row>
@@ -35973,189 +39760,119 @@
       <c r="C32" s="83" t="s">
         <v>1566</v>
       </c>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
       <c r="G32" s="99" t="s">
         <v>1567</v>
       </c>
-      <c r="H32" s="185"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="185"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="185"/>
       <c r="M32" s="2"/>
       <c r="N32" s="83" t="s">
         <v>1568</v>
       </c>
       <c r="O32" s="2"/>
-      <c r="P32" s="186" t="s">
+      <c r="P32" s="121" t="s">
         <v>1569</v>
       </c>
-      <c r="Q32" s="185"/>
-      <c r="R32" s="185"/>
       <c r="S32" s="2"/>
     </row>
     <row r="33" spans="1:19">
       <c r="C33" s="83" t="s">
         <v>1570</v>
       </c>
-      <c r="D33" s="185"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="185"/>
       <c r="G33" s="99" t="s">
         <v>1571</v>
       </c>
-      <c r="H33" s="185"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
-      <c r="L33" s="185"/>
       <c r="M33" s="2"/>
       <c r="N33" s="83" t="s">
         <v>1568</v>
       </c>
       <c r="O33" s="2"/>
-      <c r="P33" s="186" t="s">
+      <c r="P33" s="121" t="s">
         <v>1572</v>
       </c>
-      <c r="Q33" s="185"/>
-      <c r="R33" s="185"/>
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19">
       <c r="C34" s="83" t="s">
         <v>1573</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
       <c r="G34" s="99" t="s">
         <v>1574</v>
       </c>
-      <c r="H34" s="185"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="185"/>
-      <c r="K34" s="185"/>
-      <c r="L34" s="185"/>
       <c r="M34" s="2"/>
       <c r="N34" s="83" t="s">
         <v>1568</v>
       </c>
       <c r="O34" s="2"/>
-      <c r="P34" s="186" t="s">
+      <c r="P34" s="121" t="s">
         <v>1575</v>
       </c>
-      <c r="Q34" s="185"/>
-      <c r="R34" s="185"/>
       <c r="S34" s="2"/>
     </row>
     <row r="35" spans="1:19">
       <c r="C35" s="83" t="s">
         <v>1576</v>
       </c>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
       <c r="G35" s="99" t="s">
         <v>1577</v>
       </c>
-      <c r="H35" s="185"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="185"/>
-      <c r="K35" s="185"/>
-      <c r="L35" s="185"/>
       <c r="M35" s="2"/>
       <c r="N35" s="83" t="s">
         <v>1568</v>
       </c>
       <c r="O35" s="2"/>
-      <c r="P35" s="186" t="s">
+      <c r="P35" s="121" t="s">
         <v>1578</v>
       </c>
-      <c r="Q35" s="185"/>
-      <c r="R35" s="185"/>
       <c r="S35" s="2"/>
     </row>
     <row r="36" spans="1:19">
       <c r="C36" s="83" t="s">
         <v>1579</v>
       </c>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="185"/>
       <c r="G36" s="99" t="s">
         <v>1549</v>
       </c>
-      <c r="H36" s="185"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="185"/>
-      <c r="K36" s="185"/>
-      <c r="L36" s="185"/>
       <c r="M36" s="2"/>
       <c r="N36" s="83" t="s">
         <v>1568</v>
       </c>
       <c r="O36" s="2"/>
-      <c r="P36" s="186" t="s">
+      <c r="P36" s="121" t="s">
         <v>1580</v>
       </c>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
       <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19">
       <c r="C37" s="83" t="s">
         <v>1581</v>
       </c>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
       <c r="G37" s="99" t="s">
         <v>1582</v>
       </c>
-      <c r="H37" s="185"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="185"/>
-      <c r="K37" s="185"/>
-      <c r="L37" s="185"/>
       <c r="M37" s="2"/>
       <c r="N37" s="83" t="s">
         <v>1568</v>
       </c>
       <c r="O37" s="2"/>
-      <c r="P37" s="186" t="s">
+      <c r="P37" s="121" t="s">
         <v>1583</v>
       </c>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:19">
       <c r="C38" s="83" t="s">
         <v>1584</v>
       </c>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
       <c r="G38" s="99" t="s">
         <v>1585</v>
       </c>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="185"/>
-      <c r="K38" s="185"/>
-      <c r="L38" s="185"/>
       <c r="M38" s="2"/>
       <c r="N38" s="83" t="s">
         <v>1586</v>
       </c>
       <c r="O38" s="2"/>
-      <c r="P38" s="186" t="s">
+      <c r="P38" s="121" t="s">
         <v>1587</v>
       </c>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="1:19">
@@ -36194,7 +39911,7 @@
       </c>
     </row>
     <row r="42" spans="1:19">
-      <c r="C42" s="194" t="s">
+      <c r="C42" s="179" t="s">
         <v>1593</v>
       </c>
     </row>
@@ -36242,7 +39959,7 @@
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="C52" s="195" t="s">
+      <c r="C52" s="42" t="s">
         <v>1618</v>
       </c>
     </row>
@@ -36280,15 +39997,9 @@
       <c r="C70" s="99" t="s">
         <v>1604</v>
       </c>
-      <c r="D70" s="185"/>
-      <c r="E70" s="185"/>
-      <c r="F70" s="185"/>
-      <c r="G70" s="186" t="s">
+      <c r="G70" s="121" t="s">
         <v>1605</v>
       </c>
-      <c r="H70" s="185"/>
-      <c r="I70" s="185"/>
-      <c r="J70" s="185"/>
       <c r="K70" s="2"/>
       <c r="L70" t="s">
         <v>1608</v>
@@ -36340,28 +40051,22 @@
       <c r="K77" s="99" t="s">
         <v>1613</v>
       </c>
-      <c r="L77" s="185"/>
-      <c r="M77" s="185"/>
-      <c r="N77" s="185"/>
-      <c r="O77" s="189" t="s">
+      <c r="O77" s="8" t="s">
         <v>1614</v>
       </c>
-      <c r="P77" s="188"/>
-      <c r="Q77" s="188"/>
+      <c r="P77" s="117"/>
+      <c r="Q77" s="117"/>
       <c r="R77" s="2"/>
     </row>
     <row r="78" spans="2:18">
       <c r="K78" s="83" t="s">
         <v>1617</v>
       </c>
-      <c r="L78" s="185"/>
-      <c r="M78" s="185"/>
-      <c r="N78" s="185"/>
-      <c r="O78" s="189" t="s">
+      <c r="O78" s="8" t="s">
         <v>1614</v>
       </c>
-      <c r="P78" s="188"/>
-      <c r="Q78" s="188"/>
+      <c r="P78" s="117"/>
+      <c r="Q78" s="117"/>
       <c r="R78" s="2"/>
     </row>
     <row r="79" spans="2:18">
@@ -36436,9 +40141,965 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="123" spans="3:3">
-      <c r="C123" s="196" t="s">
+    <row r="123" spans="3:12">
+      <c r="C123" s="3" t="s">
         <v>1632</v>
+      </c>
+    </row>
+    <row r="124" spans="3:12">
+      <c r="C124" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="125" spans="3:12">
+      <c r="C125" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="126" spans="3:12">
+      <c r="C126" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L126" s="42" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="127" spans="3:12">
+      <c r="D127" s="3" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="2">
+        <v>76</v>
+      </c>
+      <c r="B129" s="123" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="48">
+        <v>77</v>
+      </c>
+      <c r="B130" s="42" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="C131" s="3" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="C132" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="C133" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="B134" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="C135" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D135" s="128"/>
+      <c r="E135" s="128"/>
+      <c r="F135" s="15" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G135" s="128"/>
+      <c r="H135" s="128"/>
+      <c r="I135" s="128"/>
+      <c r="J135" s="153"/>
+      <c r="K135" s="17" t="s">
+        <v>1643</v>
+      </c>
+      <c r="L135" s="128"/>
+      <c r="M135" s="128"/>
+      <c r="N135" s="153"/>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="C136" s="82" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F136" s="180" t="s">
+        <v>1659</v>
+      </c>
+      <c r="J136" s="2"/>
+      <c r="K136" s="8" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L136" s="117"/>
+      <c r="N136" s="2"/>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="C137" s="82" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F137" s="83" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J137" s="2"/>
+      <c r="K137" s="8" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L137" s="117"/>
+      <c r="N137" s="2"/>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="C138" s="82" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F138" s="99" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J138" s="2"/>
+      <c r="K138" s="8" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L138" s="117"/>
+      <c r="N138" s="2"/>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="C139" s="82" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F139" s="83" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J139" s="2"/>
+      <c r="K139" s="8" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L139" s="117"/>
+      <c r="N139" s="2"/>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="C140" s="82" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F140" s="83" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J140" s="2"/>
+      <c r="K140" s="8" t="s">
+        <v>1656</v>
+      </c>
+      <c r="L140" s="117"/>
+      <c r="N140" s="2"/>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="C141" s="84" t="s">
+        <v>617</v>
+      </c>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="101" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G141" s="67"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="67"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="164" t="s">
+        <v>1658</v>
+      </c>
+      <c r="L141" s="119"/>
+      <c r="M141" s="67"/>
+      <c r="N141" s="12"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="B143" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="C144" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="D145" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="D146" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="D147" s="45" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="D148" s="121" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="2">
+        <v>78</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="C150" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="C151" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="C152" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="C153" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="C155" s="121" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="C156" s="121" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="D157" s="140" t="s">
+        <v>136</v>
+      </c>
+      <c r="E157" s="63"/>
+      <c r="F157" s="63"/>
+      <c r="G157" s="149" t="s">
+        <v>279</v>
+      </c>
+      <c r="H157" s="63"/>
+      <c r="I157" s="63"/>
+      <c r="J157" s="63"/>
+      <c r="K157" s="63"/>
+      <c r="L157" s="63"/>
+      <c r="M157" s="6"/>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="D158" s="82" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G158" s="121" t="s">
+        <v>1677</v>
+      </c>
+      <c r="M158" s="2"/>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="D159" s="84" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E159" s="67"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="150" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H159" s="67"/>
+      <c r="I159" s="67"/>
+      <c r="J159" s="67"/>
+      <c r="K159" s="67"/>
+      <c r="L159" s="67"/>
+      <c r="M159" s="12"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="D161" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="D162" s="73" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="D163" s="73" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="D164" s="73" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="D165" s="73" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="D166" s="73" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="D167" s="73" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="D168" s="73" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
+        <v>79</v>
+      </c>
+      <c r="B170" s="42" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="30">
+      <c r="C171" s="181" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="22.5">
+      <c r="C173" s="182" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="C174" s="73"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="C175" s="73" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="C176" s="73"/>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" s="77" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" s="73" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" ht="22.5">
+      <c r="C182" s="182" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183" s="73"/>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184" s="73" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185" s="73"/>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186" s="77" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" s="73" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" ht="22.5">
+      <c r="C191" s="182" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" s="73"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="C193" s="73" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="C194" s="73"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="C195" s="77" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="C196" s="73" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>80</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="C199" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="C219" s="3" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="C220" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="42" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" s="77" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="251" spans="2:16">
+      <c r="B251" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="252" spans="2:16">
+      <c r="C252" s="140" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D252" s="140" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E252" s="63"/>
+      <c r="F252" s="63"/>
+      <c r="G252" s="63"/>
+      <c r="H252" s="6"/>
+      <c r="I252" s="149" t="s">
+        <v>279</v>
+      </c>
+      <c r="J252" s="63"/>
+      <c r="K252" s="63"/>
+      <c r="L252" s="63"/>
+      <c r="M252" s="63"/>
+      <c r="N252" s="63"/>
+      <c r="O252" s="63"/>
+      <c r="P252" s="6"/>
+    </row>
+    <row r="253" spans="2:16">
+      <c r="C253" s="83" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D253" s="99" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H253" s="2"/>
+      <c r="I253" s="121" t="s">
+        <v>1713</v>
+      </c>
+      <c r="P253" s="2"/>
+    </row>
+    <row r="254" spans="2:16">
+      <c r="C254" s="83" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D254" s="99" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H254" s="2"/>
+      <c r="I254" s="121" t="s">
+        <v>1716</v>
+      </c>
+      <c r="P254" s="2"/>
+    </row>
+    <row r="255" spans="2:16">
+      <c r="C255" s="83" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D255" s="83" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H255" s="2"/>
+      <c r="I255" s="121" t="s">
+        <v>1719</v>
+      </c>
+      <c r="P255" s="2"/>
+    </row>
+    <row r="256" spans="2:16">
+      <c r="C256" s="83" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D256" s="83" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H256" s="2"/>
+      <c r="I256" s="121" t="s">
+        <v>1722</v>
+      </c>
+      <c r="P256" s="2"/>
+    </row>
+    <row r="257" spans="1:16">
+      <c r="C257" s="85" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D257" s="85" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E257" s="67"/>
+      <c r="F257" s="67"/>
+      <c r="G257" s="67"/>
+      <c r="H257" s="12"/>
+      <c r="I257" s="150" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J257" s="67"/>
+      <c r="K257" s="67"/>
+      <c r="L257" s="67"/>
+      <c r="M257" s="67"/>
+      <c r="N257" s="67"/>
+      <c r="O257" s="67"/>
+      <c r="P257" s="12"/>
+    </row>
+    <row r="259" spans="1:16">
+      <c r="A259" s="2">
+        <v>81</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16">
+      <c r="C260" s="73" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16">
+      <c r="C261" s="73" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16">
+      <c r="C262" s="183" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16">
+      <c r="C263" s="183" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16">
+      <c r="C264" s="183" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16">
+      <c r="C265" s="183" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16">
+      <c r="C266" s="183" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16">
+      <c r="B267" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16">
+      <c r="C268" s="121" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16">
+      <c r="C269" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16">
+      <c r="C271" s="140" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D271" s="63"/>
+      <c r="E271" s="149" t="s">
+        <v>279</v>
+      </c>
+      <c r="F271" s="63"/>
+      <c r="G271" s="63"/>
+      <c r="H271" s="6"/>
+    </row>
+    <row r="272" spans="1:16">
+      <c r="C272" s="82" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E272" s="121" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H272" s="2"/>
+    </row>
+    <row r="273" spans="2:8">
+      <c r="C273" s="84" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D273" s="67"/>
+      <c r="E273" s="150" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F273" s="67"/>
+      <c r="G273" s="67"/>
+      <c r="H273" s="12"/>
+    </row>
+    <row r="274" spans="2:8">
+      <c r="C274" s="3" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8">
+      <c r="C275" s="3" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8">
+      <c r="B276" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8">
+      <c r="C277" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8">
+      <c r="B278" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8">
+      <c r="C279" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8">
+      <c r="C280" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8">
+      <c r="C281" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8">
+      <c r="B282" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8">
+      <c r="C283" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8">
+      <c r="C284" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8">
+      <c r="B285" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8">
+      <c r="C286" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8">
+      <c r="C287" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8">
+      <c r="C288" s="43" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
+        <v>82</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
+        <v>83</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="C291" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="C292" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="C293" s="73" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="C294" s="73" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="B295" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="C296" s="3" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="22.5">
+      <c r="C297" s="182" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="C298" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="C299" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="22.5">
+      <c r="C304" s="182" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="305" spans="2:13">
+      <c r="C305" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="306" spans="2:13">
+      <c r="C306" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="307" spans="2:13">
+      <c r="C307" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="309" spans="2:13">
+      <c r="C309" s="140" t="s">
+        <v>136</v>
+      </c>
+      <c r="D309" s="63"/>
+      <c r="E309" s="63"/>
+      <c r="F309" s="62" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G309" s="116"/>
+      <c r="H309" s="125"/>
+      <c r="I309" s="62" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J309" s="116"/>
+      <c r="K309" s="125"/>
+      <c r="L309" s="5" t="s">
+        <v>1776</v>
+      </c>
+      <c r="M309" s="125"/>
+    </row>
+    <row r="310" spans="2:13">
+      <c r="C310" s="83" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D310" s="195"/>
+      <c r="E310" s="195"/>
+      <c r="F310" s="9" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G310" s="196"/>
+      <c r="H310" s="126"/>
+      <c r="I310" s="9" t="s">
+        <v>1779</v>
+      </c>
+      <c r="J310" s="196"/>
+      <c r="K310" s="126"/>
+      <c r="L310" s="197" t="s">
+        <v>1780</v>
+      </c>
+      <c r="M310" s="126"/>
+    </row>
+    <row r="311" spans="2:13">
+      <c r="C311" s="85" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D311" s="67"/>
+      <c r="E311" s="67"/>
+      <c r="F311" s="10" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G311" s="119"/>
+      <c r="H311" s="127"/>
+      <c r="I311" s="10" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J311" s="119"/>
+      <c r="K311" s="127"/>
+      <c r="L311" s="11" t="s">
+        <v>1784</v>
+      </c>
+      <c r="M311" s="127"/>
+    </row>
+    <row r="313" spans="2:13">
+      <c r="B313" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="314" spans="2:13">
+      <c r="C314" s="43" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3">
+      <c r="C337" s="3" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="C392" s="44" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="B394" s="3" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="2">
+        <v>84</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="C396" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="C397" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3">
+      <c r="B421" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3">
+      <c r="C422" s="42" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3">
+      <c r="C423" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3">
+      <c r="C449" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3">
+      <c r="C450" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3">
+      <c r="B452" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3">
+      <c r="C453" s="57" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3">
+      <c r="C454" s="73" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3">
+      <c r="C455" t="s">
+        <v>1798</v>
       </c>
     </row>
   </sheetData>

--- a/試験/Oracle/1Z0-082/Oracle_database Sliver.xlsx
+++ b/試験/Oracle/1Z0-082/Oracle_database Sliver.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\LearningSite\試験\Oracle\1Z0-082\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595126F4-7CF8-4E5A-9121-D3C76D55D2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6E1A5C-3932-416C-B1C1-6AEBFCA59248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-15" sheetId="1" r:id="rId1"/>
     <sheet name="15-47" sheetId="2" r:id="rId2"/>
     <sheet name="48-70" sheetId="3" r:id="rId3"/>
-    <sheet name="71-" sheetId="4" r:id="rId4"/>
+    <sheet name="71-84" sheetId="4" r:id="rId4"/>
+    <sheet name="85-" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +28,121 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>zhuchen</author>
+  </authors>
+  <commentList>
+    <comment ref="W321" authorId="0" shapeId="0" xr:uid="{D2106D12-7182-4D60-A3FA-08B198949E6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>zhuchen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>仅</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>包含</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> GROUP BY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>，插入列</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>分</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>组键</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>且无聚合列</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="1801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="2104">
   <si>
     <t>Bigfile tablespace</t>
     <phoneticPr fontId="1"/>
@@ -24917,12 +25031,3793 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>但NATURAL JOIN 不能配 ON 或 USING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NATURAL JOIN dept ON emp.deptno = dept.deptno; -- ❌ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错</t>
+    </r>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>标准sql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oracle join</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBCA</t>
+  </si>
+  <si>
+    <t>Database Configuration Assistant</t>
+  </si>
+  <si>
+    <r>
+      <t>DBCA（Database Configuration Assistant）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 Oracle 提供的图形化工具（也有静默模式），用于：</t>
+    </r>
+  </si>
+  <si>
+    <t>创建新数据库（最主要用途）</t>
+  </si>
+  <si>
+    <t>删除数据库</t>
+  </si>
+  <si>
+    <t>配置数据库选项（如 EM 注册、内存、字符集等）</t>
+  </si>
+  <si>
+    <t>管理 PDB（在多租户环境下）</t>
+  </si>
+  <si>
+    <t>可以通过 GUI 或命令行（静默模式）使用。</t>
+  </si>
+  <si>
+    <r>
+      <t>standard block size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大小</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>指的是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整个数据库默认使用的块大小</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在创建数据库时，通过参数 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DB_BLOCK_SIZE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 指定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">最常用的是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8KB（8192 字节）</t>
+    </r>
+  </si>
+  <si>
+    <t>非标准块大小</t>
+  </si>
+  <si>
+    <r>
+      <t>非标准块大小（Nonstandard Block Size）是指</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和数据库默认块大小不同的其他块大小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>Oracle 支持以下块大小：</t>
+  </si>
+  <si>
+    <t>2KB</t>
+  </si>
+  <si>
+    <t>4KB</t>
+  </si>
+  <si>
+    <t>8KB（标准）</t>
+  </si>
+  <si>
+    <t>16KB</t>
+  </si>
+  <si>
+    <t>32KB</t>
+  </si>
+  <si>
+    <t>建议块大小</t>
+  </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>频繁读写的小表、小事务表</t>
+  </si>
+  <si>
+    <t>小块（2KB、4KB）</t>
+  </si>
+  <si>
+    <t>I/O 读写更快、更节省内存带宽</t>
+  </si>
+  <si>
+    <t>大型报表表、大型LOB字段表</t>
+  </si>
+  <si>
+    <t>大块（16KB、32KB）</t>
+  </si>
+  <si>
+    <t>一次读入更多数据，减少 I/O 次数</t>
+  </si>
+  <si>
+    <t>大多数通用应用</t>
+  </si>
+  <si>
+    <t>标准块（8KB）</t>
+  </si>
+  <si>
+    <t>通用平衡型设置</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/cd/E57425_01/121/REFRN/GUID-025ECEB2-E535-49D2-9721-268E3925FE09.htm</t>
+  </si>
+  <si>
+    <t>incremental backups</t>
+  </si>
+  <si>
+    <r>
+      <t>增量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>份（Incremental Backup）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是指：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">只备份自上一次备份以来发生变化的数据块，而不是整个数据库。
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>备份大小</t>
+  </si>
+  <si>
+    <t>Full Backup</t>
+  </si>
+  <si>
+    <t>备份整个数据库</t>
+  </si>
+  <si>
+    <t>通常较大</t>
+  </si>
+  <si>
+    <t>Incremental Backup</t>
+  </si>
+  <si>
+    <t>只备份变更的数据块</t>
+  </si>
+  <si>
+    <t>较小</t>
+  </si>
+  <si>
+    <t>RMAN（Recovery Manager）</t>
+  </si>
+  <si>
+    <r>
+      <t>RMAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（Recovery Manager）是 Oracle 官方提供的命令行工具，用于：</t>
+    </r>
+  </si>
+  <si>
+    <t>对数据库进行备份、恢复、克隆、增量备份、归档日志管理等操作的核心工具。</t>
+  </si>
+  <si>
+    <t>功能/影响点</t>
+  </si>
+  <si>
+    <t>开启 FRA</t>
+  </si>
+  <si>
+    <t>不开启 FRA</t>
+  </si>
+  <si>
+    <t>是否能用 RMAN</t>
+  </si>
+  <si>
+    <t>✅ 也可以</t>
+  </si>
+  <si>
+    <t>是否自动管理备份位置</t>
+  </si>
+  <si>
+    <t>✅ 自动（写入 FRA）</t>
+  </si>
+  <si>
+    <t>❌ 需手动指定 FORMAT 路径</t>
+  </si>
+  <si>
+    <t>是否能自动清理旧备份</t>
+  </si>
+  <si>
+    <t>✅ FRA 有空间管理和删除策略</t>
+  </si>
+  <si>
+    <t>❌ 你要手动管理磁盘空间</t>
+  </si>
+  <si>
+    <t>配置复杂度</t>
+  </si>
+  <si>
+    <t>⭐ 简单（推荐）</t>
+  </si>
+  <si>
+    <t>⭐⭐ 稍高（要小心路径和空间）</t>
+  </si>
+  <si>
+    <t>默认归档日志是否进入 RMAN</t>
+  </si>
+  <si>
+    <t>✅ 会自动存到 FRA 并被 RMAN 识别</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">❌ 需手动配置 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOG_ARCHIVE_DEST</t>
+    </r>
+  </si>
+  <si>
+    <t>FRA 和 RMAN区别</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRA（Fast Recovery Area）</t>
+  </si>
+  <si>
+    <r>
+      <t>就是一个自动化、集中管理的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专用备份目录</t>
+    </r>
+  </si>
+  <si>
+    <t>包括：归档日志、控制文件备份、数据文件备份、闪回日志等</t>
+  </si>
+  <si>
+    <t>Flashback Database（闪回数据库）</t>
+  </si>
+  <si>
+    <r>
+      <t>Flashback Database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 Oracle 提供的一种“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时光倒流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”技术，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>可以把整个数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恢复到过去的某一时间点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而不需要完全还原备份。</t>
+    </r>
+  </si>
+  <si>
+    <t>引号使用的核心区别</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引号类型</t>
+  </si>
+  <si>
+    <t>用途说明</t>
+  </si>
+  <si>
+    <t>语法示例</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">单引号 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>' '</t>
+    </r>
+  </si>
+  <si>
+    <t>'Hello'</t>
+  </si>
+  <si>
+    <r>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串常量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，必须用在文字型值中。例如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHERE name = 'Alice'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">双引号 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>"ColumnName"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">反引号 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>` `</t>
+    </r>
+  </si>
+  <si>
+    <t>不支持</t>
+  </si>
+  <si>
+    <r>
+      <t>Oracle SQL 中不支持反引号！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（这是 MySQL 的语法）</t>
+    </r>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <r>
+      <t>fm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fill mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，去除输出中默认的填充空格。</t>
+    </r>
+  </si>
+  <si>
+    <t>举例：</t>
+  </si>
+  <si>
+    <r>
+      <t>Month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>' July'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（7字符宽度默认填充空格）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fmMonth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>'July'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（去除空格）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rrrr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 与 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>yyyy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的区别：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>对于大多数年份，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>rrrr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>yyyy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是一样的，都是返回完整的四位年份。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rrrr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 设计上更智能地处理两位年份输入（在 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输入日期时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 更有用）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>输出时二者效果一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>①表示</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>象名（列名、表名等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，保留大小写和特殊字符。如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SELECT "Name" FROM "Employees"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（区分大小写，必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>精确匹配）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>②用于 TO_CHAR 中插入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>文字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>或用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标识</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>符（区分大小写的列名）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> "Monday for"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　TO_CHAR(date_value, '格式1 "文字" 格式2')</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>fm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> （Format Model）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>格式字符串</t>
+  </si>
+  <si>
+    <t>返回结果（假设为 6月1日）</t>
+  </si>
+  <si>
+    <t>'Month'</t>
+  </si>
+  <si>
+    <r>
+      <t>'June '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（有空格）</t>
+    </r>
+  </si>
+  <si>
+    <t>'fmMonth'</t>
+  </si>
+  <si>
+    <r>
+      <t>'June'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（无空格）</t>
+    </r>
+  </si>
+  <si>
+    <t>'MONTH'</t>
+  </si>
+  <si>
+    <r>
+      <t>'JUNE '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（全大写 + 有空格）</t>
+    </r>
+  </si>
+  <si>
+    <t>'fmMONTH'</t>
+  </si>
+  <si>
+    <r>
+      <t>'JUNE'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（全大写 + 无空格）</t>
+    </r>
+  </si>
+  <si>
+    <t>修饰符</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>去除空格填充</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">输出 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>June</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 而非 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">June </t>
+    </r>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>TO_DATE('01-JUN-2023', 'fxDD-MON-YYYY')</t>
+  </si>
+  <si>
+    <t>不允许输入格式和模板不匹配</t>
+  </si>
+  <si>
+    <r>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>TH</t>
+    </r>
+  </si>
+  <si>
+    <t>序数后缀（小/大写）</t>
+  </si>
+  <si>
+    <r>
+      <t>'ddth'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>01st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>'DDTH'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>01ST</t>
+    </r>
+  </si>
+  <si>
+    <t>日期加序号后缀</t>
+  </si>
+  <si>
+    <r>
+      <t>rr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>rrrr</t>
+    </r>
+  </si>
+  <si>
+    <t>年（两位/四位）</t>
+  </si>
+  <si>
+    <r>
+      <t>'rrrr'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → 2025</t>
+    </r>
+  </si>
+  <si>
+    <t>年份格式</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">精确匹配模式（用于 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>TO_DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 等）</t>
+    </r>
+  </si>
+  <si>
+    <t>default UNDO tablespace</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">设置 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNDO_TABLESPACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 参数，明确指定默认的 UNDO 表空间为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>undotbs01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。这是 Oracle 使用 UNDO 表空间时的标准做法。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Oracle 有两种 Undo 管理模式：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动（AUTO）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手动（MANUAL）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。若想使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNDO TABLESPACE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，数据库必须设置为 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>ALTER SYSTEM SET UNDO_MANAGEMENT = AUTO;</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t>使用旧的 Rollback Segment（回滚段）方式管理 Undo，手动创建和管理</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>使用 Undo 表空间自动管理 Undo，Oracle 会自动分配、回收 Undo Segment</t>
+  </si>
+  <si>
+    <t>NOLOGGING</t>
+  </si>
+  <si>
+    <r>
+      <t>本地管理表空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（LMT）</t>
+    </r>
+  </si>
+  <si>
+    <t>FORCE VIEW</t>
+  </si>
+  <si>
+    <r>
+      <t>FORCE VIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是一种创建视图的方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即使视图中引用的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表或列尚不存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，也能让视图成功创建。</t>
+    </r>
+  </si>
+  <si>
+    <t>VIEW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>**视图（View）**是一个基于 SQL 查询结果的逻辑表，本质上并不存储数据，而是一个对基础表的查询封装。对视图的操作分为两类：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DML（数据操作：增删改查）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDL（定义操作：创建、修改、删除）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>不包含子查询、伪列；</t>
+  </si>
+  <si>
+    <t>所有非空字段都可以通过视图访问；</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">若使用了 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WITH CHECK OPTION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，插入的数据必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>须满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>条件。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">中不含 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DISTINCT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>GROUP BY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>CONNECT BY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>START WITH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNION</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ROWNUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 等；</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中只引用了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表；</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 可更新</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的条件：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（CREATE / ALTER / DROP）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE VIEW view_name AS SELECT ...;</t>
+  </si>
+  <si>
+    <t>ALTER VIEW view_name COMPILE;</t>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE VIEW view_name AS SELECT ...;</t>
+  </si>
+  <si>
+    <t>DROP VIEW view_name;</t>
+  </si>
+  <si>
+    <t>4.WITH READ ONLY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在创建视图时加上 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WITH READ ONLY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 子句，直接告诉 Oracle：这个视图是只读的，不能进行任何 DML 操作。</t>
+    </r>
+  </si>
+  <si>
+    <t>5.WITH CHECK OPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">限制只能更新符合视图过滤条件的数据	</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>３.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>满</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>足一定条件的情况下，往</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">行 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DELETE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 操作</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 这些操作会自动作用于视图背后的基础表，视图本身不存储数据</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特性/语法</t>
+  </si>
+  <si>
+    <t>INSERT</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>可更新性说明</t>
+  </si>
+  <si>
+    <t>简单查询（无聚合/连接）</t>
+  </si>
+  <si>
+    <t>可更新视图</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>通常不可更新，INSERT 在极少数可推断场景下可行</t>
+  </si>
+  <si>
+    <t>聚合过滤，无法映射到原始行</t>
+  </si>
+  <si>
+    <t>丢失主键信息，视图记录无法映射到唯一行</t>
+  </si>
+  <si>
+    <t>UNION / UNION ALL</t>
+  </si>
+  <si>
+    <t>多来源行，无法判断哪一表插入或修改</t>
+  </si>
+  <si>
+    <r>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（多表连接）</t>
+    </r>
+  </si>
+  <si>
+    <t>非 key-preserved 连接不支持更新（除非加 INSTEAD OF 触发器）</t>
+  </si>
+  <si>
+    <t>子查询中的 ROWNUM</t>
+  </si>
+  <si>
+    <t>行号是伪列，不映射到底层行</t>
+  </si>
+  <si>
+    <t>子查询中的 WHERE EXISTS / IN</t>
+  </si>
+  <si>
+    <t>✅ 视定义</t>
+  </si>
+  <si>
+    <t>查询条件控制可更新性，通常不能更新</t>
+  </si>
+  <si>
+    <t>带计算列（如 COUNT(), MAX()）</t>
+  </si>
+  <si>
+    <t>聚合函数不支持反向 DML 映射</t>
+  </si>
+  <si>
+    <t>包含 WITH CHECK OPTION 的视图</t>
+  </si>
+  <si>
+    <t>✅ 限定条件</t>
+  </si>
+  <si>
+    <t>只能改动视图所“看得见”的记录，违反视图条件将失败</t>
+  </si>
+  <si>
+    <t>TOP-N 查询（ROWNUM ≤ N）</t>
+  </si>
+  <si>
+    <t>非确定性视图，不允许更新</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⚠️ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>限定可</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>freelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 空闲列表</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>freelist（空闲列表）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 Oracle 在早期版本中用于管理段空间（segment space）的传统机制之一。</t>
+    </r>
+  </si>
+  <si>
+    <t>它的作用是：</t>
+  </si>
+  <si>
+    <t>✅ 记录“哪些数据块还有空位可以插入新行”。</t>
+  </si>
+  <si>
+    <t>你有一张表正在插入数据，每次插入前 Oracle 都要找一个“还有空间的块”。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>freelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它会从“空闲列表”里找出还能塞数据的块，插入到里面。</t>
+    </r>
+  </si>
+  <si>
+    <t>当一个块装满了，它就从 freelist 中被移除。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个段（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Segment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）可以有多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> freelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>为了提升并发性能，一个段可以配置多个 freelist。</t>
+  </si>
+  <si>
+    <r>
+      <t>多个会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>可以同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>不同的 freelist，从而减少争用。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>freelist（手动空间管理）</t>
+  </si>
+  <si>
+    <t>ASSM（自动段空间管理）</t>
+  </si>
+  <si>
+    <t>管理方式</t>
+  </si>
+  <si>
+    <t>DBA 手动控制</t>
+  </si>
+  <si>
+    <t>Oracle 自动管理</t>
+  </si>
+  <si>
+    <t>参数设置</t>
+  </si>
+  <si>
+    <t>SEGMENT SPACE MANAGEMENT MANUAL</t>
+  </si>
+  <si>
+    <t>SEGMENT SPACE MANAGEMENT AUTO</t>
+  </si>
+  <si>
+    <t>维护成本</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>性能</t>
+  </si>
+  <si>
+    <t>并发多时可能争用</t>
+  </si>
+  <si>
+    <t>自动分区管理、效率高</t>
+  </si>
+  <si>
+    <t>推荐用途</t>
+  </si>
+  <si>
+    <t>早期版本（8i/9i）</t>
+  </si>
+  <si>
+    <t>Oracle 10g 之后默认推荐使用</t>
+  </si>
+  <si>
+    <t>延迟段创建（Deferred Segment Creation）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在 Oracle 中，如果设置了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DEFERRED_SEGMENT_CREATION = TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（默认从 11g 开始就是 TRUE）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在执行 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>CREATE TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 语句时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并不会立即为表创建段（segment）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，除非满足以下条件之一：</t>
+    </r>
+  </si>
+  <si>
+    <t>或者后续插入数据时，才会真正分配段空间</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">假设 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DEFERRED_SEGMENT_CREATION = TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那么在插入数据时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系统就会自动创建以下 Segment：</t>
+    </r>
+  </si>
+  <si>
+    <t>表段（Table Segment）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>T1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 创建存储表数据的段（Heap Organized Table）</t>
+    </r>
+  </si>
+  <si>
+    <t>索引段（Index Segment）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">为主键 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>c1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 创建的唯一索引段（通常自动命名）</t>
+    </r>
+  </si>
+  <si>
+    <t>LOB段（LOB Data Segment）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">存储 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>c2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 列的 CLOB 数据</t>
+    </r>
+  </si>
+  <si>
+    <t>LOB索引段（LOB Index Segment）</t>
+  </si>
+  <si>
+    <t>用于快速定位 LOB 数据（Oracle 内部管理 lob 块）</t>
+  </si>
+  <si>
+    <t>CLOB</t>
+  </si>
+  <si>
+    <t>CLOB（Character Large Object）是 Oracle 中的一种大对象类型</t>
+  </si>
+  <si>
+    <r>
+      <t>存储</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超长文本数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可达 4GB</t>
+    </r>
+  </si>
+  <si>
+    <t>它常用于存储大段文字，如：</t>
+  </si>
+  <si>
+    <t>新闻正文、博客内容</t>
+  </si>
+  <si>
+    <t>合同内容、用户评论</t>
+  </si>
+  <si>
+    <t>JSON 字符串等结构化文本</t>
+  </si>
+  <si>
+    <r>
+      <t>CLOB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 类似于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>字符串，但它的存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>构不同，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Oracle 会将它</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>独存</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LOB段</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而不是和普通列数据一起存放。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">访问 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLOB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 比访问普通 VARCHAR2 成本高，但可以存储非常大的文本</t>
+    </r>
+  </si>
+  <si>
+    <t>LOB 段</t>
+  </si>
+  <si>
+    <r>
+      <t>LOB 段（Large Object Segment）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 Oracle 专门用来存储 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大对象字段（如 CLOB、BLOB、NCLOB、BFILE）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的数据段。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当你在表中定义了某列为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLOB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>BLOB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 类型时，Oracle 并不会把这类大对象数据直接存储在表的行数据中（尤其是当数据很大时），而是</t>
+    </r>
+  </si>
+  <si>
+    <t>将这些大对象数据存储在一个专门的区域——LOB段中（LOB Data Segment）</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>BLOB（Binary Large Object）</t>
+  </si>
+  <si>
+    <r>
+      <t>是 Oracle 中的一种大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>象类型，用来存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>制数据</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character Large Object</t>
+  </si>
+  <si>
+    <t>Binary Large Object</t>
+  </si>
+  <si>
+    <r>
+      <t>存储</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超长文本</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>存储</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二进制数据</t>
+    </r>
+  </si>
+  <si>
+    <t>内容是否可读</t>
+  </si>
+  <si>
+    <t>是（文本）</t>
+  </si>
+  <si>
+    <t>否（需程序解析）</t>
+  </si>
+  <si>
+    <t>文章、日志、JSON等</t>
+  </si>
+  <si>
+    <t>图片、音频、视频、PDF等</t>
+  </si>
+  <si>
+    <t>BFILE</t>
+  </si>
+  <si>
+    <t>Binary File</t>
+  </si>
+  <si>
+    <r>
+      <t>是 Oracle 中的一种特殊的大对象类型，用来</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存储在数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外部文件系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的二进制文件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>数据库外部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（OS 文件系统或 NAS）</t>
+    </r>
+  </si>
+  <si>
+    <t>是否可写</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">❌ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（不能通过 SQL 修改文件内容）</t>
+    </r>
+  </si>
+  <si>
+    <t>是否受事务控制</t>
+  </si>
+  <si>
+    <t>❌ 不受事务控制（不会 rollback）</t>
+  </si>
+  <si>
+    <r>
+      <t>数据库只需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大文件，如图像、视频、日志等，但不存储它们</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">表中包含 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的列</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">显式指定了 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SEGMENT CREATION IMMEDIATE</t>
+    </r>
+  </si>
+  <si>
+    <t>Deadlock Error（死锁错误）</t>
+  </si>
+  <si>
+    <r>
+      <t>死</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（Deadlock）指的是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>两个或多个会话（Session）互相等待对方释放资源，结果谁也不能继续执行，导致系统陷入“死循环”。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在 Oracle 中，如果检测到死锁，数据库会自动终止其中一个会话以打破死锁，并在 alert log 中记录一条错误信息（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORA-00060</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <t>Oracle Alert Log 记录内容总览表</t>
+  </si>
+  <si>
+    <t>是否记录在 Alert Log？</t>
+  </si>
+  <si>
+    <t>示例 / 说明</t>
+  </si>
+  <si>
+    <t>数据库启动 / 关闭</t>
+  </si>
+  <si>
+    <t>启动时间、关闭阶段信息等</t>
+  </si>
+  <si>
+    <t>归档日志切换（Log Switch）</t>
+  </si>
+  <si>
+    <t>日志从 group 1 切换到 group 2</t>
+  </si>
+  <si>
+    <t>后台进程错误（如 PMON、SMON）</t>
+  </si>
+  <si>
+    <t>ORA-600、ORA-7445 等严重错误</t>
+  </si>
+  <si>
+    <t>死锁（Deadlock）错误</t>
+  </si>
+  <si>
+    <t>ORA-00060，附带 trace 文件路径</t>
+  </si>
+  <si>
+    <t>数据块损坏（Block Corruption）</t>
+  </si>
+  <si>
+    <t>ORA-01578，记录具体文件、块号</t>
+  </si>
+  <si>
+    <t>数据文件增加 / 修改</t>
+  </si>
+  <si>
+    <t>添加数据文件、resize 文件等</t>
+  </si>
+  <si>
+    <t>临时表空间自动扩展</t>
+  </si>
+  <si>
+    <t>通常用于 SORT 操作</t>
+  </si>
+  <si>
+    <t>非默认初始化参数</t>
+  </si>
+  <si>
+    <t>启动时记录所有非默认参数</t>
+  </si>
+  <si>
+    <t>归档失败 / 备份失败</t>
+  </si>
+  <si>
+    <t>ORA-16038、ORA-19502 等</t>
+  </si>
+  <si>
+    <t>表空间或数据文件不可用</t>
+  </si>
+  <si>
+    <t>ORA-01110、ORA-01157 等</t>
+  </si>
+  <si>
+    <t>恢复操作消息（如 RECOVER DATABASE）</t>
+  </si>
+  <si>
+    <t>启动时遇到不一致状态会提示</t>
+  </si>
+  <si>
+    <t>会话登录 / 登出</t>
+  </si>
+  <si>
+    <t>不记录，记录在 audit log（如果启用）</t>
+  </si>
+  <si>
+    <t>普通 SQL 语句（DML, DDL）</t>
+  </si>
+  <si>
+    <t>如 INSERT、UPDATE、CREATE TABLE 等不会记录</t>
+  </si>
+  <si>
+    <t>语法错误 / 编译错误</t>
+  </si>
+  <si>
+    <t>通常记录在用户 trace 文件中</t>
+  </si>
+  <si>
+    <t>资源不足警告（如空间不足、内存不足）</t>
+  </si>
+  <si>
+    <t>可用于容量监控，需 DBA 检查</t>
+  </si>
+  <si>
+    <t>控制文件 / 重做日志损坏</t>
+  </si>
+  <si>
+    <t>属于严重问题，会写入 alert log</t>
+  </si>
+  <si>
+    <t>non-default database parameters</t>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non-default parameters（非默</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>参数）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”指的是：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">用户显式设置，与 Oracle 默认值不一致的参数。
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>这些参数的值可能是你：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>init.ora</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>spfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 文件中设置的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">通过 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALTER SYSTEM SET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 命令修改过的</t>
+    </r>
+  </si>
+  <si>
+    <t>参考No.65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>cust_last_name "Last Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 相当于 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cust_last_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Last Name</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>cust_id CUST_NO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  相当于 cust_id AS CUST_NO</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="69">
+  <fonts count="80">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25433,6 +29328,88 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -25642,7 +29619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -26099,6 +30076,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -26132,12 +30146,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29133,6 +33170,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19771</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>16777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8547D529-10BA-47C7-EA92-D2FC3394B331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="107554059"/>
+          <a:ext cx="5163271" cy="3781953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>102725</xdr:colOff>
+      <xdr:row>469</xdr:row>
+      <xdr:rowOff>160693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97845A0F-F7CA-7C5C-01F9-E2D697E07A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7205382" y="107554059"/>
+          <a:ext cx="5391902" cy="3219899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>308057</xdr:colOff>
+      <xdr:row>467</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D134529-B1C4-1C27-9F8C-E2C954DA2E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13391029" y="107554059"/>
+          <a:ext cx="7278116" cy="2695951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -29861,13 +34030,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>455</xdr:row>
+      <xdr:row>456</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>138050</xdr:colOff>
-      <xdr:row>474</xdr:row>
+      <xdr:row>475</xdr:row>
       <xdr:rowOff>155840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -29905,14 +34074,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>476</xdr:row>
+      <xdr:row>477</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>305687</xdr:colOff>
-      <xdr:row>494</xdr:row>
-      <xdr:rowOff>117710</xdr:rowOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>117709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -29949,13 +34118,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>302560</xdr:colOff>
-      <xdr:row>496</xdr:row>
+      <xdr:row>497</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>505197</xdr:colOff>
-      <xdr:row>502</xdr:row>
+      <xdr:row>503</xdr:row>
       <xdr:rowOff>125157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -29981,6 +34150,1099 @@
         <a:xfrm>
           <a:off x="571501" y="116933383"/>
           <a:ext cx="6668431" cy="1514686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>49743</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>155024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{390B01DD-098F-D08C-DC8A-1C1EDF4AFD01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="4941794"/>
+          <a:ext cx="7154273" cy="2743583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>59449</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B88120-7855-ADB1-DC67-C7EB7E381E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="7765676"/>
+          <a:ext cx="4429743" cy="2133898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>283228</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>21423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4399993F-8A14-029E-B804-99B543714AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="11295529"/>
+          <a:ext cx="6020640" cy="4963218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>221397</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>205491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2850B876-BCF3-AD4C-01E0-0801159A9192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="18612971"/>
+          <a:ext cx="4591691" cy="3029373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>316348</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>193920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69787DAD-9A3F-E1EA-68C2-F8BA5FA9D3D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6118412" y="18612971"/>
+          <a:ext cx="6468378" cy="4429743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609640</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>87318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7CB5FD-E31D-50D9-F432-BA6AFC63DFF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="23554765"/>
+          <a:ext cx="4296375" cy="3381847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>535453</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>171241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2751A15-2B61-74BA-2F67-9E872FE67F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6118412" y="23790088"/>
+          <a:ext cx="6687483" cy="2524477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>380875</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>48422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B484133-0B6A-AF38-201A-811684B2FB6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13637559" y="23790088"/>
+          <a:ext cx="3115110" cy="1695687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264354</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>52047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5623E5A-1226-A796-6F66-67FB55F765B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="27084618"/>
+          <a:ext cx="3267531" cy="3581900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113958</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>204700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D8D435-16DA-3810-6779-9FC004DF8E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5434853" y="27319941"/>
+          <a:ext cx="5582429" cy="1381318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657092</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>168966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FDF31C-032F-1030-FECD-8FBE58AEFCD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="34144324"/>
+          <a:ext cx="7078063" cy="6287377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>459376</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>46377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{656AE39B-6F5F-3F61-CCE0-30CE9D7ECD40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="40498059"/>
+          <a:ext cx="7563906" cy="3105583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>513904</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>75188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A8438C-6C38-1368-F8A3-2182708EB010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694764" y="50863500"/>
+          <a:ext cx="4839375" cy="781159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>157049</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>214785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAB58EE-0461-5BF2-1473-74B0E1B434AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="53452059"/>
+          <a:ext cx="5210902" cy="5391902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>303044</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>185708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FD79B7-DBF2-737F-1555-7E8666AA48FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="560294" y="59357559"/>
+          <a:ext cx="7497221" cy="5811061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>634387</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>143771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B25F3A-837D-D8D0-AE40-EB1067355E49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672352" y="65991440"/>
+          <a:ext cx="4982270" cy="6430272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156916</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>47400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01154763-E1BD-772B-1203-D6DF62FA0457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918882" y="75852618"/>
+          <a:ext cx="4258269" cy="2400635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>178306</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>182581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0CAC31-81EB-63AB-E3ED-FC2E94BABE7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918882" y="78911824"/>
+          <a:ext cx="4963218" cy="3477110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309470</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>35039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5968B1BD-CC5F-A36F-1EFD-E23991FD4183}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="82912324"/>
+          <a:ext cx="5363323" cy="2152950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="吹き出し: 角を丸めた四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7103D5E2-E5C3-0CE5-83A1-B8A82C0E3B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13626353" y="74586353"/>
+          <a:ext cx="1759323" cy="829235"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6556"/>
+            <a:gd name="adj2" fmla="val 142230"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>仅包含 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>GROUP BY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>，插入列为分组键且无聚合列</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414731</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>69838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150B462B-BF21-DF39-2F38-FD5BDB897874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605117" y="101099470"/>
+          <a:ext cx="4829849" cy="2591162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177781</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>20579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6589DC16-DCC0-4EBF-6392-F07EF0B13120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="661146" y="103766470"/>
+          <a:ext cx="5220429" cy="2934109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>616828</xdr:colOff>
+      <xdr:row>487</xdr:row>
+      <xdr:rowOff>195963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496FE820-EEF6-DFB1-6610-DFB2517C21AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="649941" y="112563088"/>
+          <a:ext cx="3620005" cy="3019846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>492</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>112039</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>172789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE9D0C2-E49B-6A54-7EE0-167EC3F7EEDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571499" y="116586000"/>
+          <a:ext cx="3877216" cy="1562318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30257,8 +35519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H419"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A245" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C246" sqref="C246"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -30673,7 +35935,7 @@
       <c r="G95" s="18"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="D96" s="184" t="s">
+      <c r="D96" s="197" t="s">
         <v>86</v>
       </c>
       <c r="E96" s="33" t="s">
@@ -30685,7 +35947,7 @@
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="D97" s="185"/>
+      <c r="D97" s="198"/>
       <c r="E97" s="13" t="s">
         <v>88</v>
       </c>
@@ -30695,7 +35957,7 @@
       <c r="G97" s="2"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="D98" s="186"/>
+      <c r="D98" s="199"/>
       <c r="E98" s="14" t="s">
         <v>89</v>
       </c>
@@ -30751,7 +36013,7 @@
       <c r="G102" s="12"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="D103" s="184" t="s">
+      <c r="D103" s="197" t="s">
         <v>104</v>
       </c>
       <c r="E103" s="33" t="s">
@@ -30763,7 +36025,7 @@
       <c r="G103" s="2"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="D104" s="185"/>
+      <c r="D104" s="198"/>
       <c r="E104" s="13" t="s">
         <v>106</v>
       </c>
@@ -30773,7 +36035,7 @@
       <c r="G104" s="2"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="D105" s="186"/>
+      <c r="D105" s="199"/>
       <c r="E105" s="14"/>
       <c r="F105" s="11" t="s">
         <v>109</v>
@@ -31652,8 +36914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD963AF5-DC9C-41F9-83A8-50E7EAF602ED}">
   <dimension ref="A2:Y952"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView showGridLines="0" topLeftCell="A608" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B628" sqref="B628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -31958,13 +37220,13 @@
       <c r="E242" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="F242" s="189" t="s">
+      <c r="F242" s="202" t="s">
         <v>351</v>
       </c>
-      <c r="G242" s="189"/>
-      <c r="H242" s="189"/>
-      <c r="I242" s="189"/>
-      <c r="J242" s="189"/>
+      <c r="G242" s="202"/>
+      <c r="H242" s="202"/>
+      <c r="I242" s="202"/>
+      <c r="J242" s="202"/>
     </row>
     <row r="243" spans="1:19" ht="37.5">
       <c r="D243" s="38" t="s">
@@ -31973,13 +37235,13 @@
       <c r="E243" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="F243" s="190" t="s">
+      <c r="F243" s="203" t="s">
         <v>354</v>
       </c>
-      <c r="G243" s="190"/>
-      <c r="H243" s="190"/>
-      <c r="I243" s="190"/>
-      <c r="J243" s="190"/>
+      <c r="G243" s="203"/>
+      <c r="H243" s="203"/>
+      <c r="I243" s="203"/>
+      <c r="J243" s="203"/>
     </row>
     <row r="244" spans="1:19" ht="37.5">
       <c r="D244" s="38" t="s">
@@ -31988,13 +37250,13 @@
       <c r="E244" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="F244" s="190" t="s">
+      <c r="F244" s="203" t="s">
         <v>357</v>
       </c>
-      <c r="G244" s="190"/>
-      <c r="H244" s="190"/>
-      <c r="I244" s="190"/>
-      <c r="J244" s="190"/>
+      <c r="G244" s="203"/>
+      <c r="H244" s="203"/>
+      <c r="I244" s="203"/>
+      <c r="J244" s="203"/>
     </row>
     <row r="245" spans="1:19">
       <c r="D245" s="38" t="s">
@@ -32003,13 +37265,13 @@
       <c r="E245" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="F245" s="190" t="s">
+      <c r="F245" s="203" t="s">
         <v>360</v>
       </c>
-      <c r="G245" s="190"/>
-      <c r="H245" s="190"/>
-      <c r="I245" s="190"/>
-      <c r="J245" s="190"/>
+      <c r="G245" s="203"/>
+      <c r="H245" s="203"/>
+      <c r="I245" s="203"/>
+      <c r="J245" s="203"/>
     </row>
     <row r="246" spans="1:19">
       <c r="D246" s="38" t="s">
@@ -32018,13 +37280,13 @@
       <c r="E246" s="38" t="s">
         <v>362</v>
       </c>
-      <c r="F246" s="190" t="s">
+      <c r="F246" s="203" t="s">
         <v>363</v>
       </c>
-      <c r="G246" s="190"/>
-      <c r="H246" s="190"/>
-      <c r="I246" s="190"/>
-      <c r="J246" s="190"/>
+      <c r="G246" s="203"/>
+      <c r="H246" s="203"/>
+      <c r="I246" s="203"/>
+      <c r="J246" s="203"/>
     </row>
     <row r="247" spans="1:19">
       <c r="B247" s="1" t="s">
@@ -35371,42 +40633,42 @@
       <c r="D690" s="111" t="s">
         <v>797</v>
       </c>
-      <c r="G690" s="187" t="s">
+      <c r="G690" s="200" t="s">
         <v>798</v>
       </c>
-      <c r="H690" s="188"/>
+      <c r="H690" s="201"/>
       <c r="I690" s="2"/>
     </row>
     <row r="691" spans="1:18">
       <c r="D691" s="111" t="s">
         <v>799</v>
       </c>
-      <c r="G691" s="188"/>
-      <c r="H691" s="188"/>
+      <c r="G691" s="201"/>
+      <c r="H691" s="201"/>
       <c r="I691" s="2"/>
     </row>
     <row r="692" spans="1:18">
       <c r="D692" s="111" t="s">
         <v>800</v>
       </c>
-      <c r="G692" s="188"/>
-      <c r="H692" s="188"/>
+      <c r="G692" s="201"/>
+      <c r="H692" s="201"/>
       <c r="I692" s="2"/>
     </row>
     <row r="693" spans="1:18">
       <c r="D693" s="111" t="s">
         <v>801</v>
       </c>
-      <c r="G693" s="188"/>
-      <c r="H693" s="188"/>
+      <c r="G693" s="201"/>
+      <c r="H693" s="201"/>
       <c r="I693" s="2"/>
     </row>
     <row r="694" spans="1:18">
       <c r="D694" s="111" t="s">
         <v>802</v>
       </c>
-      <c r="G694" s="188"/>
-      <c r="H694" s="188"/>
+      <c r="G694" s="201"/>
+      <c r="H694" s="201"/>
       <c r="I694" s="2"/>
     </row>
     <row r="695" spans="1:18">
@@ -36938,10 +42200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A457B-5D23-4277-A03C-318611376D98}">
-  <dimension ref="A2:AF486"/>
+  <dimension ref="A2:AF504"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A170" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187:P190"/>
+    <sheetView showGridLines="0" topLeftCell="A437" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H475" sqref="H475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -37299,20 +42561,20 @@
       <c r="D26" s="119"/>
       <c r="E26" s="119"/>
       <c r="F26" s="119"/>
-      <c r="G26" s="191" t="s">
+      <c r="G26" s="204" t="s">
         <v>1190</v>
       </c>
-      <c r="H26" s="191"/>
-      <c r="I26" s="191"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="192" t="s">
+      <c r="H26" s="204"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="205" t="s">
         <v>1191</v>
       </c>
-      <c r="M26" s="192"/>
-      <c r="N26" s="192"/>
-      <c r="O26" s="192"/>
-      <c r="P26" s="192"/>
+      <c r="M26" s="205"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="205"/>
       <c r="Q26" s="11" t="s">
         <v>693</v>
       </c>
@@ -39160,7 +44422,7 @@
       </c>
       <c r="L448" s="2"/>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="3:12">
       <c r="C449" s="83" t="s">
         <v>1486</v>
       </c>
@@ -39169,7 +44431,7 @@
       </c>
       <c r="L449" s="2"/>
     </row>
-    <row r="450" spans="1:12">
+    <row r="450" spans="3:12">
       <c r="C450" s="83" t="s">
         <v>1488</v>
       </c>
@@ -39178,7 +44440,7 @@
       </c>
       <c r="L450" s="2"/>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="3:12">
       <c r="C451" s="83" t="s">
         <v>1490</v>
       </c>
@@ -39187,7 +44449,7 @@
       </c>
       <c r="L451" s="2"/>
     </row>
-    <row r="452" spans="1:12">
+    <row r="452" spans="3:12">
       <c r="C452" s="85" t="s">
         <v>1492</v>
       </c>
@@ -39203,255 +44465,309 @@
       <c r="K452" s="67"/>
       <c r="L452" s="12"/>
     </row>
-    <row r="453" spans="1:12">
+    <row r="453" spans="3:12">
       <c r="C453" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="454" spans="1:12">
+    <row r="454" spans="3:12">
       <c r="C454" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="3:12">
       <c r="C455" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="3:12">
       <c r="C456" s="174" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="457" spans="1:12">
-      <c r="A457" s="2">
+    <row r="457" spans="3:12">
+      <c r="C457" s="174"/>
+    </row>
+    <row r="458" spans="3:12">
+      <c r="C458" s="174"/>
+    </row>
+    <row r="459" spans="3:12">
+      <c r="C459" s="174"/>
+    </row>
+    <row r="460" spans="3:12">
+      <c r="C460" s="174"/>
+    </row>
+    <row r="461" spans="3:12">
+      <c r="C461" s="174"/>
+    </row>
+    <row r="462" spans="3:12">
+      <c r="C462" s="174"/>
+    </row>
+    <row r="463" spans="3:12">
+      <c r="C463" s="174"/>
+    </row>
+    <row r="464" spans="3:12">
+      <c r="C464" s="174"/>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="C465" s="174"/>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="C466" s="174"/>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="C467" s="174"/>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="C468" s="174"/>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="C469" s="174"/>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="C470" s="174"/>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="C471" s="174"/>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="C472" s="174"/>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="C473" s="174"/>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="C474" s="174"/>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="2">
         <v>66</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B475" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="458" spans="1:12">
-      <c r="A458" s="2">
+    <row r="476" spans="1:3">
+      <c r="A476" s="2">
         <v>67</v>
       </c>
-      <c r="B458" s="42" t="s">
+      <c r="B476" s="42" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="459" spans="1:12">
-      <c r="C459" s="42" t="s">
+    <row r="477" spans="1:3">
+      <c r="C477" s="42" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="461" spans="1:12">
-      <c r="A461" s="48">
+    <row r="479" spans="1:3">
+      <c r="A479" s="48">
         <v>68</v>
       </c>
-      <c r="B461" s="57" t="s">
+      <c r="B479" s="57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="462" spans="1:12">
-      <c r="C462" s="57" t="s">
+    <row r="480" spans="1:3">
+      <c r="C480" s="57" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="463" spans="1:12">
-      <c r="B463" t="s">
+    <row r="481" spans="1:22">
+      <c r="B481" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="464" spans="1:12">
-      <c r="C464" t="s">
+    <row r="482" spans="1:22">
+      <c r="C482" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="465" spans="1:22">
-      <c r="B465" t="s">
+    <row r="483" spans="1:22">
+      <c r="B483" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="466" spans="1:22">
-      <c r="C466" t="s">
+    <row r="484" spans="1:22">
+      <c r="C484" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="467" spans="1:22">
-      <c r="B467" t="s">
+    <row r="485" spans="1:22">
+      <c r="B485" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="468" spans="1:22">
-      <c r="C468" t="s">
+    <row r="486" spans="1:22">
+      <c r="C486" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="469" spans="1:22">
-      <c r="C469" s="62" t="s">
+    <row r="487" spans="1:22">
+      <c r="C487" s="62" t="s">
         <v>1044</v>
       </c>
-      <c r="D469" s="116"/>
-      <c r="E469" s="116"/>
-      <c r="F469" s="116"/>
-      <c r="G469" s="177" t="s">
+      <c r="D487" s="116"/>
+      <c r="E487" s="116"/>
+      <c r="F487" s="116"/>
+      <c r="G487" s="177" t="s">
         <v>136</v>
       </c>
-      <c r="H469" s="5" t="s">
+      <c r="H487" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I469" s="63"/>
-      <c r="J469" s="63"/>
-      <c r="K469" s="63"/>
-      <c r="L469" s="63"/>
-      <c r="M469" s="63"/>
-      <c r="N469" s="63"/>
-      <c r="O469" s="63"/>
-      <c r="P469" s="63"/>
-      <c r="Q469" s="63"/>
-      <c r="R469" s="62" t="s">
+      <c r="I487" s="63"/>
+      <c r="J487" s="63"/>
+      <c r="K487" s="63"/>
+      <c r="L487" s="63"/>
+      <c r="M487" s="63"/>
+      <c r="N487" s="63"/>
+      <c r="O487" s="63"/>
+      <c r="P487" s="63"/>
+      <c r="Q487" s="63"/>
+      <c r="R487" s="62" t="s">
         <v>1507</v>
       </c>
-      <c r="S469" s="116"/>
-      <c r="T469" s="116"/>
-      <c r="U469" s="116"/>
-      <c r="V469" s="6"/>
-    </row>
-    <row r="470" spans="1:22">
-      <c r="C470" s="65" t="s">
+      <c r="S487" s="116"/>
+      <c r="T487" s="116"/>
+      <c r="U487" s="116"/>
+      <c r="V487" s="6"/>
+    </row>
+    <row r="488" spans="1:22">
+      <c r="C488" s="65" t="s">
         <v>1505</v>
       </c>
-      <c r="D470" s="117"/>
-      <c r="E470" s="117"/>
-      <c r="F470" s="117"/>
-      <c r="G470" s="13" t="s">
+      <c r="D488" s="117"/>
+      <c r="E488" s="117"/>
+      <c r="F488" s="117"/>
+      <c r="G488" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="H470" s="8" t="s">
+      <c r="H488" s="8" t="s">
         <v>1508</v>
       </c>
-      <c r="R470" s="7" t="s">
+      <c r="R488" s="7" t="s">
         <v>1509</v>
       </c>
-      <c r="S470" s="117"/>
-      <c r="T470" s="117"/>
-      <c r="U470" s="117"/>
-      <c r="V470" s="2"/>
-    </row>
-    <row r="471" spans="1:22">
-      <c r="C471" s="65" t="s">
+      <c r="S488" s="117"/>
+      <c r="T488" s="117"/>
+      <c r="U488" s="117"/>
+      <c r="V488" s="2"/>
+    </row>
+    <row r="489" spans="1:22">
+      <c r="C489" s="65" t="s">
         <v>1514</v>
       </c>
-      <c r="D471" s="117"/>
-      <c r="E471" s="117"/>
-      <c r="F471" s="117"/>
-      <c r="G471" s="13" t="s">
+      <c r="D489" s="117"/>
+      <c r="E489" s="117"/>
+      <c r="F489" s="117"/>
+      <c r="G489" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="H471" s="8" t="s">
+      <c r="H489" s="8" t="s">
         <v>1510</v>
       </c>
-      <c r="R471" s="7" t="s">
+      <c r="R489" s="7" t="s">
         <v>1511</v>
       </c>
-      <c r="S471" s="117"/>
-      <c r="T471" s="117"/>
-      <c r="U471" s="117"/>
-      <c r="V471" s="2"/>
-    </row>
-    <row r="472" spans="1:22" ht="63.6" customHeight="1">
-      <c r="C472" s="66" t="s">
+      <c r="S489" s="117"/>
+      <c r="T489" s="117"/>
+      <c r="U489" s="117"/>
+      <c r="V489" s="2"/>
+    </row>
+    <row r="490" spans="1:22" ht="63.6" customHeight="1">
+      <c r="C490" s="66" t="s">
         <v>1501</v>
       </c>
-      <c r="D472" s="119"/>
-      <c r="E472" s="119"/>
-      <c r="F472" s="119"/>
-      <c r="G472" s="14" t="s">
+      <c r="D490" s="119"/>
+      <c r="E490" s="119"/>
+      <c r="F490" s="119"/>
+      <c r="G490" s="14" t="s">
         <v>1512</v>
       </c>
-      <c r="H472" s="193" t="s">
+      <c r="H490" s="206" t="s">
         <v>1515</v>
       </c>
-      <c r="I472" s="192"/>
-      <c r="J472" s="192"/>
-      <c r="K472" s="192"/>
-      <c r="L472" s="192"/>
-      <c r="M472" s="192"/>
-      <c r="N472" s="192"/>
-      <c r="O472" s="192"/>
-      <c r="P472" s="192"/>
-      <c r="Q472" s="194"/>
-      <c r="R472" s="76" t="s">
+      <c r="I490" s="205"/>
+      <c r="J490" s="205"/>
+      <c r="K490" s="205"/>
+      <c r="L490" s="205"/>
+      <c r="M490" s="205"/>
+      <c r="N490" s="205"/>
+      <c r="O490" s="205"/>
+      <c r="P490" s="205"/>
+      <c r="Q490" s="207"/>
+      <c r="R490" s="76" t="s">
         <v>1513</v>
       </c>
-      <c r="S472" s="119"/>
-      <c r="T472" s="119"/>
-      <c r="U472" s="119"/>
-      <c r="V472" s="12"/>
-    </row>
-    <row r="474" spans="1:22">
-      <c r="A474" s="2">
+      <c r="S490" s="119"/>
+      <c r="T490" s="119"/>
+      <c r="U490" s="119"/>
+      <c r="V490" s="12"/>
+    </row>
+    <row r="492" spans="1:22">
+      <c r="A492" s="2">
         <v>69</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B492" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="475" spans="1:22">
-      <c r="C475" t="s">
+    <row r="493" spans="1:22">
+      <c r="C493" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="476" spans="1:22">
-      <c r="C476" t="s">
+    <row r="494" spans="1:22">
+      <c r="C494" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="477" spans="1:22">
-      <c r="C477" t="s">
+    <row r="495" spans="1:22">
+      <c r="C495" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="478" spans="1:22">
-      <c r="D478" s="3" t="s">
+    <row r="496" spans="1:22">
+      <c r="D496" s="3" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="479" spans="1:22">
-      <c r="D479" s="121" t="s">
+    <row r="497" spans="1:4">
+      <c r="D497" s="121" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="480" spans="1:22">
-      <c r="C480" s="57" t="s">
+    <row r="498" spans="1:4">
+      <c r="C498" s="57" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
-      <c r="A482" s="2">
+    <row r="500" spans="1:4">
+      <c r="A500" s="2">
         <v>70</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B500" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
-      <c r="B483" s="42" t="s">
+    <row r="501" spans="1:4">
+      <c r="B501" s="42" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
-      <c r="B484" s="42" t="s">
+    <row r="502" spans="1:4">
+      <c r="B502" s="42" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
-      <c r="C485" t="s">
+    <row r="503" spans="1:4">
+      <c r="C503" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
-      <c r="C486" t="s">
+    <row r="504" spans="1:4">
+      <c r="C504" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -39459,7 +44775,7 @@
   <mergeCells count="3">
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="L26:P26"/>
-    <mergeCell ref="H472:Q472"/>
+    <mergeCell ref="H490:Q490"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -39472,10 +44788,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5445594A-5403-4CAD-87F9-605F34E844E1}">
-  <dimension ref="A2:Y455"/>
+  <dimension ref="A2:Y457"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A415" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S426" sqref="S426"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -40971,19 +46287,17 @@
       <c r="C310" s="83" t="s">
         <v>1777</v>
       </c>
-      <c r="D310" s="195"/>
-      <c r="E310" s="195"/>
       <c r="F310" s="9" t="s">
         <v>1778</v>
       </c>
-      <c r="G310" s="196"/>
+      <c r="G310" s="117"/>
       <c r="H310" s="126"/>
       <c r="I310" s="9" t="s">
         <v>1779</v>
       </c>
-      <c r="J310" s="196"/>
+      <c r="J310" s="117"/>
       <c r="K310" s="126"/>
-      <c r="L310" s="197" t="s">
+      <c r="L310" s="8" t="s">
         <v>1780</v>
       </c>
       <c r="M310" s="126"/>
@@ -41057,54 +46371,2237 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="421" spans="2:3">
+    <row r="412" spans="9:9">
+      <c r="I412" s="42" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="417" spans="2:9">
+      <c r="I417" s="42" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="421" spans="2:9">
       <c r="B421" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="422" spans="2:3">
+    <row r="422" spans="2:9">
       <c r="C422" s="42" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="423" spans="2:3">
+    <row r="423" spans="2:9">
       <c r="C423" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="449" spans="2:3">
+    <row r="449" spans="2:9">
       <c r="C449" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="450" spans="2:3">
+    <row r="450" spans="2:9">
       <c r="C450" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="452" spans="2:3">
+    <row r="452" spans="2:9">
       <c r="B452" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="453" spans="2:3">
+    <row r="453" spans="2:9">
       <c r="C453" s="57" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="454" spans="2:3">
+    <row r="454" spans="2:9">
       <c r="C454" s="73" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="455" spans="2:3">
+    <row r="455" spans="2:9">
       <c r="C455" t="s">
         <v>1798</v>
       </c>
+    </row>
+    <row r="456" spans="2:9">
+      <c r="C456" s="184" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G456" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I456" s="71" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="457" spans="2:9">
+      <c r="C457" s="121"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DC501F-2F2E-4546-B7B2-53C5C0E272C6}">
+  <dimension ref="A2:AH492"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A483" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W499" sqref="W499"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" s="3" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" s="73" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="73" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="73" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="73" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" s="121" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="73" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="73" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="73" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="73" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="73" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44" s="140" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="62" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G44" s="63"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="149" t="s">
+        <v>1827</v>
+      </c>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" s="82" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F45" s="83" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="121" t="s">
+        <v>1830</v>
+      </c>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" s="82" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F46" s="83" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="121" t="s">
+        <v>1833</v>
+      </c>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47" s="84" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="85" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G47" s="67"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="150" t="s">
+        <v>1836</v>
+      </c>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="50" spans="13:13">
+      <c r="M50" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="C72" s="3" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="C73" s="185" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="186" t="s">
+        <v>279</v>
+      </c>
+      <c r="E73" s="187" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="37.5">
+      <c r="C74" s="188" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D74" s="175" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E74" s="189" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="56.25">
+      <c r="C75" s="190" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D75" s="191" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E75" s="192" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="C96" s="3" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="77" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14">
+      <c r="C129" s="42" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14">
+      <c r="C130" s="140" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D130" s="63"/>
+      <c r="E130" s="63"/>
+      <c r="F130" s="149" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G130" s="63"/>
+      <c r="H130" s="63"/>
+      <c r="I130" s="63"/>
+      <c r="J130" s="63"/>
+      <c r="K130" s="149" t="s">
+        <v>1852</v>
+      </c>
+      <c r="L130" s="63"/>
+      <c r="M130" s="63"/>
+      <c r="N130" s="6"/>
+    </row>
+    <row r="131" spans="2:14">
+      <c r="C131" s="83" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F131" s="121" t="s">
+        <v>719</v>
+      </c>
+      <c r="K131" s="121" t="s">
+        <v>1854</v>
+      </c>
+      <c r="N131" s="2"/>
+    </row>
+    <row r="132" spans="2:14">
+      <c r="C132" s="83" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F132" s="121" t="s">
+        <v>1856</v>
+      </c>
+      <c r="K132" s="121" t="s">
+        <v>1857</v>
+      </c>
+      <c r="N132" s="2"/>
+    </row>
+    <row r="133" spans="2:14">
+      <c r="C133" s="83" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F133" s="121" t="s">
+        <v>1859</v>
+      </c>
+      <c r="K133" s="121" t="s">
+        <v>1860</v>
+      </c>
+      <c r="N133" s="2"/>
+    </row>
+    <row r="134" spans="2:14">
+      <c r="C134" s="83" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F134" s="121" t="s">
+        <v>1862</v>
+      </c>
+      <c r="K134" s="121" t="s">
+        <v>1863</v>
+      </c>
+      <c r="N134" s="2"/>
+    </row>
+    <row r="135" spans="2:14">
+      <c r="C135" s="85" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="150" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G135" s="67"/>
+      <c r="H135" s="67"/>
+      <c r="I135" s="67"/>
+      <c r="J135" s="67"/>
+      <c r="K135" s="150" t="s">
+        <v>1866</v>
+      </c>
+      <c r="L135" s="67"/>
+      <c r="M135" s="67"/>
+      <c r="N135" s="12"/>
+    </row>
+    <row r="137" spans="2:14">
+      <c r="B137" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14">
+      <c r="C138" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14">
+      <c r="C139" s="73" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14">
+      <c r="B140" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C140" s="121"/>
+    </row>
+    <row r="141" spans="2:14">
+      <c r="C141" s="3" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14">
+      <c r="C142" s="73" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17">
+      <c r="A184" s="2">
+        <v>86</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
+      <c r="C186" s="140" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D186" s="140" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E186" s="6"/>
+      <c r="F186" s="149" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G186" s="63"/>
+      <c r="H186" s="63"/>
+      <c r="I186" s="63"/>
+      <c r="J186" s="63"/>
+      <c r="K186" s="63"/>
+      <c r="L186" s="63"/>
+      <c r="M186" s="63"/>
+      <c r="N186" s="63"/>
+      <c r="O186" s="63"/>
+      <c r="P186" s="63"/>
+      <c r="Q186" s="6"/>
+    </row>
+    <row r="187" spans="1:17">
+      <c r="C187" s="82" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D187" s="99" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" s="121" t="s">
+        <v>1880</v>
+      </c>
+      <c r="Q187" s="2"/>
+    </row>
+    <row r="188" spans="1:17">
+      <c r="C188" s="82" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D188" s="99" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" s="121" t="s">
+        <v>1895</v>
+      </c>
+      <c r="Q188" s="2"/>
+    </row>
+    <row r="189" spans="1:17">
+      <c r="C189" s="82"/>
+      <c r="D189" s="99"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="42" t="s">
+        <v>1896</v>
+      </c>
+      <c r="Q189" s="2"/>
+    </row>
+    <row r="190" spans="1:17">
+      <c r="C190" s="84" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D190" s="85" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E190" s="12"/>
+      <c r="F190" s="168" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G190" s="67"/>
+      <c r="H190" s="67"/>
+      <c r="I190" s="67"/>
+      <c r="J190" s="67"/>
+      <c r="K190" s="67"/>
+      <c r="L190" s="67"/>
+      <c r="M190" s="67"/>
+      <c r="N190" s="67"/>
+      <c r="O190" s="67"/>
+      <c r="P190" s="67"/>
+      <c r="Q190" s="12"/>
+    </row>
+    <row r="192" spans="1:17">
+      <c r="B192" s="57" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14">
+      <c r="C193" s="57" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14">
+      <c r="C194" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14">
+      <c r="C195" s="136" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14">
+      <c r="C196" s="136" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14">
+      <c r="C197" s="62" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D197" s="116"/>
+      <c r="E197" s="62" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F197" s="116"/>
+      <c r="G197" s="125"/>
+    </row>
+    <row r="198" spans="2:14">
+      <c r="C198" s="99" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D198" s="117"/>
+      <c r="E198" s="7" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F198" s="117"/>
+      <c r="G198" s="126"/>
+    </row>
+    <row r="199" spans="2:14">
+      <c r="C199" s="99" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D199" s="117"/>
+      <c r="E199" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F199" s="117"/>
+      <c r="G199" s="126"/>
+    </row>
+    <row r="200" spans="2:14">
+      <c r="C200" s="99" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D200" s="117"/>
+      <c r="E200" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F200" s="117"/>
+      <c r="G200" s="126"/>
+    </row>
+    <row r="201" spans="2:14">
+      <c r="C201" s="99" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D201" s="117"/>
+      <c r="E201" s="7" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F201" s="117"/>
+      <c r="G201" s="126"/>
+    </row>
+    <row r="202" spans="2:14">
+      <c r="C202" s="140" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D202" s="149" t="s">
+        <v>138</v>
+      </c>
+      <c r="E202" s="63"/>
+      <c r="F202" s="63"/>
+      <c r="G202" s="63"/>
+      <c r="H202" s="149" t="s">
+        <v>277</v>
+      </c>
+      <c r="I202" s="63"/>
+      <c r="J202" s="63"/>
+      <c r="K202" s="63"/>
+      <c r="L202" s="149" t="s">
+        <v>1909</v>
+      </c>
+      <c r="M202" s="63"/>
+      <c r="N202" s="6"/>
+    </row>
+    <row r="203" spans="2:14">
+      <c r="C203" s="99" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D203" s="121" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H203" s="129" t="s">
+        <v>1902</v>
+      </c>
+      <c r="L203" s="121" t="s">
+        <v>1911</v>
+      </c>
+      <c r="N203" s="2"/>
+    </row>
+    <row r="204" spans="2:14">
+      <c r="C204" s="195" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D204" s="184" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E204" s="43"/>
+      <c r="F204" s="43"/>
+      <c r="G204" s="43"/>
+      <c r="H204" s="130" t="s">
+        <v>1913</v>
+      </c>
+      <c r="I204" s="43"/>
+      <c r="J204" s="43"/>
+      <c r="K204" s="43"/>
+      <c r="L204" s="184" t="s">
+        <v>1914</v>
+      </c>
+      <c r="M204" s="43"/>
+      <c r="N204" s="196"/>
+    </row>
+    <row r="205" spans="2:14">
+      <c r="C205" s="99" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D205" s="121" t="s">
+        <v>1916</v>
+      </c>
+      <c r="H205" s="129" t="s">
+        <v>1917</v>
+      </c>
+      <c r="L205" s="121" t="s">
+        <v>1918</v>
+      </c>
+      <c r="N205" s="2"/>
+    </row>
+    <row r="206" spans="2:14">
+      <c r="C206" s="101" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D206" s="150" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E206" s="67"/>
+      <c r="F206" s="67"/>
+      <c r="G206" s="67"/>
+      <c r="H206" s="193" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I206" s="67"/>
+      <c r="J206" s="67"/>
+      <c r="K206" s="67"/>
+      <c r="L206" s="150" t="s">
+        <v>1922</v>
+      </c>
+      <c r="M206" s="67"/>
+      <c r="N206" s="12"/>
+    </row>
+    <row r="207" spans="2:14">
+      <c r="C207" s="136"/>
+    </row>
+    <row r="208" spans="2:14" ht="19.5">
+      <c r="B208" s="194" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="C209" s="121" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="C210" s="129" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="C211" s="174" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
+        <v>87</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="C213" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="C218" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="C219" s="121" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="C220" s="124" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D220" s="124" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="C221" s="121" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D221" s="121" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="C222" s="121" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D222" s="121" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="B224" s="57" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="3" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
+        <v>88</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="C277" s="166" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="306" spans="2:34">
+      <c r="B306" s="42" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="307" spans="2:34">
+      <c r="C307" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="308" spans="2:34" ht="19.5">
+      <c r="C308" s="162" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="309" spans="2:34">
+      <c r="C309" s="209" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="310" spans="2:34">
+      <c r="C310" s="208" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="311" spans="2:34">
+      <c r="C311" s="73" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="312" spans="2:34">
+      <c r="C312" s="73" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="313" spans="2:34">
+      <c r="C313" s="73" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="314" spans="2:34" ht="21">
+      <c r="C314" s="210" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="315" spans="2:34">
+      <c r="D315" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="316" spans="2:34">
+      <c r="D316" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="317" spans="2:34">
+      <c r="D317" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="318" spans="2:34">
+      <c r="D318" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="319" spans="2:34">
+      <c r="C319" s="210" t="s">
+        <v>1953</v>
+      </c>
+      <c r="S319" s="140" t="s">
+        <v>1954</v>
+      </c>
+      <c r="T319" s="63"/>
+      <c r="U319" s="63"/>
+      <c r="V319" s="63"/>
+      <c r="W319" s="140" t="s">
+        <v>1955</v>
+      </c>
+      <c r="X319" s="6"/>
+      <c r="Y319" s="149" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Z319" s="63"/>
+      <c r="AA319" s="140" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB319" s="6"/>
+      <c r="AC319" s="149" t="s">
+        <v>1957</v>
+      </c>
+      <c r="AD319" s="63"/>
+      <c r="AE319" s="63"/>
+      <c r="AF319" s="63"/>
+      <c r="AG319" s="63"/>
+      <c r="AH319" s="6"/>
+    </row>
+    <row r="320" spans="2:34">
+      <c r="C320" s="211"/>
+      <c r="S320" s="82" t="s">
+        <v>1958</v>
+      </c>
+      <c r="T320" s="212"/>
+      <c r="U320" s="212"/>
+      <c r="V320" s="212"/>
+      <c r="W320" s="83" t="s">
+        <v>1089</v>
+      </c>
+      <c r="X320" s="2"/>
+      <c r="Y320" s="213" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Z320" s="212"/>
+      <c r="AA320" s="83" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AB320" s="2"/>
+      <c r="AC320" s="213" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AD320" s="212"/>
+      <c r="AE320" s="212"/>
+      <c r="AF320" s="212"/>
+      <c r="AG320" s="212"/>
+      <c r="AH320" s="2"/>
+    </row>
+    <row r="321" spans="3:34">
+      <c r="S321" s="82" t="s">
+        <v>775</v>
+      </c>
+      <c r="T321" s="212"/>
+      <c r="U321" s="212"/>
+      <c r="V321" s="212"/>
+      <c r="W321" s="214" t="s">
+        <v>1980</v>
+      </c>
+      <c r="X321" s="2"/>
+      <c r="Y321" s="213" t="s">
+        <v>1960</v>
+      </c>
+      <c r="Z321" s="212"/>
+      <c r="AA321" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AB321" s="2"/>
+      <c r="AC321" s="213" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AD321" s="212"/>
+      <c r="AE321" s="212"/>
+      <c r="AF321" s="212"/>
+      <c r="AG321" s="212"/>
+      <c r="AH321" s="2"/>
+    </row>
+    <row r="322" spans="3:34">
+      <c r="S322" s="82" t="s">
+        <v>750</v>
+      </c>
+      <c r="T322" s="212"/>
+      <c r="U322" s="212"/>
+      <c r="V322" s="212"/>
+      <c r="W322" s="214" t="s">
+        <v>1980</v>
+      </c>
+      <c r="X322" s="2"/>
+      <c r="Y322" s="213" t="s">
+        <v>1960</v>
+      </c>
+      <c r="Z322" s="212"/>
+      <c r="AA322" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AB322" s="2"/>
+      <c r="AC322" s="213" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AD322" s="212"/>
+      <c r="AE322" s="212"/>
+      <c r="AF322" s="212"/>
+      <c r="AG322" s="212"/>
+      <c r="AH322" s="2"/>
+    </row>
+    <row r="323" spans="3:34">
+      <c r="S323" s="82" t="s">
+        <v>1084</v>
+      </c>
+      <c r="T323" s="212"/>
+      <c r="U323" s="212"/>
+      <c r="V323" s="212"/>
+      <c r="W323" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X323" s="2"/>
+      <c r="Y323" s="213" t="s">
+        <v>1960</v>
+      </c>
+      <c r="Z323" s="212"/>
+      <c r="AA323" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AB323" s="2"/>
+      <c r="AC323" s="213" t="s">
+        <v>1963</v>
+      </c>
+      <c r="AD323" s="212"/>
+      <c r="AE323" s="212"/>
+      <c r="AF323" s="212"/>
+      <c r="AG323" s="212"/>
+      <c r="AH323" s="2"/>
+    </row>
+    <row r="324" spans="3:34">
+      <c r="S324" s="82" t="s">
+        <v>1964</v>
+      </c>
+      <c r="T324" s="212"/>
+      <c r="U324" s="212"/>
+      <c r="V324" s="212"/>
+      <c r="W324" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X324" s="2"/>
+      <c r="Y324" s="213" t="s">
+        <v>1960</v>
+      </c>
+      <c r="Z324" s="212"/>
+      <c r="AA324" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AB324" s="2"/>
+      <c r="AC324" s="213" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AD324" s="212"/>
+      <c r="AE324" s="212"/>
+      <c r="AF324" s="212"/>
+      <c r="AG324" s="212"/>
+      <c r="AH324" s="2"/>
+    </row>
+    <row r="325" spans="3:34">
+      <c r="S325" s="82" t="s">
+        <v>1966</v>
+      </c>
+      <c r="T325" s="212"/>
+      <c r="U325" s="212"/>
+      <c r="V325" s="212"/>
+      <c r="W325" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X325" s="2"/>
+      <c r="Y325" s="213" t="s">
+        <v>1960</v>
+      </c>
+      <c r="Z325" s="212"/>
+      <c r="AA325" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AB325" s="2"/>
+      <c r="AC325" s="213" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AD325" s="212"/>
+      <c r="AE325" s="212"/>
+      <c r="AF325" s="212"/>
+      <c r="AG325" s="212"/>
+      <c r="AH325" s="2"/>
+    </row>
+    <row r="326" spans="3:34">
+      <c r="S326" s="82" t="s">
+        <v>1968</v>
+      </c>
+      <c r="T326" s="212"/>
+      <c r="U326" s="212"/>
+      <c r="V326" s="212"/>
+      <c r="W326" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X326" s="2"/>
+      <c r="Y326" s="213" t="s">
+        <v>1960</v>
+      </c>
+      <c r="Z326" s="212"/>
+      <c r="AA326" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AB326" s="2"/>
+      <c r="AC326" s="213" t="s">
+        <v>1969</v>
+      </c>
+      <c r="AD326" s="212"/>
+      <c r="AE326" s="212"/>
+      <c r="AF326" s="212"/>
+      <c r="AG326" s="212"/>
+      <c r="AH326" s="2"/>
+    </row>
+    <row r="327" spans="3:34">
+      <c r="S327" s="82" t="s">
+        <v>1970</v>
+      </c>
+      <c r="T327" s="212"/>
+      <c r="U327" s="212"/>
+      <c r="V327" s="212"/>
+      <c r="W327" s="83" t="s">
+        <v>1971</v>
+      </c>
+      <c r="X327" s="2"/>
+      <c r="Y327" s="213" t="s">
+        <v>1960</v>
+      </c>
+      <c r="Z327" s="212"/>
+      <c r="AA327" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AB327" s="2"/>
+      <c r="AC327" s="213" t="s">
+        <v>1972</v>
+      </c>
+      <c r="AD327" s="212"/>
+      <c r="AE327" s="212"/>
+      <c r="AF327" s="212"/>
+      <c r="AG327" s="212"/>
+      <c r="AH327" s="2"/>
+    </row>
+    <row r="328" spans="3:34">
+      <c r="S328" s="82" t="s">
+        <v>1973</v>
+      </c>
+      <c r="T328" s="212"/>
+      <c r="U328" s="212"/>
+      <c r="V328" s="212"/>
+      <c r="W328" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X328" s="2"/>
+      <c r="Y328" s="213" t="s">
+        <v>1960</v>
+      </c>
+      <c r="Z328" s="212"/>
+      <c r="AA328" s="83" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AB328" s="2"/>
+      <c r="AC328" s="213" t="s">
+        <v>1974</v>
+      </c>
+      <c r="AD328" s="212"/>
+      <c r="AE328" s="212"/>
+      <c r="AF328" s="212"/>
+      <c r="AG328" s="212"/>
+      <c r="AH328" s="2"/>
+    </row>
+    <row r="329" spans="3:34">
+      <c r="S329" s="82" t="s">
+        <v>1975</v>
+      </c>
+      <c r="T329" s="212"/>
+      <c r="U329" s="212"/>
+      <c r="V329" s="212"/>
+      <c r="W329" s="83" t="s">
+        <v>1976</v>
+      </c>
+      <c r="X329" s="2"/>
+      <c r="Y329" s="213" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Z329" s="212"/>
+      <c r="AA329" s="83" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AB329" s="2"/>
+      <c r="AC329" s="213" t="s">
+        <v>1977</v>
+      </c>
+      <c r="AD329" s="212"/>
+      <c r="AE329" s="212"/>
+      <c r="AF329" s="212"/>
+      <c r="AG329" s="212"/>
+      <c r="AH329" s="2"/>
+    </row>
+    <row r="330" spans="3:34">
+      <c r="S330" s="84" t="s">
+        <v>1978</v>
+      </c>
+      <c r="T330" s="67"/>
+      <c r="U330" s="67"/>
+      <c r="V330" s="67"/>
+      <c r="W330" s="85" t="s">
+        <v>1960</v>
+      </c>
+      <c r="X330" s="12"/>
+      <c r="Y330" s="150" t="s">
+        <v>1960</v>
+      </c>
+      <c r="Z330" s="67"/>
+      <c r="AA330" s="85" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AB330" s="12"/>
+      <c r="AC330" s="150" t="s">
+        <v>1979</v>
+      </c>
+      <c r="AD330" s="67"/>
+      <c r="AE330" s="67"/>
+      <c r="AF330" s="67"/>
+      <c r="AG330" s="67"/>
+      <c r="AH330" s="12"/>
+    </row>
+    <row r="331" spans="3:34">
+      <c r="C331" s="44"/>
+    </row>
+    <row r="333" spans="3:34">
+      <c r="C333" s="3" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="334" spans="3:34">
+      <c r="D334" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4">
+      <c r="C350" s="3" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4">
+      <c r="D351" s="42" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
+        <v>89</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="C363" s="3" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="C364" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="D365" s="73" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="C366" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="D367" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="D368" s="73" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12">
+      <c r="C369" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12">
+      <c r="D370" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12">
+      <c r="D371" s="121" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12">
+      <c r="C372" s="62" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D372" s="116"/>
+      <c r="E372" s="62" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F372" s="63"/>
+      <c r="G372" s="63"/>
+      <c r="H372" s="6"/>
+      <c r="I372" s="5" t="s">
+        <v>1993</v>
+      </c>
+      <c r="J372" s="116"/>
+      <c r="K372" s="116"/>
+      <c r="L372" s="125"/>
+    </row>
+    <row r="373" spans="1:12">
+      <c r="C373" s="9" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D373" s="215"/>
+      <c r="E373" s="9" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F373" s="212"/>
+      <c r="G373" s="212"/>
+      <c r="H373" s="2"/>
+      <c r="I373" s="216" t="s">
+        <v>1996</v>
+      </c>
+      <c r="J373" s="215"/>
+      <c r="K373" s="215"/>
+      <c r="L373" s="126"/>
+    </row>
+    <row r="374" spans="1:12">
+      <c r="C374" s="9" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D374" s="215"/>
+      <c r="E374" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F374" s="212"/>
+      <c r="G374" s="212"/>
+      <c r="H374" s="2"/>
+      <c r="I374" s="217" t="s">
+        <v>1999</v>
+      </c>
+      <c r="J374" s="215"/>
+      <c r="K374" s="215"/>
+      <c r="L374" s="126"/>
+    </row>
+    <row r="375" spans="1:12">
+      <c r="C375" s="9" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D375" s="215"/>
+      <c r="E375" s="9" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F375" s="212"/>
+      <c r="G375" s="212"/>
+      <c r="H375" s="2"/>
+      <c r="I375" s="216" t="s">
+        <v>2002</v>
+      </c>
+      <c r="J375" s="215"/>
+      <c r="K375" s="215"/>
+      <c r="L375" s="126"/>
+    </row>
+    <row r="376" spans="1:12">
+      <c r="C376" s="9" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D376" s="215"/>
+      <c r="E376" s="9" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F376" s="212"/>
+      <c r="G376" s="212"/>
+      <c r="H376" s="2"/>
+      <c r="I376" s="216" t="s">
+        <v>2005</v>
+      </c>
+      <c r="J376" s="215"/>
+      <c r="K376" s="215"/>
+      <c r="L376" s="126"/>
+    </row>
+    <row r="377" spans="1:12">
+      <c r="C377" s="10" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D377" s="119"/>
+      <c r="E377" s="10" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F377" s="67"/>
+      <c r="G377" s="67"/>
+      <c r="H377" s="12"/>
+      <c r="I377" s="11" t="s">
+        <v>2008</v>
+      </c>
+      <c r="J377" s="119"/>
+      <c r="K377" s="119"/>
+      <c r="L377" s="127"/>
+    </row>
+    <row r="379" spans="1:12">
+      <c r="A379" s="2">
+        <v>90</v>
+      </c>
+      <c r="B379" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
+      <c r="C380" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12">
+      <c r="C381" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12">
+      <c r="D382" s="132" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12">
+      <c r="D383" s="132" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12">
+      <c r="D384" s="133" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="386" spans="2:11">
+      <c r="C386" s="218" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D386" s="218"/>
+    </row>
+    <row r="387" spans="2:11">
+      <c r="C387" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D387" s="116"/>
+      <c r="E387" s="116"/>
+      <c r="F387" s="116"/>
+      <c r="G387" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H387" s="116"/>
+      <c r="I387" s="116"/>
+      <c r="J387" s="116"/>
+      <c r="K387" s="125"/>
+    </row>
+    <row r="388" spans="2:11">
+      <c r="C388" s="65" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D388" s="215"/>
+      <c r="E388" s="215"/>
+      <c r="F388" s="215"/>
+      <c r="G388" s="216" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H388" s="215"/>
+      <c r="I388" s="215"/>
+      <c r="J388" s="215"/>
+      <c r="K388" s="126"/>
+    </row>
+    <row r="389" spans="2:11">
+      <c r="C389" s="65" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D389" s="215"/>
+      <c r="E389" s="215"/>
+      <c r="F389" s="215"/>
+      <c r="G389" s="216" t="s">
+        <v>2017</v>
+      </c>
+      <c r="H389" s="215"/>
+      <c r="I389" s="215"/>
+      <c r="J389" s="215"/>
+      <c r="K389" s="126"/>
+    </row>
+    <row r="390" spans="2:11">
+      <c r="C390" s="65" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D390" s="215"/>
+      <c r="E390" s="215"/>
+      <c r="F390" s="215"/>
+      <c r="G390" s="216" t="s">
+        <v>2019</v>
+      </c>
+      <c r="H390" s="215"/>
+      <c r="I390" s="215"/>
+      <c r="J390" s="215"/>
+      <c r="K390" s="126"/>
+    </row>
+    <row r="391" spans="2:11">
+      <c r="C391" s="66" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D391" s="119"/>
+      <c r="E391" s="119"/>
+      <c r="F391" s="119"/>
+      <c r="G391" s="11" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H391" s="119"/>
+      <c r="I391" s="119"/>
+      <c r="J391" s="119"/>
+      <c r="K391" s="127"/>
+    </row>
+    <row r="393" spans="2:11">
+      <c r="B393" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="394" spans="2:11">
+      <c r="C394" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="395" spans="2:11">
+      <c r="C395" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="396" spans="2:11">
+      <c r="C396" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="397" spans="2:11">
+      <c r="C397" s="73" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="398" spans="2:11">
+      <c r="C398" s="73" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="399" spans="2:11">
+      <c r="C399" s="73" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="400" spans="2:11">
+      <c r="C400" s="57" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="401" spans="2:10">
+      <c r="C401" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="403" spans="2:10">
+      <c r="B403" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="404" spans="2:10">
+      <c r="C404" s="3" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="405" spans="2:10">
+      <c r="C405" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="406" spans="2:10">
+      <c r="D406" s="77" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="407" spans="2:10">
+      <c r="B407" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="408" spans="2:10">
+      <c r="C408" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="409" spans="2:10">
+      <c r="C409" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="410" spans="2:10">
+      <c r="C410" s="140" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D410" s="63"/>
+      <c r="E410" s="149" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F410" s="63"/>
+      <c r="G410" s="63"/>
+      <c r="H410" s="149" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I410" s="63"/>
+      <c r="J410" s="6"/>
+    </row>
+    <row r="411" spans="2:10">
+      <c r="C411" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="D411" s="212"/>
+      <c r="E411" s="213" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F411" s="212"/>
+      <c r="G411" s="212"/>
+      <c r="H411" s="213" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I411" s="212"/>
+      <c r="J411" s="2"/>
+    </row>
+    <row r="412" spans="2:10">
+      <c r="C412" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="D412" s="212"/>
+      <c r="E412" s="213" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F412" s="212"/>
+      <c r="G412" s="212"/>
+      <c r="H412" s="213" t="s">
+        <v>2041</v>
+      </c>
+      <c r="I412" s="212"/>
+      <c r="J412" s="2"/>
+    </row>
+    <row r="413" spans="2:10">
+      <c r="C413" s="83" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D413" s="212"/>
+      <c r="E413" s="213" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F413" s="212"/>
+      <c r="G413" s="212"/>
+      <c r="H413" s="213" t="s">
+        <v>2044</v>
+      </c>
+      <c r="I413" s="212"/>
+      <c r="J413" s="2"/>
+    </row>
+    <row r="414" spans="2:10">
+      <c r="C414" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="D414" s="67"/>
+      <c r="E414" s="150" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F414" s="67"/>
+      <c r="G414" s="67"/>
+      <c r="H414" s="150" t="s">
+        <v>2046</v>
+      </c>
+      <c r="I414" s="67"/>
+      <c r="J414" s="12"/>
+    </row>
+    <row r="416" spans="2:10">
+      <c r="B416" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D416" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11">
+      <c r="C417" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11">
+      <c r="C418" s="140" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D418" s="63"/>
+      <c r="E418" s="63"/>
+      <c r="F418" s="149" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G418" s="63"/>
+      <c r="H418" s="63"/>
+      <c r="I418" s="63"/>
+      <c r="J418" s="63"/>
+      <c r="K418" s="6"/>
+    </row>
+    <row r="419" spans="1:11">
+      <c r="C419" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D419" s="212"/>
+      <c r="E419" s="212"/>
+      <c r="F419" s="219" t="s">
+        <v>2050</v>
+      </c>
+      <c r="G419" s="212"/>
+      <c r="H419" s="212"/>
+      <c r="I419" s="212"/>
+      <c r="J419" s="212"/>
+      <c r="K419" s="2"/>
+    </row>
+    <row r="420" spans="1:11">
+      <c r="C420" s="83" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D420" s="212"/>
+      <c r="E420" s="212"/>
+      <c r="F420" s="213" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G420" s="212"/>
+      <c r="H420" s="212"/>
+      <c r="I420" s="212"/>
+      <c r="J420" s="212"/>
+      <c r="K420" s="2"/>
+    </row>
+    <row r="421" spans="1:11">
+      <c r="C421" s="83" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D421" s="212"/>
+      <c r="E421" s="212"/>
+      <c r="F421" s="213" t="s">
+        <v>2054</v>
+      </c>
+      <c r="G421" s="212"/>
+      <c r="H421" s="212"/>
+      <c r="I421" s="212"/>
+      <c r="J421" s="212"/>
+      <c r="K421" s="2"/>
+    </row>
+    <row r="422" spans="1:11">
+      <c r="C422" s="85" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D422" s="67"/>
+      <c r="E422" s="67"/>
+      <c r="F422" s="150" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G422" s="67"/>
+      <c r="H422" s="67"/>
+      <c r="I422" s="67"/>
+      <c r="J422" s="67"/>
+      <c r="K422" s="12"/>
+    </row>
+    <row r="424" spans="1:11">
+      <c r="A424" s="2">
+        <v>91</v>
+      </c>
+      <c r="B424" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11">
+      <c r="C425" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11">
+      <c r="C426" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="452" spans="2:19">
+      <c r="B452" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="453" spans="2:19">
+      <c r="D453" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E453" s="128"/>
+      <c r="F453" s="128"/>
+      <c r="G453" s="68"/>
+      <c r="H453" s="68"/>
+      <c r="I453" s="15" t="s">
+        <v>2062</v>
+      </c>
+      <c r="J453" s="68"/>
+      <c r="K453" s="18"/>
+      <c r="L453" s="17" t="s">
+        <v>2063</v>
+      </c>
+      <c r="M453" s="128"/>
+      <c r="N453" s="128"/>
+      <c r="O453" s="128"/>
+      <c r="P453" s="153"/>
+      <c r="Q453" s="117"/>
+      <c r="R453" s="117"/>
+      <c r="S453" s="117"/>
+    </row>
+    <row r="454" spans="2:19">
+      <c r="D454" s="65" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E454" s="215"/>
+      <c r="F454" s="215"/>
+      <c r="G454" s="212"/>
+      <c r="H454" s="212"/>
+      <c r="I454" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J454" s="212"/>
+      <c r="K454" s="2"/>
+      <c r="L454" s="216" t="s">
+        <v>2065</v>
+      </c>
+      <c r="M454" s="215"/>
+      <c r="N454" s="215"/>
+      <c r="O454" s="215"/>
+      <c r="P454" s="126"/>
+      <c r="Q454" s="117"/>
+      <c r="R454" s="117"/>
+      <c r="S454" s="117"/>
+    </row>
+    <row r="455" spans="2:19">
+      <c r="D455" s="65" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E455" s="215"/>
+      <c r="F455" s="215"/>
+      <c r="G455" s="212"/>
+      <c r="H455" s="212"/>
+      <c r="I455" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J455" s="212"/>
+      <c r="K455" s="2"/>
+      <c r="L455" s="216" t="s">
+        <v>2067</v>
+      </c>
+      <c r="M455" s="215"/>
+      <c r="N455" s="215"/>
+      <c r="O455" s="215"/>
+      <c r="P455" s="126"/>
+      <c r="Q455" s="117"/>
+      <c r="R455" s="117"/>
+      <c r="S455" s="117"/>
+    </row>
+    <row r="456" spans="2:19">
+      <c r="D456" s="65" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E456" s="215"/>
+      <c r="F456" s="215"/>
+      <c r="G456" s="212"/>
+      <c r="H456" s="212"/>
+      <c r="I456" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J456" s="212"/>
+      <c r="K456" s="2"/>
+      <c r="L456" s="216" t="s">
+        <v>2069</v>
+      </c>
+      <c r="M456" s="215"/>
+      <c r="N456" s="215"/>
+      <c r="O456" s="215"/>
+      <c r="P456" s="126"/>
+      <c r="Q456" s="117"/>
+      <c r="R456" s="117"/>
+      <c r="S456" s="117"/>
+    </row>
+    <row r="457" spans="2:19">
+      <c r="D457" s="65" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E457" s="215"/>
+      <c r="F457" s="215"/>
+      <c r="G457" s="212"/>
+      <c r="H457" s="212"/>
+      <c r="I457" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J457" s="212"/>
+      <c r="K457" s="2"/>
+      <c r="L457" s="216" t="s">
+        <v>2071</v>
+      </c>
+      <c r="M457" s="215"/>
+      <c r="N457" s="215"/>
+      <c r="O457" s="215"/>
+      <c r="P457" s="126"/>
+      <c r="Q457" s="117"/>
+      <c r="R457" s="117"/>
+      <c r="S457" s="117"/>
+    </row>
+    <row r="458" spans="2:19">
+      <c r="D458" s="65" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E458" s="215"/>
+      <c r="F458" s="215"/>
+      <c r="G458" s="212"/>
+      <c r="H458" s="212"/>
+      <c r="I458" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J458" s="212"/>
+      <c r="K458" s="2"/>
+      <c r="L458" s="216" t="s">
+        <v>2073</v>
+      </c>
+      <c r="M458" s="215"/>
+      <c r="N458" s="215"/>
+      <c r="O458" s="215"/>
+      <c r="P458" s="126"/>
+      <c r="Q458" s="117"/>
+      <c r="R458" s="117"/>
+      <c r="S458" s="117"/>
+    </row>
+    <row r="459" spans="2:19">
+      <c r="D459" s="65" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E459" s="215"/>
+      <c r="F459" s="215"/>
+      <c r="G459" s="212"/>
+      <c r="H459" s="212"/>
+      <c r="I459" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J459" s="212"/>
+      <c r="K459" s="2"/>
+      <c r="L459" s="216" t="s">
+        <v>2075</v>
+      </c>
+      <c r="M459" s="215"/>
+      <c r="N459" s="215"/>
+      <c r="O459" s="215"/>
+      <c r="P459" s="126"/>
+      <c r="Q459" s="117"/>
+      <c r="R459" s="117"/>
+      <c r="S459" s="117"/>
+    </row>
+    <row r="460" spans="2:19">
+      <c r="D460" s="65" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E460" s="215"/>
+      <c r="F460" s="215"/>
+      <c r="G460" s="212"/>
+      <c r="H460" s="212"/>
+      <c r="I460" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J460" s="212"/>
+      <c r="K460" s="2"/>
+      <c r="L460" s="216" t="s">
+        <v>2077</v>
+      </c>
+      <c r="M460" s="215"/>
+      <c r="N460" s="215"/>
+      <c r="O460" s="215"/>
+      <c r="P460" s="126"/>
+      <c r="Q460" s="117"/>
+      <c r="R460" s="117"/>
+      <c r="S460" s="117"/>
+    </row>
+    <row r="461" spans="2:19">
+      <c r="D461" s="65" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E461" s="215"/>
+      <c r="F461" s="215"/>
+      <c r="G461" s="212"/>
+      <c r="H461" s="212"/>
+      <c r="I461" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J461" s="212"/>
+      <c r="K461" s="2"/>
+      <c r="L461" s="216" t="s">
+        <v>2079</v>
+      </c>
+      <c r="M461" s="215"/>
+      <c r="N461" s="215"/>
+      <c r="O461" s="215"/>
+      <c r="P461" s="126"/>
+      <c r="Q461" s="117"/>
+      <c r="R461" s="117"/>
+      <c r="S461" s="117"/>
+    </row>
+    <row r="462" spans="2:19">
+      <c r="D462" s="65" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E462" s="215"/>
+      <c r="F462" s="215"/>
+      <c r="G462" s="212"/>
+      <c r="H462" s="212"/>
+      <c r="I462" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J462" s="212"/>
+      <c r="K462" s="2"/>
+      <c r="L462" s="216" t="s">
+        <v>2081</v>
+      </c>
+      <c r="M462" s="215"/>
+      <c r="N462" s="215"/>
+      <c r="O462" s="215"/>
+      <c r="P462" s="126"/>
+      <c r="Q462" s="117"/>
+      <c r="R462" s="117"/>
+      <c r="S462" s="117"/>
+    </row>
+    <row r="463" spans="2:19">
+      <c r="D463" s="65" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E463" s="215"/>
+      <c r="F463" s="215"/>
+      <c r="G463" s="212"/>
+      <c r="H463" s="212"/>
+      <c r="I463" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J463" s="212"/>
+      <c r="K463" s="2"/>
+      <c r="L463" s="216" t="s">
+        <v>2083</v>
+      </c>
+      <c r="M463" s="215"/>
+      <c r="N463" s="215"/>
+      <c r="O463" s="215"/>
+      <c r="P463" s="126"/>
+      <c r="Q463" s="117"/>
+      <c r="R463" s="117"/>
+      <c r="S463" s="117"/>
+    </row>
+    <row r="464" spans="2:19">
+      <c r="D464" s="65" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E464" s="215"/>
+      <c r="F464" s="215"/>
+      <c r="G464" s="212"/>
+      <c r="H464" s="212"/>
+      <c r="I464" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J464" s="212"/>
+      <c r="K464" s="2"/>
+      <c r="L464" s="216" t="s">
+        <v>2085</v>
+      </c>
+      <c r="M464" s="215"/>
+      <c r="N464" s="215"/>
+      <c r="O464" s="215"/>
+      <c r="P464" s="126"/>
+      <c r="Q464" s="117"/>
+      <c r="R464" s="117"/>
+      <c r="S464" s="117"/>
+    </row>
+    <row r="465" spans="2:19">
+      <c r="D465" s="65" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E465" s="215"/>
+      <c r="F465" s="215"/>
+      <c r="G465" s="212"/>
+      <c r="H465" s="212"/>
+      <c r="I465" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="J465" s="212"/>
+      <c r="K465" s="2"/>
+      <c r="L465" s="216" t="s">
+        <v>2087</v>
+      </c>
+      <c r="M465" s="215"/>
+      <c r="N465" s="215"/>
+      <c r="O465" s="215"/>
+      <c r="P465" s="126"/>
+      <c r="Q465" s="117"/>
+      <c r="R465" s="117"/>
+      <c r="S465" s="117"/>
+    </row>
+    <row r="466" spans="2:19">
+      <c r="D466" s="65" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E466" s="215"/>
+      <c r="F466" s="215"/>
+      <c r="G466" s="212"/>
+      <c r="H466" s="212"/>
+      <c r="I466" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="J466" s="212"/>
+      <c r="K466" s="2"/>
+      <c r="L466" s="216" t="s">
+        <v>2089</v>
+      </c>
+      <c r="M466" s="215"/>
+      <c r="N466" s="215"/>
+      <c r="O466" s="215"/>
+      <c r="P466" s="126"/>
+      <c r="Q466" s="117"/>
+      <c r="R466" s="117"/>
+      <c r="S466" s="117"/>
+    </row>
+    <row r="467" spans="2:19">
+      <c r="D467" s="65" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E467" s="215"/>
+      <c r="F467" s="215"/>
+      <c r="G467" s="212"/>
+      <c r="H467" s="212"/>
+      <c r="I467" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="J467" s="212"/>
+      <c r="K467" s="2"/>
+      <c r="L467" s="216" t="s">
+        <v>2091</v>
+      </c>
+      <c r="M467" s="215"/>
+      <c r="N467" s="215"/>
+      <c r="O467" s="215"/>
+      <c r="P467" s="126"/>
+      <c r="Q467" s="117"/>
+      <c r="R467" s="117"/>
+      <c r="S467" s="117"/>
+    </row>
+    <row r="468" spans="2:19">
+      <c r="D468" s="65" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E468" s="215"/>
+      <c r="F468" s="215"/>
+      <c r="G468" s="212"/>
+      <c r="H468" s="212"/>
+      <c r="I468" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J468" s="212"/>
+      <c r="K468" s="2"/>
+      <c r="L468" s="216" t="s">
+        <v>2093</v>
+      </c>
+      <c r="M468" s="215"/>
+      <c r="N468" s="215"/>
+      <c r="O468" s="215"/>
+      <c r="P468" s="126"/>
+      <c r="Q468" s="117"/>
+      <c r="R468" s="117"/>
+      <c r="S468" s="117"/>
+    </row>
+    <row r="469" spans="2:19">
+      <c r="D469" s="66" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E469" s="119"/>
+      <c r="F469" s="119"/>
+      <c r="G469" s="67"/>
+      <c r="H469" s="67"/>
+      <c r="I469" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="J469" s="67"/>
+      <c r="K469" s="12"/>
+      <c r="L469" s="11" t="s">
+        <v>2095</v>
+      </c>
+      <c r="M469" s="119"/>
+      <c r="N469" s="119"/>
+      <c r="O469" s="119"/>
+      <c r="P469" s="127"/>
+      <c r="Q469" s="117"/>
+      <c r="R469" s="117"/>
+      <c r="S469" s="117"/>
+    </row>
+    <row r="471" spans="2:19">
+      <c r="B471" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="472" spans="2:19">
+      <c r="C472" s="218" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="473" spans="2:19">
+      <c r="D473" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="474" spans="2:19">
+      <c r="D474" s="73" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="475" spans="2:19">
+      <c r="D475" s="73" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="2">
+        <v>92</v>
+      </c>
+      <c r="B490" s="42" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="2">
+        <v>93</v>
+      </c>
+      <c r="B491" s="57" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="B492" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>